--- a/VNL Masculino 2025.xlsx
+++ b/VNL Masculino 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09406FD6-F537-457C-8B27-4B92D6841361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA650AB-ED2D-4B15-8F9A-ED413DDE866A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
@@ -22,7 +22,6 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="100">
   <si>
     <t>Primeira Semana</t>
   </si>
@@ -329,9 +328,6 @@
   </si>
   <si>
     <t>Ucrânia</t>
-  </si>
-  <si>
-    <t>Países Baixos</t>
   </si>
   <si>
     <t>Eliminado da VNL 2026</t>
@@ -813,19 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,13 +821,25 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2324,7 +2320,7 @@
   <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,18 +2442,18 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>RANK(E3,$E$3:$E$20)+SUM(S3:V3)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="1">
         <f>SUM(G3*3,H3*3,I3*2,J3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <f>E3+F3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B3)</f>
@@ -2465,7 +2461,7 @@
       </c>
       <c r="F3" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B3,Jogos!AF:AF)</f>
@@ -2481,7 +2477,7 @@
       </c>
       <c r="J3" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B3,Jogos!AP:AP)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B3,Jogos!AQ:AQ)</f>
@@ -2493,11 +2489,11 @@
       </c>
       <c r="M3" s="1">
         <f>SUMIF(Jogos!AB:AB,B3,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B3,Jogos!AN:AN)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N3" s="1">
         <f>SUMIF(Jogos!AB:AB,B3,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B3,Jogos!AO:AO)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O3" s="15">
         <f>IFERROR((M3/N3)*1000,"MAX")</f>
@@ -2505,15 +2501,15 @@
       </c>
       <c r="P3" s="1">
         <f>SUMIF(Jogos!AB:AB,B3,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B3,Jogos!AS:AS)</f>
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="Q3" s="1">
         <f>SUMIF(Jogos!AB:AB,B3,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B3,Jogos!AT:AT)</f>
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="R3" s="15">
         <f t="shared" ref="R3:R20" si="0">IFERROR((P3/Q3)*1000,"MAX")</f>
-        <v>944.95412844036696</v>
+        <v>958.1395348837209</v>
       </c>
       <c r="S3" s="1">
         <f>SUMPRODUCT(($E$3:$E$20=E3)*($C$3:$C$20&gt;C3))</f>
@@ -2549,22 +2545,22 @@
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A20" si="1">RANK(E4,$E$3:$E$20)+SUM(S4:V4)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C20" si="2">SUM(G4*3,H4*3,I4*2,J4)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D20" si="3">E4+F4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B4)</f>
@@ -2580,7 +2576,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B4,Jogos!AH:AH)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B4,Jogos!AP:AP)</f>
@@ -2596,39 +2592,39 @@
       </c>
       <c r="M4" s="1">
         <f>SUMIF(Jogos!AB:AB,B4,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B4,Jogos!AN:AN)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N4" s="1">
         <f>SUMIF(Jogos!AB:AB,B4,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B4,Jogos!AO:AO)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" s="15">
         <f t="shared" ref="O4:O20" si="4">IFERROR((M4/N4)*1000,"MAX")</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="P4" s="1">
         <f>SUMIF(Jogos!AB:AB,B4,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B4,Jogos!AS:AS)</f>
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="1">
         <f>SUMIF(Jogos!AB:AB,B4,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B4,Jogos!AT:AT)</f>
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="R4" s="15">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>989.47368421052624</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" ref="S4:S20" si="5">SUMPRODUCT(($E$3:$E$20=E4)*($C$3:$C$20&gt;C4))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" ref="T4:T20" si="6">SUMPRODUCT(($E$3:$E$20=E4)*($C$3:$C$20=C4)*($O$3:$O$20&gt;O4))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" ref="U4:U20" si="7">SUMPRODUCT(($E$3:$E$20=E4)*($C$3:$C$20=C4)*($O$3:$O$20=O4)*($R$3:$R$20&gt;R4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1">
         <f t="shared" ref="V4:V20" si="8">SUMPRODUCT(($E$3:$E$20=E4)*($C$3:$C$20=C4)*($O$3:$O$20=O4)*($R$3:$R$20=R4)*($W$3:$W$20&lt;W4))</f>
@@ -2648,18 +2644,18 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B5)</f>
@@ -2667,7 +2663,7 @@
       </c>
       <c r="F5" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B5,Jogos!AF:AF)</f>
@@ -2683,7 +2679,7 @@
       </c>
       <c r="J5" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B5,Jogos!AP:AP)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B5,Jogos!AQ:AQ)</f>
@@ -2695,27 +2691,27 @@
       </c>
       <c r="M5" s="1">
         <f>SUMIF(Jogos!AB:AB,B5,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B5,Jogos!AN:AN)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" s="1">
         <f>SUMIF(Jogos!AB:AB,B5,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B5,Jogos!AO:AO)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="15" t="str">
+        <v>3</v>
+      </c>
+      <c r="O5" s="15">
         <f t="shared" si="4"/>
-        <v>MAX</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="P5" s="1">
         <f>SUMIF(Jogos!AB:AB,B5,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B5,Jogos!AS:AS)</f>
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="1">
         <f>SUMIF(Jogos!AB:AB,B5,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B5,Jogos!AT:AT)</f>
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="R5" s="15">
         <f t="shared" si="0"/>
-        <v>1415.0943396226414</v>
+        <v>1154.320987654321</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="5"/>
@@ -2747,7 +2743,7 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>49</v>
@@ -2818,11 +2814,11 @@
       </c>
       <c r="S6" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="7"/>
@@ -2846,18 +2842,18 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B7)</f>
@@ -2865,7 +2861,7 @@
       </c>
       <c r="F7" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B7,Jogos!AF:AF)</f>
@@ -2881,7 +2877,7 @@
       </c>
       <c r="J7" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B7,Jogos!AP:AP)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B7,Jogos!AQ:AQ)</f>
@@ -2893,35 +2889,35 @@
       </c>
       <c r="M7" s="1">
         <f>SUMIF(Jogos!AB:AB,B7,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B7,Jogos!AN:AN)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" s="1">
         <f>SUMIF(Jogos!AB:AB,B7,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B7,Jogos!AO:AO)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O7" s="15">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="P7" s="1">
         <f>SUMIF(Jogos!AB:AB,B7,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B7,Jogos!AS:AS)</f>
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="1">
         <f>SUMIF(Jogos!AB:AB,B7,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B7,Jogos!AT:AT)</f>
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="R7" s="15">
         <f t="shared" si="0"/>
-        <v>1058.2524271844659</v>
+        <v>1039.4088669950738</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="7"/>
@@ -2945,7 +2941,7 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>51</v>
@@ -3016,15 +3012,15 @@
       </c>
       <c r="S8" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="8"/>
@@ -3044,22 +3040,22 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B9)</f>
@@ -3075,7 +3071,7 @@
       </c>
       <c r="I9" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B9,Jogos!AH:AH)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B9,Jogos!AP:AP)</f>
@@ -3091,39 +3087,39 @@
       </c>
       <c r="M9" s="1">
         <f>SUMIF(Jogos!AB:AB,B9,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B9,Jogos!AN:AN)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" s="1">
         <f>SUMIF(Jogos!AB:AB,B9,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B9,Jogos!AO:AO)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="4"/>
-        <v>333.33333333333331</v>
+        <v>800</v>
       </c>
       <c r="P9" s="1">
         <f>SUMIF(Jogos!AB:AB,B9,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B9,Jogos!AS:AS)</f>
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Q9" s="1">
         <f>SUMIF(Jogos!AB:AB,B9,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B9,Jogos!AT:AT)</f>
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="R9" s="15">
         <f t="shared" si="0"/>
-        <v>833.33333333333337</v>
+        <v>908.65384615384619</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
         <f t="shared" si="8"/>
@@ -3143,7 +3139,7 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>96</v>
@@ -3214,15 +3210,15 @@
       </c>
       <c r="S10" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" si="8"/>
@@ -3235,22 +3231,22 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B11)</f>
@@ -3266,7 +3262,7 @@
       </c>
       <c r="I11" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B11,Jogos!AH:AH)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B11,Jogos!AP:AP)</f>
@@ -3282,35 +3278,35 @@
       </c>
       <c r="M11" s="1">
         <f>SUMIF(Jogos!AB:AB,B11,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B11,Jogos!AN:AN)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="1">
         <f>SUMIF(Jogos!AB:AB,B11,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B11,Jogos!AO:AO)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P11" s="1">
         <f>SUMIF(Jogos!AB:AB,B11,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B11,Jogos!AS:AS)</f>
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="1">
         <f>SUMIF(Jogos!AB:AB,B11,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B11,Jogos!AT:AT)</f>
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="R11" s="15">
         <f t="shared" si="0"/>
-        <v>866.66666666666674</v>
+        <v>934.78260869565224</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="7"/>
@@ -3327,7 +3323,7 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>41</v>
@@ -3398,11 +3394,11 @@
       </c>
       <c r="S12" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="7"/>
@@ -3419,18 +3415,18 @@
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B13)</f>
@@ -3438,7 +3434,7 @@
       </c>
       <c r="F13" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B13,Jogos!AF:AF)</f>
@@ -3454,7 +3450,7 @@
       </c>
       <c r="J13" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B13,Jogos!AP:AP)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B13,Jogos!AQ:AQ)</f>
@@ -3466,27 +3462,27 @@
       </c>
       <c r="M13" s="1">
         <f>SUMIF(Jogos!AB:AB,B13,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B13,Jogos!AN:AN)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="1">
         <f>SUMIF(Jogos!AB:AB,B13,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B13,Jogos!AO:AO)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O13" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="P13" s="1">
         <f>SUMIF(Jogos!AB:AB,B13,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B13,Jogos!AS:AS)</f>
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="1">
         <f>SUMIF(Jogos!AB:AB,B13,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B13,Jogos!AT:AT)</f>
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="R13" s="15">
         <f t="shared" si="0"/>
-        <v>706.66666666666663</v>
+        <v>890.1098901098901</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="5"/>
@@ -3494,11 +3490,11 @@
       </c>
       <c r="T13" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" si="8"/>
@@ -3511,22 +3507,22 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B14)</f>
@@ -3542,7 +3538,7 @@
       </c>
       <c r="I14" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B14,Jogos!AH:AH)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B14,Jogos!AP:AP)</f>
@@ -3558,35 +3554,35 @@
       </c>
       <c r="M14" s="1">
         <f>SUMIF(Jogos!AB:AB,B14,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B14,Jogos!AN:AN)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N14" s="1">
         <f>SUMIF(Jogos!AB:AB,B14,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B14,Jogos!AO:AO)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" s="15">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="P14" s="1">
         <f>SUMIF(Jogos!AB:AB,B14,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B14,Jogos!AS:AS)</f>
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="1">
         <f>SUMIF(Jogos!AB:AB,B14,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B14,Jogos!AT:AT)</f>
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="R14" s="15">
         <f t="shared" si="0"/>
-        <v>1227.8481012658228</v>
+        <v>1115.3846153846155</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="7"/>
@@ -3674,11 +3670,11 @@
       </c>
       <c r="S15" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="7"/>
@@ -3695,7 +3691,7 @@
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -3706,7 +3702,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B16)</f>
@@ -3714,7 +3710,7 @@
       </c>
       <c r="F16" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B16,Jogos!AF:AF)</f>
@@ -3734,7 +3730,7 @@
       </c>
       <c r="K16" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B16,Jogos!AQ:AQ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B16,Jogos!AR:AR)</f>
@@ -3742,31 +3738,31 @@
       </c>
       <c r="M16" s="1">
         <f>SUMIF(Jogos!AB:AB,B16,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B16,Jogos!AN:AN)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
         <f>SUMIF(Jogos!AB:AB,B16,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B16,Jogos!AO:AO)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="15" t="str">
+        <v>3</v>
+      </c>
+      <c r="O16" s="15">
         <f t="shared" si="4"/>
-        <v>MAX</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="P16" s="1">
         <f>SUMIF(Jogos!AB:AB,B16,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B16,Jogos!AS:AS)</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="1">
         <f>SUMIF(Jogos!AB:AB,B16,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B16,Jogos!AT:AT)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="15" t="str">
+        <v>97</v>
+      </c>
+      <c r="R16" s="15">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>938.14432989690727</v>
       </c>
       <c r="S16" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" si="6"/>
@@ -3774,7 +3770,7 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="8"/>
@@ -3879,7 +3875,7 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>53</v>
@@ -3950,11 +3946,11 @@
       </c>
       <c r="S18" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="7"/>
@@ -3971,7 +3967,7 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
@@ -4042,11 +4038,11 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="7"/>
@@ -4063,7 +4059,7 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>98</v>
@@ -4134,7 +4130,7 @@
       </c>
       <c r="S20" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" si="6"/>
@@ -4142,7 +4138,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
         <f t="shared" si="8"/>
@@ -4335,11 +4331,11 @@
       </c>
       <c r="S27" s="1">
         <f>SUMPRODUCT(($E$27:$E$34=E27)*($C$27:$C$34&gt;C27))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="1">
         <f>SUMPRODUCT(($E$27:$E$34=E27)*($C$27:$C$34=C27)*($O$27:$O$34&gt;O27))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U27" s="1">
         <f>SUMPRODUCT(($E$27:$E$34=E27)*($C$27:$C$34=C27)*($O$27:$O$34=O27)*($R$27:$R$34&gt;R27))</f>
@@ -4453,19 +4449,19 @@
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" ref="B29:B34" si="31">VLOOKUP(Z4,$A$3:$R$20,2,FALSE)</f>
-        <v>Brasil</v>
+        <v>Itália</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="14"/>
@@ -4473,15 +4469,15 @@
       </c>
       <c r="G29" s="1">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="18"/>
@@ -4497,31 +4493,31 @@
       </c>
       <c r="M29" s="1">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="36" t="str">
+        <v>3</v>
+      </c>
+      <c r="O29" s="36">
         <f t="shared" si="23"/>
-        <v>MAX</v>
+        <v>2000</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" si="24"/>
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="25"/>
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="R29" s="36">
         <f t="shared" si="26"/>
-        <v>1415.0943396226414</v>
+        <v>1115.3846153846155</v>
       </c>
       <c r="S29" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="1">
         <f t="shared" si="28"/>
@@ -4546,19 +4542,19 @@
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>Ucrânia</v>
+        <v>Argentina</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="14"/>
@@ -4566,15 +4562,15 @@
       </c>
       <c r="G30" s="1">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="18"/>
@@ -4590,31 +4586,31 @@
       </c>
       <c r="M30" s="1">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="36" t="str">
+        <v>3</v>
+      </c>
+      <c r="O30" s="36">
         <f t="shared" si="23"/>
-        <v>MAX</v>
+        <v>2000</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" si="24"/>
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="25"/>
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="R30" s="36">
         <f t="shared" si="26"/>
-        <v>1153.8461538461538</v>
+        <v>989.47368421052624</v>
       </c>
       <c r="S30" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="1">
         <f t="shared" si="28"/>
@@ -4639,15 +4635,15 @@
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>Itália</v>
+        <v>Brasil</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="13"/>
@@ -4655,15 +4651,15 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="17"/>
@@ -4671,7 +4667,7 @@
       </c>
       <c r="J31" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="19"/>
@@ -4683,27 +4679,27 @@
       </c>
       <c r="M31" s="1">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31" s="36">
         <f t="shared" si="23"/>
-        <v>3000</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="24"/>
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="25"/>
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="R31" s="36">
         <f t="shared" si="26"/>
-        <v>1227.8481012658228</v>
+        <v>1154.320987654321</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="27"/>
@@ -4711,7 +4707,7 @@
       </c>
       <c r="T31" s="1">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="29"/>
@@ -4732,7 +4728,7 @@
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>Eslovênia</v>
+        <v>Ucrânia</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="11"/>
@@ -4752,11 +4748,11 @@
       </c>
       <c r="G32" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="17"/>
@@ -4780,35 +4776,35 @@
       </c>
       <c r="N32" s="1">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="O32" s="36">
+        <v>0</v>
+      </c>
+      <c r="O32" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>3000</v>
+        <v>MAX</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" si="24"/>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="25"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R32" s="36">
         <f t="shared" si="26"/>
-        <v>1200</v>
+        <v>1153.8461538461538</v>
       </c>
       <c r="S32" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U32" s="1">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" si="30"/>
@@ -4825,7 +4821,7 @@
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>Argentina</v>
+        <v>Eslovênia</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="11"/>
@@ -4881,27 +4877,27 @@
       </c>
       <c r="P33" s="1">
         <f t="shared" si="24"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="25"/>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="R33" s="36">
         <f t="shared" si="26"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="S33" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V33" s="1">
         <f t="shared" si="30"/>
@@ -4986,11 +4982,11 @@
       </c>
       <c r="S34" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" si="29"/>
@@ -5023,11 +5019,11 @@
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" ref="B38:B44" si="32">VLOOKUP($A38,$A$27:$D$34,2,FALSE)</f>
-        <v>Brasil</v>
+        <v>Itália</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" ref="C38:C44" si="33">VLOOKUP($A38,$A$27:$D$34,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -5036,11 +5032,11 @@
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="32"/>
-        <v>Ucrânia</v>
+        <v>Argentina</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -5049,11 +5045,11 @@
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="32"/>
-        <v>Itália</v>
+        <v>Brasil</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -5062,7 +5058,7 @@
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="32"/>
-        <v>Eslovênia</v>
+        <v>Ucrânia</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="33"/>
@@ -5075,7 +5071,7 @@
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="32"/>
-        <v>Argentina</v>
+        <v>Eslovênia</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="33"/>
@@ -5110,16 +5106,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:W25"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:W1"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:W25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5130,7 +5126,7 @@
   <dimension ref="B2:BL132"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5188,88 +5184,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="AU2" s="64" t="s">
+      <c r="B2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="AU2" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="64" t="s">
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="64" t="s">
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="62"/>
+      <c r="BA2" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="65"/>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="64" t="s">
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="62"/>
+      <c r="BG2" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="64" t="s">
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="62"/>
+      <c r="BJ2" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="65"/>
-      <c r="BL2" s="66"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="62"/>
     </row>
     <row r="3" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
+      <c r="B3" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
       <c r="AU3" s="32" t="s">
         <v>43</v>
       </c>
@@ -5330,42 +5326,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59" t="s">
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59" t="s">
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59" t="s">
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59" t="s">
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
       <c r="AA4" s="4" t="s">
         <v>38</v>
       </c>
@@ -5647,19 +5643,19 @@
       </c>
       <c r="AV5" s="30" t="str">
         <f>VLOOKUP($AU5,Dummy!$A:$R,2,FALSE)</f>
-        <v>Brasil</v>
+        <v>Itália</v>
       </c>
       <c r="AW5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,6,FALSE)</f>
@@ -5667,15 +5663,15 @@
       </c>
       <c r="BA5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,10,FALSE)</f>
@@ -5691,27 +5687,27 @@
       </c>
       <c r="BG5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BI5" s="29" t="str">
+        <v>3</v>
+      </c>
+      <c r="BI5" s="29">
         <f>VLOOKUP($AU5,Dummy!$A:$R,15,FALSE)</f>
-        <v>MAX</v>
+        <v>2000</v>
       </c>
       <c r="BJ5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,16,FALSE)</f>
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="BK5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,17,FALSE)</f>
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="BL5" s="29">
         <f>VLOOKUP($AU5,Dummy!$A:$R,18,FALSE)</f>
-        <v>1415.0943396226414</v>
+        <v>1115.3846153846155</v>
       </c>
     </row>
     <row r="6" spans="2:64" x14ac:dyDescent="0.25">
@@ -5866,19 +5862,19 @@
       </c>
       <c r="AV6" s="30" t="str">
         <f>VLOOKUP($AU6,Dummy!$A:$R,2,FALSE)</f>
-        <v>Ucrânia</v>
+        <v>Argentina</v>
       </c>
       <c r="AW6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,6,FALSE)</f>
@@ -5886,15 +5882,15 @@
       </c>
       <c r="BA6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,10,FALSE)</f>
@@ -5910,27 +5906,27 @@
       </c>
       <c r="BG6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BI6" s="29" t="str">
+        <v>3</v>
+      </c>
+      <c r="BI6" s="29">
         <f>VLOOKUP($AU6,Dummy!$A:$R,15,FALSE)</f>
-        <v>MAX</v>
+        <v>2000</v>
       </c>
       <c r="BJ6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,16,FALSE)</f>
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="BK6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,17,FALSE)</f>
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="BL6" s="29">
         <f>VLOOKUP($AU6,Dummy!$A:$R,18,FALSE)</f>
-        <v>1153.8461538461538</v>
+        <v>989.47368421052624</v>
       </c>
     </row>
     <row r="7" spans="2:64" x14ac:dyDescent="0.25">
@@ -6089,15 +6085,15 @@
       </c>
       <c r="AV7" s="30" t="str">
         <f>VLOOKUP($AU7,Dummy!$A:$R,2,FALSE)</f>
-        <v>Itália</v>
+        <v>Brasil</v>
       </c>
       <c r="AW7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,5,FALSE)</f>
@@ -6105,15 +6101,15 @@
       </c>
       <c r="AZ7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,9,FALSE)</f>
@@ -6121,7 +6117,7 @@
       </c>
       <c r="BD7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,11,FALSE)</f>
@@ -6133,27 +6129,27 @@
       </c>
       <c r="BG7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,14,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI7" s="29">
         <f>VLOOKUP($AU7,Dummy!$A:$R,15,FALSE)</f>
-        <v>3000</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BJ7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,16,FALSE)</f>
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="BK7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,17,FALSE)</f>
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BL7" s="29">
         <f>VLOOKUP($AU7,Dummy!$A:$R,18,FALSE)</f>
-        <v>1227.8481012658228</v>
+        <v>1154.320987654321</v>
       </c>
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.25">
@@ -6163,69 +6159,93 @@
       <c r="C8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="33">
+        <v>2</v>
+      </c>
       <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="34">
+        <v>3</v>
+      </c>
       <c r="G8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="33">
+        <v>25</v>
+      </c>
       <c r="I8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="33"/>
+      <c r="J8" s="34">
+        <v>21</v>
+      </c>
+      <c r="K8" s="33">
+        <v>25</v>
+      </c>
       <c r="L8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="33"/>
+      <c r="M8" s="34">
+        <v>20</v>
+      </c>
+      <c r="N8" s="33">
+        <v>19</v>
+      </c>
       <c r="O8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="33"/>
+      <c r="P8" s="34">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>23</v>
+      </c>
       <c r="R8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="34"/>
-      <c r="T8" s="33"/>
+      <c r="S8" s="34">
+        <v>25</v>
+      </c>
+      <c r="T8" s="33">
+        <v>11</v>
+      </c>
       <c r="U8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="34"/>
+      <c r="V8" s="34">
+        <v>15</v>
+      </c>
       <c r="W8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="X8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Y8" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Itália</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="7"/>
@@ -6237,35 +6257,35 @@
       </c>
       <c r="AH8" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL8" s="4">
+        <v>103</v>
+      </c>
+      <c r="AL8" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Alemanha</v>
       </c>
       <c r="AM8" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO8" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP8" s="4">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="4">
         <f t="shared" si="17"/>
@@ -6277,18 +6297,18 @@
       </c>
       <c r="AS8" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AT8" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AU8" s="31">
         <v>5</v>
       </c>
       <c r="AV8" s="30" t="str">
         <f>VLOOKUP($AU8,Dummy!$A:$R,2,FALSE)</f>
-        <v>Eslovênia</v>
+        <v>Ucrânia</v>
       </c>
       <c r="AW8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,3,FALSE)</f>
@@ -6308,11 +6328,11 @@
       </c>
       <c r="BA8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,9,FALSE)</f>
@@ -6336,23 +6356,23 @@
       </c>
       <c r="BH8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,14,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="BI8" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="29" t="str">
         <f>VLOOKUP($AU8,Dummy!$A:$R,15,FALSE)</f>
-        <v>3000</v>
+        <v>MAX</v>
       </c>
       <c r="BJ8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,16,FALSE)</f>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="BK8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,17,FALSE)</f>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BL8" s="29">
         <f>VLOOKUP($AU8,Dummy!$A:$R,18,FALSE)</f>
-        <v>1200</v>
+        <v>1153.8461538461538</v>
       </c>
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.25">
@@ -6362,69 +6382,93 @@
       <c r="C9" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="33">
+        <v>3</v>
+      </c>
       <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="34">
+        <v>2</v>
+      </c>
       <c r="G9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="33">
+        <v>25</v>
+      </c>
       <c r="I9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="33"/>
+      <c r="J9" s="34">
+        <v>22</v>
+      </c>
+      <c r="K9" s="33">
+        <v>21</v>
+      </c>
       <c r="L9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="33"/>
+      <c r="M9" s="34">
+        <v>25</v>
+      </c>
+      <c r="N9" s="33">
+        <v>14</v>
+      </c>
       <c r="O9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="33"/>
+      <c r="P9" s="34">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>25</v>
+      </c>
       <c r="R9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="33"/>
+      <c r="S9" s="34">
+        <v>22</v>
+      </c>
+      <c r="T9" s="33">
+        <v>15</v>
+      </c>
       <c r="U9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V9" s="34"/>
+      <c r="V9" s="34">
+        <v>8</v>
+      </c>
       <c r="W9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Y9" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Argentina</v>
       </c>
       <c r="AC9" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE9" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="4">
         <f t="shared" si="7"/>
@@ -6436,35 +6480,35 @@
       </c>
       <c r="AH9" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ9" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4">
+        <v>102</v>
+      </c>
+      <c r="AL9" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Canadá</v>
       </c>
       <c r="AM9" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO9" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP9" s="4">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="4">
         <f t="shared" si="17"/>
@@ -6476,18 +6520,18 @@
       </c>
       <c r="AS9" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AT9" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU9" s="31">
         <v>6</v>
       </c>
       <c r="AV9" s="30" t="str">
         <f>VLOOKUP($AU9,Dummy!$A:$R,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Eslovênia</v>
       </c>
       <c r="AW9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,3,FALSE)</f>
@@ -6543,15 +6587,15 @@
       </c>
       <c r="BJ9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,16,FALSE)</f>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="BK9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,17,FALSE)</f>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="BL9" s="29">
         <f>VLOOKUP($AU9,Dummy!$A:$R,18,FALSE)</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10" spans="2:64" x14ac:dyDescent="0.25">
@@ -6885,7 +6929,7 @@
       </c>
       <c r="AV11" s="30" t="str">
         <f>VLOOKUP($AU11,Dummy!$A:$R,2,FALSE)</f>
-        <v>China</v>
+        <v>Canadá</v>
       </c>
       <c r="AW11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,3,FALSE)</f>
@@ -6905,7 +6949,7 @@
       </c>
       <c r="BA11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,8,FALSE)</f>
@@ -6913,11 +6957,11 @@
       </c>
       <c r="BC11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,11,FALSE)</f>
@@ -6925,15 +6969,15 @@
       </c>
       <c r="BF11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI11" s="29">
         <f>VLOOKUP($AU11,Dummy!$A:$R,15,FALSE)</f>
@@ -6941,15 +6985,15 @@
       </c>
       <c r="BJ11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,16,FALSE)</f>
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="BK11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,17,FALSE)</f>
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="BL11" s="29">
         <f>VLOOKUP($AU11,Dummy!$A:$R,18,FALSE)</f>
-        <v>950.35460992907804</v>
+        <v>1039.4088669950738</v>
       </c>
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.25">
@@ -7084,7 +7128,7 @@
       </c>
       <c r="AV12" s="30" t="str">
         <f>VLOOKUP($AU12,Dummy!$A:$R,2,FALSE)</f>
-        <v>Sérvia</v>
+        <v>China</v>
       </c>
       <c r="AW12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,3,FALSE)</f>
@@ -7104,11 +7148,11 @@
       </c>
       <c r="BA12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,9,FALSE)</f>
@@ -7132,23 +7176,23 @@
       </c>
       <c r="BH12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,14,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI12" s="29">
         <f>VLOOKUP($AU12,Dummy!$A:$R,15,FALSE)</f>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="BJ12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,16,FALSE)</f>
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="BK12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,17,FALSE)</f>
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="BL12" s="29">
         <f>VLOOKUP($AU12,Dummy!$A:$R,18,FALSE)</f>
-        <v>910.71428571428567</v>
+        <v>950.35460992907804</v>
       </c>
     </row>
     <row r="13" spans="2:64" x14ac:dyDescent="0.25">
@@ -7283,15 +7327,15 @@
       </c>
       <c r="AV13" s="30" t="str">
         <f>VLOOKUP($AU13,Dummy!$A:$R,2,FALSE)</f>
-        <v>Canadá</v>
+        <v>Sérvia</v>
       </c>
       <c r="AW13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,5,FALSE)</f>
@@ -7299,7 +7343,7 @@
       </c>
       <c r="AZ13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,7,FALSE)</f>
@@ -7307,11 +7351,11 @@
       </c>
       <c r="BB13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,10,FALSE)</f>
@@ -7323,7 +7367,7 @@
       </c>
       <c r="BF13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,13,FALSE)</f>
@@ -7331,23 +7375,23 @@
       </c>
       <c r="BH13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,14,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI13" s="29">
         <f>VLOOKUP($AU13,Dummy!$A:$R,15,FALSE)</f>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="BJ13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,16,FALSE)</f>
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="BK13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,17,FALSE)</f>
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="BL13" s="29">
         <f>VLOOKUP($AU13,Dummy!$A:$R,18,FALSE)</f>
-        <v>1058.2524271844659</v>
+        <v>910.71428571428567</v>
       </c>
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.25">
@@ -7482,19 +7526,19 @@
       </c>
       <c r="AV14" s="30" t="str">
         <f>VLOOKUP($AU14,Dummy!$A:$R,2,FALSE)</f>
-        <v>Alemanha</v>
+        <v>Cuba</v>
       </c>
       <c r="AW14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,3,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,6,FALSE)</f>
@@ -7510,15 +7554,15 @@
       </c>
       <c r="BC14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,12,FALSE)</f>
@@ -7526,27 +7570,27 @@
       </c>
       <c r="BG14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,13,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI14" s="29">
         <f>VLOOKUP($AU14,Dummy!$A:$R,15,FALSE)</f>
-        <v>666.66666666666663</v>
+        <v>800</v>
       </c>
       <c r="BJ14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,16,FALSE)</f>
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="BK14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,17,FALSE)</f>
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="BL14" s="29">
         <f>VLOOKUP($AU14,Dummy!$A:$R,18,FALSE)</f>
-        <v>944.95412844036696</v>
+        <v>908.65384615384619</v>
       </c>
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.25">
@@ -7681,23 +7725,23 @@
       </c>
       <c r="AV15" s="30" t="str">
         <f>VLOOKUP($AU15,Dummy!$A:$R,2,FALSE)</f>
-        <v>Holanda</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AW15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,4,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,7,FALSE)</f>
@@ -7709,7 +7753,7 @@
       </c>
       <c r="BC15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,10,FALSE)</f>
@@ -7721,31 +7765,31 @@
       </c>
       <c r="BF15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BI15" s="29" t="str">
+        <v>5</v>
+      </c>
+      <c r="BI15" s="29">
         <f>VLOOKUP($AU15,Dummy!$A:$R,15,FALSE)</f>
-        <v>MAX</v>
+        <v>600</v>
       </c>
       <c r="BJ15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,16,FALSE)</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="BK15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL15" s="29" t="str">
+        <v>184</v>
+      </c>
+      <c r="BL15" s="29">
         <f>VLOOKUP($AU15,Dummy!$A:$R,18,FALSE)</f>
-        <v>MAX</v>
+        <v>934.78260869565224</v>
       </c>
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.25">
@@ -7880,15 +7924,15 @@
       </c>
       <c r="AV16" s="30" t="str">
         <f>VLOOKUP($AU16,Dummy!$A:$R,2,FALSE)</f>
-        <v>Turquia</v>
+        <v>Alemanha</v>
       </c>
       <c r="AW16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,5,FALSE)</f>
@@ -7896,7 +7940,7 @@
       </c>
       <c r="AZ16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,7,FALSE)</f>
@@ -7912,11 +7956,11 @@
       </c>
       <c r="BD16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,12,FALSE)</f>
@@ -7924,70 +7968,70 @@
       </c>
       <c r="BG16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,13,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI16" s="29">
         <f>VLOOKUP($AU16,Dummy!$A:$R,15,FALSE)</f>
-        <v>333.33333333333331</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="BJ16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,16,FALSE)</f>
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="BK16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,17,FALSE)</f>
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="BL16" s="29">
         <f>VLOOKUP($AU16,Dummy!$A:$R,18,FALSE)</f>
-        <v>1068.9655172413793</v>
+        <v>958.1395348837209</v>
       </c>
     </row>
     <row r="17" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
       <c r="AU17" s="31">
         <v>14</v>
       </c>
       <c r="AV17" s="30" t="str">
         <f>VLOOKUP($AU17,Dummy!$A:$R,2,FALSE)</f>
-        <v>França</v>
+        <v>Irã</v>
       </c>
       <c r="AW17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,5,FALSE)</f>
@@ -7995,7 +8039,7 @@
       </c>
       <c r="AZ17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,7,FALSE)</f>
@@ -8011,23 +8055,23 @@
       </c>
       <c r="BD17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,13,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI17" s="29">
         <f>VLOOKUP($AU17,Dummy!$A:$R,15,FALSE)</f>
@@ -8035,15 +8079,15 @@
       </c>
       <c r="BJ17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,16,FALSE)</f>
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="BK17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,17,FALSE)</f>
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="BL17" s="29">
         <f>VLOOKUP($AU17,Dummy!$A:$R,18,FALSE)</f>
-        <v>1000</v>
+        <v>890.1098901098901</v>
       </c>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
@@ -8051,42 +8095,42 @@
         <v>2</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59" t="s">
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59" t="s">
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59" t="s">
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59" t="s">
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59" t="s">
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
       <c r="AA18" s="4" t="s">
         <v>38</v>
       </c>
@@ -8149,7 +8193,7 @@
       </c>
       <c r="AV18" s="30" t="str">
         <f>VLOOKUP($AU18,Dummy!$A:$R,2,FALSE)</f>
-        <v>Cuba</v>
+        <v>Turquia</v>
       </c>
       <c r="AW18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,3,FALSE)</f>
@@ -8205,15 +8249,15 @@
       </c>
       <c r="BJ18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,16,FALSE)</f>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="BK18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,17,FALSE)</f>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="BL18" s="29">
         <f>VLOOKUP($AU18,Dummy!$A:$R,18,FALSE)</f>
-        <v>833.33333333333337</v>
+        <v>1068.9655172413793</v>
       </c>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
@@ -8364,7 +8408,7 @@
       </c>
       <c r="AV19" s="30" t="str">
         <f>VLOOKUP($AU19,Dummy!$A:$R,2,FALSE)</f>
-        <v>Bulgária</v>
+        <v>França</v>
       </c>
       <c r="AW19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,3,FALSE)</f>
@@ -8420,15 +8464,15 @@
       </c>
       <c r="BJ19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,16,FALSE)</f>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="BK19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,17,FALSE)</f>
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="BL19" s="29">
         <f>VLOOKUP($AU19,Dummy!$A:$R,18,FALSE)</f>
-        <v>814.43298969072168</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
@@ -8579,7 +8623,7 @@
       </c>
       <c r="AV20" s="30" t="str">
         <f>VLOOKUP($AU20,Dummy!$A:$R,2,FALSE)</f>
-        <v>Estados Unidos</v>
+        <v>Holanda</v>
       </c>
       <c r="AW20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,3,FALSE)</f>
@@ -8615,15 +8659,15 @@
       </c>
       <c r="BE20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,14,FALSE)</f>
@@ -8631,19 +8675,19 @@
       </c>
       <c r="BI20" s="29">
         <f>VLOOKUP($AU20,Dummy!$A:$R,15,FALSE)</f>
-        <v>0</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BJ20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,16,FALSE)</f>
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="BK20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,17,FALSE)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="BL20" s="29">
         <f>VLOOKUP($AU20,Dummy!$A:$R,18,FALSE)</f>
-        <v>866.66666666666674</v>
+        <v>938.14432989690727</v>
       </c>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
@@ -8798,7 +8842,7 @@
       </c>
       <c r="AV21" s="30" t="str">
         <f>VLOOKUP($AU21,Dummy!$A:$R,2,FALSE)</f>
-        <v>Irã</v>
+        <v>Bulgária</v>
       </c>
       <c r="AW21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,3,FALSE)</f>
@@ -8834,15 +8878,15 @@
       </c>
       <c r="BE21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,14,FALSE)</f>
@@ -8850,19 +8894,19 @@
       </c>
       <c r="BI21" s="29">
         <f>VLOOKUP($AU21,Dummy!$A:$R,15,FALSE)</f>
-        <v>0</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BJ21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,16,FALSE)</f>
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="BK21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,17,FALSE)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="BL21" s="29">
         <f>VLOOKUP($AU21,Dummy!$A:$R,18,FALSE)</f>
-        <v>706.66666666666663</v>
+        <v>814.43298969072168</v>
       </c>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
@@ -8872,69 +8916,93 @@
       <c r="C22" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="33"/>
+      <c r="D22" s="33">
+        <v>2</v>
+      </c>
       <c r="E22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="34"/>
+      <c r="F22" s="34">
+        <v>3</v>
+      </c>
       <c r="G22" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="33">
+        <v>25</v>
+      </c>
       <c r="I22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="33"/>
+      <c r="J22" s="34">
+        <v>27</v>
+      </c>
+      <c r="K22" s="33">
+        <v>24</v>
+      </c>
       <c r="L22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="34"/>
-      <c r="N22" s="33"/>
+      <c r="M22" s="34">
+        <v>26</v>
+      </c>
+      <c r="N22" s="33">
+        <v>25</v>
+      </c>
       <c r="O22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="33"/>
+      <c r="P22" s="34">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="33">
+        <v>25</v>
+      </c>
       <c r="R22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S22" s="34"/>
-      <c r="T22" s="33"/>
+      <c r="S22" s="34">
+        <v>20</v>
+      </c>
+      <c r="T22" s="33">
+        <v>13</v>
+      </c>
       <c r="U22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V22" s="34"/>
+      <c r="V22" s="34">
+        <v>15</v>
+      </c>
       <c r="W22" s="9">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="X22" s="11" t="s">
         <v>6</v>
       </c>
       <c r="Y22" s="10">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AA22" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="4" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>Cuba</v>
       </c>
       <c r="AC22" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE22" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF22" s="4">
         <f t="shared" si="26"/>
@@ -8946,35 +9014,35 @@
       </c>
       <c r="AH22" s="4">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AJ22" s="4">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AL22" s="4">
+        <v>112</v>
+      </c>
+      <c r="AL22" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>Brasil</v>
       </c>
       <c r="AM22" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22" s="4">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP22" s="4">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="4">
         <f t="shared" si="36"/>
@@ -8986,15 +9054,15 @@
       </c>
       <c r="AS22" s="4">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AT22" s="4">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AX22" s="53">
         <f>SUM(AX4:AX21)</f>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
@@ -9004,69 +9072,93 @@
       <c r="C23" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="33"/>
+      <c r="D23" s="33">
+        <v>3</v>
+      </c>
       <c r="E23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="34"/>
+      <c r="F23" s="34">
+        <v>2</v>
+      </c>
       <c r="G23" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="33"/>
+      <c r="H23" s="33">
+        <v>19</v>
+      </c>
       <c r="I23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="33"/>
+      <c r="J23" s="34">
+        <v>25</v>
+      </c>
+      <c r="K23" s="33">
+        <v>21</v>
+      </c>
       <c r="L23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="34"/>
-      <c r="N23" s="33"/>
+      <c r="M23" s="34">
+        <v>25</v>
+      </c>
+      <c r="N23" s="33">
+        <v>25</v>
+      </c>
       <c r="O23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="33"/>
+      <c r="P23" s="34">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="33">
+        <v>25</v>
+      </c>
       <c r="R23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S23" s="34"/>
-      <c r="T23" s="33"/>
+      <c r="S23" s="34">
+        <v>23</v>
+      </c>
+      <c r="T23" s="33">
+        <v>17</v>
+      </c>
       <c r="U23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V23" s="34"/>
+      <c r="V23" s="34">
+        <v>15</v>
+      </c>
       <c r="W23" s="9">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>6</v>
       </c>
       <c r="Y23" s="10">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AA23" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="4" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AC23" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE23" s="4">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF23" s="4">
         <f t="shared" si="26"/>
@@ -9078,35 +9170,35 @@
       </c>
       <c r="AH23" s="4">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AJ23" s="4">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="4">
+        <v>109</v>
+      </c>
+      <c r="AL23" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>Irã</v>
       </c>
       <c r="AM23" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23" s="4">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO23" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP23" s="4">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="4">
         <f t="shared" si="36"/>
@@ -9118,16 +9210,16 @@
       </c>
       <c r="AS23" s="4">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AT23" s="4">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AU23" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU23" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="AV23" s="67"/>
+      <c r="AV23" s="59"/>
     </row>
     <row r="24" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
@@ -9522,7 +9614,7 @@
       </c>
       <c r="AU26" s="57"/>
       <c r="AV26" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="2:64" x14ac:dyDescent="0.25">
@@ -10038,74 +10130,74 @@
       </c>
     </row>
     <row r="31" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59" t="s">
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59" t="s">
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59" t="s">
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59" t="s">
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59" t="s">
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
       <c r="AA32" s="4" t="s">
         <v>38</v>
       </c>
@@ -10181,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="H33" s="33">
         <v>25</v>
@@ -10277,7 +10369,7 @@
       </c>
       <c r="AL33" s="4" t="str">
         <f t="shared" ref="AL33:AL44" si="51">IF(OR(D33="",F33=""),0,IF(D33&lt;F33,C33,G33))</f>
-        <v>Países Baixos</v>
+        <v>Holanda</v>
       </c>
       <c r="AM33" s="4">
         <f t="shared" ref="AM33:AM44" si="52">IF(OR(D33="",F33=""),0,1)</f>
@@ -11029,7 +11121,7 @@
         <v>45821</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D39" s="33"/>
       <c r="E39" s="11" t="s">
@@ -11165,7 +11257,7 @@
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="21" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="H40" s="33"/>
       <c r="I40" s="11" t="s">
@@ -11413,7 +11505,7 @@
         <v>45823</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D42" s="33"/>
       <c r="E42" s="11" t="s">
@@ -11793,88 +11885,88 @@
       </c>
     </row>
     <row r="46" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61"/>
-      <c r="T46" s="61"/>
-      <c r="U46" s="61"/>
-      <c r="V46" s="61"/>
-      <c r="W46" s="61"/>
-      <c r="X46" s="61"/>
-      <c r="Y46" s="61"/>
-      <c r="AU46" s="64" t="s">
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="67"/>
+      <c r="X46" s="67"/>
+      <c r="Y46" s="67"/>
+      <c r="AU46" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="AV46" s="65"/>
-      <c r="AW46" s="66"/>
-      <c r="AX46" s="64" t="s">
+      <c r="AV46" s="61"/>
+      <c r="AW46" s="62"/>
+      <c r="AX46" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AY46" s="65"/>
-      <c r="AZ46" s="66"/>
-      <c r="BA46" s="64" t="s">
+      <c r="AY46" s="61"/>
+      <c r="AZ46" s="62"/>
+      <c r="BA46" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="BB46" s="65"/>
-      <c r="BC46" s="65"/>
-      <c r="BD46" s="65"/>
-      <c r="BE46" s="65"/>
-      <c r="BF46" s="66"/>
-      <c r="BG46" s="64" t="s">
+      <c r="BB46" s="61"/>
+      <c r="BC46" s="61"/>
+      <c r="BD46" s="61"/>
+      <c r="BE46" s="61"/>
+      <c r="BF46" s="62"/>
+      <c r="BG46" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="BH46" s="65"/>
-      <c r="BI46" s="66"/>
-      <c r="BJ46" s="64" t="s">
+      <c r="BH46" s="61"/>
+      <c r="BI46" s="62"/>
+      <c r="BJ46" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="BK46" s="65"/>
-      <c r="BL46" s="66"/>
+      <c r="BK46" s="61"/>
+      <c r="BL46" s="62"/>
     </row>
     <row r="47" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="60"/>
-      <c r="V47" s="60"/>
-      <c r="W47" s="60"/>
-      <c r="X47" s="60"/>
-      <c r="Y47" s="60"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="63"/>
+      <c r="T47" s="63"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="63"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="63"/>
+      <c r="Y47" s="63"/>
       <c r="AU47" s="32" t="s">
         <v>43</v>
       </c>
@@ -11935,42 +12027,42 @@
         <v>2</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59" t="s">
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59" t="s">
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59" t="s">
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59" t="s">
+      <c r="R48" s="65"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U48" s="59"/>
-      <c r="V48" s="59"/>
-      <c r="W48" s="59" t="s">
+      <c r="U48" s="65"/>
+      <c r="V48" s="65"/>
+      <c r="W48" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="X48" s="59"/>
-      <c r="Y48" s="59"/>
+      <c r="X48" s="65"/>
+      <c r="Y48" s="65"/>
       <c r="AA48" s="4" t="s">
         <v>38</v>
       </c>
@@ -12232,19 +12324,19 @@
       </c>
       <c r="AV49" s="30" t="str">
         <f>VLOOKUP($AU49,Dummy!$A:$R,2,FALSE)</f>
-        <v>Brasil</v>
+        <v>Itália</v>
       </c>
       <c r="AW49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,6,FALSE)</f>
@@ -12252,15 +12344,15 @@
       </c>
       <c r="BA49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,10,FALSE)</f>
@@ -12276,27 +12368,27 @@
       </c>
       <c r="BG49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BI49" s="29" t="str">
+        <v>3</v>
+      </c>
+      <c r="BI49" s="29">
         <f>VLOOKUP($AU49,Dummy!$A:$R,15,FALSE)</f>
-        <v>MAX</v>
+        <v>2000</v>
       </c>
       <c r="BJ49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,16,FALSE)</f>
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="BK49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,17,FALSE)</f>
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="BL49" s="29">
         <f>VLOOKUP($AU49,Dummy!$A:$R,18,FALSE)</f>
-        <v>1415.0943396226414</v>
+        <v>1115.3846153846155</v>
       </c>
     </row>
     <row r="50" spans="2:64" x14ac:dyDescent="0.25">
@@ -12431,19 +12523,19 @@
       </c>
       <c r="AV50" s="30" t="str">
         <f>VLOOKUP($AU50,Dummy!$A:$R,2,FALSE)</f>
-        <v>Ucrânia</v>
+        <v>Argentina</v>
       </c>
       <c r="AW50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,6,FALSE)</f>
@@ -12451,15 +12543,15 @@
       </c>
       <c r="BA50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,10,FALSE)</f>
@@ -12475,27 +12567,27 @@
       </c>
       <c r="BG50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BI50" s="29" t="str">
+        <v>3</v>
+      </c>
+      <c r="BI50" s="29">
         <f>VLOOKUP($AU50,Dummy!$A:$R,15,FALSE)</f>
-        <v>MAX</v>
+        <v>2000</v>
       </c>
       <c r="BJ50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,16,FALSE)</f>
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="BK50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,17,FALSE)</f>
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="BL50" s="29">
         <f>VLOOKUP($AU50,Dummy!$A:$R,18,FALSE)</f>
-        <v>1153.8461538461538</v>
+        <v>989.47368421052624</v>
       </c>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
@@ -12630,15 +12722,15 @@
       </c>
       <c r="AV51" s="30" t="str">
         <f>VLOOKUP($AU51,Dummy!$A:$R,2,FALSE)</f>
-        <v>Itália</v>
+        <v>Brasil</v>
       </c>
       <c r="AW51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,5,FALSE)</f>
@@ -12646,15 +12738,15 @@
       </c>
       <c r="AZ51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,9,FALSE)</f>
@@ -12662,7 +12754,7 @@
       </c>
       <c r="BD51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,11,FALSE)</f>
@@ -12674,27 +12766,27 @@
       </c>
       <c r="BG51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,14,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI51" s="29">
         <f>VLOOKUP($AU51,Dummy!$A:$R,15,FALSE)</f>
-        <v>3000</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BJ51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,16,FALSE)</f>
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="BK51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,17,FALSE)</f>
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BL51" s="29">
         <f>VLOOKUP($AU51,Dummy!$A:$R,18,FALSE)</f>
-        <v>1227.8481012658228</v>
+        <v>1154.320987654321</v>
       </c>
     </row>
     <row r="52" spans="2:64" x14ac:dyDescent="0.25">
@@ -12837,7 +12929,7 @@
       </c>
       <c r="AV52" s="30" t="str">
         <f>VLOOKUP($AU52,Dummy!$A:$R,2,FALSE)</f>
-        <v>Eslovênia</v>
+        <v>Ucrânia</v>
       </c>
       <c r="AW52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,3,FALSE)</f>
@@ -12857,11 +12949,11 @@
       </c>
       <c r="BA52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,9,FALSE)</f>
@@ -12885,23 +12977,23 @@
       </c>
       <c r="BH52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,14,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="BI52" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI52" s="29" t="str">
         <f>VLOOKUP($AU52,Dummy!$A:$R,15,FALSE)</f>
-        <v>3000</v>
+        <v>MAX</v>
       </c>
       <c r="BJ52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,16,FALSE)</f>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="BK52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,17,FALSE)</f>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BL52" s="29">
         <f>VLOOKUP($AU52,Dummy!$A:$R,18,FALSE)</f>
-        <v>1200</v>
+        <v>1153.8461538461538</v>
       </c>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
@@ -13040,7 +13132,7 @@
       </c>
       <c r="AV53" s="30" t="str">
         <f>VLOOKUP($AU53,Dummy!$A:$R,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Eslovênia</v>
       </c>
       <c r="AW53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,3,FALSE)</f>
@@ -13096,15 +13188,15 @@
       </c>
       <c r="BJ53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,16,FALSE)</f>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="BK53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,17,FALSE)</f>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="BL53" s="29">
         <f>VLOOKUP($AU53,Dummy!$A:$R,18,FALSE)</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="54" spans="2:64" x14ac:dyDescent="0.25">
@@ -13438,7 +13530,7 @@
       </c>
       <c r="AV55" s="30" t="str">
         <f>VLOOKUP($AU55,Dummy!$A:$R,2,FALSE)</f>
-        <v>China</v>
+        <v>Canadá</v>
       </c>
       <c r="AW55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,3,FALSE)</f>
@@ -13458,7 +13550,7 @@
       </c>
       <c r="BA55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,8,FALSE)</f>
@@ -13466,11 +13558,11 @@
       </c>
       <c r="BC55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,11,FALSE)</f>
@@ -13478,15 +13570,15 @@
       </c>
       <c r="BF55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI55" s="29">
         <f>VLOOKUP($AU55,Dummy!$A:$R,15,FALSE)</f>
@@ -13494,15 +13586,15 @@
       </c>
       <c r="BJ55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,16,FALSE)</f>
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="BK55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,17,FALSE)</f>
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="BL55" s="29">
         <f>VLOOKUP($AU55,Dummy!$A:$R,18,FALSE)</f>
-        <v>950.35460992907804</v>
+        <v>1039.4088669950738</v>
       </c>
     </row>
     <row r="56" spans="2:64" x14ac:dyDescent="0.25">
@@ -13637,7 +13729,7 @@
       </c>
       <c r="AV56" s="30" t="str">
         <f>VLOOKUP($AU56,Dummy!$A:$R,2,FALSE)</f>
-        <v>Sérvia</v>
+        <v>China</v>
       </c>
       <c r="AW56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,3,FALSE)</f>
@@ -13657,11 +13749,11 @@
       </c>
       <c r="BA56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,9,FALSE)</f>
@@ -13685,23 +13777,23 @@
       </c>
       <c r="BH56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,14,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI56" s="29">
         <f>VLOOKUP($AU56,Dummy!$A:$R,15,FALSE)</f>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="BJ56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,16,FALSE)</f>
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="BK56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,17,FALSE)</f>
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="BL56" s="29">
         <f>VLOOKUP($AU56,Dummy!$A:$R,18,FALSE)</f>
-        <v>910.71428571428567</v>
+        <v>950.35460992907804</v>
       </c>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
@@ -13836,15 +13928,15 @@
       </c>
       <c r="AV57" s="30" t="str">
         <f>VLOOKUP($AU57,Dummy!$A:$R,2,FALSE)</f>
-        <v>Canadá</v>
+        <v>Sérvia</v>
       </c>
       <c r="AW57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,5,FALSE)</f>
@@ -13852,7 +13944,7 @@
       </c>
       <c r="AZ57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,7,FALSE)</f>
@@ -13860,11 +13952,11 @@
       </c>
       <c r="BB57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,10,FALSE)</f>
@@ -13876,7 +13968,7 @@
       </c>
       <c r="BF57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,13,FALSE)</f>
@@ -13884,23 +13976,23 @@
       </c>
       <c r="BH57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,14,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI57" s="29">
         <f>VLOOKUP($AU57,Dummy!$A:$R,15,FALSE)</f>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="BJ57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,16,FALSE)</f>
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="BK57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,17,FALSE)</f>
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="BL57" s="29">
         <f>VLOOKUP($AU57,Dummy!$A:$R,18,FALSE)</f>
-        <v>1058.2524271844659</v>
+        <v>910.71428571428567</v>
       </c>
     </row>
     <row r="58" spans="2:64" x14ac:dyDescent="0.25">
@@ -14035,19 +14127,19 @@
       </c>
       <c r="AV58" s="30" t="str">
         <f>VLOOKUP($AU58,Dummy!$A:$R,2,FALSE)</f>
-        <v>Alemanha</v>
+        <v>Cuba</v>
       </c>
       <c r="AW58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,3,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,6,FALSE)</f>
@@ -14063,15 +14155,15 @@
       </c>
       <c r="BC58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,12,FALSE)</f>
@@ -14079,27 +14171,27 @@
       </c>
       <c r="BG58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,13,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI58" s="29">
         <f>VLOOKUP($AU58,Dummy!$A:$R,15,FALSE)</f>
-        <v>666.66666666666663</v>
+        <v>800</v>
       </c>
       <c r="BJ58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,16,FALSE)</f>
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="BK58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,17,FALSE)</f>
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="BL58" s="29">
         <f>VLOOKUP($AU58,Dummy!$A:$R,18,FALSE)</f>
-        <v>944.95412844036696</v>
+        <v>908.65384615384619</v>
       </c>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
@@ -14234,23 +14326,23 @@
       </c>
       <c r="AV59" s="30" t="str">
         <f>VLOOKUP($AU59,Dummy!$A:$R,2,FALSE)</f>
-        <v>Holanda</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AW59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,4,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,7,FALSE)</f>
@@ -14262,7 +14354,7 @@
       </c>
       <c r="BC59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,10,FALSE)</f>
@@ -14274,31 +14366,31 @@
       </c>
       <c r="BF59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BI59" s="29" t="str">
+        <v>5</v>
+      </c>
+      <c r="BI59" s="29">
         <f>VLOOKUP($AU59,Dummy!$A:$R,15,FALSE)</f>
-        <v>MAX</v>
+        <v>600</v>
       </c>
       <c r="BJ59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,16,FALSE)</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="BK59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL59" s="29" t="str">
+        <v>184</v>
+      </c>
+      <c r="BL59" s="29">
         <f>VLOOKUP($AU59,Dummy!$A:$R,18,FALSE)</f>
-        <v>MAX</v>
+        <v>934.78260869565224</v>
       </c>
     </row>
     <row r="60" spans="2:64" x14ac:dyDescent="0.25">
@@ -14433,15 +14525,15 @@
       </c>
       <c r="AV60" s="30" t="str">
         <f>VLOOKUP($AU60,Dummy!$A:$R,2,FALSE)</f>
-        <v>Turquia</v>
+        <v>Alemanha</v>
       </c>
       <c r="AW60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,5,FALSE)</f>
@@ -14449,7 +14541,7 @@
       </c>
       <c r="AZ60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,7,FALSE)</f>
@@ -14465,11 +14557,11 @@
       </c>
       <c r="BD60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,12,FALSE)</f>
@@ -14477,70 +14569,70 @@
       </c>
       <c r="BG60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,13,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI60" s="29">
         <f>VLOOKUP($AU60,Dummy!$A:$R,15,FALSE)</f>
-        <v>333.33333333333331</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="BJ60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,16,FALSE)</f>
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="BK60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,17,FALSE)</f>
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="BL60" s="29">
         <f>VLOOKUP($AU60,Dummy!$A:$R,18,FALSE)</f>
-        <v>1068.9655172413793</v>
+        <v>958.1395348837209</v>
       </c>
     </row>
     <row r="61" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="60"/>
-      <c r="U61" s="60"/>
-      <c r="V61" s="60"/>
-      <c r="W61" s="60"/>
-      <c r="X61" s="60"/>
-      <c r="Y61" s="60"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="63"/>
+      <c r="U61" s="63"/>
+      <c r="V61" s="63"/>
+      <c r="W61" s="63"/>
+      <c r="X61" s="63"/>
+      <c r="Y61" s="63"/>
       <c r="AU61" s="31">
         <v>14</v>
       </c>
       <c r="AV61" s="30" t="str">
         <f>VLOOKUP($AU61,Dummy!$A:$R,2,FALSE)</f>
-        <v>França</v>
+        <v>Irã</v>
       </c>
       <c r="AW61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,5,FALSE)</f>
@@ -14548,7 +14640,7 @@
       </c>
       <c r="AZ61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,7,FALSE)</f>
@@ -14564,23 +14656,23 @@
       </c>
       <c r="BD61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,13,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI61" s="29">
         <f>VLOOKUP($AU61,Dummy!$A:$R,15,FALSE)</f>
@@ -14588,15 +14680,15 @@
       </c>
       <c r="BJ61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,16,FALSE)</f>
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="BK61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,17,FALSE)</f>
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="BL61" s="29">
         <f>VLOOKUP($AU61,Dummy!$A:$R,18,FALSE)</f>
-        <v>1000</v>
+        <v>890.1098901098901</v>
       </c>
     </row>
     <row r="62" spans="2:64" x14ac:dyDescent="0.25">
@@ -14604,42 +14696,42 @@
         <v>2</v>
       </c>
       <c r="C62" s="24"/>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
       <c r="G62" s="20"/>
-      <c r="H62" s="59" t="s">
+      <c r="H62" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59" t="s">
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59" t="s">
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59" t="s">
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="59"/>
-      <c r="S62" s="59"/>
-      <c r="T62" s="59" t="s">
+      <c r="R62" s="65"/>
+      <c r="S62" s="65"/>
+      <c r="T62" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U62" s="59"/>
-      <c r="V62" s="59"/>
-      <c r="W62" s="59" t="s">
+      <c r="U62" s="65"/>
+      <c r="V62" s="65"/>
+      <c r="W62" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="X62" s="59"/>
-      <c r="Y62" s="59"/>
+      <c r="X62" s="65"/>
+      <c r="Y62" s="65"/>
       <c r="AA62" s="4" t="s">
         <v>38</v>
       </c>
@@ -14702,7 +14794,7 @@
       </c>
       <c r="AV62" s="30" t="str">
         <f>VLOOKUP($AU62,Dummy!$A:$R,2,FALSE)</f>
-        <v>Cuba</v>
+        <v>Turquia</v>
       </c>
       <c r="AW62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,3,FALSE)</f>
@@ -14758,15 +14850,15 @@
       </c>
       <c r="BJ62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,16,FALSE)</f>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="BK62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,17,FALSE)</f>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="BL62" s="29">
         <f>VLOOKUP($AU62,Dummy!$A:$R,18,FALSE)</f>
-        <v>833.33333333333337</v>
+        <v>1068.9655172413793</v>
       </c>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
@@ -14901,7 +14993,7 @@
       </c>
       <c r="AV63" s="30" t="str">
         <f>VLOOKUP($AU63,Dummy!$A:$R,2,FALSE)</f>
-        <v>Bulgária</v>
+        <v>França</v>
       </c>
       <c r="AW63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,3,FALSE)</f>
@@ -14957,15 +15049,15 @@
       </c>
       <c r="BJ63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,16,FALSE)</f>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="BK63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,17,FALSE)</f>
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="BL63" s="29">
         <f>VLOOKUP($AU63,Dummy!$A:$R,18,FALSE)</f>
-        <v>814.43298969072168</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="2:64" x14ac:dyDescent="0.25">
@@ -15100,7 +15192,7 @@
       </c>
       <c r="AV64" s="30" t="str">
         <f>VLOOKUP($AU64,Dummy!$A:$R,2,FALSE)</f>
-        <v>Estados Unidos</v>
+        <v>Holanda</v>
       </c>
       <c r="AW64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,3,FALSE)</f>
@@ -15136,15 +15228,15 @@
       </c>
       <c r="BE64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,14,FALSE)</f>
@@ -15152,19 +15244,19 @@
       </c>
       <c r="BI64" s="29">
         <f>VLOOKUP($AU64,Dummy!$A:$R,15,FALSE)</f>
-        <v>0</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BJ64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,16,FALSE)</f>
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="BK64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,17,FALSE)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="BL64" s="29">
         <f>VLOOKUP($AU64,Dummy!$A:$R,18,FALSE)</f>
-        <v>866.66666666666674</v>
+        <v>938.14432989690727</v>
       </c>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
@@ -15299,7 +15391,7 @@
       </c>
       <c r="AV65" s="30" t="str">
         <f>VLOOKUP($AU65,Dummy!$A:$R,2,FALSE)</f>
-        <v>Irã</v>
+        <v>Bulgária</v>
       </c>
       <c r="AW65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,3,FALSE)</f>
@@ -15335,15 +15427,15 @@
       </c>
       <c r="BE65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,14,FALSE)</f>
@@ -15351,19 +15443,19 @@
       </c>
       <c r="BI65" s="29">
         <f>VLOOKUP($AU65,Dummy!$A:$R,15,FALSE)</f>
-        <v>0</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BJ65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,16,FALSE)</f>
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="BK65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,17,FALSE)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="BL65" s="29">
         <f>VLOOKUP($AU65,Dummy!$A:$R,18,FALSE)</f>
-        <v>706.66666666666663</v>
+        <v>814.43298969072168</v>
       </c>
     </row>
     <row r="66" spans="2:64" x14ac:dyDescent="0.25">
@@ -15495,7 +15587,7 @@
       </c>
       <c r="AX66" s="53">
         <f>SUM(AX48:AX65)</f>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
@@ -15625,10 +15717,10 @@
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="AU67" s="67" t="s">
+      <c r="AU67" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="AV67" s="67"/>
+      <c r="AV67" s="59"/>
     </row>
     <row r="68" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B68" s="18">
@@ -16023,7 +16115,7 @@
       </c>
       <c r="AU70" s="57"/>
       <c r="AV70" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="2:64" x14ac:dyDescent="0.25">
@@ -16539,74 +16631,74 @@
       </c>
     </row>
     <row r="75" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B75" s="60" t="s">
+      <c r="B75" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="60"/>
-      <c r="N75" s="60"/>
-      <c r="O75" s="60"/>
-      <c r="P75" s="60"/>
-      <c r="Q75" s="60"/>
-      <c r="R75" s="60"/>
-      <c r="S75" s="60"/>
-      <c r="T75" s="60"/>
-      <c r="U75" s="60"/>
-      <c r="V75" s="60"/>
-      <c r="W75" s="60"/>
-      <c r="X75" s="60"/>
-      <c r="Y75" s="60"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="63"/>
+      <c r="S75" s="63"/>
+      <c r="T75" s="63"/>
+      <c r="U75" s="63"/>
+      <c r="V75" s="63"/>
+      <c r="W75" s="63"/>
+      <c r="X75" s="63"/>
+      <c r="Y75" s="63"/>
     </row>
     <row r="76" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C76" s="24"/>
-      <c r="D76" s="63" t="s">
+      <c r="D76" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
       <c r="G76" s="20"/>
-      <c r="H76" s="59" t="s">
+      <c r="H76" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59" t="s">
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59" t="s">
+      <c r="L76" s="65"/>
+      <c r="M76" s="65"/>
+      <c r="N76" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O76" s="59"/>
-      <c r="P76" s="59"/>
-      <c r="Q76" s="59" t="s">
+      <c r="O76" s="65"/>
+      <c r="P76" s="65"/>
+      <c r="Q76" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R76" s="59"/>
-      <c r="S76" s="59"/>
-      <c r="T76" s="59" t="s">
+      <c r="R76" s="65"/>
+      <c r="S76" s="65"/>
+      <c r="T76" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U76" s="59"/>
-      <c r="V76" s="59"/>
-      <c r="W76" s="59" t="s">
+      <c r="U76" s="65"/>
+      <c r="V76" s="65"/>
+      <c r="W76" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="X76" s="59"/>
-      <c r="Y76" s="59"/>
+      <c r="X76" s="65"/>
+      <c r="Y76" s="65"/>
       <c r="AA76" s="4" t="s">
         <v>38</v>
       </c>
@@ -16798,7 +16890,7 @@
         <v>45833</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D78" s="33"/>
       <c r="E78" s="11" t="s">
@@ -17054,7 +17146,7 @@
         <v>45834</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D80" s="33"/>
       <c r="E80" s="11" t="s">
@@ -17450,7 +17542,7 @@
         <v>45835</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D83" s="33"/>
       <c r="E83" s="11" t="s">
@@ -17842,7 +17934,7 @@
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="21" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="H86" s="33"/>
       <c r="I86" s="11" t="s">
@@ -18214,88 +18306,88 @@
       </c>
     </row>
     <row r="90" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B90" s="61" t="s">
+      <c r="B90" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="61"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="61"/>
-      <c r="L90" s="61"/>
-      <c r="M90" s="61"/>
-      <c r="N90" s="61"/>
-      <c r="O90" s="61"/>
-      <c r="P90" s="61"/>
-      <c r="Q90" s="61"/>
-      <c r="R90" s="61"/>
-      <c r="S90" s="61"/>
-      <c r="T90" s="61"/>
-      <c r="U90" s="61"/>
-      <c r="V90" s="61"/>
-      <c r="W90" s="61"/>
-      <c r="X90" s="61"/>
-      <c r="Y90" s="61"/>
-      <c r="AU90" s="64" t="s">
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="67"/>
+      <c r="K90" s="67"/>
+      <c r="L90" s="67"/>
+      <c r="M90" s="67"/>
+      <c r="N90" s="67"/>
+      <c r="O90" s="67"/>
+      <c r="P90" s="67"/>
+      <c r="Q90" s="67"/>
+      <c r="R90" s="67"/>
+      <c r="S90" s="67"/>
+      <c r="T90" s="67"/>
+      <c r="U90" s="67"/>
+      <c r="V90" s="67"/>
+      <c r="W90" s="67"/>
+      <c r="X90" s="67"/>
+      <c r="Y90" s="67"/>
+      <c r="AU90" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="AV90" s="65"/>
-      <c r="AW90" s="66"/>
-      <c r="AX90" s="64" t="s">
+      <c r="AV90" s="61"/>
+      <c r="AW90" s="62"/>
+      <c r="AX90" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AY90" s="65"/>
-      <c r="AZ90" s="66"/>
-      <c r="BA90" s="64" t="s">
+      <c r="AY90" s="61"/>
+      <c r="AZ90" s="62"/>
+      <c r="BA90" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="BB90" s="65"/>
-      <c r="BC90" s="65"/>
-      <c r="BD90" s="65"/>
-      <c r="BE90" s="65"/>
-      <c r="BF90" s="66"/>
-      <c r="BG90" s="64" t="s">
+      <c r="BB90" s="61"/>
+      <c r="BC90" s="61"/>
+      <c r="BD90" s="61"/>
+      <c r="BE90" s="61"/>
+      <c r="BF90" s="62"/>
+      <c r="BG90" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="BH90" s="65"/>
-      <c r="BI90" s="66"/>
-      <c r="BJ90" s="64" t="s">
+      <c r="BH90" s="61"/>
+      <c r="BI90" s="62"/>
+      <c r="BJ90" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="BK90" s="65"/>
-      <c r="BL90" s="66"/>
+      <c r="BK90" s="61"/>
+      <c r="BL90" s="62"/>
     </row>
     <row r="91" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B91" s="60" t="s">
+      <c r="B91" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="60"/>
-      <c r="N91" s="60"/>
-      <c r="O91" s="60"/>
-      <c r="P91" s="60"/>
-      <c r="Q91" s="60"/>
-      <c r="R91" s="60"/>
-      <c r="S91" s="60"/>
-      <c r="T91" s="60"/>
-      <c r="U91" s="60"/>
-      <c r="V91" s="60"/>
-      <c r="W91" s="60"/>
-      <c r="X91" s="60"/>
-      <c r="Y91" s="60"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="63"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="63"/>
+      <c r="L91" s="63"/>
+      <c r="M91" s="63"/>
+      <c r="N91" s="63"/>
+      <c r="O91" s="63"/>
+      <c r="P91" s="63"/>
+      <c r="Q91" s="63"/>
+      <c r="R91" s="63"/>
+      <c r="S91" s="63"/>
+      <c r="T91" s="63"/>
+      <c r="U91" s="63"/>
+      <c r="V91" s="63"/>
+      <c r="W91" s="63"/>
+      <c r="X91" s="63"/>
+      <c r="Y91" s="63"/>
       <c r="AU91" s="32" t="s">
         <v>43</v>
       </c>
@@ -18356,42 +18448,42 @@
         <v>2</v>
       </c>
       <c r="C92" s="24"/>
-      <c r="D92" s="63" t="s">
+      <c r="D92" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
       <c r="G92" s="20"/>
-      <c r="H92" s="59" t="s">
+      <c r="H92" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59" t="s">
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
-      <c r="N92" s="59" t="s">
+      <c r="L92" s="65"/>
+      <c r="M92" s="65"/>
+      <c r="N92" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O92" s="59"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59" t="s">
+      <c r="O92" s="65"/>
+      <c r="P92" s="65"/>
+      <c r="Q92" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R92" s="59"/>
-      <c r="S92" s="59"/>
-      <c r="T92" s="59" t="s">
+      <c r="R92" s="65"/>
+      <c r="S92" s="65"/>
+      <c r="T92" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U92" s="59"/>
-      <c r="V92" s="59"/>
-      <c r="W92" s="59" t="s">
+      <c r="U92" s="65"/>
+      <c r="V92" s="65"/>
+      <c r="W92" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="X92" s="59"/>
-      <c r="Y92" s="59"/>
+      <c r="X92" s="65"/>
+      <c r="Y92" s="65"/>
       <c r="AA92" s="4" t="s">
         <v>38</v>
       </c>
@@ -18653,19 +18745,19 @@
       </c>
       <c r="AV93" s="30" t="str">
         <f>VLOOKUP($AU93,Dummy!$A:$R,2,FALSE)</f>
-        <v>Brasil</v>
+        <v>Itália</v>
       </c>
       <c r="AW93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,6,FALSE)</f>
@@ -18673,15 +18765,15 @@
       </c>
       <c r="BA93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,10,FALSE)</f>
@@ -18697,27 +18789,27 @@
       </c>
       <c r="BG93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BI93" s="29" t="str">
+        <v>3</v>
+      </c>
+      <c r="BI93" s="29">
         <f>VLOOKUP($AU93,Dummy!$A:$R,15,FALSE)</f>
-        <v>MAX</v>
+        <v>2000</v>
       </c>
       <c r="BJ93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,16,FALSE)</f>
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="BK93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,17,FALSE)</f>
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="BL93" s="29">
         <f>VLOOKUP($AU93,Dummy!$A:$R,18,FALSE)</f>
-        <v>1415.0943396226414</v>
+        <v>1115.3846153846155</v>
       </c>
     </row>
     <row r="94" spans="2:64" x14ac:dyDescent="0.25">
@@ -18852,19 +18944,19 @@
       </c>
       <c r="AV94" s="30" t="str">
         <f>VLOOKUP($AU94,Dummy!$A:$R,2,FALSE)</f>
-        <v>Ucrânia</v>
+        <v>Argentina</v>
       </c>
       <c r="AW94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,6,FALSE)</f>
@@ -18872,15 +18964,15 @@
       </c>
       <c r="BA94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,10,FALSE)</f>
@@ -18896,27 +18988,27 @@
       </c>
       <c r="BG94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BI94" s="29" t="str">
+        <v>3</v>
+      </c>
+      <c r="BI94" s="29">
         <f>VLOOKUP($AU94,Dummy!$A:$R,15,FALSE)</f>
-        <v>MAX</v>
+        <v>2000</v>
       </c>
       <c r="BJ94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,16,FALSE)</f>
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="BK94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,17,FALSE)</f>
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="BL94" s="29">
         <f>VLOOKUP($AU94,Dummy!$A:$R,18,FALSE)</f>
-        <v>1153.8461538461538</v>
+        <v>989.47368421052624</v>
       </c>
     </row>
     <row r="95" spans="2:64" x14ac:dyDescent="0.25">
@@ -19051,15 +19143,15 @@
       </c>
       <c r="AV95" s="30" t="str">
         <f>VLOOKUP($AU95,Dummy!$A:$R,2,FALSE)</f>
-        <v>Itália</v>
+        <v>Brasil</v>
       </c>
       <c r="AW95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,5,FALSE)</f>
@@ -19067,15 +19159,15 @@
       </c>
       <c r="AZ95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,9,FALSE)</f>
@@ -19083,7 +19175,7 @@
       </c>
       <c r="BD95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,11,FALSE)</f>
@@ -19095,27 +19187,27 @@
       </c>
       <c r="BG95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,14,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI95" s="29">
         <f>VLOOKUP($AU95,Dummy!$A:$R,15,FALSE)</f>
-        <v>3000</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BJ95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,16,FALSE)</f>
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="BK95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,17,FALSE)</f>
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BL95" s="29">
         <f>VLOOKUP($AU95,Dummy!$A:$R,18,FALSE)</f>
-        <v>1227.8481012658228</v>
+        <v>1154.320987654321</v>
       </c>
     </row>
     <row r="96" spans="2:64" x14ac:dyDescent="0.25">
@@ -19258,7 +19350,7 @@
       </c>
       <c r="AV96" s="30" t="str">
         <f>VLOOKUP($AU96,Dummy!$A:$R,2,FALSE)</f>
-        <v>Eslovênia</v>
+        <v>Ucrânia</v>
       </c>
       <c r="AW96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,3,FALSE)</f>
@@ -19278,11 +19370,11 @@
       </c>
       <c r="BA96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,9,FALSE)</f>
@@ -19306,23 +19398,23 @@
       </c>
       <c r="BH96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,14,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="BI96" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI96" s="29" t="str">
         <f>VLOOKUP($AU96,Dummy!$A:$R,15,FALSE)</f>
-        <v>3000</v>
+        <v>MAX</v>
       </c>
       <c r="BJ96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,16,FALSE)</f>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="BK96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,17,FALSE)</f>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BL96" s="29">
         <f>VLOOKUP($AU96,Dummy!$A:$R,18,FALSE)</f>
-        <v>1200</v>
+        <v>1153.8461538461538</v>
       </c>
     </row>
     <row r="97" spans="2:64" x14ac:dyDescent="0.25">
@@ -19461,7 +19553,7 @@
       </c>
       <c r="AV97" s="30" t="str">
         <f>VLOOKUP($AU97,Dummy!$A:$R,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Eslovênia</v>
       </c>
       <c r="AW97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,3,FALSE)</f>
@@ -19517,15 +19609,15 @@
       </c>
       <c r="BJ97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,16,FALSE)</f>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="BK97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,17,FALSE)</f>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="BL97" s="29">
         <f>VLOOKUP($AU97,Dummy!$A:$R,18,FALSE)</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="98" spans="2:64" x14ac:dyDescent="0.25">
@@ -19859,7 +19951,7 @@
       </c>
       <c r="AV99" s="30" t="str">
         <f>VLOOKUP($AU99,Dummy!$A:$R,2,FALSE)</f>
-        <v>China</v>
+        <v>Canadá</v>
       </c>
       <c r="AW99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,3,FALSE)</f>
@@ -19879,7 +19971,7 @@
       </c>
       <c r="BA99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,8,FALSE)</f>
@@ -19887,11 +19979,11 @@
       </c>
       <c r="BC99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,11,FALSE)</f>
@@ -19899,15 +19991,15 @@
       </c>
       <c r="BF99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI99" s="29">
         <f>VLOOKUP($AU99,Dummy!$A:$R,15,FALSE)</f>
@@ -19915,15 +20007,15 @@
       </c>
       <c r="BJ99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,16,FALSE)</f>
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="BK99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,17,FALSE)</f>
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="BL99" s="29">
         <f>VLOOKUP($AU99,Dummy!$A:$R,18,FALSE)</f>
-        <v>950.35460992907804</v>
+        <v>1039.4088669950738</v>
       </c>
     </row>
     <row r="100" spans="2:64" x14ac:dyDescent="0.25">
@@ -20058,7 +20150,7 @@
       </c>
       <c r="AV100" s="30" t="str">
         <f>VLOOKUP($AU100,Dummy!$A:$R,2,FALSE)</f>
-        <v>Sérvia</v>
+        <v>China</v>
       </c>
       <c r="AW100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,3,FALSE)</f>
@@ -20078,11 +20170,11 @@
       </c>
       <c r="BA100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,9,FALSE)</f>
@@ -20106,23 +20198,23 @@
       </c>
       <c r="BH100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,14,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI100" s="29">
         <f>VLOOKUP($AU100,Dummy!$A:$R,15,FALSE)</f>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="BJ100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,16,FALSE)</f>
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="BK100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,17,FALSE)</f>
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="BL100" s="29">
         <f>VLOOKUP($AU100,Dummy!$A:$R,18,FALSE)</f>
-        <v>910.71428571428567</v>
+        <v>950.35460992907804</v>
       </c>
     </row>
     <row r="101" spans="2:64" x14ac:dyDescent="0.25">
@@ -20257,15 +20349,15 @@
       </c>
       <c r="AV101" s="30" t="str">
         <f>VLOOKUP($AU101,Dummy!$A:$R,2,FALSE)</f>
-        <v>Canadá</v>
+        <v>Sérvia</v>
       </c>
       <c r="AW101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,5,FALSE)</f>
@@ -20273,7 +20365,7 @@
       </c>
       <c r="AZ101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,7,FALSE)</f>
@@ -20281,11 +20373,11 @@
       </c>
       <c r="BB101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,10,FALSE)</f>
@@ -20297,7 +20389,7 @@
       </c>
       <c r="BF101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,13,FALSE)</f>
@@ -20305,23 +20397,23 @@
       </c>
       <c r="BH101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,14,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI101" s="29">
         <f>VLOOKUP($AU101,Dummy!$A:$R,15,FALSE)</f>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="BJ101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,16,FALSE)</f>
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="BK101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,17,FALSE)</f>
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="BL101" s="29">
         <f>VLOOKUP($AU101,Dummy!$A:$R,18,FALSE)</f>
-        <v>1058.2524271844659</v>
+        <v>910.71428571428567</v>
       </c>
     </row>
     <row r="102" spans="2:64" x14ac:dyDescent="0.25">
@@ -20456,19 +20548,19 @@
       </c>
       <c r="AV102" s="30" t="str">
         <f>VLOOKUP($AU102,Dummy!$A:$R,2,FALSE)</f>
-        <v>Alemanha</v>
+        <v>Cuba</v>
       </c>
       <c r="AW102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,3,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,6,FALSE)</f>
@@ -20484,15 +20576,15 @@
       </c>
       <c r="BC102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,12,FALSE)</f>
@@ -20500,27 +20592,27 @@
       </c>
       <c r="BG102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,13,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI102" s="29">
         <f>VLOOKUP($AU102,Dummy!$A:$R,15,FALSE)</f>
-        <v>666.66666666666663</v>
+        <v>800</v>
       </c>
       <c r="BJ102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,16,FALSE)</f>
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="BK102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,17,FALSE)</f>
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="BL102" s="29">
         <f>VLOOKUP($AU102,Dummy!$A:$R,18,FALSE)</f>
-        <v>944.95412844036696</v>
+        <v>908.65384615384619</v>
       </c>
     </row>
     <row r="103" spans="2:64" x14ac:dyDescent="0.25">
@@ -20655,23 +20747,23 @@
       </c>
       <c r="AV103" s="30" t="str">
         <f>VLOOKUP($AU103,Dummy!$A:$R,2,FALSE)</f>
-        <v>Holanda</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AW103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,4,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,7,FALSE)</f>
@@ -20683,7 +20775,7 @@
       </c>
       <c r="BC103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,10,FALSE)</f>
@@ -20695,31 +20787,31 @@
       </c>
       <c r="BF103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BI103" s="29" t="str">
+        <v>5</v>
+      </c>
+      <c r="BI103" s="29">
         <f>VLOOKUP($AU103,Dummy!$A:$R,15,FALSE)</f>
-        <v>MAX</v>
+        <v>600</v>
       </c>
       <c r="BJ103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,16,FALSE)</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="BK103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL103" s="29" t="str">
+        <v>184</v>
+      </c>
+      <c r="BL103" s="29">
         <f>VLOOKUP($AU103,Dummy!$A:$R,18,FALSE)</f>
-        <v>MAX</v>
+        <v>934.78260869565224</v>
       </c>
     </row>
     <row r="104" spans="2:64" x14ac:dyDescent="0.25">
@@ -20854,15 +20946,15 @@
       </c>
       <c r="AV104" s="30" t="str">
         <f>VLOOKUP($AU104,Dummy!$A:$R,2,FALSE)</f>
-        <v>Turquia</v>
+        <v>Alemanha</v>
       </c>
       <c r="AW104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,5,FALSE)</f>
@@ -20870,7 +20962,7 @@
       </c>
       <c r="AZ104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,7,FALSE)</f>
@@ -20886,11 +20978,11 @@
       </c>
       <c r="BD104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,12,FALSE)</f>
@@ -20898,70 +20990,70 @@
       </c>
       <c r="BG104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,13,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI104" s="29">
         <f>VLOOKUP($AU104,Dummy!$A:$R,15,FALSE)</f>
-        <v>333.33333333333331</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="BJ104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,16,FALSE)</f>
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="BK104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,17,FALSE)</f>
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="BL104" s="29">
         <f>VLOOKUP($AU104,Dummy!$A:$R,18,FALSE)</f>
-        <v>1068.9655172413793</v>
+        <v>958.1395348837209</v>
       </c>
     </row>
     <row r="105" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B105" s="60" t="s">
+      <c r="B105" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="60"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="60"/>
-      <c r="L105" s="60"/>
-      <c r="M105" s="60"/>
-      <c r="N105" s="60"/>
-      <c r="O105" s="60"/>
-      <c r="P105" s="60"/>
-      <c r="Q105" s="60"/>
-      <c r="R105" s="60"/>
-      <c r="S105" s="60"/>
-      <c r="T105" s="60"/>
-      <c r="U105" s="60"/>
-      <c r="V105" s="60"/>
-      <c r="W105" s="60"/>
-      <c r="X105" s="60"/>
-      <c r="Y105" s="60"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
+      <c r="K105" s="63"/>
+      <c r="L105" s="63"/>
+      <c r="M105" s="63"/>
+      <c r="N105" s="63"/>
+      <c r="O105" s="63"/>
+      <c r="P105" s="63"/>
+      <c r="Q105" s="63"/>
+      <c r="R105" s="63"/>
+      <c r="S105" s="63"/>
+      <c r="T105" s="63"/>
+      <c r="U105" s="63"/>
+      <c r="V105" s="63"/>
+      <c r="W105" s="63"/>
+      <c r="X105" s="63"/>
+      <c r="Y105" s="63"/>
       <c r="AU105" s="31">
         <v>14</v>
       </c>
       <c r="AV105" s="30" t="str">
         <f>VLOOKUP($AU105,Dummy!$A:$R,2,FALSE)</f>
-        <v>França</v>
+        <v>Irã</v>
       </c>
       <c r="AW105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,5,FALSE)</f>
@@ -20969,7 +21061,7 @@
       </c>
       <c r="AZ105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,7,FALSE)</f>
@@ -20985,23 +21077,23 @@
       </c>
       <c r="BD105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,13,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI105" s="29">
         <f>VLOOKUP($AU105,Dummy!$A:$R,15,FALSE)</f>
@@ -21009,15 +21101,15 @@
       </c>
       <c r="BJ105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,16,FALSE)</f>
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="BK105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,17,FALSE)</f>
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="BL105" s="29">
         <f>VLOOKUP($AU105,Dummy!$A:$R,18,FALSE)</f>
-        <v>1000</v>
+        <v>890.1098901098901</v>
       </c>
     </row>
     <row r="106" spans="2:64" x14ac:dyDescent="0.25">
@@ -21025,42 +21117,42 @@
         <v>2</v>
       </c>
       <c r="C106" s="24"/>
-      <c r="D106" s="59" t="s">
+      <c r="D106" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
       <c r="G106" s="20"/>
-      <c r="H106" s="59" t="s">
+      <c r="H106" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I106" s="59"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="59" t="s">
+      <c r="I106" s="65"/>
+      <c r="J106" s="65"/>
+      <c r="K106" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L106" s="59"/>
-      <c r="M106" s="59"/>
-      <c r="N106" s="59" t="s">
+      <c r="L106" s="65"/>
+      <c r="M106" s="65"/>
+      <c r="N106" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O106" s="59"/>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="59" t="s">
+      <c r="O106" s="65"/>
+      <c r="P106" s="65"/>
+      <c r="Q106" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R106" s="59"/>
-      <c r="S106" s="59"/>
-      <c r="T106" s="59" t="s">
+      <c r="R106" s="65"/>
+      <c r="S106" s="65"/>
+      <c r="T106" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U106" s="59"/>
-      <c r="V106" s="59"/>
-      <c r="W106" s="59" t="s">
+      <c r="U106" s="65"/>
+      <c r="V106" s="65"/>
+      <c r="W106" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="X106" s="59"/>
-      <c r="Y106" s="59"/>
+      <c r="X106" s="65"/>
+      <c r="Y106" s="65"/>
       <c r="AA106" s="4" t="s">
         <v>38</v>
       </c>
@@ -21123,7 +21215,7 @@
       </c>
       <c r="AV106" s="30" t="str">
         <f>VLOOKUP($AU106,Dummy!$A:$R,2,FALSE)</f>
-        <v>Cuba</v>
+        <v>Turquia</v>
       </c>
       <c r="AW106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,3,FALSE)</f>
@@ -21179,15 +21271,15 @@
       </c>
       <c r="BJ106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,16,FALSE)</f>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="BK106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,17,FALSE)</f>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="BL106" s="29">
         <f>VLOOKUP($AU106,Dummy!$A:$R,18,FALSE)</f>
-        <v>833.33333333333337</v>
+        <v>1068.9655172413793</v>
       </c>
     </row>
     <row r="107" spans="2:64" x14ac:dyDescent="0.25">
@@ -21203,7 +21295,7 @@
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="22" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="H107" s="33"/>
       <c r="I107" s="11" t="s">
@@ -21322,7 +21414,7 @@
       </c>
       <c r="AV107" s="30" t="str">
         <f>VLOOKUP($AU107,Dummy!$A:$R,2,FALSE)</f>
-        <v>Bulgária</v>
+        <v>França</v>
       </c>
       <c r="AW107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,3,FALSE)</f>
@@ -21378,15 +21470,15 @@
       </c>
       <c r="BJ107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,16,FALSE)</f>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="BK107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,17,FALSE)</f>
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="BL107" s="29">
         <f>VLOOKUP($AU107,Dummy!$A:$R,18,FALSE)</f>
-        <v>814.43298969072168</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="108" spans="2:64" x14ac:dyDescent="0.25">
@@ -21521,7 +21613,7 @@
       </c>
       <c r="AV108" s="30" t="str">
         <f>VLOOKUP($AU108,Dummy!$A:$R,2,FALSE)</f>
-        <v>Estados Unidos</v>
+        <v>Holanda</v>
       </c>
       <c r="AW108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,3,FALSE)</f>
@@ -21557,15 +21649,15 @@
       </c>
       <c r="BE108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,14,FALSE)</f>
@@ -21573,19 +21665,19 @@
       </c>
       <c r="BI108" s="29">
         <f>VLOOKUP($AU108,Dummy!$A:$R,15,FALSE)</f>
-        <v>0</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BJ108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,16,FALSE)</f>
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="BK108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,17,FALSE)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="BL108" s="29">
         <f>VLOOKUP($AU108,Dummy!$A:$R,18,FALSE)</f>
-        <v>866.66666666666674</v>
+        <v>938.14432989690727</v>
       </c>
     </row>
     <row r="109" spans="2:64" x14ac:dyDescent="0.25">
@@ -21720,7 +21812,7 @@
       </c>
       <c r="AV109" s="30" t="str">
         <f>VLOOKUP($AU109,Dummy!$A:$R,2,FALSE)</f>
-        <v>Irã</v>
+        <v>Bulgária</v>
       </c>
       <c r="AW109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,3,FALSE)</f>
@@ -21756,15 +21848,15 @@
       </c>
       <c r="BE109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,14,FALSE)</f>
@@ -21772,19 +21864,19 @@
       </c>
       <c r="BI109" s="29">
         <f>VLOOKUP($AU109,Dummy!$A:$R,15,FALSE)</f>
-        <v>0</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BJ109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,16,FALSE)</f>
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="BK109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,17,FALSE)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="BL109" s="29">
         <f>VLOOKUP($AU109,Dummy!$A:$R,18,FALSE)</f>
-        <v>706.66666666666663</v>
+        <v>814.43298969072168</v>
       </c>
     </row>
     <row r="110" spans="2:64" x14ac:dyDescent="0.25">
@@ -21916,7 +22008,7 @@
       </c>
       <c r="AX110" s="53">
         <f>SUM(AX92:AX109)</f>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="2:64" x14ac:dyDescent="0.25">
@@ -21924,7 +22016,7 @@
         <v>45855</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D111" s="33"/>
       <c r="E111" s="11" t="s">
@@ -22046,10 +22138,10 @@
         <f t="shared" si="164"/>
         <v>0</v>
       </c>
-      <c r="AU111" s="67" t="s">
+      <c r="AU111" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="AV111" s="67"/>
+      <c r="AV111" s="59"/>
     </row>
     <row r="112" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B112" s="18">
@@ -22188,7 +22280,7 @@
         <v>45856</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D113" s="33"/>
       <c r="E113" s="11" t="s">
@@ -22444,7 +22536,7 @@
       </c>
       <c r="AU114" s="57"/>
       <c r="AV114" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" spans="2:48" x14ac:dyDescent="0.25">
@@ -22708,7 +22800,7 @@
         <v>45858</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D117" s="33"/>
       <c r="E117" s="11" t="s">
@@ -22960,74 +23052,74 @@
       </c>
     </row>
     <row r="119" spans="2:48" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B119" s="60" t="s">
+      <c r="B119" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C119" s="60"/>
-      <c r="D119" s="60"/>
-      <c r="E119" s="60"/>
-      <c r="F119" s="60"/>
-      <c r="G119" s="60"/>
-      <c r="H119" s="60"/>
-      <c r="I119" s="60"/>
-      <c r="J119" s="60"/>
-      <c r="K119" s="60"/>
-      <c r="L119" s="60"/>
-      <c r="M119" s="60"/>
-      <c r="N119" s="60"/>
-      <c r="O119" s="60"/>
-      <c r="P119" s="60"/>
-      <c r="Q119" s="60"/>
-      <c r="R119" s="60"/>
-      <c r="S119" s="60"/>
-      <c r="T119" s="60"/>
-      <c r="U119" s="60"/>
-      <c r="V119" s="60"/>
-      <c r="W119" s="60"/>
-      <c r="X119" s="60"/>
-      <c r="Y119" s="60"/>
+      <c r="C119" s="63"/>
+      <c r="D119" s="63"/>
+      <c r="E119" s="63"/>
+      <c r="F119" s="63"/>
+      <c r="G119" s="63"/>
+      <c r="H119" s="63"/>
+      <c r="I119" s="63"/>
+      <c r="J119" s="63"/>
+      <c r="K119" s="63"/>
+      <c r="L119" s="63"/>
+      <c r="M119" s="63"/>
+      <c r="N119" s="63"/>
+      <c r="O119" s="63"/>
+      <c r="P119" s="63"/>
+      <c r="Q119" s="63"/>
+      <c r="R119" s="63"/>
+      <c r="S119" s="63"/>
+      <c r="T119" s="63"/>
+      <c r="U119" s="63"/>
+      <c r="V119" s="63"/>
+      <c r="W119" s="63"/>
+      <c r="X119" s="63"/>
+      <c r="Y119" s="63"/>
     </row>
     <row r="120" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B120" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C120" s="24"/>
-      <c r="D120" s="63" t="s">
+      <c r="D120" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="63"/>
-      <c r="F120" s="63"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="64"/>
       <c r="G120" s="20"/>
-      <c r="H120" s="59" t="s">
+      <c r="H120" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I120" s="59"/>
-      <c r="J120" s="59"/>
-      <c r="K120" s="59" t="s">
+      <c r="I120" s="65"/>
+      <c r="J120" s="65"/>
+      <c r="K120" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L120" s="59"/>
-      <c r="M120" s="59"/>
-      <c r="N120" s="59" t="s">
+      <c r="L120" s="65"/>
+      <c r="M120" s="65"/>
+      <c r="N120" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O120" s="59"/>
-      <c r="P120" s="59"/>
-      <c r="Q120" s="59" t="s">
+      <c r="O120" s="65"/>
+      <c r="P120" s="65"/>
+      <c r="Q120" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R120" s="59"/>
-      <c r="S120" s="59"/>
-      <c r="T120" s="59" t="s">
+      <c r="R120" s="65"/>
+      <c r="S120" s="65"/>
+      <c r="T120" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U120" s="59"/>
-      <c r="V120" s="59"/>
-      <c r="W120" s="59" t="s">
+      <c r="U120" s="65"/>
+      <c r="V120" s="65"/>
+      <c r="W120" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="X120" s="59"/>
-      <c r="Y120" s="59"/>
+      <c r="X120" s="65"/>
+      <c r="Y120" s="65"/>
       <c r="AA120" s="4" t="s">
         <v>38</v>
       </c>
@@ -24637,40 +24729,49 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="93">
-    <mergeCell ref="AU111:AV111"/>
-    <mergeCell ref="AU90:AW90"/>
-    <mergeCell ref="AX90:AZ90"/>
-    <mergeCell ref="BA90:BF90"/>
-    <mergeCell ref="BG90:BI90"/>
-    <mergeCell ref="BJ90:BL90"/>
-    <mergeCell ref="AU23:AV23"/>
-    <mergeCell ref="AU67:AV67"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AU46:AW46"/>
-    <mergeCell ref="AX46:AZ46"/>
-    <mergeCell ref="BA46:BF46"/>
-    <mergeCell ref="BG46:BI46"/>
-    <mergeCell ref="BJ46:BL46"/>
-    <mergeCell ref="B119:Y119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="N120:P120"/>
-    <mergeCell ref="Q120:S120"/>
-    <mergeCell ref="T120:V120"/>
-    <mergeCell ref="W120:Y120"/>
-    <mergeCell ref="B105:Y105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="B75:Y75"/>
+    <mergeCell ref="B46:Y46"/>
+    <mergeCell ref="B47:Y47"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="B31:Y31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="B61:Y61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="T62:V62"/>
+    <mergeCell ref="W62:Y62"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
     <mergeCell ref="W76:Y76"/>
     <mergeCell ref="B90:Y90"/>
     <mergeCell ref="B91:Y91"/>
@@ -24687,49 +24788,40 @@
     <mergeCell ref="N76:P76"/>
     <mergeCell ref="Q76:S76"/>
     <mergeCell ref="T76:V76"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="B61:Y61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="T62:V62"/>
-    <mergeCell ref="W62:Y62"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="B75:Y75"/>
-    <mergeCell ref="B46:Y46"/>
-    <mergeCell ref="B47:Y47"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="B31:Y31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="B105:Y105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="B119:Y119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="N120:P120"/>
+    <mergeCell ref="Q120:S120"/>
+    <mergeCell ref="T120:V120"/>
+    <mergeCell ref="W120:Y120"/>
+    <mergeCell ref="BJ90:BL90"/>
+    <mergeCell ref="AU23:AV23"/>
+    <mergeCell ref="AU67:AV67"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AU46:AW46"/>
+    <mergeCell ref="AX46:AZ46"/>
+    <mergeCell ref="BA46:BF46"/>
+    <mergeCell ref="BG46:BI46"/>
+    <mergeCell ref="BJ46:BL46"/>
+    <mergeCell ref="AU111:AV111"/>
+    <mergeCell ref="AU90:AW90"/>
+    <mergeCell ref="AX90:AZ90"/>
+    <mergeCell ref="BA90:BF90"/>
+    <mergeCell ref="BG90:BI90"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:V16">
     <cfRule type="expression" dxfId="123" priority="133">
@@ -25396,100 +25488,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="AU2" s="68" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="AU2" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68" t="s">
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="68" t="s">
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="68"/>
-      <c r="BF2" s="68"/>
-      <c r="BG2" s="68" t="s">
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" s="68"/>
-      <c r="BI2" s="68"/>
-      <c r="BJ2" s="68" t="s">
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="68"/>
-      <c r="BL2" s="68"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
     </row>
     <row r="3" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59" t="s">
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59" t="s">
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59" t="s">
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59" t="s">
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59" t="s">
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
       <c r="AA3" s="4" t="s">
         <v>38</v>
       </c>
@@ -25937,19 +26029,19 @@
       </c>
       <c r="AV5" s="30" t="str">
         <f>VLOOKUP($AU5,Dummy!$A:$R,2,FALSE)</f>
-        <v>Brasil</v>
+        <v>Itália</v>
       </c>
       <c r="AW5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,6,FALSE)</f>
@@ -25957,15 +26049,15 @@
       </c>
       <c r="BA5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,10,FALSE)</f>
@@ -25981,27 +26073,27 @@
       </c>
       <c r="BG5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BI5" s="29" t="str">
+        <v>3</v>
+      </c>
+      <c r="BI5" s="29">
         <f>VLOOKUP($AU5,Dummy!$A:$R,15,FALSE)</f>
-        <v>MAX</v>
+        <v>2000</v>
       </c>
       <c r="BJ5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,16,FALSE)</f>
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="BK5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,17,FALSE)</f>
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="BL5" s="29">
         <f>VLOOKUP($AU5,Dummy!$A:$R,18,FALSE)</f>
-        <v>1415.0943396226414</v>
+        <v>1115.3846153846155</v>
       </c>
     </row>
     <row r="6" spans="2:64" x14ac:dyDescent="0.25">
@@ -26138,19 +26230,19 @@
       </c>
       <c r="AV6" s="30" t="str">
         <f>VLOOKUP($AU6,Dummy!$A:$R,2,FALSE)</f>
-        <v>Ucrânia</v>
+        <v>Argentina</v>
       </c>
       <c r="AW6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,6,FALSE)</f>
@@ -26158,15 +26250,15 @@
       </c>
       <c r="BA6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,10,FALSE)</f>
@@ -26182,27 +26274,27 @@
       </c>
       <c r="BG6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BI6" s="29" t="str">
+        <v>3</v>
+      </c>
+      <c r="BI6" s="29">
         <f>VLOOKUP($AU6,Dummy!$A:$R,15,FALSE)</f>
-        <v>MAX</v>
+        <v>2000</v>
       </c>
       <c r="BJ6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,16,FALSE)</f>
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="BK6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,17,FALSE)</f>
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="BL6" s="29">
         <f>VLOOKUP($AU6,Dummy!$A:$R,18,FALSE)</f>
-        <v>1153.8461538461538</v>
+        <v>989.47368421052624</v>
       </c>
     </row>
     <row r="7" spans="2:64" x14ac:dyDescent="0.25">
@@ -26339,15 +26431,15 @@
       </c>
       <c r="AV7" s="30" t="str">
         <f>VLOOKUP($AU7,Dummy!$A:$R,2,FALSE)</f>
-        <v>Itália</v>
+        <v>Brasil</v>
       </c>
       <c r="AW7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,5,FALSE)</f>
@@ -26355,15 +26447,15 @@
       </c>
       <c r="AZ7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,9,FALSE)</f>
@@ -26371,7 +26463,7 @@
       </c>
       <c r="BD7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,11,FALSE)</f>
@@ -26383,27 +26475,27 @@
       </c>
       <c r="BG7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,14,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI7" s="29">
         <f>VLOOKUP($AU7,Dummy!$A:$R,15,FALSE)</f>
-        <v>3000</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BJ7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,16,FALSE)</f>
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="BK7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,17,FALSE)</f>
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BL7" s="29">
         <f>VLOOKUP($AU7,Dummy!$A:$R,18,FALSE)</f>
-        <v>1227.8481012658228</v>
+        <v>1154.320987654321</v>
       </c>
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.25">
@@ -26412,7 +26504,7 @@
       </c>
       <c r="AV8" s="30" t="str">
         <f>VLOOKUP($AU8,Dummy!$A:$R,2,FALSE)</f>
-        <v>Eslovênia</v>
+        <v>Ucrânia</v>
       </c>
       <c r="AW8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,3,FALSE)</f>
@@ -26432,11 +26524,11 @@
       </c>
       <c r="BA8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,9,FALSE)</f>
@@ -26460,23 +26552,23 @@
       </c>
       <c r="BH8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,14,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="BI8" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="29" t="str">
         <f>VLOOKUP($AU8,Dummy!$A:$R,15,FALSE)</f>
-        <v>3000</v>
+        <v>MAX</v>
       </c>
       <c r="BJ8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,16,FALSE)</f>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="BK8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,17,FALSE)</f>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BL8" s="29">
         <f>VLOOKUP($AU8,Dummy!$A:$R,18,FALSE)</f>
-        <v>1200</v>
+        <v>1153.8461538461538</v>
       </c>
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.25">
@@ -26485,7 +26577,7 @@
       </c>
       <c r="AV9" s="30" t="str">
         <f>VLOOKUP($AU9,Dummy!$A:$R,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Eslovênia</v>
       </c>
       <c r="AW9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,3,FALSE)</f>
@@ -26541,44 +26633,44 @@
       </c>
       <c r="BJ9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,16,FALSE)</f>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="BK9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,17,FALSE)</f>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="BL9" s="29">
         <f>VLOOKUP($AU9,Dummy!$A:$R,18,FALSE)</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
       <c r="AU10" s="31">
         <v>7</v>
       </c>
@@ -26654,42 +26746,42 @@
     <row r="11" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" s="24"/>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59" t="s">
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59" t="s">
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59" t="s">
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59" t="s">
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59" t="s">
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
       <c r="AA11" s="4" t="s">
         <v>38</v>
       </c>
@@ -26752,7 +26844,7 @@
       </c>
       <c r="AV11" s="30" t="str">
         <f>VLOOKUP($AU11,Dummy!$A:$R,2,FALSE)</f>
-        <v>China</v>
+        <v>Canadá</v>
       </c>
       <c r="AW11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,3,FALSE)</f>
@@ -26772,7 +26864,7 @@
       </c>
       <c r="BA11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,8,FALSE)</f>
@@ -26780,11 +26872,11 @@
       </c>
       <c r="BC11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,11,FALSE)</f>
@@ -26792,15 +26884,15 @@
       </c>
       <c r="BF11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,13,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI11" s="29">
         <f>VLOOKUP($AU11,Dummy!$A:$R,15,FALSE)</f>
@@ -26808,15 +26900,15 @@
       </c>
       <c r="BJ11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,16,FALSE)</f>
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="BK11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,17,FALSE)</f>
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="BL11" s="29">
         <f>VLOOKUP($AU11,Dummy!$A:$R,18,FALSE)</f>
-        <v>950.35460992907804</v>
+        <v>1039.4088669950738</v>
       </c>
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.25">
@@ -26953,7 +27045,7 @@
       </c>
       <c r="AV12" s="30" t="str">
         <f>VLOOKUP($AU12,Dummy!$A:$R,2,FALSE)</f>
-        <v>Sérvia</v>
+        <v>China</v>
       </c>
       <c r="AW12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,3,FALSE)</f>
@@ -26973,11 +27065,11 @@
       </c>
       <c r="BA12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,9,FALSE)</f>
@@ -27001,23 +27093,23 @@
       </c>
       <c r="BH12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,14,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI12" s="29">
         <f>VLOOKUP($AU12,Dummy!$A:$R,15,FALSE)</f>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="BJ12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,16,FALSE)</f>
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="BK12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,17,FALSE)</f>
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="BL12" s="29">
         <f>VLOOKUP($AU12,Dummy!$A:$R,18,FALSE)</f>
-        <v>910.71428571428567</v>
+        <v>950.35460992907804</v>
       </c>
     </row>
     <row r="13" spans="2:64" x14ac:dyDescent="0.25">
@@ -27154,15 +27246,15 @@
       </c>
       <c r="AV13" s="30" t="str">
         <f>VLOOKUP($AU13,Dummy!$A:$R,2,FALSE)</f>
-        <v>Canadá</v>
+        <v>Sérvia</v>
       </c>
       <c r="AW13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,5,FALSE)</f>
@@ -27170,7 +27262,7 @@
       </c>
       <c r="AZ13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,7,FALSE)</f>
@@ -27178,11 +27270,11 @@
       </c>
       <c r="BB13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,10,FALSE)</f>
@@ -27194,7 +27286,7 @@
       </c>
       <c r="BF13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,13,FALSE)</f>
@@ -27202,23 +27294,23 @@
       </c>
       <c r="BH13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,14,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI13" s="29">
         <f>VLOOKUP($AU13,Dummy!$A:$R,15,FALSE)</f>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="BJ13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,16,FALSE)</f>
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="BK13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,17,FALSE)</f>
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="BL13" s="29">
         <f>VLOOKUP($AU13,Dummy!$A:$R,18,FALSE)</f>
-        <v>1058.2524271844659</v>
+        <v>910.71428571428567</v>
       </c>
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.25">
@@ -27227,19 +27319,19 @@
       </c>
       <c r="AV14" s="30" t="str">
         <f>VLOOKUP($AU14,Dummy!$A:$R,2,FALSE)</f>
-        <v>Alemanha</v>
+        <v>Cuba</v>
       </c>
       <c r="AW14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,3,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,6,FALSE)</f>
@@ -27255,15 +27347,15 @@
       </c>
       <c r="BC14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,12,FALSE)</f>
@@ -27271,27 +27363,27 @@
       </c>
       <c r="BG14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,13,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI14" s="29">
         <f>VLOOKUP($AU14,Dummy!$A:$R,15,FALSE)</f>
-        <v>666.66666666666663</v>
+        <v>800</v>
       </c>
       <c r="BJ14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,16,FALSE)</f>
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="BK14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,17,FALSE)</f>
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="BL14" s="29">
         <f>VLOOKUP($AU14,Dummy!$A:$R,18,FALSE)</f>
-        <v>944.95412844036696</v>
+        <v>908.65384615384619</v>
       </c>
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.25">
@@ -27300,23 +27392,23 @@
       </c>
       <c r="AV15" s="30" t="str">
         <f>VLOOKUP($AU15,Dummy!$A:$R,2,FALSE)</f>
-        <v>Holanda</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AW15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,4,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,7,FALSE)</f>
@@ -27328,7 +27420,7 @@
       </c>
       <c r="BC15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,10,FALSE)</f>
@@ -27340,31 +27432,31 @@
       </c>
       <c r="BF15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BI15" s="29" t="str">
+        <v>5</v>
+      </c>
+      <c r="BI15" s="29">
         <f>VLOOKUP($AU15,Dummy!$A:$R,15,FALSE)</f>
-        <v>MAX</v>
+        <v>600</v>
       </c>
       <c r="BJ15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,16,FALSE)</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="BK15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL15" s="29" t="str">
+        <v>184</v>
+      </c>
+      <c r="BL15" s="29">
         <f>VLOOKUP($AU15,Dummy!$A:$R,18,FALSE)</f>
-        <v>MAX</v>
+        <v>934.78260869565224</v>
       </c>
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.25">
@@ -27373,15 +27465,15 @@
       </c>
       <c r="AV16" s="30" t="str">
         <f>VLOOKUP($AU16,Dummy!$A:$R,2,FALSE)</f>
-        <v>Turquia</v>
+        <v>Alemanha</v>
       </c>
       <c r="AW16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,5,FALSE)</f>
@@ -27389,7 +27481,7 @@
       </c>
       <c r="AZ16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,7,FALSE)</f>
@@ -27405,11 +27497,11 @@
       </c>
       <c r="BD16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,12,FALSE)</f>
@@ -27417,56 +27509,56 @@
       </c>
       <c r="BG16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,13,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI16" s="29">
         <f>VLOOKUP($AU16,Dummy!$A:$R,15,FALSE)</f>
-        <v>333.33333333333331</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="BJ16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,16,FALSE)</f>
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="BK16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,17,FALSE)</f>
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="BL16" s="29">
         <f>VLOOKUP($AU16,Dummy!$A:$R,18,FALSE)</f>
-        <v>1068.9655172413793</v>
+        <v>958.1395348837209</v>
       </c>
     </row>
     <row r="17" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
       <c r="AA17" s="4" t="s">
         <v>38</v>
       </c>
@@ -27529,15 +27621,15 @@
       </c>
       <c r="AV17" s="30" t="str">
         <f>VLOOKUP($AU17,Dummy!$A:$R,2,FALSE)</f>
-        <v>França</v>
+        <v>Irã</v>
       </c>
       <c r="AW17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,4,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,5,FALSE)</f>
@@ -27545,7 +27637,7 @@
       </c>
       <c r="AZ17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,6,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,7,FALSE)</f>
@@ -27561,23 +27653,23 @@
       </c>
       <c r="BD17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,13,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI17" s="29">
         <f>VLOOKUP($AU17,Dummy!$A:$R,15,FALSE)</f>
@@ -27585,56 +27677,56 @@
       </c>
       <c r="BJ17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,16,FALSE)</f>
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="BK17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,17,FALSE)</f>
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="BL17" s="29">
         <f>VLOOKUP($AU17,Dummy!$A:$R,18,FALSE)</f>
-        <v>1000</v>
+        <v>890.1098901098901</v>
       </c>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59" t="s">
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59" t="s">
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59" t="s">
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59" t="s">
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59" t="s">
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
       <c r="AA18" s="4">
         <f>AD18+AE18</f>
         <v>0</v>
@@ -27716,7 +27808,7 @@
       </c>
       <c r="AV18" s="30" t="str">
         <f>VLOOKUP($AU18,Dummy!$A:$R,2,FALSE)</f>
-        <v>Cuba</v>
+        <v>Turquia</v>
       </c>
       <c r="AW18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,3,FALSE)</f>
@@ -27772,15 +27864,15 @@
       </c>
       <c r="BJ18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,16,FALSE)</f>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="BK18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,17,FALSE)</f>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="BL18" s="29">
         <f>VLOOKUP($AU18,Dummy!$A:$R,18,FALSE)</f>
-        <v>833.33333333333337</v>
+        <v>1068.9655172413793</v>
       </c>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
@@ -27841,7 +27933,7 @@
       </c>
       <c r="AV19" s="30" t="str">
         <f>VLOOKUP($AU19,Dummy!$A:$R,2,FALSE)</f>
-        <v>Bulgária</v>
+        <v>França</v>
       </c>
       <c r="AW19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,3,FALSE)</f>
@@ -27897,15 +27989,15 @@
       </c>
       <c r="BJ19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,16,FALSE)</f>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="BK19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,17,FALSE)</f>
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="BL19" s="29">
         <f>VLOOKUP($AU19,Dummy!$A:$R,18,FALSE)</f>
-        <v>814.43298969072168</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
@@ -27914,7 +28006,7 @@
       </c>
       <c r="AV20" s="30" t="str">
         <f>VLOOKUP($AU20,Dummy!$A:$R,2,FALSE)</f>
-        <v>Estados Unidos</v>
+        <v>Holanda</v>
       </c>
       <c r="AW20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,3,FALSE)</f>
@@ -27950,15 +28042,15 @@
       </c>
       <c r="BE20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,14,FALSE)</f>
@@ -27966,19 +28058,19 @@
       </c>
       <c r="BI20" s="29">
         <f>VLOOKUP($AU20,Dummy!$A:$R,15,FALSE)</f>
-        <v>0</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BJ20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,16,FALSE)</f>
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="BK20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,17,FALSE)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="BL20" s="29">
         <f>VLOOKUP($AU20,Dummy!$A:$R,18,FALSE)</f>
-        <v>866.66666666666674</v>
+        <v>938.14432989690727</v>
       </c>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
@@ -27987,7 +28079,7 @@
       </c>
       <c r="AV21" s="30" t="str">
         <f>VLOOKUP($AU21,Dummy!$A:$R,2,FALSE)</f>
-        <v>Irã</v>
+        <v>Bulgária</v>
       </c>
       <c r="AW21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,3,FALSE)</f>
@@ -28023,15 +28115,15 @@
       </c>
       <c r="BE21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,14,FALSE)</f>
@@ -28039,54 +28131,54 @@
       </c>
       <c r="BI21" s="29">
         <f>VLOOKUP($AU21,Dummy!$A:$R,15,FALSE)</f>
-        <v>0</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BJ21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,16,FALSE)</f>
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="BK21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,17,FALSE)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="BL21" s="29">
         <f>VLOOKUP($AU21,Dummy!$A:$R,18,FALSE)</f>
-        <v>706.66666666666663</v>
+        <v>814.43298969072168</v>
       </c>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
       <c r="AX22" s="53">
         <f>SUM(AX4:AX21)</f>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
       <c r="AA23" s="4" t="s">
         <v>38</v>
       </c>
@@ -28144,50 +28236,50 @@
       <c r="AT23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AU23" s="67" t="s">
+      <c r="AU23" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="AV23" s="67"/>
+      <c r="AV23" s="59"/>
     </row>
     <row r="24" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59" t="s">
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59" t="s">
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59" t="s">
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59" t="s">
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59" t="s">
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
       <c r="AA24" s="4">
         <f>AD24+AE24</f>
         <v>0</v>
@@ -28330,7 +28422,7 @@
     <row r="26" spans="2:64" x14ac:dyDescent="0.25">
       <c r="AU26" s="57"/>
       <c r="AV26" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="2:64" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -28360,10 +28452,10 @@
       <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="2:64" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="44"/>
       <c r="E28" s="39"/>
       <c r="F28" s="46"/>
@@ -28450,16 +28542,23 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="39">
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="AU23:AV23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="B23:Y23"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B10:Y10"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BL2"/>
     <mergeCell ref="T18:V18"/>
     <mergeCell ref="W18:Y18"/>
     <mergeCell ref="D11:F11"/>
@@ -28472,23 +28571,16 @@
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B10:Y10"/>
-    <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="AU23:AV23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="B23:Y23"/>
   </mergeCells>
   <conditionalFormatting sqref="T4:V7 T12:V13">
     <cfRule type="expression" dxfId="17" priority="70">
@@ -28605,23 +28697,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF2846C41E31A469E3CED25F2422E48" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0c08e4af4d80db6585ac36ba965bb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c8c20e6-817c-474f-b9c2-eb2b1ac24837" xmlns:ns4="dc8c2798-6aba-4af7-93a4-b89253b03650" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e7db2db65f9cb533b4933096bc9b657" ns3:_="" ns4:_="">
     <xsd:import namespace="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
@@ -28854,32 +28929,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A4F3B6-8EF3-43FC-AA6E-56F4B11E76F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28896,4 +28963,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VNL Masculino 2025.xlsx
+++ b/VNL Masculino 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2861F6D4-9BDD-4D93-9FED-95F01D7499F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D584DA95-F3B6-411F-8F2D-A3974AF7547B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
@@ -861,39 +861,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -910,16 +877,49 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2527,7 +2527,7 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>RANK(E3,$E$3:$E$20)+SUM(S3:V3)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>42</v>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="D3" s="1">
         <f>E3+F3</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B3)</f>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="F3" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B3,Jogos!AF:AF)</f>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="K3" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B3,Jogos!AQ:AQ)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B3,Jogos!AR:AR)</f>
@@ -2574,27 +2574,27 @@
       </c>
       <c r="M3" s="1">
         <f>SUMIF(Jogos!AB:AB,B3,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B3,Jogos!AN:AN)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1">
         <f>SUMIF(Jogos!AB:AB,B3,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B3,Jogos!AO:AO)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O3" s="15">
         <f>IFERROR((M3/N3)*1000,"MAX")</f>
-        <v>1052.6315789473683</v>
+        <v>954.54545454545462</v>
       </c>
       <c r="P3" s="1">
         <f>SUMIF(Jogos!AB:AB,B3,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B3,Jogos!AS:AS)</f>
-        <v>886</v>
+        <v>988</v>
       </c>
       <c r="Q3" s="1">
         <f>SUMIF(Jogos!AB:AB,B3,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B3,Jogos!AT:AT)</f>
-        <v>882</v>
+        <v>984</v>
       </c>
       <c r="R3" s="15">
         <f t="shared" ref="R3:R20" si="0">IFERROR((P3/Q3)*1000,"MAX")</f>
-        <v>1004.5351473922904</v>
+        <v>1004.0650406504066</v>
       </c>
       <c r="S3" s="1">
         <f>SUMPRODUCT(($E$3:$E$20=E3)*($C$3:$C$20&gt;C3))</f>
@@ -2630,18 +2630,18 @@
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A20" si="1">RANK(E4,$E$3:$E$20)+SUM(S4:V4)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C20" si="2">SUM(G4*3,H4*3,I4*2,J4)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D20" si="3">E4+F4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B4)</f>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="F4" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B4,Jogos!AF:AF)</f>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="J4" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B4,Jogos!AP:AP)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B4,Jogos!AQ:AQ)</f>
@@ -2677,31 +2677,31 @@
       </c>
       <c r="M4" s="1">
         <f>SUMIF(Jogos!AB:AB,B4,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B4,Jogos!AN:AN)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N4" s="1">
         <f>SUMIF(Jogos!AB:AB,B4,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B4,Jogos!AO:AO)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O4" s="15">
         <f t="shared" ref="O4:O20" si="4">IFERROR((M4/N4)*1000,"MAX")</f>
-        <v>1000</v>
+        <v>952.38095238095229</v>
       </c>
       <c r="P4" s="1">
         <f>SUMIF(Jogos!AB:AB,B4,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B4,Jogos!AS:AS)</f>
-        <v>814</v>
+        <v>921</v>
       </c>
       <c r="Q4" s="1">
         <f>SUMIF(Jogos!AB:AB,B4,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B4,Jogos!AT:AT)</f>
-        <v>807</v>
+        <v>918</v>
       </c>
       <c r="R4" s="15">
         <f t="shared" si="0"/>
-        <v>1008.6741016109047</v>
+        <v>1003.2679738562091</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" ref="S4:S20" si="5">SUMPRODUCT(($E$3:$E$20=E4)*($C$3:$C$20&gt;C4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" ref="T4:T20" si="6">SUMPRODUCT(($E$3:$E$20=E4)*($C$3:$C$20=C4)*($O$3:$O$20&gt;O4))</f>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="S6" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="6"/>
@@ -3026,7 +3026,7 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>51</v>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B8)</f>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="F8" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B8,Jogos!AF:AF)</f>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="L8" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B8,Jogos!AR:AR)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" s="1">
         <f>SUMIF(Jogos!AB:AB,B8,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B8,Jogos!AN:AN)</f>
@@ -3077,23 +3077,23 @@
       </c>
       <c r="N8" s="1">
         <f>SUMIF(Jogos!AB:AB,B8,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B8,Jogos!AO:AO)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O8" s="15">
         <f t="shared" si="4"/>
-        <v>409.09090909090912</v>
+        <v>360</v>
       </c>
       <c r="P8" s="1">
         <f>SUMIF(Jogos!AB:AB,B8,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B8,Jogos!AS:AS)</f>
-        <v>650</v>
+        <v>714</v>
       </c>
       <c r="Q8" s="1">
         <f>SUMIF(Jogos!AB:AB,B8,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B8,Jogos!AT:AT)</f>
-        <v>724</v>
+        <v>802</v>
       </c>
       <c r="R8" s="15">
         <f t="shared" si="0"/>
-        <v>897.79005524861873</v>
+        <v>890.27431421446374</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="5"/>
@@ -3132,15 +3132,15 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B9)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B9)</f>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="H9" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B9,Jogos!AG:AG)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B9,Jogos!AH:AH)</f>
@@ -3172,27 +3172,27 @@
       </c>
       <c r="M9" s="1">
         <f>SUMIF(Jogos!AB:AB,B9,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B9,Jogos!AN:AN)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N9" s="1">
         <f>SUMIF(Jogos!AB:AB,B9,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B9,Jogos!AO:AO)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="4"/>
-        <v>1105.2631578947369</v>
+        <v>1200</v>
       </c>
       <c r="P9" s="1">
         <f>SUMIF(Jogos!AB:AB,B9,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B9,Jogos!AS:AS)</f>
-        <v>891</v>
+        <v>989</v>
       </c>
       <c r="Q9" s="1">
         <f>SUMIF(Jogos!AB:AB,B9,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B9,Jogos!AT:AT)</f>
-        <v>873</v>
+        <v>962</v>
       </c>
       <c r="R9" s="15">
         <f t="shared" si="0"/>
-        <v>1020.6185567010309</v>
+        <v>1028.066528066528</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="5"/>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="T9" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="7"/>
@@ -3231,15 +3231,15 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B10)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B10)</f>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="G10" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B10,Jogos!AF:AF)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B10,Jogos!AG:AG)</f>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="M10" s="1">
         <f>SUMIF(Jogos!AB:AB,B10,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B10,Jogos!AN:AN)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N10" s="1">
         <f>SUMIF(Jogos!AB:AB,B10,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B10,Jogos!AO:AO)</f>
@@ -3279,23 +3279,23 @@
       </c>
       <c r="O10" s="15">
         <f t="shared" si="4"/>
-        <v>941.17647058823525</v>
+        <v>1117.6470588235295</v>
       </c>
       <c r="P10" s="1">
         <f>SUMIF(Jogos!AB:AB,B10,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B10,Jogos!AS:AS)</f>
-        <v>759</v>
+        <v>834</v>
       </c>
       <c r="Q10" s="1">
         <f>SUMIF(Jogos!AB:AB,B10,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B10,Jogos!AT:AT)</f>
-        <v>748</v>
+        <v>806</v>
       </c>
       <c r="R10" s="15">
         <f t="shared" si="0"/>
-        <v>1014.7058823529411</v>
+        <v>1034.7394540942928</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="6"/>
@@ -3316,7 +3316,7 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>52</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="T11" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="7"/>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="T12" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="7"/>
@@ -3500,22 +3500,22 @@
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B13)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B13)</f>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="G13" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B13,Jogos!AF:AF)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B13,Jogos!AG:AG)</f>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="M13" s="1">
         <f>SUMIF(Jogos!AB:AB,B13,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B13,Jogos!AN:AN)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N13" s="1">
         <f>SUMIF(Jogos!AB:AB,B13,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B13,Jogos!AO:AO)</f>
@@ -3555,23 +3555,23 @@
       </c>
       <c r="O13" s="15">
         <f t="shared" si="4"/>
-        <v>904.76190476190482</v>
+        <v>1047.6190476190477</v>
       </c>
       <c r="P13" s="1">
         <f>SUMIF(Jogos!AB:AB,B13,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B13,Jogos!AS:AS)</f>
-        <v>871</v>
+        <v>949</v>
       </c>
       <c r="Q13" s="1">
         <f>SUMIF(Jogos!AB:AB,B13,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B13,Jogos!AT:AT)</f>
-        <v>880</v>
+        <v>944</v>
       </c>
       <c r="R13" s="15">
         <f t="shared" si="0"/>
-        <v>989.77272727272725</v>
+        <v>1005.2966101694916</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="6"/>
@@ -3599,15 +3599,15 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B14)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B14)</f>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="I14" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B14,Jogos!AH:AH)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B14,Jogos!AP:AP)</f>
@@ -3639,31 +3639,31 @@
       </c>
       <c r="M14" s="1">
         <f>SUMIF(Jogos!AB:AB,B14,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B14,Jogos!AN:AN)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N14" s="1">
         <f>SUMIF(Jogos!AB:AB,B14,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B14,Jogos!AO:AO)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O14" s="15">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1928.5714285714287</v>
       </c>
       <c r="P14" s="1">
         <f>SUMIF(Jogos!AB:AB,B14,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B14,Jogos!AS:AS)</f>
-        <v>846</v>
+        <v>950</v>
       </c>
       <c r="Q14" s="1">
         <f>SUMIF(Jogos!AB:AB,B14,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B14,Jogos!AT:AT)</f>
-        <v>748</v>
+        <v>843</v>
       </c>
       <c r="R14" s="15">
         <f t="shared" si="0"/>
-        <v>1131.0160427807486</v>
+        <v>1126.9276393831553</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="6"/>
@@ -3684,22 +3684,22 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B15)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B15)</f>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="I15" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B15,Jogos!AH:AH)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B15,Jogos!AP:AP)</f>
@@ -3731,27 +3731,27 @@
       </c>
       <c r="M15" s="1">
         <f>SUMIF(Jogos!AB:AB,B15,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B15,Jogos!AN:AN)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N15" s="1">
         <f>SUMIF(Jogos!AB:AB,B15,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B15,Jogos!AO:AO)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O15" s="15">
         <f t="shared" si="4"/>
-        <v>1750</v>
+        <v>1714.2857142857142</v>
       </c>
       <c r="P15" s="1">
         <f>SUMIF(Jogos!AB:AB,B15,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B15,Jogos!AS:AS)</f>
-        <v>780</v>
+        <v>891</v>
       </c>
       <c r="Q15" s="1">
         <f>SUMIF(Jogos!AB:AB,B15,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B15,Jogos!AT:AT)</f>
-        <v>732</v>
+        <v>839</v>
       </c>
       <c r="R15" s="15">
         <f t="shared" si="0"/>
-        <v>1065.5737704918033</v>
+        <v>1061.9785458879619</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="5"/>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B16)</f>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="F16" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B16)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B16,Jogos!AF:AF)</f>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="L16" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B16,Jogos!AR:AR)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1">
         <f>SUMIF(Jogos!AB:AB,B16,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B16,Jogos!AN:AN)</f>
@@ -3827,23 +3827,23 @@
       </c>
       <c r="N16" s="1">
         <f>SUMIF(Jogos!AB:AB,B16,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B16,Jogos!AO:AO)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O16" s="15">
         <f t="shared" si="4"/>
-        <v>440</v>
+        <v>392.85714285714283</v>
       </c>
       <c r="P16" s="1">
         <f>SUMIF(Jogos!AB:AB,B16,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B16,Jogos!AS:AS)</f>
-        <v>776</v>
+        <v>834</v>
       </c>
       <c r="Q16" s="1">
         <f>SUMIF(Jogos!AB:AB,B16,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B16,Jogos!AT:AT)</f>
-        <v>843</v>
+        <v>918</v>
       </c>
       <c r="R16" s="15">
         <f t="shared" si="0"/>
-        <v>920.52194543297753</v>
+        <v>908.49673202614383</v>
       </c>
       <c r="S16" s="1">
         <f t="shared" si="5"/>
@@ -3868,7 +3868,7 @@
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>40</v>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B17)</f>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="F17" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B17)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B17,Jogos!AF:AF)</f>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="K17" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B17,Jogos!AQ:AQ)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B17,Jogos!AR:AR)</f>
@@ -3915,27 +3915,27 @@
       </c>
       <c r="M17" s="1">
         <f>SUMIF(Jogos!AB:AB,B17,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B17,Jogos!AN:AN)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N17" s="1">
         <f>SUMIF(Jogos!AB:AB,B17,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B17,Jogos!AO:AO)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O17" s="15">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="P17" s="1">
         <f>SUMIF(Jogos!AB:AB,B17,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B17,Jogos!AS:AS)</f>
-        <v>843</v>
+        <v>932</v>
       </c>
       <c r="Q17" s="1">
         <f>SUMIF(Jogos!AB:AB,B17,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B17,Jogos!AT:AT)</f>
-        <v>810</v>
+        <v>908</v>
       </c>
       <c r="R17" s="15">
         <f t="shared" si="0"/>
-        <v>1040.7407407407406</v>
+        <v>1026.431718061674</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" si="5"/>
@@ -3943,11 +3943,11 @@
       </c>
       <c r="T17" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="8"/>
@@ -4052,22 +4052,22 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B19)</f>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B19,Jogos!AG:AG)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B19,Jogos!AH:AH)</f>
@@ -4099,27 +4099,27 @@
       </c>
       <c r="M19" s="1">
         <f>SUMIF(Jogos!AB:AB,B19,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B19,Jogos!AN:AN)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N19" s="1">
         <f>SUMIF(Jogos!AB:AB,B19,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B19,Jogos!AO:AO)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O19" s="15">
         <f t="shared" si="4"/>
-        <v>380.95238095238091</v>
+        <v>500</v>
       </c>
       <c r="P19" s="1">
         <f>SUMIF(Jogos!AB:AB,B19,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B19,Jogos!AS:AS)</f>
-        <v>645</v>
+        <v>747</v>
       </c>
       <c r="Q19" s="1">
         <f>SUMIF(Jogos!AB:AB,B19,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B19,Jogos!AT:AT)</f>
-        <v>690</v>
+        <v>792</v>
       </c>
       <c r="R19" s="15">
         <f t="shared" si="0"/>
-        <v>934.78260869565224</v>
+        <v>943.18181818181824</v>
       </c>
       <c r="S19" s="1">
         <f t="shared" si="5"/>
@@ -4151,11 +4151,11 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B20)</f>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="F20" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B20)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B20,Jogos!AF:AF)</f>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="J20" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B20,Jogos!AP:AP)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B20,Jogos!AQ:AQ)</f>
@@ -4191,35 +4191,35 @@
       </c>
       <c r="M20" s="1">
         <f>SUMIF(Jogos!AB:AB,B20,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B20,Jogos!AN:AN)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N20" s="1">
         <f>SUMIF(Jogos!AB:AB,B20,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B20,Jogos!AO:AO)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O20" s="15">
         <f t="shared" si="4"/>
-        <v>1375</v>
+        <v>1263.1578947368421</v>
       </c>
       <c r="P20" s="1">
         <f>SUMIF(Jogos!AB:AB,B20,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B20,Jogos!AS:AS)</f>
-        <v>836</v>
+        <v>931</v>
       </c>
       <c r="Q20" s="1">
         <f>SUMIF(Jogos!AB:AB,B20,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B20,Jogos!AT:AT)</f>
-        <v>808</v>
+        <v>912</v>
       </c>
       <c r="R20" s="15">
         <f t="shared" si="0"/>
-        <v>1034.6534653465346</v>
+        <v>1020.8333333333333</v>
       </c>
       <c r="S20" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="7"/>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="D27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,3,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,4,FALSE)</f>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="F27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,5,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,6,FALSE)</f>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="L27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,11,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,12,FALSE)</f>
@@ -4396,23 +4396,23 @@
       </c>
       <c r="N27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,13,FALSE)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O27" s="36">
         <f>VLOOKUP($B27,$B$3:$R$20,14,FALSE)</f>
-        <v>409.09090909090912</v>
+        <v>360</v>
       </c>
       <c r="P27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,15,FALSE)</f>
-        <v>650</v>
+        <v>714</v>
       </c>
       <c r="Q27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,16,FALSE)</f>
-        <v>724</v>
+        <v>802</v>
       </c>
       <c r="R27" s="36">
         <f>VLOOKUP($B27,$B$3:$R$20,17,FALSE)</f>
-        <v>897.79005524861873</v>
+        <v>890.27431421446374</v>
       </c>
       <c r="S27" s="1">
         <f>SUMPRODUCT(($E$27:$E$34=E27)*($C$27:$C$34&gt;C27))</f>
@@ -4538,15 +4538,15 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="14"/>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="18"/>
@@ -4578,31 +4578,31 @@
       </c>
       <c r="M29" s="1">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O29" s="36">
         <f t="shared" si="23"/>
-        <v>2000</v>
+        <v>1928.5714285714287</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" si="24"/>
-        <v>846</v>
+        <v>950</v>
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="25"/>
-        <v>748</v>
+        <v>843</v>
       </c>
       <c r="R29" s="36">
         <f t="shared" si="26"/>
-        <v>1131.0160427807486</v>
+        <v>1126.9276393831553</v>
       </c>
       <c r="S29" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="1">
         <f t="shared" si="28"/>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>Polônia</v>
+        <v>Japão</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="11"/>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="13"/>
@@ -4643,15 +4643,15 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="17"/>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="L30" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="21"/>
@@ -4675,23 +4675,23 @@
       </c>
       <c r="N30" s="1">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O30" s="36">
         <f t="shared" si="23"/>
-        <v>2000</v>
+        <v>1714.2857142857142</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" si="24"/>
-        <v>843</v>
+        <v>891</v>
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="25"/>
-        <v>810</v>
+        <v>839</v>
       </c>
       <c r="R30" s="36">
         <f t="shared" si="26"/>
-        <v>1040.7407407407406</v>
+        <v>1061.9785458879619</v>
       </c>
       <c r="S30" s="1">
         <f t="shared" si="27"/>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="U30" s="1">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="1">
         <f t="shared" si="30"/>
@@ -4720,19 +4720,19 @@
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>Japão</v>
+        <v>Polônia</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="14"/>
@@ -4740,15 +4740,15 @@
       </c>
       <c r="G31" s="1">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="18"/>
@@ -4756,35 +4756,35 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O31" s="36">
         <f t="shared" si="23"/>
-        <v>1750</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="24"/>
-        <v>780</v>
+        <v>932</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="25"/>
-        <v>732</v>
+        <v>908</v>
       </c>
       <c r="R31" s="36">
         <f t="shared" si="26"/>
-        <v>1065.5737704918033</v>
+        <v>1026.431718061674</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="27"/>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="T31" s="1">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="29"/>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="T32" s="1">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="1">
         <f t="shared" si="29"/>
@@ -4910,11 +4910,11 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="13"/>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="15"/>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="J33" s="1">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="19"/>
@@ -4950,35 +4950,35 @@
       </c>
       <c r="M33" s="1">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O33" s="36">
         <f t="shared" si="23"/>
-        <v>1375</v>
+        <v>1263.1578947368421</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" si="24"/>
-        <v>836</v>
+        <v>931</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="25"/>
-        <v>808</v>
+        <v>912</v>
       </c>
       <c r="R33" s="36">
         <f t="shared" si="26"/>
-        <v>1034.6534653465346</v>
+        <v>1020.8333333333333</v>
       </c>
       <c r="S33" s="1">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="29"/>
@@ -5003,15 +5003,15 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="14"/>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="17"/>
@@ -5043,27 +5043,27 @@
       </c>
       <c r="M34" s="1">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O34" s="36">
         <f t="shared" si="23"/>
-        <v>1105.2631578947369</v>
+        <v>1200</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" si="24"/>
-        <v>891</v>
+        <v>989</v>
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="25"/>
-        <v>873</v>
+        <v>962</v>
       </c>
       <c r="R34" s="36">
         <f t="shared" si="26"/>
-        <v>1020.6185567010309</v>
+        <v>1028.066528066528</v>
       </c>
       <c r="S34" s="1">
         <f t="shared" si="27"/>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="T34" s="1">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" si="29"/>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" ref="C38:C44" si="33">VLOOKUP($A38,$A$27:$D$34,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -5117,11 +5117,11 @@
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="32"/>
-        <v>Polônia</v>
+        <v>Japão</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -5130,11 +5130,11 @@
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="32"/>
-        <v>Japão</v>
+        <v>Polônia</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -5186,21 +5186,21 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:W25"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:W1"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:W25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5211,7 +5211,7 @@
   <dimension ref="B2:BL132"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5269,88 +5269,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="AU2" s="64" t="s">
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="AU2" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="64" t="s">
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="64" t="s">
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="65"/>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="64" t="s">
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="64" t="s">
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="65"/>
-      <c r="BL2" s="66"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="70"/>
     </row>
     <row r="3" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
+      <c r="B3" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
       <c r="AU3" s="32" t="s">
         <v>43</v>
       </c>
@@ -5411,42 +5411,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59" t="s">
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59" t="s">
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59" t="s">
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59" t="s">
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
       <c r="AA4" s="4" t="s">
         <v>38</v>
       </c>
@@ -5732,15 +5732,15 @@
       </c>
       <c r="AW5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,3,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,5,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,6,FALSE)</f>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="BC5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,10,FALSE)</f>
@@ -5772,27 +5772,27 @@
       </c>
       <c r="BG5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,13,FALSE)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BH5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,14,FALSE)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI5" s="29">
         <f>VLOOKUP($AU5,Dummy!$A:$R,15,FALSE)</f>
-        <v>2000</v>
+        <v>1928.5714285714287</v>
       </c>
       <c r="BJ5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,16,FALSE)</f>
-        <v>846</v>
+        <v>950</v>
       </c>
       <c r="BK5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,17,FALSE)</f>
-        <v>748</v>
+        <v>843</v>
       </c>
       <c r="BL5" s="29">
         <f>VLOOKUP($AU5,Dummy!$A:$R,18,FALSE)</f>
-        <v>1131.0160427807486</v>
+        <v>1126.9276393831553</v>
       </c>
     </row>
     <row r="6" spans="2:64" x14ac:dyDescent="0.25">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="AV6" s="30" t="str">
         <f>VLOOKUP($AU6,Dummy!$A:$R,2,FALSE)</f>
-        <v>Polônia</v>
+        <v>Japão</v>
       </c>
       <c r="AW6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,3,FALSE)</f>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="AX6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,5,FALSE)</f>
@@ -5963,15 +5963,15 @@
       </c>
       <c r="AZ6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,7,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,8,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,9,FALSE)</f>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="BF6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,13,FALSE)</f>
@@ -5995,23 +5995,23 @@
       </c>
       <c r="BH6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,14,FALSE)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI6" s="29">
         <f>VLOOKUP($AU6,Dummy!$A:$R,15,FALSE)</f>
-        <v>2000</v>
+        <v>1714.2857142857142</v>
       </c>
       <c r="BJ6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,16,FALSE)</f>
-        <v>843</v>
+        <v>891</v>
       </c>
       <c r="BK6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,17,FALSE)</f>
-        <v>810</v>
+        <v>839</v>
       </c>
       <c r="BL6" s="29">
         <f>VLOOKUP($AU6,Dummy!$A:$R,18,FALSE)</f>
-        <v>1040.7407407407406</v>
+        <v>1061.9785458879619</v>
       </c>
     </row>
     <row r="7" spans="2:64" x14ac:dyDescent="0.25">
@@ -6170,19 +6170,19 @@
       </c>
       <c r="AV7" s="30" t="str">
         <f>VLOOKUP($AU7,Dummy!$A:$R,2,FALSE)</f>
-        <v>Japão</v>
+        <v>Polônia</v>
       </c>
       <c r="AW7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,3,FALSE)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,5,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,6,FALSE)</f>
@@ -6190,15 +6190,15 @@
       </c>
       <c r="BA7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,7,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,10,FALSE)</f>
@@ -6206,35 +6206,35 @@
       </c>
       <c r="BE7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,13,FALSE)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BH7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,14,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BI7" s="29">
         <f>VLOOKUP($AU7,Dummy!$A:$R,15,FALSE)</f>
-        <v>1750</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BJ7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,16,FALSE)</f>
-        <v>780</v>
+        <v>932</v>
       </c>
       <c r="BK7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,17,FALSE)</f>
-        <v>732</v>
+        <v>908</v>
       </c>
       <c r="BL7" s="29">
         <f>VLOOKUP($AU7,Dummy!$A:$R,18,FALSE)</f>
-        <v>1065.5737704918033</v>
+        <v>1026.431718061674</v>
       </c>
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.25">
@@ -6620,11 +6620,11 @@
       </c>
       <c r="AW9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,3,FALSE)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,5,FALSE)</f>
@@ -6632,7 +6632,7 @@
       </c>
       <c r="AZ9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,6,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,7,FALSE)</f>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="BD9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,10,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,11,FALSE)</f>
@@ -6660,27 +6660,27 @@
       </c>
       <c r="BG9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,13,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BH9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,14,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BI9" s="29">
         <f>VLOOKUP($AU9,Dummy!$A:$R,15,FALSE)</f>
-        <v>1375</v>
+        <v>1263.1578947368421</v>
       </c>
       <c r="BJ9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,16,FALSE)</f>
-        <v>836</v>
+        <v>931</v>
       </c>
       <c r="BK9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,17,FALSE)</f>
-        <v>808</v>
+        <v>912</v>
       </c>
       <c r="BL9" s="29">
         <f>VLOOKUP($AU9,Dummy!$A:$R,18,FALSE)</f>
-        <v>1034.6534653465346</v>
+        <v>1020.8333333333333</v>
       </c>
     </row>
     <row r="10" spans="2:64" x14ac:dyDescent="0.25">
@@ -6835,15 +6835,15 @@
       </c>
       <c r="AW10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,3,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AX10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,5,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,6,FALSE)</f>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="BB10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,8,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,9,FALSE)</f>
@@ -6875,27 +6875,27 @@
       </c>
       <c r="BG10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,13,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BH10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,14,FALSE)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI10" s="29">
         <f>VLOOKUP($AU10,Dummy!$A:$R,15,FALSE)</f>
-        <v>1105.2631578947369</v>
+        <v>1200</v>
       </c>
       <c r="BJ10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,16,FALSE)</f>
-        <v>891</v>
+        <v>989</v>
       </c>
       <c r="BK10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,17,FALSE)</f>
-        <v>873</v>
+        <v>962</v>
       </c>
       <c r="BL10" s="29">
         <f>VLOOKUP($AU10,Dummy!$A:$R,18,FALSE)</f>
-        <v>1020.6185567010309</v>
+        <v>1028.066528066528</v>
       </c>
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.25">
@@ -7054,15 +7054,15 @@
       </c>
       <c r="AW11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,3,FALSE)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,5,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,6,FALSE)</f>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="BA11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,8,FALSE)</f>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="BG11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BH11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,14,FALSE)</f>
@@ -7102,19 +7102,19 @@
       </c>
       <c r="BI11" s="29">
         <f>VLOOKUP($AU11,Dummy!$A:$R,15,FALSE)</f>
-        <v>941.17647058823525</v>
+        <v>1117.6470588235295</v>
       </c>
       <c r="BJ11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,16,FALSE)</f>
-        <v>759</v>
+        <v>834</v>
       </c>
       <c r="BK11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,17,FALSE)</f>
-        <v>748</v>
+        <v>806</v>
       </c>
       <c r="BL11" s="29">
         <f>VLOOKUP($AU11,Dummy!$A:$R,18,FALSE)</f>
-        <v>1014.7058823529411</v>
+        <v>1034.7394540942928</v>
       </c>
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.25">
@@ -7273,15 +7273,15 @@
       </c>
       <c r="AV12" s="30" t="str">
         <f>VLOOKUP($AU12,Dummy!$A:$R,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Irã</v>
       </c>
       <c r="AW12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AX12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,5,FALSE)</f>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="AZ12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,7,FALSE)</f>
@@ -7305,11 +7305,11 @@
       </c>
       <c r="BD12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,11,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,12,FALSE)</f>
@@ -7317,27 +7317,27 @@
       </c>
       <c r="BG12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,13,FALSE)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BH12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,14,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BI12" s="29">
         <f>VLOOKUP($AU12,Dummy!$A:$R,15,FALSE)</f>
-        <v>1000</v>
+        <v>1047.6190476190477</v>
       </c>
       <c r="BJ12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,16,FALSE)</f>
-        <v>814</v>
+        <v>949</v>
       </c>
       <c r="BK12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,17,FALSE)</f>
-        <v>807</v>
+        <v>944</v>
       </c>
       <c r="BL12" s="29">
         <f>VLOOKUP($AU12,Dummy!$A:$R,18,FALSE)</f>
-        <v>1008.6741016109047</v>
+        <v>1005.2966101694916</v>
       </c>
     </row>
     <row r="13" spans="2:64" x14ac:dyDescent="0.25">
@@ -7496,15 +7496,15 @@
       </c>
       <c r="AV13" s="30" t="str">
         <f>VLOOKUP($AU13,Dummy!$A:$R,2,FALSE)</f>
-        <v>Estados Unidos</v>
+        <v>Argentina</v>
       </c>
       <c r="AW13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,5,FALSE)</f>
@@ -7512,15 +7512,15 @@
       </c>
       <c r="AZ13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,9,FALSE)</f>
@@ -7528,39 +7528,39 @@
       </c>
       <c r="BD13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,12,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BH13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,14,FALSE)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BI13" s="29">
         <f>VLOOKUP($AU13,Dummy!$A:$R,15,FALSE)</f>
-        <v>941.17647058823525</v>
+        <v>952.38095238095229</v>
       </c>
       <c r="BJ13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,16,FALSE)</f>
-        <v>749</v>
+        <v>921</v>
       </c>
       <c r="BK13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,17,FALSE)</f>
-        <v>763</v>
+        <v>918</v>
       </c>
       <c r="BL13" s="29">
         <f>VLOOKUP($AU13,Dummy!$A:$R,18,FALSE)</f>
-        <v>981.65137614678895</v>
+        <v>1003.2679738562091</v>
       </c>
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.25">
@@ -7715,11 +7715,11 @@
       </c>
       <c r="AV14" s="30" t="str">
         <f>VLOOKUP($AU14,Dummy!$A:$R,2,FALSE)</f>
-        <v>Alemanha</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AW14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,3,FALSE)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,4,FALSE)</f>
@@ -7727,59 +7727,59 @@
       </c>
       <c r="AY14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,5,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,8,FALSE)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,10,FALSE)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,13,FALSE)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BH14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,14,FALSE)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BI14" s="29">
         <f>VLOOKUP($AU14,Dummy!$A:$R,15,FALSE)</f>
-        <v>1052.6315789473683</v>
+        <v>941.17647058823525</v>
       </c>
       <c r="BJ14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,16,FALSE)</f>
-        <v>886</v>
+        <v>749</v>
       </c>
       <c r="BK14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,17,FALSE)</f>
-        <v>882</v>
+        <v>763</v>
       </c>
       <c r="BL14" s="29">
         <f>VLOOKUP($AU14,Dummy!$A:$R,18,FALSE)</f>
-        <v>1004.5351473922904</v>
+        <v>981.65137614678895</v>
       </c>
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.25">
@@ -7934,15 +7934,15 @@
       </c>
       <c r="AV15" s="30" t="str">
         <f>VLOOKUP($AU15,Dummy!$A:$R,2,FALSE)</f>
-        <v>Irã</v>
+        <v>Alemanha</v>
       </c>
       <c r="AW15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,5,FALSE)</f>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="AZ15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,7,FALSE)</f>
@@ -7958,11 +7958,11 @@
       </c>
       <c r="BB15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,8,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,10,FALSE)</f>
@@ -7970,35 +7970,35 @@
       </c>
       <c r="BE15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,13,FALSE)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BH15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,14,FALSE)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI15" s="29">
         <f>VLOOKUP($AU15,Dummy!$A:$R,15,FALSE)</f>
-        <v>904.76190476190482</v>
+        <v>954.54545454545462</v>
       </c>
       <c r="BJ15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,16,FALSE)</f>
-        <v>871</v>
+        <v>988</v>
       </c>
       <c r="BK15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,17,FALSE)</f>
-        <v>880</v>
+        <v>984</v>
       </c>
       <c r="BL15" s="29">
         <f>VLOOKUP($AU15,Dummy!$A:$R,18,FALSE)</f>
-        <v>989.77272727272725</v>
+        <v>1004.0650406504066</v>
       </c>
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.25">
@@ -8217,32 +8217,32 @@
       </c>
     </row>
     <row r="17" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
       <c r="AU17" s="31">
         <v>14</v>
       </c>
@@ -8320,42 +8320,42 @@
         <v>2</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
+      <c r="D18" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59" t="s">
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59" t="s">
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59" t="s">
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59" t="s">
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59" t="s">
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
       <c r="AA18" s="4" t="s">
         <v>38</v>
       </c>
@@ -8418,19 +8418,19 @@
       </c>
       <c r="AV18" s="30" t="str">
         <f>VLOOKUP($AU18,Dummy!$A:$R,2,FALSE)</f>
-        <v>China</v>
+        <v>Turquia</v>
       </c>
       <c r="AW18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,3,FALSE)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,6,FALSE)</f>
@@ -8438,7 +8438,7 @@
       </c>
       <c r="BA18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,8,FALSE)</f>
@@ -8450,11 +8450,11 @@
       </c>
       <c r="BD18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,12,FALSE)</f>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="BG18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,13,FALSE)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BH18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,14,FALSE)</f>
@@ -8470,19 +8470,19 @@
       </c>
       <c r="BI18" s="29">
         <f>VLOOKUP($AU18,Dummy!$A:$R,15,FALSE)</f>
-        <v>409.09090909090912</v>
+        <v>500</v>
       </c>
       <c r="BJ18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,16,FALSE)</f>
-        <v>650</v>
+        <v>747</v>
       </c>
       <c r="BK18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,17,FALSE)</f>
-        <v>724</v>
+        <v>792</v>
       </c>
       <c r="BL18" s="29">
         <f>VLOOKUP($AU18,Dummy!$A:$R,18,FALSE)</f>
-        <v>897.79005524861873</v>
+        <v>943.18181818181824</v>
       </c>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
@@ -8633,15 +8633,15 @@
       </c>
       <c r="AV19" s="30" t="str">
         <f>VLOOKUP($AU19,Dummy!$A:$R,2,FALSE)</f>
-        <v>Turquia</v>
+        <v>China</v>
       </c>
       <c r="AW19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,3,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,5,FALSE)</f>
@@ -8649,15 +8649,15 @@
       </c>
       <c r="AZ19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,6,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,9,FALSE)</f>
@@ -8665,39 +8665,39 @@
       </c>
       <c r="BD19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,12,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,13,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,14,FALSE)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BI19" s="29">
         <f>VLOOKUP($AU19,Dummy!$A:$R,15,FALSE)</f>
-        <v>380.95238095238091</v>
+        <v>360</v>
       </c>
       <c r="BJ19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,16,FALSE)</f>
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="BK19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,17,FALSE)</f>
-        <v>690</v>
+        <v>802</v>
       </c>
       <c r="BL19" s="29">
         <f>VLOOKUP($AU19,Dummy!$A:$R,18,FALSE)</f>
-        <v>934.78260869565224</v>
+        <v>890.27431421446374</v>
       </c>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="AX20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,5,FALSE)</f>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="AZ20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,6,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,7,FALSE)</f>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="BF20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,12,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,13,FALSE)</f>
@@ -8896,23 +8896,23 @@
       </c>
       <c r="BH20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,14,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BI20" s="29">
         <f>VLOOKUP($AU20,Dummy!$A:$R,15,FALSE)</f>
-        <v>440</v>
+        <v>392.85714285714283</v>
       </c>
       <c r="BJ20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,16,FALSE)</f>
-        <v>776</v>
+        <v>834</v>
       </c>
       <c r="BK20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,17,FALSE)</f>
-        <v>843</v>
+        <v>918</v>
       </c>
       <c r="BL20" s="29">
         <f>VLOOKUP($AU20,Dummy!$A:$R,18,FALSE)</f>
-        <v>920.52194543297753</v>
+        <v>908.49673202614383</v>
       </c>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="AX22" s="53">
         <f>SUM(AX4:AX21)</f>
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
@@ -10507,78 +10507,78 @@
       </c>
     </row>
     <row r="31" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="AU31" s="68" t="s">
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="AU31" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="AV31" s="69"/>
+      <c r="AV31" s="64"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
+      <c r="D32" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59" t="s">
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59" t="s">
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59" t="s">
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59" t="s">
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59" t="s">
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
       <c r="AA32" s="4" t="s">
         <v>38</v>
       </c>
@@ -10636,10 +10636,10 @@
       <c r="AT32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AU32" s="74" t="s">
+      <c r="AU32" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="AV32" s="75"/>
+      <c r="AV32" s="66"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B33" s="17">
@@ -10788,10 +10788,10 @@
         <f t="shared" ref="AT33:AT44" si="59">IF(D33&lt;F33,SUM(J33,M33,P33,S33,V33),SUM(H33,K33,N33,Q33,T33))</f>
         <v>97</v>
       </c>
-      <c r="AU33" s="70" t="s">
+      <c r="AU33" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="AV33" s="71"/>
+      <c r="AV33" s="60"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B34" s="17">
@@ -10936,10 +10936,10 @@
         <f t="shared" si="59"/>
         <v>75</v>
       </c>
-      <c r="AU34" s="70" t="s">
+      <c r="AU34" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="AV34" s="71"/>
+      <c r="AV34" s="60"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B35" s="17">
@@ -11088,10 +11088,10 @@
         <f t="shared" si="59"/>
         <v>87</v>
       </c>
-      <c r="AU35" s="70" t="s">
+      <c r="AU35" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AV35" s="71"/>
+      <c r="AV35" s="60"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B36" s="17">
@@ -11236,10 +11236,10 @@
         <f t="shared" si="59"/>
         <v>75</v>
       </c>
-      <c r="AU36" s="72" t="s">
+      <c r="AU36" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="AV36" s="73"/>
+      <c r="AV36" s="62"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B37" s="17">
@@ -12406,88 +12406,88 @@
       </c>
     </row>
     <row r="46" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61"/>
-      <c r="T46" s="61"/>
-      <c r="U46" s="61"/>
-      <c r="V46" s="61"/>
-      <c r="W46" s="61"/>
-      <c r="X46" s="61"/>
-      <c r="Y46" s="61"/>
-      <c r="AU46" s="64" t="s">
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="75"/>
+      <c r="N46" s="75"/>
+      <c r="O46" s="75"/>
+      <c r="P46" s="75"/>
+      <c r="Q46" s="75"/>
+      <c r="R46" s="75"/>
+      <c r="S46" s="75"/>
+      <c r="T46" s="75"/>
+      <c r="U46" s="75"/>
+      <c r="V46" s="75"/>
+      <c r="W46" s="75"/>
+      <c r="X46" s="75"/>
+      <c r="Y46" s="75"/>
+      <c r="AU46" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="AV46" s="65"/>
-      <c r="AW46" s="66"/>
-      <c r="AX46" s="64" t="s">
+      <c r="AV46" s="69"/>
+      <c r="AW46" s="70"/>
+      <c r="AX46" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AY46" s="65"/>
-      <c r="AZ46" s="66"/>
-      <c r="BA46" s="64" t="s">
+      <c r="AY46" s="69"/>
+      <c r="AZ46" s="70"/>
+      <c r="BA46" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="BB46" s="65"/>
-      <c r="BC46" s="65"/>
-      <c r="BD46" s="65"/>
-      <c r="BE46" s="65"/>
-      <c r="BF46" s="66"/>
-      <c r="BG46" s="64" t="s">
+      <c r="BB46" s="69"/>
+      <c r="BC46" s="69"/>
+      <c r="BD46" s="69"/>
+      <c r="BE46" s="69"/>
+      <c r="BF46" s="70"/>
+      <c r="BG46" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="BH46" s="65"/>
-      <c r="BI46" s="66"/>
-      <c r="BJ46" s="64" t="s">
+      <c r="BH46" s="69"/>
+      <c r="BI46" s="70"/>
+      <c r="BJ46" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="BK46" s="65"/>
-      <c r="BL46" s="66"/>
+      <c r="BK46" s="69"/>
+      <c r="BL46" s="70"/>
     </row>
     <row r="47" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="60"/>
-      <c r="V47" s="60"/>
-      <c r="W47" s="60"/>
-      <c r="X47" s="60"/>
-      <c r="Y47" s="60"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="71"/>
+      <c r="U47" s="71"/>
+      <c r="V47" s="71"/>
+      <c r="W47" s="71"/>
+      <c r="X47" s="71"/>
+      <c r="Y47" s="71"/>
       <c r="AU47" s="32" t="s">
         <v>43</v>
       </c>
@@ -12548,42 +12548,42 @@
         <v>2</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
+      <c r="D48" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59" t="s">
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59" t="s">
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59" t="s">
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59" t="s">
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U48" s="59"/>
-      <c r="V48" s="59"/>
-      <c r="W48" s="59" t="s">
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X48" s="59"/>
-      <c r="Y48" s="59"/>
+      <c r="X48" s="73"/>
+      <c r="Y48" s="73"/>
       <c r="AA48" s="4" t="s">
         <v>38</v>
       </c>
@@ -12865,15 +12865,15 @@
       </c>
       <c r="AW49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,3,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,5,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,6,FALSE)</f>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="BC49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,10,FALSE)</f>
@@ -12905,27 +12905,27 @@
       </c>
       <c r="BG49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,13,FALSE)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BH49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,14,FALSE)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI49" s="29">
         <f>VLOOKUP($AU49,Dummy!$A:$R,15,FALSE)</f>
-        <v>2000</v>
+        <v>1928.5714285714287</v>
       </c>
       <c r="BJ49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,16,FALSE)</f>
-        <v>846</v>
+        <v>950</v>
       </c>
       <c r="BK49" s="28">
         <f>VLOOKUP($AU49,Dummy!$A:$R,17,FALSE)</f>
-        <v>748</v>
+        <v>843</v>
       </c>
       <c r="BL49" s="29">
         <f>VLOOKUP($AU49,Dummy!$A:$R,18,FALSE)</f>
-        <v>1131.0160427807486</v>
+        <v>1126.9276393831553</v>
       </c>
     </row>
     <row r="50" spans="2:64" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="AV50" s="30" t="str">
         <f>VLOOKUP($AU50,Dummy!$A:$R,2,FALSE)</f>
-        <v>Polônia</v>
+        <v>Japão</v>
       </c>
       <c r="AW50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,3,FALSE)</f>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="AX50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,5,FALSE)</f>
@@ -13092,15 +13092,15 @@
       </c>
       <c r="AZ50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,7,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,8,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,9,FALSE)</f>
@@ -13116,7 +13116,7 @@
       </c>
       <c r="BF50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,13,FALSE)</f>
@@ -13124,23 +13124,23 @@
       </c>
       <c r="BH50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,14,FALSE)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI50" s="29">
         <f>VLOOKUP($AU50,Dummy!$A:$R,15,FALSE)</f>
-        <v>2000</v>
+        <v>1714.2857142857142</v>
       </c>
       <c r="BJ50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,16,FALSE)</f>
-        <v>843</v>
+        <v>891</v>
       </c>
       <c r="BK50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,17,FALSE)</f>
-        <v>810</v>
+        <v>839</v>
       </c>
       <c r="BL50" s="29">
         <f>VLOOKUP($AU50,Dummy!$A:$R,18,FALSE)</f>
-        <v>1040.7407407407406</v>
+        <v>1061.9785458879619</v>
       </c>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
@@ -13291,19 +13291,19 @@
       </c>
       <c r="AV51" s="30" t="str">
         <f>VLOOKUP($AU51,Dummy!$A:$R,2,FALSE)</f>
-        <v>Japão</v>
+        <v>Polônia</v>
       </c>
       <c r="AW51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,3,FALSE)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,5,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,6,FALSE)</f>
@@ -13311,15 +13311,15 @@
       </c>
       <c r="BA51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,7,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,10,FALSE)</f>
@@ -13327,35 +13327,35 @@
       </c>
       <c r="BE51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,13,FALSE)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BH51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,14,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BI51" s="29">
         <f>VLOOKUP($AU51,Dummy!$A:$R,15,FALSE)</f>
-        <v>1750</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BJ51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,16,FALSE)</f>
-        <v>780</v>
+        <v>932</v>
       </c>
       <c r="BK51" s="28">
         <f>VLOOKUP($AU51,Dummy!$A:$R,17,FALSE)</f>
-        <v>732</v>
+        <v>908</v>
       </c>
       <c r="BL51" s="29">
         <f>VLOOKUP($AU51,Dummy!$A:$R,18,FALSE)</f>
-        <v>1065.5737704918033</v>
+        <v>1026.431718061674</v>
       </c>
     </row>
     <row r="52" spans="2:64" x14ac:dyDescent="0.25">
@@ -13733,11 +13733,11 @@
       </c>
       <c r="AW53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,3,FALSE)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,5,FALSE)</f>
@@ -13745,7 +13745,7 @@
       </c>
       <c r="AZ53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,6,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,7,FALSE)</f>
@@ -13761,7 +13761,7 @@
       </c>
       <c r="BD53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,10,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,11,FALSE)</f>
@@ -13773,27 +13773,27 @@
       </c>
       <c r="BG53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,13,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BH53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,14,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BI53" s="29">
         <f>VLOOKUP($AU53,Dummy!$A:$R,15,FALSE)</f>
-        <v>1375</v>
+        <v>1263.1578947368421</v>
       </c>
       <c r="BJ53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,16,FALSE)</f>
-        <v>836</v>
+        <v>931</v>
       </c>
       <c r="BK53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,17,FALSE)</f>
-        <v>808</v>
+        <v>912</v>
       </c>
       <c r="BL53" s="29">
         <f>VLOOKUP($AU53,Dummy!$A:$R,18,FALSE)</f>
-        <v>1034.6534653465346</v>
+        <v>1020.8333333333333</v>
       </c>
     </row>
     <row r="54" spans="2:64" x14ac:dyDescent="0.25">
@@ -13956,15 +13956,15 @@
       </c>
       <c r="AW54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,3,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AX54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,5,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,6,FALSE)</f>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="BB54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,8,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,9,FALSE)</f>
@@ -13996,27 +13996,27 @@
       </c>
       <c r="BG54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,13,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BH54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,14,FALSE)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI54" s="29">
         <f>VLOOKUP($AU54,Dummy!$A:$R,15,FALSE)</f>
-        <v>1105.2631578947369</v>
+        <v>1200</v>
       </c>
       <c r="BJ54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,16,FALSE)</f>
-        <v>891</v>
+        <v>989</v>
       </c>
       <c r="BK54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,17,FALSE)</f>
-        <v>873</v>
+        <v>962</v>
       </c>
       <c r="BL54" s="29">
         <f>VLOOKUP($AU54,Dummy!$A:$R,18,FALSE)</f>
-        <v>1020.6185567010309</v>
+        <v>1028.066528066528</v>
       </c>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
@@ -14175,15 +14175,15 @@
       </c>
       <c r="AW55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,3,FALSE)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,5,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,6,FALSE)</f>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="BA55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,8,FALSE)</f>
@@ -14215,7 +14215,7 @@
       </c>
       <c r="BG55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BH55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,14,FALSE)</f>
@@ -14223,19 +14223,19 @@
       </c>
       <c r="BI55" s="29">
         <f>VLOOKUP($AU55,Dummy!$A:$R,15,FALSE)</f>
-        <v>941.17647058823525</v>
+        <v>1117.6470588235295</v>
       </c>
       <c r="BJ55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,16,FALSE)</f>
-        <v>759</v>
+        <v>834</v>
       </c>
       <c r="BK55" s="28">
         <f>VLOOKUP($AU55,Dummy!$A:$R,17,FALSE)</f>
-        <v>748</v>
+        <v>806</v>
       </c>
       <c r="BL55" s="29">
         <f>VLOOKUP($AU55,Dummy!$A:$R,18,FALSE)</f>
-        <v>1014.7058823529411</v>
+        <v>1034.7394540942928</v>
       </c>
     </row>
     <row r="56" spans="2:64" x14ac:dyDescent="0.25">
@@ -14386,15 +14386,15 @@
       </c>
       <c r="AV56" s="30" t="str">
         <f>VLOOKUP($AU56,Dummy!$A:$R,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Irã</v>
       </c>
       <c r="AW56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AX56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,5,FALSE)</f>
@@ -14402,7 +14402,7 @@
       </c>
       <c r="AZ56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,7,FALSE)</f>
@@ -14418,11 +14418,11 @@
       </c>
       <c r="BD56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,11,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,12,FALSE)</f>
@@ -14430,27 +14430,27 @@
       </c>
       <c r="BG56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,13,FALSE)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BH56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,14,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BI56" s="29">
         <f>VLOOKUP($AU56,Dummy!$A:$R,15,FALSE)</f>
-        <v>1000</v>
+        <v>1047.6190476190477</v>
       </c>
       <c r="BJ56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,16,FALSE)</f>
-        <v>814</v>
+        <v>949</v>
       </c>
       <c r="BK56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,17,FALSE)</f>
-        <v>807</v>
+        <v>944</v>
       </c>
       <c r="BL56" s="29">
         <f>VLOOKUP($AU56,Dummy!$A:$R,18,FALSE)</f>
-        <v>1008.6741016109047</v>
+        <v>1005.2966101694916</v>
       </c>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
@@ -14601,15 +14601,15 @@
       </c>
       <c r="AV57" s="30" t="str">
         <f>VLOOKUP($AU57,Dummy!$A:$R,2,FALSE)</f>
-        <v>Estados Unidos</v>
+        <v>Argentina</v>
       </c>
       <c r="AW57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,5,FALSE)</f>
@@ -14617,15 +14617,15 @@
       </c>
       <c r="AZ57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,9,FALSE)</f>
@@ -14633,39 +14633,39 @@
       </c>
       <c r="BD57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,12,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BH57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,14,FALSE)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BI57" s="29">
         <f>VLOOKUP($AU57,Dummy!$A:$R,15,FALSE)</f>
-        <v>941.17647058823525</v>
+        <v>952.38095238095229</v>
       </c>
       <c r="BJ57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,16,FALSE)</f>
-        <v>749</v>
+        <v>921</v>
       </c>
       <c r="BK57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,17,FALSE)</f>
-        <v>763</v>
+        <v>918</v>
       </c>
       <c r="BL57" s="29">
         <f>VLOOKUP($AU57,Dummy!$A:$R,18,FALSE)</f>
-        <v>981.65137614678895</v>
+        <v>1003.2679738562091</v>
       </c>
     </row>
     <row r="58" spans="2:64" x14ac:dyDescent="0.25">
@@ -14816,11 +14816,11 @@
       </c>
       <c r="AV58" s="30" t="str">
         <f>VLOOKUP($AU58,Dummy!$A:$R,2,FALSE)</f>
-        <v>Alemanha</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AW58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,3,FALSE)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,4,FALSE)</f>
@@ -14828,59 +14828,59 @@
       </c>
       <c r="AY58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,5,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,8,FALSE)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,10,FALSE)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,13,FALSE)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BH58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,14,FALSE)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BI58" s="29">
         <f>VLOOKUP($AU58,Dummy!$A:$R,15,FALSE)</f>
-        <v>1052.6315789473683</v>
+        <v>941.17647058823525</v>
       </c>
       <c r="BJ58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,16,FALSE)</f>
-        <v>886</v>
+        <v>749</v>
       </c>
       <c r="BK58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,17,FALSE)</f>
-        <v>882</v>
+        <v>763</v>
       </c>
       <c r="BL58" s="29">
         <f>VLOOKUP($AU58,Dummy!$A:$R,18,FALSE)</f>
-        <v>1004.5351473922904</v>
+        <v>981.65137614678895</v>
       </c>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
@@ -15031,15 +15031,15 @@
       </c>
       <c r="AV59" s="30" t="str">
         <f>VLOOKUP($AU59,Dummy!$A:$R,2,FALSE)</f>
-        <v>Irã</v>
+        <v>Alemanha</v>
       </c>
       <c r="AW59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,5,FALSE)</f>
@@ -15047,7 +15047,7 @@
       </c>
       <c r="AZ59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,7,FALSE)</f>
@@ -15055,11 +15055,11 @@
       </c>
       <c r="BB59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,8,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,10,FALSE)</f>
@@ -15067,35 +15067,35 @@
       </c>
       <c r="BE59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,13,FALSE)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BH59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,14,FALSE)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI59" s="29">
         <f>VLOOKUP($AU59,Dummy!$A:$R,15,FALSE)</f>
-        <v>904.76190476190482</v>
+        <v>954.54545454545462</v>
       </c>
       <c r="BJ59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,16,FALSE)</f>
-        <v>871</v>
+        <v>988</v>
       </c>
       <c r="BK59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,17,FALSE)</f>
-        <v>880</v>
+        <v>984</v>
       </c>
       <c r="BL59" s="29">
         <f>VLOOKUP($AU59,Dummy!$A:$R,18,FALSE)</f>
-        <v>989.77272727272725</v>
+        <v>1004.0650406504066</v>
       </c>
     </row>
     <row r="60" spans="2:64" x14ac:dyDescent="0.25">
@@ -15318,32 +15318,32 @@
       </c>
     </row>
     <row r="61" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="60"/>
-      <c r="U61" s="60"/>
-      <c r="V61" s="60"/>
-      <c r="W61" s="60"/>
-      <c r="X61" s="60"/>
-      <c r="Y61" s="60"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
+      <c r="U61" s="71"/>
+      <c r="V61" s="71"/>
+      <c r="W61" s="71"/>
+      <c r="X61" s="71"/>
+      <c r="Y61" s="71"/>
       <c r="AU61" s="31">
         <v>14</v>
       </c>
@@ -15421,42 +15421,42 @@
         <v>2</v>
       </c>
       <c r="C62" s="24"/>
-      <c r="D62" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
+      <c r="D62" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
       <c r="G62" s="20"/>
-      <c r="H62" s="59" t="s">
+      <c r="H62" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59" t="s">
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59" t="s">
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59" t="s">
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="59"/>
-      <c r="S62" s="59"/>
-      <c r="T62" s="59" t="s">
+      <c r="R62" s="73"/>
+      <c r="S62" s="73"/>
+      <c r="T62" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U62" s="59"/>
-      <c r="V62" s="59"/>
-      <c r="W62" s="59" t="s">
+      <c r="U62" s="73"/>
+      <c r="V62" s="73"/>
+      <c r="W62" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X62" s="59"/>
-      <c r="Y62" s="59"/>
+      <c r="X62" s="73"/>
+      <c r="Y62" s="73"/>
       <c r="AA62" s="4" t="s">
         <v>38</v>
       </c>
@@ -15519,19 +15519,19 @@
       </c>
       <c r="AV62" s="30" t="str">
         <f>VLOOKUP($AU62,Dummy!$A:$R,2,FALSE)</f>
-        <v>China</v>
+        <v>Turquia</v>
       </c>
       <c r="AW62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,3,FALSE)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,6,FALSE)</f>
@@ -15539,7 +15539,7 @@
       </c>
       <c r="BA62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,8,FALSE)</f>
@@ -15551,11 +15551,11 @@
       </c>
       <c r="BD62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,12,FALSE)</f>
@@ -15563,7 +15563,7 @@
       </c>
       <c r="BG62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,13,FALSE)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BH62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,14,FALSE)</f>
@@ -15571,19 +15571,19 @@
       </c>
       <c r="BI62" s="29">
         <f>VLOOKUP($AU62,Dummy!$A:$R,15,FALSE)</f>
-        <v>409.09090909090912</v>
+        <v>500</v>
       </c>
       <c r="BJ62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,16,FALSE)</f>
-        <v>650</v>
+        <v>747</v>
       </c>
       <c r="BK62" s="28">
         <f>VLOOKUP($AU62,Dummy!$A:$R,17,FALSE)</f>
-        <v>724</v>
+        <v>792</v>
       </c>
       <c r="BL62" s="29">
         <f>VLOOKUP($AU62,Dummy!$A:$R,18,FALSE)</f>
-        <v>897.79005524861873</v>
+        <v>943.18181818181824</v>
       </c>
     </row>
     <row r="63" spans="2:64" x14ac:dyDescent="0.25">
@@ -15742,15 +15742,15 @@
       </c>
       <c r="AV63" s="30" t="str">
         <f>VLOOKUP($AU63,Dummy!$A:$R,2,FALSE)</f>
-        <v>Turquia</v>
+        <v>China</v>
       </c>
       <c r="AW63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,3,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,5,FALSE)</f>
@@ -15758,15 +15758,15 @@
       </c>
       <c r="AZ63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,6,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,9,FALSE)</f>
@@ -15774,39 +15774,39 @@
       </c>
       <c r="BD63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,12,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,13,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,14,FALSE)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BI63" s="29">
         <f>VLOOKUP($AU63,Dummy!$A:$R,15,FALSE)</f>
-        <v>380.95238095238091</v>
+        <v>360</v>
       </c>
       <c r="BJ63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,16,FALSE)</f>
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="BK63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,17,FALSE)</f>
-        <v>690</v>
+        <v>802</v>
       </c>
       <c r="BL63" s="29">
         <f>VLOOKUP($AU63,Dummy!$A:$R,18,FALSE)</f>
-        <v>934.78260869565224</v>
+        <v>890.27431421446374</v>
       </c>
     </row>
     <row r="64" spans="2:64" x14ac:dyDescent="0.25">
@@ -15965,7 +15965,7 @@
       </c>
       <c r="AX64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,5,FALSE)</f>
@@ -15973,7 +15973,7 @@
       </c>
       <c r="AZ64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,6,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,7,FALSE)</f>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="BF64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,12,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,13,FALSE)</f>
@@ -16005,23 +16005,23 @@
       </c>
       <c r="BH64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,14,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BI64" s="29">
         <f>VLOOKUP($AU64,Dummy!$A:$R,15,FALSE)</f>
-        <v>440</v>
+        <v>392.85714285714283</v>
       </c>
       <c r="BJ64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,16,FALSE)</f>
-        <v>776</v>
+        <v>834</v>
       </c>
       <c r="BK64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,17,FALSE)</f>
-        <v>843</v>
+        <v>918</v>
       </c>
       <c r="BL64" s="29">
         <f>VLOOKUP($AU64,Dummy!$A:$R,18,FALSE)</f>
-        <v>920.52194543297753</v>
+        <v>908.49673202614383</v>
       </c>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
@@ -16392,7 +16392,7 @@
       </c>
       <c r="AX66" s="53">
         <f>SUM(AX48:AX65)</f>
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
@@ -17584,78 +17584,78 @@
       </c>
     </row>
     <row r="75" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B75" s="60" t="s">
+      <c r="B75" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="60"/>
-      <c r="N75" s="60"/>
-      <c r="O75" s="60"/>
-      <c r="P75" s="60"/>
-      <c r="Q75" s="60"/>
-      <c r="R75" s="60"/>
-      <c r="S75" s="60"/>
-      <c r="T75" s="60"/>
-      <c r="U75" s="60"/>
-      <c r="V75" s="60"/>
-      <c r="W75" s="60"/>
-      <c r="X75" s="60"/>
-      <c r="Y75" s="60"/>
-      <c r="AU75" s="68" t="s">
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="71"/>
+      <c r="M75" s="71"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="71"/>
+      <c r="R75" s="71"/>
+      <c r="S75" s="71"/>
+      <c r="T75" s="71"/>
+      <c r="U75" s="71"/>
+      <c r="V75" s="71"/>
+      <c r="W75" s="71"/>
+      <c r="X75" s="71"/>
+      <c r="Y75" s="71"/>
+      <c r="AU75" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="AV75" s="69"/>
+      <c r="AV75" s="64"/>
     </row>
     <row r="76" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C76" s="24"/>
-      <c r="D76" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
+      <c r="D76" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
       <c r="G76" s="20"/>
-      <c r="H76" s="59" t="s">
+      <c r="H76" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59" t="s">
+      <c r="I76" s="73"/>
+      <c r="J76" s="73"/>
+      <c r="K76" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59" t="s">
+      <c r="L76" s="73"/>
+      <c r="M76" s="73"/>
+      <c r="N76" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O76" s="59"/>
-      <c r="P76" s="59"/>
-      <c r="Q76" s="59" t="s">
+      <c r="O76" s="73"/>
+      <c r="P76" s="73"/>
+      <c r="Q76" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R76" s="59"/>
-      <c r="S76" s="59"/>
-      <c r="T76" s="59" t="s">
+      <c r="R76" s="73"/>
+      <c r="S76" s="73"/>
+      <c r="T76" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U76" s="59"/>
-      <c r="V76" s="59"/>
-      <c r="W76" s="59" t="s">
+      <c r="U76" s="73"/>
+      <c r="V76" s="73"/>
+      <c r="W76" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X76" s="59"/>
-      <c r="Y76" s="59"/>
+      <c r="X76" s="73"/>
+      <c r="Y76" s="73"/>
       <c r="AA76" s="4" t="s">
         <v>38</v>
       </c>
@@ -17713,10 +17713,10 @@
       <c r="AT76" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AU76" s="74" t="s">
+      <c r="AU76" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="AV76" s="75"/>
+      <c r="AV76" s="66"/>
     </row>
     <row r="77" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B77" s="17">
@@ -17865,10 +17865,10 @@
         <f t="shared" ref="AT77:AT88" si="122">IF(D77&lt;F77,SUM(J77,M77,P77,S77,V77),SUM(H77,K77,N77,Q77,T77))</f>
         <v>94</v>
       </c>
-      <c r="AU77" s="70" t="s">
+      <c r="AU77" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="AV77" s="71"/>
+      <c r="AV77" s="60"/>
     </row>
     <row r="78" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B78" s="17">
@@ -18013,10 +18013,10 @@
         <f t="shared" si="122"/>
         <v>75</v>
       </c>
-      <c r="AU78" s="70" t="s">
+      <c r="AU78" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="AV78" s="71"/>
+      <c r="AV78" s="60"/>
     </row>
     <row r="79" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B79" s="17">
@@ -18165,10 +18165,10 @@
         <f t="shared" si="122"/>
         <v>98</v>
       </c>
-      <c r="AU79" s="70" t="s">
+      <c r="AU79" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AV79" s="71"/>
+      <c r="AV79" s="60"/>
     </row>
     <row r="80" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B80" s="17">
@@ -18317,10 +18317,10 @@
         <f t="shared" si="122"/>
         <v>100</v>
       </c>
-      <c r="AU80" s="72" t="s">
+      <c r="AU80" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="AV80" s="73"/>
+      <c r="AV80" s="62"/>
     </row>
     <row r="81" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B81" s="17">
@@ -19515,88 +19515,88 @@
       </c>
     </row>
     <row r="90" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B90" s="61" t="s">
+      <c r="B90" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="61"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="61"/>
-      <c r="L90" s="61"/>
-      <c r="M90" s="61"/>
-      <c r="N90" s="61"/>
-      <c r="O90" s="61"/>
-      <c r="P90" s="61"/>
-      <c r="Q90" s="61"/>
-      <c r="R90" s="61"/>
-      <c r="S90" s="61"/>
-      <c r="T90" s="61"/>
-      <c r="U90" s="61"/>
-      <c r="V90" s="61"/>
-      <c r="W90" s="61"/>
-      <c r="X90" s="61"/>
-      <c r="Y90" s="61"/>
-      <c r="AU90" s="64" t="s">
+      <c r="C90" s="75"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
+      <c r="K90" s="75"/>
+      <c r="L90" s="75"/>
+      <c r="M90" s="75"/>
+      <c r="N90" s="75"/>
+      <c r="O90" s="75"/>
+      <c r="P90" s="75"/>
+      <c r="Q90" s="75"/>
+      <c r="R90" s="75"/>
+      <c r="S90" s="75"/>
+      <c r="T90" s="75"/>
+      <c r="U90" s="75"/>
+      <c r="V90" s="75"/>
+      <c r="W90" s="75"/>
+      <c r="X90" s="75"/>
+      <c r="Y90" s="75"/>
+      <c r="AU90" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="AV90" s="65"/>
-      <c r="AW90" s="66"/>
-      <c r="AX90" s="64" t="s">
+      <c r="AV90" s="69"/>
+      <c r="AW90" s="70"/>
+      <c r="AX90" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AY90" s="65"/>
-      <c r="AZ90" s="66"/>
-      <c r="BA90" s="64" t="s">
+      <c r="AY90" s="69"/>
+      <c r="AZ90" s="70"/>
+      <c r="BA90" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="BB90" s="65"/>
-      <c r="BC90" s="65"/>
-      <c r="BD90" s="65"/>
-      <c r="BE90" s="65"/>
-      <c r="BF90" s="66"/>
-      <c r="BG90" s="64" t="s">
+      <c r="BB90" s="69"/>
+      <c r="BC90" s="69"/>
+      <c r="BD90" s="69"/>
+      <c r="BE90" s="69"/>
+      <c r="BF90" s="70"/>
+      <c r="BG90" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="BH90" s="65"/>
-      <c r="BI90" s="66"/>
-      <c r="BJ90" s="64" t="s">
+      <c r="BH90" s="69"/>
+      <c r="BI90" s="70"/>
+      <c r="BJ90" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="BK90" s="65"/>
-      <c r="BL90" s="66"/>
+      <c r="BK90" s="69"/>
+      <c r="BL90" s="70"/>
     </row>
     <row r="91" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B91" s="60" t="s">
+      <c r="B91" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="60"/>
-      <c r="N91" s="60"/>
-      <c r="O91" s="60"/>
-      <c r="P91" s="60"/>
-      <c r="Q91" s="60"/>
-      <c r="R91" s="60"/>
-      <c r="S91" s="60"/>
-      <c r="T91" s="60"/>
-      <c r="U91" s="60"/>
-      <c r="V91" s="60"/>
-      <c r="W91" s="60"/>
-      <c r="X91" s="60"/>
-      <c r="Y91" s="60"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="71"/>
+      <c r="I91" s="71"/>
+      <c r="J91" s="71"/>
+      <c r="K91" s="71"/>
+      <c r="L91" s="71"/>
+      <c r="M91" s="71"/>
+      <c r="N91" s="71"/>
+      <c r="O91" s="71"/>
+      <c r="P91" s="71"/>
+      <c r="Q91" s="71"/>
+      <c r="R91" s="71"/>
+      <c r="S91" s="71"/>
+      <c r="T91" s="71"/>
+      <c r="U91" s="71"/>
+      <c r="V91" s="71"/>
+      <c r="W91" s="71"/>
+      <c r="X91" s="71"/>
+      <c r="Y91" s="71"/>
       <c r="AU91" s="32" t="s">
         <v>43</v>
       </c>
@@ -19657,42 +19657,42 @@
         <v>2</v>
       </c>
       <c r="C92" s="24"/>
-      <c r="D92" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
+      <c r="D92" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
       <c r="G92" s="20"/>
-      <c r="H92" s="59" t="s">
+      <c r="H92" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59" t="s">
+      <c r="I92" s="73"/>
+      <c r="J92" s="73"/>
+      <c r="K92" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
-      <c r="N92" s="59" t="s">
+      <c r="L92" s="73"/>
+      <c r="M92" s="73"/>
+      <c r="N92" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O92" s="59"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59" t="s">
+      <c r="O92" s="73"/>
+      <c r="P92" s="73"/>
+      <c r="Q92" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R92" s="59"/>
-      <c r="S92" s="59"/>
-      <c r="T92" s="59" t="s">
+      <c r="R92" s="73"/>
+      <c r="S92" s="73"/>
+      <c r="T92" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U92" s="59"/>
-      <c r="V92" s="59"/>
-      <c r="W92" s="59" t="s">
+      <c r="U92" s="73"/>
+      <c r="V92" s="73"/>
+      <c r="W92" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X92" s="59"/>
-      <c r="Y92" s="59"/>
+      <c r="X92" s="73"/>
+      <c r="Y92" s="73"/>
       <c r="AA92" s="4" t="s">
         <v>38</v>
       </c>
@@ -19978,15 +19978,15 @@
       </c>
       <c r="AW93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,3,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,5,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,6,FALSE)</f>
@@ -20002,7 +20002,7 @@
       </c>
       <c r="BC93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,10,FALSE)</f>
@@ -20018,27 +20018,27 @@
       </c>
       <c r="BG93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,13,FALSE)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BH93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,14,FALSE)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI93" s="29">
         <f>VLOOKUP($AU93,Dummy!$A:$R,15,FALSE)</f>
-        <v>2000</v>
+        <v>1928.5714285714287</v>
       </c>
       <c r="BJ93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,16,FALSE)</f>
-        <v>846</v>
+        <v>950</v>
       </c>
       <c r="BK93" s="28">
         <f>VLOOKUP($AU93,Dummy!$A:$R,17,FALSE)</f>
-        <v>748</v>
+        <v>843</v>
       </c>
       <c r="BL93" s="29">
         <f>VLOOKUP($AU93,Dummy!$A:$R,18,FALSE)</f>
-        <v>1131.0160427807486</v>
+        <v>1126.9276393831553</v>
       </c>
     </row>
     <row r="94" spans="2:64" x14ac:dyDescent="0.25">
@@ -20197,7 +20197,7 @@
       </c>
       <c r="AV94" s="30" t="str">
         <f>VLOOKUP($AU94,Dummy!$A:$R,2,FALSE)</f>
-        <v>Polônia</v>
+        <v>Japão</v>
       </c>
       <c r="AW94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,3,FALSE)</f>
@@ -20205,7 +20205,7 @@
       </c>
       <c r="AX94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,5,FALSE)</f>
@@ -20213,15 +20213,15 @@
       </c>
       <c r="AZ94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,7,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,8,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,9,FALSE)</f>
@@ -20237,7 +20237,7 @@
       </c>
       <c r="BF94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,13,FALSE)</f>
@@ -20245,23 +20245,23 @@
       </c>
       <c r="BH94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,14,FALSE)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI94" s="29">
         <f>VLOOKUP($AU94,Dummy!$A:$R,15,FALSE)</f>
-        <v>2000</v>
+        <v>1714.2857142857142</v>
       </c>
       <c r="BJ94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,16,FALSE)</f>
-        <v>843</v>
+        <v>891</v>
       </c>
       <c r="BK94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,17,FALSE)</f>
-        <v>810</v>
+        <v>839</v>
       </c>
       <c r="BL94" s="29">
         <f>VLOOKUP($AU94,Dummy!$A:$R,18,FALSE)</f>
-        <v>1040.7407407407406</v>
+        <v>1061.9785458879619</v>
       </c>
     </row>
     <row r="95" spans="2:64" x14ac:dyDescent="0.25">
@@ -20420,19 +20420,19 @@
       </c>
       <c r="AV95" s="30" t="str">
         <f>VLOOKUP($AU95,Dummy!$A:$R,2,FALSE)</f>
-        <v>Japão</v>
+        <v>Polônia</v>
       </c>
       <c r="AW95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,3,FALSE)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,5,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,6,FALSE)</f>
@@ -20440,15 +20440,15 @@
       </c>
       <c r="BA95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,7,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,10,FALSE)</f>
@@ -20456,35 +20456,35 @@
       </c>
       <c r="BE95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,13,FALSE)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BH95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,14,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BI95" s="29">
         <f>VLOOKUP($AU95,Dummy!$A:$R,15,FALSE)</f>
-        <v>1750</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BJ95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,16,FALSE)</f>
-        <v>780</v>
+        <v>932</v>
       </c>
       <c r="BK95" s="28">
         <f>VLOOKUP($AU95,Dummy!$A:$R,17,FALSE)</f>
-        <v>732</v>
+        <v>908</v>
       </c>
       <c r="BL95" s="29">
         <f>VLOOKUP($AU95,Dummy!$A:$R,18,FALSE)</f>
-        <v>1065.5737704918033</v>
+        <v>1026.431718061674</v>
       </c>
     </row>
     <row r="96" spans="2:64" x14ac:dyDescent="0.25">
@@ -20494,38 +20494,50 @@
       <c r="C96" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D96" s="33"/>
+      <c r="D96" s="33">
+        <v>0</v>
+      </c>
       <c r="E96" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F96" s="34"/>
+      <c r="F96" s="34">
+        <v>3</v>
+      </c>
       <c r="G96" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="H96" s="33"/>
+      <c r="H96" s="33">
+        <v>26</v>
+      </c>
       <c r="I96" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J96" s="34"/>
-      <c r="K96" s="33"/>
+      <c r="J96" s="34">
+        <v>28</v>
+      </c>
+      <c r="K96" s="33">
+        <v>21</v>
+      </c>
       <c r="L96" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M96" s="34"/>
-      <c r="N96" s="33"/>
+      <c r="M96" s="34">
+        <v>25</v>
+      </c>
+      <c r="N96" s="33">
+        <v>17</v>
+      </c>
       <c r="O96" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P96" s="34"/>
-      <c r="Q96" s="33">
-        <v>20</v>
-      </c>
+      <c r="P96" s="34">
+        <v>25</v>
+      </c>
+      <c r="Q96" s="33"/>
       <c r="R96" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S96" s="34">
-        <v>25</v>
-      </c>
+      <c r="S96" s="34"/>
       <c r="T96" s="33"/>
       <c r="U96" s="11" t="s">
         <v>6</v>
@@ -20533,30 +20545,30 @@
       <c r="V96" s="34"/>
       <c r="W96" s="12">
         <f t="shared" si="125"/>
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="X96" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Y96" s="14">
         <f t="shared" si="126"/>
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="AA96" s="4">
         <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="AB96" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB96" s="4" t="str">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>Irã</v>
       </c>
       <c r="AC96" s="4">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD96" s="4">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE96" s="4">
         <f t="shared" si="131"/>
@@ -20564,7 +20576,7 @@
       </c>
       <c r="AF96" s="4">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG96" s="4">
         <f t="shared" si="133"/>
@@ -20576,19 +20588,19 @@
       </c>
       <c r="AI96" s="4">
         <f t="shared" si="135"/>
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="AJ96" s="4">
         <f t="shared" si="136"/>
-        <v>20</v>
-      </c>
-      <c r="AL96" s="4">
+        <v>64</v>
+      </c>
+      <c r="AL96" s="4" t="str">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>China</v>
       </c>
       <c r="AM96" s="4">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN96" s="4">
         <f t="shared" si="139"/>
@@ -20596,7 +20608,7 @@
       </c>
       <c r="AO96" s="4">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP96" s="4">
         <f t="shared" si="141"/>
@@ -20608,15 +20620,15 @@
       </c>
       <c r="AR96" s="4">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS96" s="4">
         <f t="shared" si="144"/>
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="AT96" s="4">
         <f t="shared" si="145"/>
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="AU96" s="31">
         <v>5</v>
@@ -20697,37 +20709,53 @@
       <c r="C97" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D97" s="33"/>
+      <c r="D97" s="33">
+        <v>3</v>
+      </c>
       <c r="E97" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F97" s="34"/>
+      <c r="F97" s="34">
+        <v>1</v>
+      </c>
       <c r="G97" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H97" s="33"/>
+      <c r="H97" s="33">
+        <v>22</v>
+      </c>
       <c r="I97" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J97" s="34"/>
-      <c r="K97" s="33"/>
+      <c r="J97" s="34">
+        <v>25</v>
+      </c>
+      <c r="K97" s="33">
+        <v>25</v>
+      </c>
       <c r="L97" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M97" s="34"/>
-      <c r="N97" s="33"/>
+      <c r="M97" s="34">
+        <v>19</v>
+      </c>
+      <c r="N97" s="33">
+        <v>25</v>
+      </c>
       <c r="O97" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P97" s="34"/>
+      <c r="P97" s="34">
+        <v>21</v>
+      </c>
       <c r="Q97" s="33">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R97" s="11" t="s">
         <v>6</v>
       </c>
       <c r="S97" s="34">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T97" s="33"/>
       <c r="U97" s="11" t="s">
@@ -20736,34 +20764,34 @@
       <c r="V97" s="34"/>
       <c r="W97" s="12">
         <f t="shared" si="125"/>
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="X97" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Y97" s="14">
         <f t="shared" si="126"/>
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="AA97" s="4">
         <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="AB97" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB97" s="4" t="str">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>Cuba</v>
       </c>
       <c r="AC97" s="4">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD97" s="4">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE97" s="4">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF97" s="4">
         <f t="shared" si="132"/>
@@ -20771,7 +20799,7 @@
       </c>
       <c r="AG97" s="4">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH97" s="4">
         <f t="shared" si="134"/>
@@ -20779,27 +20807,27 @@
       </c>
       <c r="AI97" s="4">
         <f t="shared" si="135"/>
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="AJ97" s="4">
         <f t="shared" si="136"/>
-        <v>22</v>
-      </c>
-      <c r="AL97" s="4">
+        <v>89</v>
+      </c>
+      <c r="AL97" s="4" t="str">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>Polônia</v>
       </c>
       <c r="AM97" s="4">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN97" s="4">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO97" s="4">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP97" s="4">
         <f t="shared" si="141"/>
@@ -20807,7 +20835,7 @@
       </c>
       <c r="AQ97" s="4">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR97" s="4">
         <f t="shared" si="143"/>
@@ -20815,11 +20843,11 @@
       </c>
       <c r="AS97" s="4">
         <f t="shared" si="144"/>
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="AT97" s="4">
         <f t="shared" si="145"/>
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="AU97" s="31">
         <v>6</v>
@@ -20830,11 +20858,11 @@
       </c>
       <c r="AW97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,3,FALSE)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,5,FALSE)</f>
@@ -20842,7 +20870,7 @@
       </c>
       <c r="AZ97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,6,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,7,FALSE)</f>
@@ -20858,7 +20886,7 @@
       </c>
       <c r="BD97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,10,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,11,FALSE)</f>
@@ -20870,27 +20898,27 @@
       </c>
       <c r="BG97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,13,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BH97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,14,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BI97" s="29">
         <f>VLOOKUP($AU97,Dummy!$A:$R,15,FALSE)</f>
-        <v>1375</v>
+        <v>1263.1578947368421</v>
       </c>
       <c r="BJ97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,16,FALSE)</f>
-        <v>836</v>
+        <v>931</v>
       </c>
       <c r="BK97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,17,FALSE)</f>
-        <v>808</v>
+        <v>912</v>
       </c>
       <c r="BL97" s="29">
         <f>VLOOKUP($AU97,Dummy!$A:$R,18,FALSE)</f>
-        <v>1034.6534653465346</v>
+        <v>1020.8333333333333</v>
       </c>
     </row>
     <row r="98" spans="2:64" x14ac:dyDescent="0.25">
@@ -21029,15 +21057,15 @@
       </c>
       <c r="AW98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,3,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AX98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,5,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,6,FALSE)</f>
@@ -21049,7 +21077,7 @@
       </c>
       <c r="BB98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,8,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,9,FALSE)</f>
@@ -21069,27 +21097,27 @@
       </c>
       <c r="BG98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,13,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BH98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,14,FALSE)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI98" s="29">
         <f>VLOOKUP($AU98,Dummy!$A:$R,15,FALSE)</f>
-        <v>1105.2631578947369</v>
+        <v>1200</v>
       </c>
       <c r="BJ98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,16,FALSE)</f>
-        <v>891</v>
+        <v>989</v>
       </c>
       <c r="BK98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,17,FALSE)</f>
-        <v>873</v>
+        <v>962</v>
       </c>
       <c r="BL98" s="29">
         <f>VLOOKUP($AU98,Dummy!$A:$R,18,FALSE)</f>
-        <v>1020.6185567010309</v>
+        <v>1028.066528066528</v>
       </c>
     </row>
     <row r="99" spans="2:64" x14ac:dyDescent="0.25">
@@ -21228,15 +21256,15 @@
       </c>
       <c r="AW99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,3,FALSE)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,5,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,6,FALSE)</f>
@@ -21244,7 +21272,7 @@
       </c>
       <c r="BA99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,8,FALSE)</f>
@@ -21268,7 +21296,7 @@
       </c>
       <c r="BG99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BH99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,14,FALSE)</f>
@@ -21276,19 +21304,19 @@
       </c>
       <c r="BI99" s="29">
         <f>VLOOKUP($AU99,Dummy!$A:$R,15,FALSE)</f>
-        <v>941.17647058823525</v>
+        <v>1117.6470588235295</v>
       </c>
       <c r="BJ99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,16,FALSE)</f>
-        <v>759</v>
+        <v>834</v>
       </c>
       <c r="BK99" s="28">
         <f>VLOOKUP($AU99,Dummy!$A:$R,17,FALSE)</f>
-        <v>748</v>
+        <v>806</v>
       </c>
       <c r="BL99" s="29">
         <f>VLOOKUP($AU99,Dummy!$A:$R,18,FALSE)</f>
-        <v>1014.7058823529411</v>
+        <v>1034.7394540942928</v>
       </c>
     </row>
     <row r="100" spans="2:64" x14ac:dyDescent="0.25">
@@ -21423,15 +21451,15 @@
       </c>
       <c r="AV100" s="30" t="str">
         <f>VLOOKUP($AU100,Dummy!$A:$R,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Irã</v>
       </c>
       <c r="AW100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AX100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,5,FALSE)</f>
@@ -21439,7 +21467,7 @@
       </c>
       <c r="AZ100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,7,FALSE)</f>
@@ -21455,11 +21483,11 @@
       </c>
       <c r="BD100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,11,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,12,FALSE)</f>
@@ -21467,27 +21495,27 @@
       </c>
       <c r="BG100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,13,FALSE)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BH100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,14,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BI100" s="29">
         <f>VLOOKUP($AU100,Dummy!$A:$R,15,FALSE)</f>
-        <v>1000</v>
+        <v>1047.6190476190477</v>
       </c>
       <c r="BJ100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,16,FALSE)</f>
-        <v>814</v>
+        <v>949</v>
       </c>
       <c r="BK100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,17,FALSE)</f>
-        <v>807</v>
+        <v>944</v>
       </c>
       <c r="BL100" s="29">
         <f>VLOOKUP($AU100,Dummy!$A:$R,18,FALSE)</f>
-        <v>1008.6741016109047</v>
+        <v>1005.2966101694916</v>
       </c>
     </row>
     <row r="101" spans="2:64" x14ac:dyDescent="0.25">
@@ -21622,15 +21650,15 @@
       </c>
       <c r="AV101" s="30" t="str">
         <f>VLOOKUP($AU101,Dummy!$A:$R,2,FALSE)</f>
-        <v>Estados Unidos</v>
+        <v>Argentina</v>
       </c>
       <c r="AW101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,5,FALSE)</f>
@@ -21638,15 +21666,15 @@
       </c>
       <c r="AZ101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,9,FALSE)</f>
@@ -21654,39 +21682,39 @@
       </c>
       <c r="BD101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,12,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BH101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,14,FALSE)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BI101" s="29">
         <f>VLOOKUP($AU101,Dummy!$A:$R,15,FALSE)</f>
-        <v>941.17647058823525</v>
+        <v>952.38095238095229</v>
       </c>
       <c r="BJ101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,16,FALSE)</f>
-        <v>749</v>
+        <v>921</v>
       </c>
       <c r="BK101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,17,FALSE)</f>
-        <v>763</v>
+        <v>918</v>
       </c>
       <c r="BL101" s="29">
         <f>VLOOKUP($AU101,Dummy!$A:$R,18,FALSE)</f>
-        <v>981.65137614678895</v>
+        <v>1003.2679738562091</v>
       </c>
     </row>
     <row r="102" spans="2:64" x14ac:dyDescent="0.25">
@@ -21821,11 +21849,11 @@
       </c>
       <c r="AV102" s="30" t="str">
         <f>VLOOKUP($AU102,Dummy!$A:$R,2,FALSE)</f>
-        <v>Alemanha</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AW102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,3,FALSE)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,4,FALSE)</f>
@@ -21833,59 +21861,59 @@
       </c>
       <c r="AY102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,5,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,8,FALSE)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,10,FALSE)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BE102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,13,FALSE)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BH102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,14,FALSE)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BI102" s="29">
         <f>VLOOKUP($AU102,Dummy!$A:$R,15,FALSE)</f>
-        <v>1052.6315789473683</v>
+        <v>941.17647058823525</v>
       </c>
       <c r="BJ102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,16,FALSE)</f>
-        <v>886</v>
+        <v>749</v>
       </c>
       <c r="BK102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,17,FALSE)</f>
-        <v>882</v>
+        <v>763</v>
       </c>
       <c r="BL102" s="29">
         <f>VLOOKUP($AU102,Dummy!$A:$R,18,FALSE)</f>
-        <v>1004.5351473922904</v>
+        <v>981.65137614678895</v>
       </c>
     </row>
     <row r="103" spans="2:64" x14ac:dyDescent="0.25">
@@ -22020,15 +22048,15 @@
       </c>
       <c r="AV103" s="30" t="str">
         <f>VLOOKUP($AU103,Dummy!$A:$R,2,FALSE)</f>
-        <v>Irã</v>
+        <v>Alemanha</v>
       </c>
       <c r="AW103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,5,FALSE)</f>
@@ -22036,7 +22064,7 @@
       </c>
       <c r="AZ103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,7,FALSE)</f>
@@ -22044,11 +22072,11 @@
       </c>
       <c r="BB103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,8,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,10,FALSE)</f>
@@ -22056,35 +22084,35 @@
       </c>
       <c r="BE103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,13,FALSE)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BH103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,14,FALSE)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI103" s="29">
         <f>VLOOKUP($AU103,Dummy!$A:$R,15,FALSE)</f>
-        <v>904.76190476190482</v>
+        <v>954.54545454545462</v>
       </c>
       <c r="BJ103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,16,FALSE)</f>
-        <v>871</v>
+        <v>988</v>
       </c>
       <c r="BK103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,17,FALSE)</f>
-        <v>880</v>
+        <v>984</v>
       </c>
       <c r="BL103" s="29">
         <f>VLOOKUP($AU103,Dummy!$A:$R,18,FALSE)</f>
-        <v>989.77272727272725</v>
+        <v>1004.0650406504066</v>
       </c>
     </row>
     <row r="104" spans="2:64" x14ac:dyDescent="0.25">
@@ -22287,32 +22315,32 @@
       </c>
     </row>
     <row r="105" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B105" s="60" t="s">
+      <c r="B105" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="60"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="60"/>
-      <c r="L105" s="60"/>
-      <c r="M105" s="60"/>
-      <c r="N105" s="60"/>
-      <c r="O105" s="60"/>
-      <c r="P105" s="60"/>
-      <c r="Q105" s="60"/>
-      <c r="R105" s="60"/>
-      <c r="S105" s="60"/>
-      <c r="T105" s="60"/>
-      <c r="U105" s="60"/>
-      <c r="V105" s="60"/>
-      <c r="W105" s="60"/>
-      <c r="X105" s="60"/>
-      <c r="Y105" s="60"/>
+      <c r="C105" s="71"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="71"/>
+      <c r="K105" s="71"/>
+      <c r="L105" s="71"/>
+      <c r="M105" s="71"/>
+      <c r="N105" s="71"/>
+      <c r="O105" s="71"/>
+      <c r="P105" s="71"/>
+      <c r="Q105" s="71"/>
+      <c r="R105" s="71"/>
+      <c r="S105" s="71"/>
+      <c r="T105" s="71"/>
+      <c r="U105" s="71"/>
+      <c r="V105" s="71"/>
+      <c r="W105" s="71"/>
+      <c r="X105" s="71"/>
+      <c r="Y105" s="71"/>
       <c r="AU105" s="31">
         <v>14</v>
       </c>
@@ -22390,42 +22418,42 @@
         <v>2</v>
       </c>
       <c r="C106" s="24"/>
-      <c r="D106" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
+      <c r="D106" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="73"/>
+      <c r="F106" s="73"/>
       <c r="G106" s="20"/>
-      <c r="H106" s="59" t="s">
+      <c r="H106" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I106" s="59"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="59" t="s">
+      <c r="I106" s="73"/>
+      <c r="J106" s="73"/>
+      <c r="K106" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L106" s="59"/>
-      <c r="M106" s="59"/>
-      <c r="N106" s="59" t="s">
+      <c r="L106" s="73"/>
+      <c r="M106" s="73"/>
+      <c r="N106" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O106" s="59"/>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="59" t="s">
+      <c r="O106" s="73"/>
+      <c r="P106" s="73"/>
+      <c r="Q106" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R106" s="59"/>
-      <c r="S106" s="59"/>
-      <c r="T106" s="59" t="s">
+      <c r="R106" s="73"/>
+      <c r="S106" s="73"/>
+      <c r="T106" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U106" s="59"/>
-      <c r="V106" s="59"/>
-      <c r="W106" s="59" t="s">
+      <c r="U106" s="73"/>
+      <c r="V106" s="73"/>
+      <c r="W106" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X106" s="59"/>
-      <c r="Y106" s="59"/>
+      <c r="X106" s="73"/>
+      <c r="Y106" s="73"/>
       <c r="AA106" s="4" t="s">
         <v>38</v>
       </c>
@@ -22488,19 +22516,19 @@
       </c>
       <c r="AV106" s="30" t="str">
         <f>VLOOKUP($AU106,Dummy!$A:$R,2,FALSE)</f>
-        <v>China</v>
+        <v>Turquia</v>
       </c>
       <c r="AW106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,3,FALSE)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,6,FALSE)</f>
@@ -22508,7 +22536,7 @@
       </c>
       <c r="BA106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,8,FALSE)</f>
@@ -22520,11 +22548,11 @@
       </c>
       <c r="BD106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,12,FALSE)</f>
@@ -22532,7 +22560,7 @@
       </c>
       <c r="BG106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,13,FALSE)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BH106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,14,FALSE)</f>
@@ -22540,19 +22568,19 @@
       </c>
       <c r="BI106" s="29">
         <f>VLOOKUP($AU106,Dummy!$A:$R,15,FALSE)</f>
-        <v>409.09090909090912</v>
+        <v>500</v>
       </c>
       <c r="BJ106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,16,FALSE)</f>
-        <v>650</v>
+        <v>747</v>
       </c>
       <c r="BK106" s="28">
         <f>VLOOKUP($AU106,Dummy!$A:$R,17,FALSE)</f>
-        <v>724</v>
+        <v>792</v>
       </c>
       <c r="BL106" s="29">
         <f>VLOOKUP($AU106,Dummy!$A:$R,18,FALSE)</f>
-        <v>897.79005524861873</v>
+        <v>943.18181818181824</v>
       </c>
     </row>
     <row r="107" spans="2:64" x14ac:dyDescent="0.25">
@@ -22711,15 +22739,15 @@
       </c>
       <c r="AV107" s="30" t="str">
         <f>VLOOKUP($AU107,Dummy!$A:$R,2,FALSE)</f>
-        <v>Turquia</v>
+        <v>China</v>
       </c>
       <c r="AW107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,3,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,5,FALSE)</f>
@@ -22727,15 +22755,15 @@
       </c>
       <c r="AZ107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,6,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,9,FALSE)</f>
@@ -22743,39 +22771,39 @@
       </c>
       <c r="BD107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,12,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,13,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,14,FALSE)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BI107" s="29">
         <f>VLOOKUP($AU107,Dummy!$A:$R,15,FALSE)</f>
-        <v>380.95238095238091</v>
+        <v>360</v>
       </c>
       <c r="BJ107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,16,FALSE)</f>
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="BK107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,17,FALSE)</f>
-        <v>690</v>
+        <v>802</v>
       </c>
       <c r="BL107" s="29">
         <f>VLOOKUP($AU107,Dummy!$A:$R,18,FALSE)</f>
-        <v>934.78260869565224</v>
+        <v>890.27431421446374</v>
       </c>
     </row>
     <row r="108" spans="2:64" x14ac:dyDescent="0.25">
@@ -22934,7 +22962,7 @@
       </c>
       <c r="AX108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,5,FALSE)</f>
@@ -22942,7 +22970,7 @@
       </c>
       <c r="AZ108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,6,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,7,FALSE)</f>
@@ -22966,7 +22994,7 @@
       </c>
       <c r="BF108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,12,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,13,FALSE)</f>
@@ -22974,23 +23002,23 @@
       </c>
       <c r="BH108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,14,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BI108" s="29">
         <f>VLOOKUP($AU108,Dummy!$A:$R,15,FALSE)</f>
-        <v>440</v>
+        <v>392.85714285714283</v>
       </c>
       <c r="BJ108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,16,FALSE)</f>
-        <v>776</v>
+        <v>834</v>
       </c>
       <c r="BK108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,17,FALSE)</f>
-        <v>843</v>
+        <v>918</v>
       </c>
       <c r="BL108" s="29">
         <f>VLOOKUP($AU108,Dummy!$A:$R,18,FALSE)</f>
-        <v>920.52194543297753</v>
+        <v>908.49673202614383</v>
       </c>
     </row>
     <row r="109" spans="2:64" x14ac:dyDescent="0.25">
@@ -23219,69 +23247,93 @@
       <c r="C110" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D110" s="33"/>
+      <c r="D110" s="33">
+        <v>2</v>
+      </c>
       <c r="E110" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F110" s="34"/>
+      <c r="F110" s="34">
+        <v>3</v>
+      </c>
       <c r="G110" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H110" s="33"/>
+      <c r="H110" s="33">
+        <v>15</v>
+      </c>
       <c r="I110" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J110" s="34"/>
-      <c r="K110" s="33"/>
+      <c r="J110" s="34">
+        <v>25</v>
+      </c>
+      <c r="K110" s="33">
+        <v>20</v>
+      </c>
       <c r="L110" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M110" s="34"/>
-      <c r="N110" s="33"/>
+      <c r="M110" s="34">
+        <v>25</v>
+      </c>
+      <c r="N110" s="33">
+        <v>25</v>
+      </c>
       <c r="O110" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P110" s="34"/>
-      <c r="Q110" s="33"/>
+      <c r="P110" s="34">
+        <v>16</v>
+      </c>
+      <c r="Q110" s="33">
+        <v>25</v>
+      </c>
       <c r="R110" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S110" s="34"/>
-      <c r="T110" s="33"/>
+      <c r="S110" s="34">
+        <v>23</v>
+      </c>
+      <c r="T110" s="33">
+        <v>10</v>
+      </c>
       <c r="U110" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V110" s="34"/>
+      <c r="V110" s="34">
+        <v>15</v>
+      </c>
       <c r="W110" s="9">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="X110" s="11" t="s">
         <v>6</v>
       </c>
       <c r="Y110" s="10">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="AA110" s="4">
         <f t="shared" si="146"/>
-        <v>0</v>
-      </c>
-      <c r="AB110" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB110" s="4" t="str">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>Itália</v>
       </c>
       <c r="AC110" s="4">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD110" s="4">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE110" s="4">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF110" s="4">
         <f t="shared" si="151"/>
@@ -23293,35 +23345,35 @@
       </c>
       <c r="AH110" s="4">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI110" s="4">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="AJ110" s="4">
         <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="AL110" s="4">
+        <v>95</v>
+      </c>
+      <c r="AL110" s="4" t="str">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>Ucrânia</v>
       </c>
       <c r="AM110" s="4">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN110" s="4">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO110" s="4">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP110" s="4">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ110" s="4">
         <f t="shared" si="161"/>
@@ -23333,15 +23385,15 @@
       </c>
       <c r="AS110" s="4">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AT110" s="4">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="AX110" s="53">
         <f>SUM(AX92:AX109)</f>
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="2:64" x14ac:dyDescent="0.25">
@@ -23351,29 +23403,45 @@
       <c r="C111" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D111" s="33"/>
+      <c r="D111" s="33">
+        <v>0</v>
+      </c>
       <c r="E111" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F111" s="34"/>
+      <c r="F111" s="34">
+        <v>3</v>
+      </c>
       <c r="G111" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H111" s="33"/>
+      <c r="H111" s="33">
+        <v>18</v>
+      </c>
       <c r="I111" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J111" s="34"/>
-      <c r="K111" s="33"/>
+      <c r="J111" s="34">
+        <v>25</v>
+      </c>
+      <c r="K111" s="33">
+        <v>19</v>
+      </c>
       <c r="L111" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M111" s="34"/>
-      <c r="N111" s="33"/>
+      <c r="M111" s="34">
+        <v>25</v>
+      </c>
+      <c r="N111" s="33">
+        <v>21</v>
+      </c>
       <c r="O111" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P111" s="34"/>
+      <c r="P111" s="34">
+        <v>25</v>
+      </c>
       <c r="Q111" s="33"/>
       <c r="R111" s="11" t="s">
         <v>6</v>
@@ -23386,30 +23454,30 @@
       <c r="V111" s="34"/>
       <c r="W111" s="9">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="X111" s="11" t="s">
         <v>6</v>
       </c>
       <c r="Y111" s="10">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA111" s="4">
         <f t="shared" si="146"/>
-        <v>0</v>
-      </c>
-      <c r="AB111" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB111" s="4" t="str">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>Eslovênia</v>
       </c>
       <c r="AC111" s="4">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD111" s="4">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE111" s="4">
         <f t="shared" si="150"/>
@@ -23417,7 +23485,7 @@
       </c>
       <c r="AF111" s="4">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG111" s="4">
         <f t="shared" si="152"/>
@@ -23429,19 +23497,19 @@
       </c>
       <c r="AI111" s="4">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ111" s="4">
         <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="AL111" s="4">
+        <v>58</v>
+      </c>
+      <c r="AL111" s="4" t="str">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>Holanda</v>
       </c>
       <c r="AM111" s="4">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN111" s="4">
         <f t="shared" si="158"/>
@@ -23449,7 +23517,7 @@
       </c>
       <c r="AO111" s="4">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP111" s="4">
         <f t="shared" si="160"/>
@@ -23461,15 +23529,15 @@
       </c>
       <c r="AR111" s="4">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS111" s="4">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AT111" s="4">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AU111" s="67" t="s">
         <v>91</v>
@@ -24385,78 +24453,78 @@
       </c>
     </row>
     <row r="119" spans="2:48" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B119" s="60" t="s">
+      <c r="B119" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C119" s="60"/>
-      <c r="D119" s="60"/>
-      <c r="E119" s="60"/>
-      <c r="F119" s="60"/>
-      <c r="G119" s="60"/>
-      <c r="H119" s="60"/>
-      <c r="I119" s="60"/>
-      <c r="J119" s="60"/>
-      <c r="K119" s="60"/>
-      <c r="L119" s="60"/>
-      <c r="M119" s="60"/>
-      <c r="N119" s="60"/>
-      <c r="O119" s="60"/>
-      <c r="P119" s="60"/>
-      <c r="Q119" s="60"/>
-      <c r="R119" s="60"/>
-      <c r="S119" s="60"/>
-      <c r="T119" s="60"/>
-      <c r="U119" s="60"/>
-      <c r="V119" s="60"/>
-      <c r="W119" s="60"/>
-      <c r="X119" s="60"/>
-      <c r="Y119" s="60"/>
-      <c r="AU119" s="68" t="s">
+      <c r="C119" s="71"/>
+      <c r="D119" s="71"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="71"/>
+      <c r="J119" s="71"/>
+      <c r="K119" s="71"/>
+      <c r="L119" s="71"/>
+      <c r="M119" s="71"/>
+      <c r="N119" s="71"/>
+      <c r="O119" s="71"/>
+      <c r="P119" s="71"/>
+      <c r="Q119" s="71"/>
+      <c r="R119" s="71"/>
+      <c r="S119" s="71"/>
+      <c r="T119" s="71"/>
+      <c r="U119" s="71"/>
+      <c r="V119" s="71"/>
+      <c r="W119" s="71"/>
+      <c r="X119" s="71"/>
+      <c r="Y119" s="71"/>
+      <c r="AU119" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="AV119" s="69"/>
+      <c r="AV119" s="64"/>
     </row>
     <row r="120" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B120" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C120" s="24"/>
-      <c r="D120" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E120" s="63"/>
-      <c r="F120" s="63"/>
+      <c r="D120" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
       <c r="G120" s="20"/>
-      <c r="H120" s="59" t="s">
+      <c r="H120" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I120" s="59"/>
-      <c r="J120" s="59"/>
-      <c r="K120" s="59" t="s">
+      <c r="I120" s="73"/>
+      <c r="J120" s="73"/>
+      <c r="K120" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L120" s="59"/>
-      <c r="M120" s="59"/>
-      <c r="N120" s="59" t="s">
+      <c r="L120" s="73"/>
+      <c r="M120" s="73"/>
+      <c r="N120" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O120" s="59"/>
-      <c r="P120" s="59"/>
-      <c r="Q120" s="59" t="s">
+      <c r="O120" s="73"/>
+      <c r="P120" s="73"/>
+      <c r="Q120" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R120" s="59"/>
-      <c r="S120" s="59"/>
-      <c r="T120" s="59" t="s">
+      <c r="R120" s="73"/>
+      <c r="S120" s="73"/>
+      <c r="T120" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U120" s="59"/>
-      <c r="V120" s="59"/>
-      <c r="W120" s="59" t="s">
+      <c r="U120" s="73"/>
+      <c r="V120" s="73"/>
+      <c r="W120" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X120" s="59"/>
-      <c r="Y120" s="59"/>
+      <c r="X120" s="73"/>
+      <c r="Y120" s="73"/>
       <c r="AA120" s="4" t="s">
         <v>38</v>
       </c>
@@ -24514,10 +24582,10 @@
       <c r="AT120" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AU120" s="74" t="s">
+      <c r="AU120" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="AV120" s="75"/>
+      <c r="AV120" s="66"/>
     </row>
     <row r="121" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B121" s="17">
@@ -24646,10 +24714,10 @@
         <f t="shared" ref="AT121:AT132" si="185">IF(D121&lt;F121,SUM(J121,M121,P121,S121,V121),SUM(H121,K121,N121,Q121,T121))</f>
         <v>0</v>
       </c>
-      <c r="AU121" s="70" t="s">
+      <c r="AU121" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="AV121" s="71"/>
+      <c r="AV121" s="60"/>
     </row>
     <row r="122" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B122" s="17">
@@ -24798,10 +24866,10 @@
         <f t="shared" si="185"/>
         <v>99</v>
       </c>
-      <c r="AU122" s="70" t="s">
+      <c r="AU122" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="AV122" s="71"/>
+      <c r="AV122" s="60"/>
     </row>
     <row r="123" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B123" s="17">
@@ -24946,10 +25014,10 @@
         <f t="shared" si="185"/>
         <v>80</v>
       </c>
-      <c r="AU123" s="70" t="s">
+      <c r="AU123" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AV123" s="71"/>
+      <c r="AV123" s="60"/>
     </row>
     <row r="124" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B124" s="17">
@@ -25098,10 +25166,10 @@
         <f t="shared" si="185"/>
         <v>96</v>
       </c>
-      <c r="AU124" s="72" t="s">
+      <c r="AU124" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="AV124" s="73"/>
+      <c r="AV124" s="62"/>
     </row>
     <row r="125" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B125" s="17">
@@ -25110,37 +25178,53 @@
       <c r="C125" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D125" s="33"/>
+      <c r="D125" s="33">
+        <v>3</v>
+      </c>
       <c r="E125" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F125" s="34"/>
+      <c r="F125" s="34">
+        <v>1</v>
+      </c>
       <c r="G125" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H125" s="33"/>
+      <c r="H125" s="33">
+        <v>29</v>
+      </c>
       <c r="I125" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J125" s="34"/>
-      <c r="K125" s="33"/>
+      <c r="J125" s="34">
+        <v>27</v>
+      </c>
+      <c r="K125" s="33">
+        <v>25</v>
+      </c>
       <c r="L125" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M125" s="34"/>
-      <c r="N125" s="33"/>
+      <c r="M125" s="34">
+        <v>22</v>
+      </c>
+      <c r="N125" s="33">
+        <v>18</v>
+      </c>
       <c r="O125" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P125" s="34"/>
+      <c r="P125" s="34">
+        <v>25</v>
+      </c>
       <c r="Q125" s="33">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="R125" s="11" t="s">
         <v>6</v>
       </c>
       <c r="S125" s="34">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="T125" s="33"/>
       <c r="U125" s="11" t="s">
@@ -25149,34 +25233,34 @@
       <c r="V125" s="34"/>
       <c r="W125" s="12">
         <f t="shared" si="186"/>
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="X125" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Y125" s="14">
         <f t="shared" si="187"/>
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="AA125" s="4">
         <f t="shared" si="167"/>
-        <v>0</v>
-      </c>
-      <c r="AB125" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB125" s="4" t="str">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>Turquia</v>
       </c>
       <c r="AC125" s="4">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD125" s="4">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE125" s="4">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF125" s="4">
         <f t="shared" si="172"/>
@@ -25184,7 +25268,7 @@
       </c>
       <c r="AG125" s="4">
         <f t="shared" si="173"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH125" s="4">
         <f t="shared" si="174"/>
@@ -25192,27 +25276,27 @@
       </c>
       <c r="AI125" s="4">
         <f t="shared" si="175"/>
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="AJ125" s="4">
         <f t="shared" si="176"/>
-        <v>22</v>
-      </c>
-      <c r="AL125" s="4">
+        <v>102</v>
+      </c>
+      <c r="AL125" s="4" t="str">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>Alemanha</v>
       </c>
       <c r="AM125" s="4">
         <f t="shared" si="178"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN125" s="4">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO125" s="4">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP125" s="4">
         <f t="shared" si="181"/>
@@ -25220,7 +25304,7 @@
       </c>
       <c r="AQ125" s="4">
         <f t="shared" si="182"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR125" s="4">
         <f t="shared" si="183"/>
@@ -25228,11 +25312,11 @@
       </c>
       <c r="AS125" s="4">
         <f t="shared" si="184"/>
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="AT125" s="4">
         <f t="shared" si="185"/>
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="2:48" x14ac:dyDescent="0.25">
@@ -25242,69 +25326,93 @@
       <c r="C126" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D126" s="33"/>
+      <c r="D126" s="33">
+        <v>2</v>
+      </c>
       <c r="E126" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F126" s="34"/>
+      <c r="F126" s="34">
+        <v>3</v>
+      </c>
       <c r="G126" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H126" s="33"/>
+      <c r="H126" s="33">
+        <v>25</v>
+      </c>
       <c r="I126" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J126" s="34"/>
-      <c r="K126" s="33"/>
+      <c r="J126" s="34">
+        <v>23</v>
+      </c>
+      <c r="K126" s="33">
+        <v>25</v>
+      </c>
       <c r="L126" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M126" s="34"/>
-      <c r="N126" s="33"/>
+      <c r="M126" s="34">
+        <v>23</v>
+      </c>
+      <c r="N126" s="33">
+        <v>21</v>
+      </c>
       <c r="O126" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P126" s="34"/>
-      <c r="Q126" s="33"/>
+      <c r="P126" s="34">
+        <v>25</v>
+      </c>
+      <c r="Q126" s="33">
+        <v>23</v>
+      </c>
       <c r="R126" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S126" s="34"/>
-      <c r="T126" s="33"/>
+      <c r="S126" s="34">
+        <v>25</v>
+      </c>
+      <c r="T126" s="33">
+        <v>13</v>
+      </c>
       <c r="U126" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V126" s="34"/>
+      <c r="V126" s="34">
+        <v>15</v>
+      </c>
       <c r="W126" s="12">
         <f t="shared" si="186"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="X126" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Y126" s="14">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="AA126" s="4">
         <f t="shared" si="167"/>
-        <v>0</v>
-      </c>
-      <c r="AB126" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB126" s="4" t="str">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>Japão</v>
       </c>
       <c r="AC126" s="4">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD126" s="4">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE126" s="4">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF126" s="4">
         <f t="shared" si="172"/>
@@ -25316,35 +25424,35 @@
       </c>
       <c r="AH126" s="4">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI126" s="4">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="AJ126" s="4">
         <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="AL126" s="4">
+        <v>107</v>
+      </c>
+      <c r="AL126" s="4" t="str">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>Argentina</v>
       </c>
       <c r="AM126" s="4">
         <f t="shared" si="178"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN126" s="4">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO126" s="4">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP126" s="4">
         <f t="shared" si="181"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ126" s="4">
         <f t="shared" si="182"/>
@@ -25356,11 +25464,11 @@
       </c>
       <c r="AS126" s="4">
         <f t="shared" si="184"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AT126" s="4">
         <f t="shared" si="185"/>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="2:48" x14ac:dyDescent="0.25">
@@ -26134,83 +26242,16 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="111">
-    <mergeCell ref="AU123:AV123"/>
-    <mergeCell ref="AU124:AV124"/>
-    <mergeCell ref="AU36:AV36"/>
-    <mergeCell ref="AU119:AV119"/>
-    <mergeCell ref="AU120:AV120"/>
-    <mergeCell ref="AU121:AV121"/>
-    <mergeCell ref="AU122:AV122"/>
-    <mergeCell ref="AU31:AV31"/>
-    <mergeCell ref="AU32:AV32"/>
-    <mergeCell ref="AU33:AV33"/>
-    <mergeCell ref="AU34:AV34"/>
-    <mergeCell ref="AU35:AV35"/>
-    <mergeCell ref="AU76:AV76"/>
-    <mergeCell ref="AU77:AV77"/>
-    <mergeCell ref="AU78:AV78"/>
-    <mergeCell ref="AU79:AV79"/>
-    <mergeCell ref="AU80:AV80"/>
-    <mergeCell ref="AU111:AV111"/>
-    <mergeCell ref="AU90:AW90"/>
-    <mergeCell ref="AX90:AZ90"/>
-    <mergeCell ref="BA90:BF90"/>
-    <mergeCell ref="BG90:BI90"/>
-    <mergeCell ref="BJ90:BL90"/>
-    <mergeCell ref="AU23:AV23"/>
-    <mergeCell ref="AU67:AV67"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AU46:AW46"/>
-    <mergeCell ref="AX46:AZ46"/>
-    <mergeCell ref="BA46:BF46"/>
-    <mergeCell ref="BG46:BI46"/>
-    <mergeCell ref="BJ46:BL46"/>
-    <mergeCell ref="AU75:AV75"/>
-    <mergeCell ref="B119:Y119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="N120:P120"/>
-    <mergeCell ref="Q120:S120"/>
-    <mergeCell ref="T120:V120"/>
-    <mergeCell ref="W120:Y120"/>
-    <mergeCell ref="B105:Y105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="W76:Y76"/>
-    <mergeCell ref="B90:Y90"/>
-    <mergeCell ref="B91:Y91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="T92:V92"/>
-    <mergeCell ref="W92:Y92"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="T76:V76"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="T62:V62"/>
-    <mergeCell ref="W62:Y62"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
     <mergeCell ref="B75:Y75"/>
     <mergeCell ref="B46:Y46"/>
     <mergeCell ref="B47:Y47"/>
@@ -26235,16 +26276,83 @@
     <mergeCell ref="H62:J62"/>
     <mergeCell ref="K62:M62"/>
     <mergeCell ref="N62:P62"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="T62:V62"/>
+    <mergeCell ref="W62:Y62"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W76:Y76"/>
+    <mergeCell ref="B90:Y90"/>
+    <mergeCell ref="B91:Y91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="T92:V92"/>
+    <mergeCell ref="W92:Y92"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="T76:V76"/>
+    <mergeCell ref="B119:Y119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="N120:P120"/>
+    <mergeCell ref="Q120:S120"/>
+    <mergeCell ref="T120:V120"/>
+    <mergeCell ref="W120:Y120"/>
+    <mergeCell ref="B105:Y105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="AX90:AZ90"/>
+    <mergeCell ref="BA90:BF90"/>
+    <mergeCell ref="BG90:BI90"/>
+    <mergeCell ref="BJ90:BL90"/>
+    <mergeCell ref="AU23:AV23"/>
+    <mergeCell ref="AU67:AV67"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AU46:AW46"/>
+    <mergeCell ref="AX46:AZ46"/>
+    <mergeCell ref="BA46:BF46"/>
+    <mergeCell ref="BG46:BI46"/>
+    <mergeCell ref="BJ46:BL46"/>
+    <mergeCell ref="AU75:AV75"/>
+    <mergeCell ref="AU123:AV123"/>
+    <mergeCell ref="AU124:AV124"/>
+    <mergeCell ref="AU36:AV36"/>
+    <mergeCell ref="AU119:AV119"/>
+    <mergeCell ref="AU120:AV120"/>
+    <mergeCell ref="AU121:AV121"/>
+    <mergeCell ref="AU122:AV122"/>
+    <mergeCell ref="AU31:AV31"/>
+    <mergeCell ref="AU32:AV32"/>
+    <mergeCell ref="AU33:AV33"/>
+    <mergeCell ref="AU34:AV34"/>
+    <mergeCell ref="AU35:AV35"/>
+    <mergeCell ref="AU76:AV76"/>
+    <mergeCell ref="AU77:AV77"/>
+    <mergeCell ref="AU78:AV78"/>
+    <mergeCell ref="AU79:AV79"/>
+    <mergeCell ref="AU80:AV80"/>
+    <mergeCell ref="AU111:AV111"/>
+    <mergeCell ref="AU90:AW90"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:V16">
     <cfRule type="expression" dxfId="124" priority="136">
@@ -26912,100 +27020,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="AU2" s="76" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="AU2" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="76"/>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="76" t="s">
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="76" t="s">
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="77"/>
+      <c r="BA2" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="76"/>
-      <c r="BC2" s="76"/>
-      <c r="BD2" s="76"/>
-      <c r="BE2" s="76"/>
-      <c r="BF2" s="76"/>
-      <c r="BG2" s="76" t="s">
+      <c r="BB2" s="77"/>
+      <c r="BC2" s="77"/>
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="77"/>
+      <c r="BF2" s="77"/>
+      <c r="BG2" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" s="76"/>
-      <c r="BI2" s="76"/>
-      <c r="BJ2" s="76" t="s">
+      <c r="BH2" s="77"/>
+      <c r="BI2" s="77"/>
+      <c r="BJ2" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="76"/>
-      <c r="BL2" s="76"/>
+      <c r="BK2" s="77"/>
+      <c r="BL2" s="77"/>
     </row>
     <row r="3" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="D3" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59" t="s">
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59" t="s">
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59" t="s">
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59" t="s">
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
       <c r="AA3" s="4" t="s">
         <v>38</v>
       </c>
@@ -27457,15 +27565,15 @@
       </c>
       <c r="AW5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,3,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,5,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,6,FALSE)</f>
@@ -27481,7 +27589,7 @@
       </c>
       <c r="BC5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,10,FALSE)</f>
@@ -27497,27 +27605,27 @@
       </c>
       <c r="BG5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,13,FALSE)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BH5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,14,FALSE)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI5" s="29">
         <f>VLOOKUP($AU5,Dummy!$A:$R,15,FALSE)</f>
-        <v>2000</v>
+        <v>1928.5714285714287</v>
       </c>
       <c r="BJ5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,16,FALSE)</f>
-        <v>846</v>
+        <v>950</v>
       </c>
       <c r="BK5" s="28">
         <f>VLOOKUP($AU5,Dummy!$A:$R,17,FALSE)</f>
-        <v>748</v>
+        <v>843</v>
       </c>
       <c r="BL5" s="29">
         <f>VLOOKUP($AU5,Dummy!$A:$R,18,FALSE)</f>
-        <v>1131.0160427807486</v>
+        <v>1126.9276393831553</v>
       </c>
     </row>
     <row r="6" spans="2:64" x14ac:dyDescent="0.25">
@@ -27654,7 +27762,7 @@
       </c>
       <c r="AV6" s="30" t="str">
         <f>VLOOKUP($AU6,Dummy!$A:$R,2,FALSE)</f>
-        <v>Polônia</v>
+        <v>Japão</v>
       </c>
       <c r="AW6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,3,FALSE)</f>
@@ -27662,7 +27770,7 @@
       </c>
       <c r="AX6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,5,FALSE)</f>
@@ -27670,15 +27778,15 @@
       </c>
       <c r="AZ6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,7,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,8,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,9,FALSE)</f>
@@ -27694,7 +27802,7 @@
       </c>
       <c r="BF6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,13,FALSE)</f>
@@ -27702,23 +27810,23 @@
       </c>
       <c r="BH6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,14,FALSE)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI6" s="29">
         <f>VLOOKUP($AU6,Dummy!$A:$R,15,FALSE)</f>
-        <v>2000</v>
+        <v>1714.2857142857142</v>
       </c>
       <c r="BJ6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,16,FALSE)</f>
-        <v>843</v>
+        <v>891</v>
       </c>
       <c r="BK6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,17,FALSE)</f>
-        <v>810</v>
+        <v>839</v>
       </c>
       <c r="BL6" s="29">
         <f>VLOOKUP($AU6,Dummy!$A:$R,18,FALSE)</f>
-        <v>1040.7407407407406</v>
+        <v>1061.9785458879619</v>
       </c>
     </row>
     <row r="7" spans="2:64" x14ac:dyDescent="0.25">
@@ -27855,19 +27963,19 @@
       </c>
       <c r="AV7" s="30" t="str">
         <f>VLOOKUP($AU7,Dummy!$A:$R,2,FALSE)</f>
-        <v>Japão</v>
+        <v>Polônia</v>
       </c>
       <c r="AW7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,3,FALSE)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,5,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,6,FALSE)</f>
@@ -27875,15 +27983,15 @@
       </c>
       <c r="BA7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,7,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,10,FALSE)</f>
@@ -27891,35 +27999,35 @@
       </c>
       <c r="BE7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,13,FALSE)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BH7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,14,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BI7" s="29">
         <f>VLOOKUP($AU7,Dummy!$A:$R,15,FALSE)</f>
-        <v>1750</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BJ7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,16,FALSE)</f>
-        <v>780</v>
+        <v>932</v>
       </c>
       <c r="BK7" s="28">
         <f>VLOOKUP($AU7,Dummy!$A:$R,17,FALSE)</f>
-        <v>732</v>
+        <v>908</v>
       </c>
       <c r="BL7" s="29">
         <f>VLOOKUP($AU7,Dummy!$A:$R,18,FALSE)</f>
-        <v>1065.5737704918033</v>
+        <v>1026.431718061674</v>
       </c>
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.25">
@@ -28005,11 +28113,11 @@
       </c>
       <c r="AW9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,3,FALSE)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,5,FALSE)</f>
@@ -28017,7 +28125,7 @@
       </c>
       <c r="AZ9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,6,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,7,FALSE)</f>
@@ -28033,7 +28141,7 @@
       </c>
       <c r="BD9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,10,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,11,FALSE)</f>
@@ -28045,56 +28153,56 @@
       </c>
       <c r="BG9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,13,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BH9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,14,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BI9" s="29">
         <f>VLOOKUP($AU9,Dummy!$A:$R,15,FALSE)</f>
-        <v>1375</v>
+        <v>1263.1578947368421</v>
       </c>
       <c r="BJ9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,16,FALSE)</f>
-        <v>836</v>
+        <v>931</v>
       </c>
       <c r="BK9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,17,FALSE)</f>
-        <v>808</v>
+        <v>912</v>
       </c>
       <c r="BL9" s="29">
         <f>VLOOKUP($AU9,Dummy!$A:$R,18,FALSE)</f>
-        <v>1034.6534653465346</v>
+        <v>1020.8333333333333</v>
       </c>
     </row>
     <row r="10" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
       <c r="AU10" s="31">
         <v>7</v>
       </c>
@@ -28104,15 +28212,15 @@
       </c>
       <c r="AW10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,3,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AX10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,5,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,6,FALSE)</f>
@@ -28124,7 +28232,7 @@
       </c>
       <c r="BB10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,8,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,9,FALSE)</f>
@@ -28144,68 +28252,68 @@
       </c>
       <c r="BG10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,13,FALSE)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BH10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,14,FALSE)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI10" s="29">
         <f>VLOOKUP($AU10,Dummy!$A:$R,15,FALSE)</f>
-        <v>1105.2631578947369</v>
+        <v>1200</v>
       </c>
       <c r="BJ10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,16,FALSE)</f>
-        <v>891</v>
+        <v>989</v>
       </c>
       <c r="BK10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,17,FALSE)</f>
-        <v>873</v>
+        <v>962</v>
       </c>
       <c r="BL10" s="29">
         <f>VLOOKUP($AU10,Dummy!$A:$R,18,FALSE)</f>
-        <v>1020.6185567010309</v>
+        <v>1028.066528066528</v>
       </c>
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" s="24"/>
-      <c r="D11" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="D11" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59" t="s">
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59" t="s">
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59" t="s">
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59" t="s">
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59" t="s">
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
       <c r="AA11" s="4" t="s">
         <v>38</v>
       </c>
@@ -28272,15 +28380,15 @@
       </c>
       <c r="AW11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,3,FALSE)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,5,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,6,FALSE)</f>
@@ -28288,7 +28396,7 @@
       </c>
       <c r="BA11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,8,FALSE)</f>
@@ -28312,7 +28420,7 @@
       </c>
       <c r="BG11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BH11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,14,FALSE)</f>
@@ -28320,19 +28428,19 @@
       </c>
       <c r="BI11" s="29">
         <f>VLOOKUP($AU11,Dummy!$A:$R,15,FALSE)</f>
-        <v>941.17647058823525</v>
+        <v>1117.6470588235295</v>
       </c>
       <c r="BJ11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,16,FALSE)</f>
-        <v>759</v>
+        <v>834</v>
       </c>
       <c r="BK11" s="28">
         <f>VLOOKUP($AU11,Dummy!$A:$R,17,FALSE)</f>
-        <v>748</v>
+        <v>806</v>
       </c>
       <c r="BL11" s="29">
         <f>VLOOKUP($AU11,Dummy!$A:$R,18,FALSE)</f>
-        <v>1014.7058823529411</v>
+        <v>1034.7394540942928</v>
       </c>
     </row>
     <row r="12" spans="2:64" x14ac:dyDescent="0.25">
@@ -28469,15 +28577,15 @@
       </c>
       <c r="AV12" s="30" t="str">
         <f>VLOOKUP($AU12,Dummy!$A:$R,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Irã</v>
       </c>
       <c r="AW12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AX12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,5,FALSE)</f>
@@ -28485,7 +28593,7 @@
       </c>
       <c r="AZ12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,7,FALSE)</f>
@@ -28501,11 +28609,11 @@
       </c>
       <c r="BD12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,11,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,12,FALSE)</f>
@@ -28513,27 +28621,27 @@
       </c>
       <c r="BG12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,13,FALSE)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BH12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,14,FALSE)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BI12" s="29">
         <f>VLOOKUP($AU12,Dummy!$A:$R,15,FALSE)</f>
-        <v>1000</v>
+        <v>1047.6190476190477</v>
       </c>
       <c r="BJ12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,16,FALSE)</f>
-        <v>814</v>
+        <v>949</v>
       </c>
       <c r="BK12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,17,FALSE)</f>
-        <v>807</v>
+        <v>944</v>
       </c>
       <c r="BL12" s="29">
         <f>VLOOKUP($AU12,Dummy!$A:$R,18,FALSE)</f>
-        <v>1008.6741016109047</v>
+        <v>1005.2966101694916</v>
       </c>
     </row>
     <row r="13" spans="2:64" x14ac:dyDescent="0.25">
@@ -28670,15 +28778,15 @@
       </c>
       <c r="AV13" s="30" t="str">
         <f>VLOOKUP($AU13,Dummy!$A:$R,2,FALSE)</f>
-        <v>Estados Unidos</v>
+        <v>Argentina</v>
       </c>
       <c r="AW13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,5,FALSE)</f>
@@ -28686,15 +28794,15 @@
       </c>
       <c r="AZ13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,9,FALSE)</f>
@@ -28702,39 +28810,39 @@
       </c>
       <c r="BD13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,12,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BH13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,14,FALSE)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BI13" s="29">
         <f>VLOOKUP($AU13,Dummy!$A:$R,15,FALSE)</f>
-        <v>941.17647058823525</v>
+        <v>952.38095238095229</v>
       </c>
       <c r="BJ13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,16,FALSE)</f>
-        <v>749</v>
+        <v>921</v>
       </c>
       <c r="BK13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,17,FALSE)</f>
-        <v>763</v>
+        <v>918</v>
       </c>
       <c r="BL13" s="29">
         <f>VLOOKUP($AU13,Dummy!$A:$R,18,FALSE)</f>
-        <v>981.65137614678895</v>
+        <v>1003.2679738562091</v>
       </c>
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.25">
@@ -28743,11 +28851,11 @@
       </c>
       <c r="AV14" s="30" t="str">
         <f>VLOOKUP($AU14,Dummy!$A:$R,2,FALSE)</f>
-        <v>Alemanha</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AW14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,3,FALSE)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,4,FALSE)</f>
@@ -28755,59 +28863,59 @@
       </c>
       <c r="AY14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,5,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,8,FALSE)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,10,FALSE)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,13,FALSE)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BH14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,14,FALSE)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BI14" s="29">
         <f>VLOOKUP($AU14,Dummy!$A:$R,15,FALSE)</f>
-        <v>1052.6315789473683</v>
+        <v>941.17647058823525</v>
       </c>
       <c r="BJ14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,16,FALSE)</f>
-        <v>886</v>
+        <v>749</v>
       </c>
       <c r="BK14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,17,FALSE)</f>
-        <v>882</v>
+        <v>763</v>
       </c>
       <c r="BL14" s="29">
         <f>VLOOKUP($AU14,Dummy!$A:$R,18,FALSE)</f>
-        <v>1004.5351473922904</v>
+        <v>981.65137614678895</v>
       </c>
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.25">
@@ -28816,15 +28924,15 @@
       </c>
       <c r="AV15" s="30" t="str">
         <f>VLOOKUP($AU15,Dummy!$A:$R,2,FALSE)</f>
-        <v>Irã</v>
+        <v>Alemanha</v>
       </c>
       <c r="AW15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,5,FALSE)</f>
@@ -28832,7 +28940,7 @@
       </c>
       <c r="AZ15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,7,FALSE)</f>
@@ -28840,11 +28948,11 @@
       </c>
       <c r="BB15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,8,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,10,FALSE)</f>
@@ -28852,35 +28960,35 @@
       </c>
       <c r="BE15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,13,FALSE)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BH15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,14,FALSE)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI15" s="29">
         <f>VLOOKUP($AU15,Dummy!$A:$R,15,FALSE)</f>
-        <v>904.76190476190482</v>
+        <v>954.54545454545462</v>
       </c>
       <c r="BJ15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,16,FALSE)</f>
-        <v>871</v>
+        <v>988</v>
       </c>
       <c r="BK15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,17,FALSE)</f>
-        <v>880</v>
+        <v>984</v>
       </c>
       <c r="BL15" s="29">
         <f>VLOOKUP($AU15,Dummy!$A:$R,18,FALSE)</f>
-        <v>989.77272727272725</v>
+        <v>1004.0650406504066</v>
       </c>
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.25">
@@ -28957,32 +29065,32 @@
       </c>
     </row>
     <row r="17" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
       <c r="AA17" s="4" t="s">
         <v>38</v>
       </c>
@@ -29115,42 +29223,42 @@
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="D18" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59" t="s">
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59" t="s">
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59" t="s">
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59" t="s">
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59" t="s">
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
       <c r="AA18" s="4">
         <f>AD18+AE18</f>
         <v>0</v>
@@ -29232,19 +29340,19 @@
       </c>
       <c r="AV18" s="30" t="str">
         <f>VLOOKUP($AU18,Dummy!$A:$R,2,FALSE)</f>
-        <v>China</v>
+        <v>Turquia</v>
       </c>
       <c r="AW18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,3,FALSE)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,6,FALSE)</f>
@@ -29252,7 +29360,7 @@
       </c>
       <c r="BA18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,8,FALSE)</f>
@@ -29264,11 +29372,11 @@
       </c>
       <c r="BD18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,12,FALSE)</f>
@@ -29276,7 +29384,7 @@
       </c>
       <c r="BG18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,13,FALSE)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BH18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,14,FALSE)</f>
@@ -29284,19 +29392,19 @@
       </c>
       <c r="BI18" s="29">
         <f>VLOOKUP($AU18,Dummy!$A:$R,15,FALSE)</f>
-        <v>409.09090909090912</v>
+        <v>500</v>
       </c>
       <c r="BJ18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,16,FALSE)</f>
-        <v>650</v>
+        <v>747</v>
       </c>
       <c r="BK18" s="28">
         <f>VLOOKUP($AU18,Dummy!$A:$R,17,FALSE)</f>
-        <v>724</v>
+        <v>792</v>
       </c>
       <c r="BL18" s="29">
         <f>VLOOKUP($AU18,Dummy!$A:$R,18,FALSE)</f>
-        <v>897.79005524861873</v>
+        <v>943.18181818181824</v>
       </c>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
@@ -29357,15 +29465,15 @@
       </c>
       <c r="AV19" s="30" t="str">
         <f>VLOOKUP($AU19,Dummy!$A:$R,2,FALSE)</f>
-        <v>Turquia</v>
+        <v>China</v>
       </c>
       <c r="AW19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,3,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,5,FALSE)</f>
@@ -29373,15 +29481,15 @@
       </c>
       <c r="AZ19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,6,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,9,FALSE)</f>
@@ -29389,39 +29497,39 @@
       </c>
       <c r="BD19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,12,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,13,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,14,FALSE)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BI19" s="29">
         <f>VLOOKUP($AU19,Dummy!$A:$R,15,FALSE)</f>
-        <v>380.95238095238091</v>
+        <v>360</v>
       </c>
       <c r="BJ19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,16,FALSE)</f>
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="BK19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,17,FALSE)</f>
-        <v>690</v>
+        <v>802</v>
       </c>
       <c r="BL19" s="29">
         <f>VLOOKUP($AU19,Dummy!$A:$R,18,FALSE)</f>
-        <v>934.78260869565224</v>
+        <v>890.27431421446374</v>
       </c>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
@@ -29438,7 +29546,7 @@
       </c>
       <c r="AX20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,5,FALSE)</f>
@@ -29446,7 +29554,7 @@
       </c>
       <c r="AZ20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,6,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,7,FALSE)</f>
@@ -29470,7 +29578,7 @@
       </c>
       <c r="BF20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,12,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,13,FALSE)</f>
@@ -29478,23 +29586,23 @@
       </c>
       <c r="BH20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,14,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BI20" s="29">
         <f>VLOOKUP($AU20,Dummy!$A:$R,15,FALSE)</f>
-        <v>440</v>
+        <v>392.85714285714283</v>
       </c>
       <c r="BJ20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,16,FALSE)</f>
-        <v>776</v>
+        <v>834</v>
       </c>
       <c r="BK20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,17,FALSE)</f>
-        <v>843</v>
+        <v>918</v>
       </c>
       <c r="BL20" s="29">
         <f>VLOOKUP($AU20,Dummy!$A:$R,18,FALSE)</f>
-        <v>920.52194543297753</v>
+        <v>908.49673202614383</v>
       </c>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
@@ -29573,36 +29681,36 @@
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
       <c r="AX22" s="53">
         <f>SUM(AX4:AX21)</f>
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
       <c r="AA23" s="4" t="s">
         <v>38</v>
       </c>
@@ -29668,42 +29776,42 @@
     <row r="24" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
+      <c r="D24" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59" t="s">
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59" t="s">
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59" t="s">
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59" t="s">
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59" t="s">
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
       <c r="AA24" s="4">
         <f>AD24+AE24</f>
         <v>0</v>
@@ -29876,10 +29984,10 @@
       <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="2:64" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="77"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="44"/>
       <c r="E28" s="39"/>
       <c r="F28" s="46"/>
@@ -29902,10 +30010,10 @@
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
       <c r="Y28" s="39"/>
-      <c r="AU28" s="68" t="s">
+      <c r="AU28" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="AV28" s="69"/>
+      <c r="AV28" s="64"/>
     </row>
     <row r="29" spans="2:64" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="50" t="s">
@@ -29918,10 +30026,10 @@
       <c r="D29" s="45"/>
       <c r="F29" s="47"/>
       <c r="G29" s="42"/>
-      <c r="AU29" s="74" t="s">
+      <c r="AU29" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="AV29" s="75"/>
+      <c r="AV29" s="66"/>
     </row>
     <row r="30" spans="2:64" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="51" t="s">
@@ -29934,10 +30042,10 @@
       <c r="D30" s="45"/>
       <c r="F30" s="47"/>
       <c r="G30" s="42"/>
-      <c r="AU30" s="70" t="s">
+      <c r="AU30" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="AV30" s="71"/>
+      <c r="AV30" s="60"/>
     </row>
     <row r="31" spans="2:64" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B31" s="52" t="s">
@@ -29969,22 +30077,22 @@
       <c r="W31" s="41"/>
       <c r="X31" s="41"/>
       <c r="Y31" s="41"/>
-      <c r="AU31" s="70" t="s">
+      <c r="AU31" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="AV31" s="71"/>
+      <c r="AV31" s="60"/>
     </row>
     <row r="32" spans="2:64" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AU32" s="70" t="s">
+      <c r="AU32" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AV32" s="71"/>
+      <c r="AV32" s="60"/>
     </row>
     <row r="33" spans="2:48" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AU33" s="72" t="s">
+      <c r="AU33" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="AV33" s="73"/>
+      <c r="AV33" s="62"/>
     </row>
     <row r="39" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
@@ -29994,22 +30102,23 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="AU29:AV29"/>
-    <mergeCell ref="AU30:AV30"/>
-    <mergeCell ref="AU31:AV31"/>
-    <mergeCell ref="AU32:AV32"/>
-    <mergeCell ref="AU33:AV33"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="AU23:AV23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="B23:Y23"/>
-    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B10:Y10"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BL2"/>
     <mergeCell ref="T18:V18"/>
     <mergeCell ref="W18:Y18"/>
     <mergeCell ref="D11:F11"/>
@@ -30022,23 +30131,22 @@
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B10:Y10"/>
-    <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="AU23:AV23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="B23:Y23"/>
+    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="AU29:AV29"/>
+    <mergeCell ref="AU30:AV30"/>
+    <mergeCell ref="AU31:AV31"/>
+    <mergeCell ref="AU32:AV32"/>
+    <mergeCell ref="AU33:AV33"/>
   </mergeCells>
   <conditionalFormatting sqref="T4:V7 T12:V13">
     <cfRule type="expression" dxfId="18" priority="71">
@@ -30166,6 +30274,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF2846C41E31A469E3CED25F2422E48" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0c08e4af4d80db6585ac36ba965bb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c8c20e6-817c-474f-b9c2-eb2b1ac24837" xmlns:ns4="dc8c2798-6aba-4af7-93a4-b89253b03650" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e7db2db65f9cb533b4933096bc9b657" ns3:_="" ns4:_="">
     <xsd:import namespace="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
@@ -30398,24 +30523,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A4F3B6-8EF3-43FC-AA6E-56F4B11E76F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30432,29 +30565,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VNL Masculino 2025.xlsx
+++ b/VNL Masculino 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D584DA95-F3B6-411F-8F2D-A3974AF7547B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C497F92E-FCB3-4F85-ACB8-08ABC8947A54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
@@ -861,6 +861,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -877,49 +910,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2527,7 +2527,7 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>RANK(E3,$E$3:$E$20)+SUM(S3:V3)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>42</v>
@@ -2630,7 +2630,7 @@
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A20" si="1">RANK(E4,$E$3:$E$20)+SUM(S4:V4)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>94</v>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D20" si="3">E4+F4</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B4)</f>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="F4" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B4)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B4,Jogos!AF:AF)</f>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="K4" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B4,Jogos!AQ:AQ)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B4,Jogos!AR:AR)</f>
@@ -2677,31 +2677,31 @@
       </c>
       <c r="M4" s="1">
         <f>SUMIF(Jogos!AB:AB,B4,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B4,Jogos!AN:AN)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" s="1">
         <f>SUMIF(Jogos!AB:AB,B4,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B4,Jogos!AO:AO)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O4" s="15">
         <f t="shared" ref="O4:O20" si="4">IFERROR((M4/N4)*1000,"MAX")</f>
-        <v>952.38095238095229</v>
+        <v>875</v>
       </c>
       <c r="P4" s="1">
         <f>SUMIF(Jogos!AB:AB,B4,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B4,Jogos!AS:AS)</f>
-        <v>921</v>
+        <v>1012</v>
       </c>
       <c r="Q4" s="1">
         <f>SUMIF(Jogos!AB:AB,B4,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B4,Jogos!AT:AT)</f>
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="R4" s="15">
         <f t="shared" si="0"/>
-        <v>1003.2679738562091</v>
+        <v>999.01283316880551</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" ref="S4:S20" si="5">SUMPRODUCT(($E$3:$E$20=E4)*($C$3:$C$20&gt;C4))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" ref="T4:T20" si="6">SUMPRODUCT(($E$3:$E$20=E4)*($C$3:$C$20=C4)*($O$3:$O$20&gt;O4))</f>
@@ -2736,15 +2736,15 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B5)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B5)</f>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="G5" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B5,Jogos!AF:AF)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B5,Jogos!AG:AG)</f>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="M5" s="1">
         <f>SUMIF(Jogos!AB:AB,B5,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B5,Jogos!AN:AN)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N5" s="1">
         <f>SUMIF(Jogos!AB:AB,B5,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B5,Jogos!AO:AO)</f>
@@ -2784,19 +2784,19 @@
       </c>
       <c r="O5" s="15">
         <f t="shared" si="4"/>
-        <v>2888.8888888888887</v>
+        <v>3222.2222222222222</v>
       </c>
       <c r="P5" s="1">
         <f>SUMIF(Jogos!AB:AB,B5,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B5,Jogos!AS:AS)</f>
-        <v>823</v>
+        <v>901</v>
       </c>
       <c r="Q5" s="1">
         <f>SUMIF(Jogos!AB:AB,B5,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B5,Jogos!AT:AT)</f>
-        <v>746</v>
+        <v>816</v>
       </c>
       <c r="R5" s="15">
         <f t="shared" si="0"/>
-        <v>1103.2171581769437</v>
+        <v>1104.1666666666667</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="5"/>
@@ -2828,22 +2828,22 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B6)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B6)</f>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="G6" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B6,Jogos!AF:AF)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B6,Jogos!AG:AG)</f>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="M6" s="1">
         <f>SUMIF(Jogos!AB:AB,B6,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B6,Jogos!AN:AN)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N6" s="1">
         <f>SUMIF(Jogos!AB:AB,B6,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B6,Jogos!AO:AO)</f>
@@ -2883,19 +2883,19 @@
       </c>
       <c r="O6" s="15">
         <f t="shared" si="4"/>
-        <v>888.8888888888888</v>
+        <v>1055.5555555555557</v>
       </c>
       <c r="P6" s="1">
         <f>SUMIF(Jogos!AB:AB,B6,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B6,Jogos!AS:AS)</f>
-        <v>758</v>
+        <v>834</v>
       </c>
       <c r="Q6" s="1">
         <f>SUMIF(Jogos!AB:AB,B6,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B6,Jogos!AT:AT)</f>
-        <v>785</v>
+        <v>848</v>
       </c>
       <c r="R6" s="15">
         <f t="shared" si="0"/>
-        <v>965.60509554140128</v>
+        <v>983.4905660377359</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="5"/>
@@ -2934,15 +2934,15 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B7)</f>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G7" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B7,Jogos!AF:AF)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B7,Jogos!AG:AG)</f>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="M7" s="1">
         <f>SUMIF(Jogos!AB:AB,B7,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B7,Jogos!AN:AN)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N7" s="1">
         <f>SUMIF(Jogos!AB:AB,B7,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B7,Jogos!AO:AO)</f>
@@ -2982,23 +2982,23 @@
       </c>
       <c r="O7" s="15">
         <f t="shared" si="4"/>
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="P7" s="1">
         <f>SUMIF(Jogos!AB:AB,B7,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B7,Jogos!AS:AS)</f>
-        <v>796</v>
+        <v>871</v>
       </c>
       <c r="Q7" s="1">
         <f>SUMIF(Jogos!AB:AB,B7,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B7,Jogos!AT:AT)</f>
-        <v>812</v>
+        <v>869</v>
       </c>
       <c r="R7" s="15">
         <f t="shared" si="0"/>
-        <v>980.29556650246309</v>
+        <v>1002.301495972382</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="6"/>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B8)</f>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="F8" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B8)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B8,Jogos!AF:AF)</f>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="L8" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B8,Jogos!AR:AR)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M8" s="1">
         <f>SUMIF(Jogos!AB:AB,B8,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B8,Jogos!AN:AN)</f>
@@ -3077,23 +3077,23 @@
       </c>
       <c r="N8" s="1">
         <f>SUMIF(Jogos!AB:AB,B8,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B8,Jogos!AO:AO)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O8" s="15">
         <f t="shared" si="4"/>
-        <v>360</v>
+        <v>321.42857142857144</v>
       </c>
       <c r="P8" s="1">
         <f>SUMIF(Jogos!AB:AB,B8,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B8,Jogos!AS:AS)</f>
-        <v>714</v>
+        <v>777</v>
       </c>
       <c r="Q8" s="1">
         <f>SUMIF(Jogos!AB:AB,B8,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B8,Jogos!AT:AT)</f>
-        <v>802</v>
+        <v>878</v>
       </c>
       <c r="R8" s="15">
         <f t="shared" si="0"/>
-        <v>890.27431421446374</v>
+        <v>884.96583143507962</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="5"/>
@@ -3125,18 +3125,18 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B9)</f>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="F9" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B9,Jogos!AF:AF)</f>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="J9" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B9,Jogos!AP:AP)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B9,Jogos!AQ:AQ)</f>
@@ -3172,27 +3172,27 @@
       </c>
       <c r="M9" s="1">
         <f>SUMIF(Jogos!AB:AB,B9,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B9,Jogos!AN:AN)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N9" s="1">
         <f>SUMIF(Jogos!AB:AB,B9,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B9,Jogos!AO:AO)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1130.4347826086955</v>
       </c>
       <c r="P9" s="1">
         <f>SUMIF(Jogos!AB:AB,B9,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B9,Jogos!AS:AS)</f>
-        <v>989</v>
+        <v>1084</v>
       </c>
       <c r="Q9" s="1">
         <f>SUMIF(Jogos!AB:AB,B9,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B9,Jogos!AT:AT)</f>
-        <v>962</v>
+        <v>1070</v>
       </c>
       <c r="R9" s="15">
         <f t="shared" si="0"/>
-        <v>1028.066528066528</v>
+        <v>1013.0841121495326</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="5"/>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="T9" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="7"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="S10" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="6"/>
@@ -3316,22 +3316,22 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B11)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B11)</f>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B11,Jogos!AG:AG)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B11,Jogos!AH:AH)</f>
@@ -3363,31 +3363,31 @@
       </c>
       <c r="M11" s="1">
         <f>SUMIF(Jogos!AB:AB,B11,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B11,Jogos!AN:AN)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N11" s="1">
         <f>SUMIF(Jogos!AB:AB,B11,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B11,Jogos!AO:AO)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" si="4"/>
-        <v>941.17647058823525</v>
+        <v>1055.5555555555557</v>
       </c>
       <c r="P11" s="1">
         <f>SUMIF(Jogos!AB:AB,B11,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B11,Jogos!AS:AS)</f>
-        <v>749</v>
+        <v>844</v>
       </c>
       <c r="Q11" s="1">
         <f>SUMIF(Jogos!AB:AB,B11,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B11,Jogos!AT:AT)</f>
-        <v>763</v>
+        <v>854</v>
       </c>
       <c r="R11" s="15">
         <f t="shared" si="0"/>
-        <v>981.65137614678895</v>
+        <v>988.29039812646374</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="6"/>
@@ -3408,22 +3408,22 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B12)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B12)</f>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="I12" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B12,Jogos!AH:AH)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B12,Jogos!AP:AP)</f>
@@ -3455,27 +3455,27 @@
       </c>
       <c r="M12" s="1">
         <f>SUMIF(Jogos!AB:AB,B12,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B12,Jogos!AN:AN)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N12" s="1">
         <f>SUMIF(Jogos!AB:AB,B12,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B12,Jogos!AO:AO)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O12" s="15">
         <f t="shared" si="4"/>
-        <v>1692.3076923076924</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="P12" s="1">
         <f>SUMIF(Jogos!AB:AB,B12,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B12,Jogos!AS:AS)</f>
-        <v>827</v>
+        <v>935</v>
       </c>
       <c r="Q12" s="1">
         <f>SUMIF(Jogos!AB:AB,B12,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B12,Jogos!AT:AT)</f>
-        <v>776</v>
+        <v>871</v>
       </c>
       <c r="R12" s="15">
         <f t="shared" si="0"/>
-        <v>1065.7216494845361</v>
+        <v>1073.4787600459242</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" si="5"/>
@@ -3500,7 +3500,7 @@
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>97</v>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="S14" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="6"/>
@@ -3684,7 +3684,7 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B15)</f>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="F15" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B15,Jogos!AF:AF)</f>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="L15" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B15,Jogos!AR:AR)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1">
         <f>SUMIF(Jogos!AB:AB,B15,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B15,Jogos!AN:AN)</f>
@@ -3735,23 +3735,23 @@
       </c>
       <c r="N15" s="1">
         <f>SUMIF(Jogos!AB:AB,B15,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B15,Jogos!AO:AO)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O15" s="15">
         <f t="shared" si="4"/>
-        <v>1714.2857142857142</v>
+        <v>1411.7647058823529</v>
       </c>
       <c r="P15" s="1">
         <f>SUMIF(Jogos!AB:AB,B15,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B15,Jogos!AS:AS)</f>
-        <v>891</v>
+        <v>961</v>
       </c>
       <c r="Q15" s="1">
         <f>SUMIF(Jogos!AB:AB,B15,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B15,Jogos!AT:AT)</f>
-        <v>839</v>
+        <v>917</v>
       </c>
       <c r="R15" s="15">
         <f t="shared" si="0"/>
-        <v>1061.9785458879619</v>
+        <v>1047.9825517993456</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="5"/>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="T15" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="7"/>
@@ -3776,7 +3776,7 @@
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B16)</f>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="F16" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B16)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B16,Jogos!AF:AF)</f>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="L16" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B16,Jogos!AR:AR)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" s="1">
         <f>SUMIF(Jogos!AB:AB,B16,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B16,Jogos!AN:AN)</f>
@@ -3827,23 +3827,23 @@
       </c>
       <c r="N16" s="1">
         <f>SUMIF(Jogos!AB:AB,B16,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B16,Jogos!AO:AO)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O16" s="15">
         <f t="shared" si="4"/>
-        <v>392.85714285714283</v>
+        <v>354.83870967741939</v>
       </c>
       <c r="P16" s="1">
         <f>SUMIF(Jogos!AB:AB,B16,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B16,Jogos!AS:AS)</f>
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="Q16" s="1">
         <f>SUMIF(Jogos!AB:AB,B16,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B16,Jogos!AT:AT)</f>
-        <v>918</v>
+        <v>993</v>
       </c>
       <c r="R16" s="15">
         <f t="shared" si="0"/>
-        <v>908.49673202614383</v>
+        <v>897.28096676737152</v>
       </c>
       <c r="S16" s="1">
         <f t="shared" si="5"/>
@@ -3943,11 +3943,11 @@
       </c>
       <c r="T17" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="8"/>
@@ -3960,22 +3960,22 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B18)</f>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="G18" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B18,Jogos!AF:AF)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B18,Jogos!AG:AG)</f>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="M18" s="1">
         <f>SUMIF(Jogos!AB:AB,B18,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B18,Jogos!AN:AN)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N18" s="1">
         <f>SUMIF(Jogos!AB:AB,B18,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B18,Jogos!AO:AO)</f>
@@ -4015,19 +4015,19 @@
       </c>
       <c r="O18" s="15">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="P18" s="1">
         <f>SUMIF(Jogos!AB:AB,B18,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B18,Jogos!AS:AS)</f>
-        <v>657</v>
+        <v>732</v>
       </c>
       <c r="Q18" s="1">
         <f>SUMIF(Jogos!AB:AB,B18,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B18,Jogos!AT:AT)</f>
-        <v>780</v>
+        <v>838</v>
       </c>
       <c r="R18" s="15">
         <f t="shared" si="0"/>
-        <v>842.30769230769226</v>
+        <v>873.50835322195712</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="5"/>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="6"/>
@@ -4144,7 +4144,7 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>98</v>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
         <f>COUNTIF(Jogos!AB:AB,Dummy!B20)</f>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="F20" s="1">
         <f>COUNTIF(Jogos!AL:AL,Dummy!B20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" s="1">
         <f>SUMIF(Jogos!$AB:$AB,Dummy!$B20,Jogos!AF:AF)</f>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="L20" s="1">
         <f>SUMIF(Jogos!$AL:$AL,Dummy!$B20,Jogos!AR:AR)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="1">
         <f>SUMIF(Jogos!AB:AB,B20,Jogos!AD:AD)+SUMIF(Jogos!AL:AL,B20,Jogos!AN:AN)</f>
@@ -4195,31 +4195,31 @@
       </c>
       <c r="N20" s="1">
         <f>SUMIF(Jogos!AB:AB,B20,Jogos!AE:AE)+SUMIF(Jogos!AL:AL,B20,Jogos!AO:AO)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O20" s="15">
         <f t="shared" si="4"/>
-        <v>1263.1578947368421</v>
+        <v>1090.9090909090908</v>
       </c>
       <c r="P20" s="1">
         <f>SUMIF(Jogos!AB:AB,B20,Jogos!AI:AI)+SUMIF(Jogos!AL:AL,B20,Jogos!AS:AS)</f>
-        <v>931</v>
+        <v>989</v>
       </c>
       <c r="Q20" s="1">
         <f>SUMIF(Jogos!AB:AB,B20,Jogos!AJ:AJ)+SUMIF(Jogos!AL:AL,B20,Jogos!AT:AT)</f>
-        <v>912</v>
+        <v>987</v>
       </c>
       <c r="R20" s="15">
         <f t="shared" si="0"/>
-        <v>1020.8333333333333</v>
+        <v>1002.0263424518743</v>
       </c>
       <c r="S20" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="7"/>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="D27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,3,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,4,FALSE)</f>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="F27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,5,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,6,FALSE)</f>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="L27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,11,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,12,FALSE)</f>
@@ -4396,23 +4396,23 @@
       </c>
       <c r="N27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,13,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O27" s="36">
         <f>VLOOKUP($B27,$B$3:$R$20,14,FALSE)</f>
-        <v>360</v>
+        <v>321.42857142857144</v>
       </c>
       <c r="P27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,15,FALSE)</f>
-        <v>714</v>
+        <v>777</v>
       </c>
       <c r="Q27" s="1">
         <f>VLOOKUP($B27,$B$3:$R$20,16,FALSE)</f>
-        <v>802</v>
+        <v>878</v>
       </c>
       <c r="R27" s="36">
         <f>VLOOKUP($B27,$B$3:$R$20,17,FALSE)</f>
-        <v>890.27431421446374</v>
+        <v>884.96583143507962</v>
       </c>
       <c r="S27" s="1">
         <f>SUMPRODUCT(($E$27:$E$34=E27)*($C$27:$C$34&gt;C27))</f>
@@ -4445,15 +4445,15 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ref="C28:C34" si="11">VLOOKUP($B28,$B$3:$R$20,2,FALSE)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ref="D28:D34" si="12">VLOOKUP($B28,$B$3:$R$20,3,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" ref="E28:E34" si="13">VLOOKUP($B28,$B$3:$R$20,4,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ref="F28:F34" si="14">VLOOKUP($B28,$B$3:$R$20,5,FALSE)</f>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="G28" s="1">
         <f t="shared" ref="G28:G34" si="15">VLOOKUP($B28,$B$3:$R$20,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" ref="H28:H34" si="16">VLOOKUP($B28,$B$3:$R$20,7,FALSE)</f>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="M28" s="1">
         <f t="shared" ref="M28:M34" si="21">VLOOKUP($B28,$B$3:$R$20,12,FALSE)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" ref="N28:N34" si="22">VLOOKUP($B28,$B$3:$R$20,13,FALSE)</f>
@@ -4493,19 +4493,19 @@
       </c>
       <c r="O28" s="36">
         <f t="shared" ref="O28:O34" si="23">VLOOKUP($B28,$B$3:$R$20,14,FALSE)</f>
-        <v>2888.8888888888887</v>
+        <v>3222.2222222222222</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" ref="P28:P34" si="24">VLOOKUP($B28,$B$3:$R$20,15,FALSE)</f>
-        <v>823</v>
+        <v>901</v>
       </c>
       <c r="Q28" s="1">
         <f t="shared" ref="Q28:Q34" si="25">VLOOKUP($B28,$B$3:$R$20,16,FALSE)</f>
-        <v>746</v>
+        <v>816</v>
       </c>
       <c r="R28" s="36">
         <f t="shared" ref="R28:R34" si="26">VLOOKUP($B28,$B$3:$R$20,17,FALSE)</f>
-        <v>1103.2171581769437</v>
+        <v>1104.1666666666667</v>
       </c>
       <c r="S28" s="1">
         <f t="shared" ref="S28:S34" si="27">SUMPRODUCT(($E$27:$E$34=E28)*($C$27:$C$34&gt;C28))</f>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="S29" s="1">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
         <f t="shared" si="28"/>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>Japão</v>
+        <v>França</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="11"/>
@@ -4647,11 +4647,11 @@
       </c>
       <c r="G30" s="1">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="17"/>
@@ -4663,35 +4663,35 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O30" s="36">
         <f t="shared" si="23"/>
-        <v>1714.2857142857142</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" si="24"/>
-        <v>891</v>
+        <v>935</v>
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="25"/>
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="R30" s="36">
         <f t="shared" si="26"/>
-        <v>1061.9785458879619</v>
+        <v>1073.4787600459242</v>
       </c>
       <c r="S30" s="1">
         <f t="shared" si="27"/>
@@ -4792,11 +4792,11 @@
       </c>
       <c r="T31" s="1">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="30"/>
@@ -4813,35 +4813,35 @@
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>França</v>
+        <v>Japão</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="18"/>
@@ -4849,35 +4849,35 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O32" s="36">
         <f t="shared" si="23"/>
-        <v>1692.3076923076924</v>
+        <v>1411.7647058823529</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" si="24"/>
-        <v>827</v>
+        <v>961</v>
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="25"/>
-        <v>776</v>
+        <v>917</v>
       </c>
       <c r="R32" s="36">
         <f t="shared" si="26"/>
-        <v>1065.7216494845361</v>
+        <v>1047.9825517993456</v>
       </c>
       <c r="S32" s="1">
         <f t="shared" si="27"/>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="T32" s="1">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U32" s="1">
         <f t="shared" si="29"/>
@@ -4906,15 +4906,15 @@
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>Ucrânia</v>
+        <v>Cuba</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="13"/>
@@ -4922,19 +4922,19 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="18"/>
@@ -4942,35 +4942,35 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O33" s="36">
         <f t="shared" si="23"/>
-        <v>1263.1578947368421</v>
+        <v>1130.4347826086955</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" si="24"/>
-        <v>931</v>
+        <v>1084</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="25"/>
-        <v>912</v>
+        <v>1070</v>
       </c>
       <c r="R33" s="36">
         <f t="shared" si="26"/>
-        <v>1020.8333333333333</v>
+        <v>1013.0841121495326</v>
       </c>
       <c r="S33" s="1">
         <f t="shared" si="27"/>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="T33" s="1">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="29"/>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>Cuba</v>
+        <v>Ucrânia</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="11"/>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="13"/>
@@ -5015,31 +5015,31 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="21"/>
@@ -5047,11 +5047,11 @@
       </c>
       <c r="N34" s="1">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O34" s="36">
         <f t="shared" si="23"/>
-        <v>1200</v>
+        <v>1090.9090909090908</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" si="24"/>
@@ -5059,19 +5059,19 @@
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="25"/>
-        <v>962</v>
+        <v>987</v>
       </c>
       <c r="R34" s="36">
         <f t="shared" si="26"/>
-        <v>1028.066528066528</v>
+        <v>1002.0263424518743</v>
       </c>
       <c r="S34" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" si="29"/>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="C37" s="1">
         <f>VLOOKUP($A37,$A$27:$D$34,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="32"/>
-        <v>Japão</v>
+        <v>França</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="33"/>
@@ -5143,11 +5143,11 @@
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="32"/>
-        <v>França</v>
+        <v>Japão</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -5156,11 +5156,11 @@
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="32"/>
-        <v>Ucrânia</v>
+        <v>Cuba</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -5169,11 +5169,11 @@
       </c>
       <c r="B43" s="1" t="str">
         <f t="shared" si="32"/>
-        <v>Cuba</v>
+        <v>Ucrânia</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -5186,21 +5186,21 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:W1"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:L25"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="P25:R25"/>
     <mergeCell ref="S25:W25"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:W1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5211,7 +5211,7 @@
   <dimension ref="B2:BL132"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5269,88 +5269,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="AU2" s="68" t="s">
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="AU2" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="68" t="s">
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="68" t="s">
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="68" t="s">
+      <c r="BB2" s="65"/>
+      <c r="BC2" s="65"/>
+      <c r="BD2" s="65"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="68" t="s">
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="66"/>
+      <c r="BJ2" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="69"/>
-      <c r="BL2" s="70"/>
+      <c r="BK2" s="65"/>
+      <c r="BL2" s="66"/>
     </row>
     <row r="3" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
+      <c r="B3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
       <c r="AU3" s="32" t="s">
         <v>43</v>
       </c>
@@ -5411,42 +5411,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="D4" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73" t="s">
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73" t="s">
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73" t="s">
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73" t="s">
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
       <c r="AA4" s="4" t="s">
         <v>38</v>
       </c>
@@ -5513,15 +5513,15 @@
       </c>
       <c r="AW4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,3,FALSE)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AX4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,5,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,6,FALSE)</f>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="BA4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,7,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,8,FALSE)</f>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="BG4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,13,FALSE)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BH4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,14,FALSE)</f>
@@ -5561,19 +5561,19 @@
       </c>
       <c r="BI4" s="29">
         <f>VLOOKUP($AU4,Dummy!$A:$R,15,FALSE)</f>
-        <v>2888.8888888888887</v>
+        <v>3222.2222222222222</v>
       </c>
       <c r="BJ4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,16,FALSE)</f>
-        <v>823</v>
+        <v>901</v>
       </c>
       <c r="BK4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,17,FALSE)</f>
-        <v>746</v>
+        <v>816</v>
       </c>
       <c r="BL4" s="29">
         <f>VLOOKUP($AU4,Dummy!$A:$R,18,FALSE)</f>
-        <v>1103.2171581769437</v>
+        <v>1104.1666666666667</v>
       </c>
     </row>
     <row r="5" spans="2:64" x14ac:dyDescent="0.25">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="AV6" s="30" t="str">
         <f>VLOOKUP($AU6,Dummy!$A:$R,2,FALSE)</f>
-        <v>Japão</v>
+        <v>França</v>
       </c>
       <c r="AW6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,3,FALSE)</f>
@@ -5967,11 +5967,11 @@
       </c>
       <c r="BA6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,7,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,9,FALSE)</f>
@@ -5983,35 +5983,35 @@
       </c>
       <c r="BE6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,13,FALSE)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BH6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,14,FALSE)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI6" s="29">
         <f>VLOOKUP($AU6,Dummy!$A:$R,15,FALSE)</f>
-        <v>1714.2857142857142</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BJ6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,16,FALSE)</f>
-        <v>891</v>
+        <v>935</v>
       </c>
       <c r="BK6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,17,FALSE)</f>
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="BL6" s="29">
         <f>VLOOKUP($AU6,Dummy!$A:$R,18,FALSE)</f>
-        <v>1061.9785458879619</v>
+        <v>1073.4787600459242</v>
       </c>
     </row>
     <row r="7" spans="2:64" x14ac:dyDescent="0.25">
@@ -6393,35 +6393,35 @@
       </c>
       <c r="AV8" s="30" t="str">
         <f>VLOOKUP($AU8,Dummy!$A:$R,2,FALSE)</f>
-        <v>França</v>
+        <v>Japão</v>
       </c>
       <c r="AW8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,3,FALSE)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,5,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,6,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,7,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,8,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,10,FALSE)</f>
@@ -6429,35 +6429,35 @@
       </c>
       <c r="BE8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,13,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BH8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,14,FALSE)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BI8" s="29">
         <f>VLOOKUP($AU8,Dummy!$A:$R,15,FALSE)</f>
-        <v>1692.3076923076924</v>
+        <v>1411.7647058823529</v>
       </c>
       <c r="BJ8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,16,FALSE)</f>
-        <v>827</v>
+        <v>961</v>
       </c>
       <c r="BK8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,17,FALSE)</f>
-        <v>776</v>
+        <v>917</v>
       </c>
       <c r="BL8" s="29">
         <f>VLOOKUP($AU8,Dummy!$A:$R,18,FALSE)</f>
-        <v>1065.7216494845361</v>
+        <v>1047.9825517993456</v>
       </c>
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.25">
@@ -6616,15 +6616,15 @@
       </c>
       <c r="AV9" s="30" t="str">
         <f>VLOOKUP($AU9,Dummy!$A:$R,2,FALSE)</f>
-        <v>Ucrânia</v>
+        <v>Cuba</v>
       </c>
       <c r="AW9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,3,FALSE)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,5,FALSE)</f>
@@ -6632,19 +6632,19 @@
       </c>
       <c r="AZ9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,9,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,10,FALSE)</f>
@@ -6652,35 +6652,35 @@
       </c>
       <c r="BE9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,13,FALSE)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BH9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,14,FALSE)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BI9" s="29">
         <f>VLOOKUP($AU9,Dummy!$A:$R,15,FALSE)</f>
-        <v>1263.1578947368421</v>
+        <v>1130.4347826086955</v>
       </c>
       <c r="BJ9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,16,FALSE)</f>
-        <v>931</v>
+        <v>1084</v>
       </c>
       <c r="BK9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,17,FALSE)</f>
-        <v>912</v>
+        <v>1070</v>
       </c>
       <c r="BL9" s="29">
         <f>VLOOKUP($AU9,Dummy!$A:$R,18,FALSE)</f>
-        <v>1020.8333333333333</v>
+        <v>1013.0841121495326</v>
       </c>
     </row>
     <row r="10" spans="2:64" x14ac:dyDescent="0.25">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="AV10" s="30" t="str">
         <f>VLOOKUP($AU10,Dummy!$A:$R,2,FALSE)</f>
-        <v>Cuba</v>
+        <v>Ucrânia</v>
       </c>
       <c r="AW10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,3,FALSE)</f>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="AX10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,5,FALSE)</f>
@@ -6847,31 +6847,31 @@
       </c>
       <c r="AZ10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,8,FALSE)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,10,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,13,FALSE)</f>
@@ -6879,11 +6879,11 @@
       </c>
       <c r="BH10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,14,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BI10" s="29">
         <f>VLOOKUP($AU10,Dummy!$A:$R,15,FALSE)</f>
-        <v>1200</v>
+        <v>1090.9090909090908</v>
       </c>
       <c r="BJ10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,16,FALSE)</f>
@@ -6891,11 +6891,11 @@
       </c>
       <c r="BK10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,17,FALSE)</f>
-        <v>962</v>
+        <v>987</v>
       </c>
       <c r="BL10" s="29">
         <f>VLOOKUP($AU10,Dummy!$A:$R,18,FALSE)</f>
-        <v>1028.066528066528</v>
+        <v>1002.0263424518743</v>
       </c>
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.25">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="AV12" s="30" t="str">
         <f>VLOOKUP($AU12,Dummy!$A:$R,2,FALSE)</f>
-        <v>Irã</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AW12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,3,FALSE)</f>
@@ -7285,15 +7285,15 @@
       </c>
       <c r="AY12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,5,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,8,FALSE)</f>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="BD12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,10,FALSE)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,11,FALSE)</f>
@@ -7313,31 +7313,31 @@
       </c>
       <c r="BF12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,13,FALSE)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BH12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,14,FALSE)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BI12" s="29">
         <f>VLOOKUP($AU12,Dummy!$A:$R,15,FALSE)</f>
-        <v>1047.6190476190477</v>
+        <v>1055.5555555555557</v>
       </c>
       <c r="BJ12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,16,FALSE)</f>
-        <v>949</v>
+        <v>844</v>
       </c>
       <c r="BK12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,17,FALSE)</f>
-        <v>944</v>
+        <v>854</v>
       </c>
       <c r="BL12" s="29">
         <f>VLOOKUP($AU12,Dummy!$A:$R,18,FALSE)</f>
-        <v>1005.2966101694916</v>
+        <v>988.29039812646374</v>
       </c>
     </row>
     <row r="13" spans="2:64" x14ac:dyDescent="0.25">
@@ -7496,11 +7496,11 @@
       </c>
       <c r="AV13" s="30" t="str">
         <f>VLOOKUP($AU13,Dummy!$A:$R,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Irã</v>
       </c>
       <c r="AW13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,3,FALSE)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,4,FALSE)</f>
@@ -7528,11 +7528,11 @@
       </c>
       <c r="BD13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,11,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,12,FALSE)</f>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="BG13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,13,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BH13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,14,FALSE)</f>
@@ -7548,19 +7548,19 @@
       </c>
       <c r="BI13" s="29">
         <f>VLOOKUP($AU13,Dummy!$A:$R,15,FALSE)</f>
-        <v>952.38095238095229</v>
+        <v>1047.6190476190477</v>
       </c>
       <c r="BJ13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,16,FALSE)</f>
-        <v>921</v>
+        <v>949</v>
       </c>
       <c r="BK13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,17,FALSE)</f>
-        <v>918</v>
+        <v>944</v>
       </c>
       <c r="BL13" s="29">
         <f>VLOOKUP($AU13,Dummy!$A:$R,18,FALSE)</f>
-        <v>1003.2679738562091</v>
+        <v>1005.2966101694916</v>
       </c>
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.25">
@@ -7715,15 +7715,15 @@
       </c>
       <c r="AV14" s="30" t="str">
         <f>VLOOKUP($AU14,Dummy!$A:$R,2,FALSE)</f>
-        <v>Estados Unidos</v>
+        <v>Bulgária</v>
       </c>
       <c r="AW14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,5,FALSE)</f>
@@ -7731,11 +7731,11 @@
       </c>
       <c r="AZ14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,8,FALSE)</f>
@@ -7743,43 +7743,43 @@
       </c>
       <c r="BC14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,12,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BH14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,14,FALSE)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI14" s="29">
         <f>VLOOKUP($AU14,Dummy!$A:$R,15,FALSE)</f>
-        <v>941.17647058823525</v>
+        <v>1055.5555555555557</v>
       </c>
       <c r="BJ14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,16,FALSE)</f>
-        <v>749</v>
+        <v>834</v>
       </c>
       <c r="BK14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,17,FALSE)</f>
-        <v>763</v>
+        <v>848</v>
       </c>
       <c r="BL14" s="29">
         <f>VLOOKUP($AU14,Dummy!$A:$R,18,FALSE)</f>
-        <v>981.65137614678895</v>
+        <v>983.4905660377359</v>
       </c>
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.25">
@@ -7934,19 +7934,19 @@
       </c>
       <c r="AV15" s="30" t="str">
         <f>VLOOKUP($AU15,Dummy!$A:$R,2,FALSE)</f>
-        <v>Alemanha</v>
+        <v>Argentina</v>
       </c>
       <c r="AW15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,3,FALSE)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,5,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,6,FALSE)</f>
@@ -7954,27 +7954,27 @@
       </c>
       <c r="BA15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,8,FALSE)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,10,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,11,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,13,FALSE)</f>
@@ -7982,23 +7982,23 @@
       </c>
       <c r="BH15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,14,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BI15" s="29">
         <f>VLOOKUP($AU15,Dummy!$A:$R,15,FALSE)</f>
-        <v>954.54545454545462</v>
+        <v>875</v>
       </c>
       <c r="BJ15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,16,FALSE)</f>
-        <v>988</v>
+        <v>1012</v>
       </c>
       <c r="BK15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,17,FALSE)</f>
-        <v>984</v>
+        <v>1013</v>
       </c>
       <c r="BL15" s="29">
         <f>VLOOKUP($AU15,Dummy!$A:$R,18,FALSE)</f>
-        <v>1004.0650406504066</v>
+        <v>999.01283316880551</v>
       </c>
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.25">
@@ -8149,15 +8149,15 @@
       </c>
       <c r="AV16" s="30" t="str">
         <f>VLOOKUP($AU16,Dummy!$A:$R,2,FALSE)</f>
-        <v>Bulgária</v>
+        <v>Alemanha</v>
       </c>
       <c r="AW16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,3,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AX16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,5,FALSE)</f>
@@ -8165,84 +8165,84 @@
       </c>
       <c r="AZ16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,12,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BH16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,14,FALSE)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BI16" s="29">
         <f>VLOOKUP($AU16,Dummy!$A:$R,15,FALSE)</f>
-        <v>888.8888888888888</v>
+        <v>954.54545454545462</v>
       </c>
       <c r="BJ16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,16,FALSE)</f>
-        <v>758</v>
+        <v>988</v>
       </c>
       <c r="BK16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,17,FALSE)</f>
-        <v>785</v>
+        <v>984</v>
       </c>
       <c r="BL16" s="29">
         <f>VLOOKUP($AU16,Dummy!$A:$R,18,FALSE)</f>
-        <v>965.60509554140128</v>
+        <v>1004.0650406504066</v>
       </c>
     </row>
     <row r="17" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
       <c r="AU17" s="31">
         <v>14</v>
       </c>
@@ -8252,15 +8252,15 @@
       </c>
       <c r="AW17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,3,FALSE)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AX17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,5,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,6,FALSE)</f>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="BA17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,8,FALSE)</f>
@@ -8292,7 +8292,7 @@
       </c>
       <c r="BG17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BH17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,14,FALSE)</f>
@@ -8300,19 +8300,19 @@
       </c>
       <c r="BI17" s="29">
         <f>VLOOKUP($AU17,Dummy!$A:$R,15,FALSE)</f>
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="BJ17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,16,FALSE)</f>
-        <v>796</v>
+        <v>871</v>
       </c>
       <c r="BK17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,17,FALSE)</f>
-        <v>812</v>
+        <v>869</v>
       </c>
       <c r="BL17" s="29">
         <f>VLOOKUP($AU17,Dummy!$A:$R,18,FALSE)</f>
-        <v>980.29556650246309</v>
+        <v>1002.301495972382</v>
       </c>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
@@ -8320,42 +8320,42 @@
         <v>2</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="D18" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="73" t="s">
+      <c r="H18" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73" t="s">
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73" t="s">
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73" t="s">
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73" t="s">
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73" t="s">
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
       <c r="AA18" s="4" t="s">
         <v>38</v>
       </c>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="AX19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,5,FALSE)</f>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="AZ19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,6,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,7,FALSE)</f>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="BF19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,12,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,13,FALSE)</f>
@@ -8681,23 +8681,23 @@
       </c>
       <c r="BH19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,14,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BI19" s="29">
         <f>VLOOKUP($AU19,Dummy!$A:$R,15,FALSE)</f>
-        <v>360</v>
+        <v>321.42857142857144</v>
       </c>
       <c r="BJ19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,16,FALSE)</f>
-        <v>714</v>
+        <v>777</v>
       </c>
       <c r="BK19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,17,FALSE)</f>
-        <v>802</v>
+        <v>878</v>
       </c>
       <c r="BL19" s="29">
         <f>VLOOKUP($AU19,Dummy!$A:$R,18,FALSE)</f>
-        <v>890.27431421446374</v>
+        <v>884.96583143507962</v>
       </c>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
@@ -8848,11 +8848,11 @@
       </c>
       <c r="AV20" s="30" t="str">
         <f>VLOOKUP($AU20,Dummy!$A:$R,2,FALSE)</f>
-        <v>Holanda</v>
+        <v>Sérvia</v>
       </c>
       <c r="AW20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,3,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,4,FALSE)</f>
@@ -8860,15 +8860,15 @@
       </c>
       <c r="AY20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,6,FALSE)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,8,FALSE)</f>
@@ -8880,7 +8880,7 @@
       </c>
       <c r="BD20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,10,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,11,FALSE)</f>
@@ -8888,31 +8888,31 @@
       </c>
       <c r="BF20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,12,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,13,FALSE)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BH20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,14,FALSE)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BI20" s="29">
         <f>VLOOKUP($AU20,Dummy!$A:$R,15,FALSE)</f>
-        <v>392.85714285714283</v>
+        <v>400</v>
       </c>
       <c r="BJ20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,16,FALSE)</f>
-        <v>834</v>
+        <v>732</v>
       </c>
       <c r="BK20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,17,FALSE)</f>
-        <v>918</v>
+        <v>838</v>
       </c>
       <c r="BL20" s="29">
         <f>VLOOKUP($AU20,Dummy!$A:$R,18,FALSE)</f>
-        <v>908.49673202614383</v>
+        <v>873.50835322195712</v>
       </c>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
@@ -9067,15 +9067,15 @@
       </c>
       <c r="AV21" s="30" t="str">
         <f>VLOOKUP($AU21,Dummy!$A:$R,2,FALSE)</f>
-        <v>Sérvia</v>
+        <v>Holanda</v>
       </c>
       <c r="AW21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,5,FALSE)</f>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="AZ21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,6,FALSE)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,7,FALSE)</f>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="BD21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,11,FALSE)</f>
@@ -9111,27 +9111,27 @@
       </c>
       <c r="BG21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,13,FALSE)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BH21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,14,FALSE)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="BI21" s="29">
         <f>VLOOKUP($AU21,Dummy!$A:$R,15,FALSE)</f>
-        <v>280</v>
+        <v>354.83870967741939</v>
       </c>
       <c r="BJ21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,16,FALSE)</f>
-        <v>657</v>
+        <v>891</v>
       </c>
       <c r="BK21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,17,FALSE)</f>
-        <v>780</v>
+        <v>993</v>
       </c>
       <c r="BL21" s="29">
         <f>VLOOKUP($AU21,Dummy!$A:$R,18,FALSE)</f>
-        <v>842.30769230769226</v>
+        <v>897.28096676737152</v>
       </c>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="AX22" s="53">
         <f>SUM(AX4:AX21)</f>
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
@@ -10507,78 +10507,78 @@
       </c>
     </row>
     <row r="31" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="AU31" s="63" t="s">
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="AU31" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="AV31" s="64"/>
+      <c r="AV31" s="69"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
+      <c r="D32" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="73" t="s">
+      <c r="H32" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73" t="s">
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73" t="s">
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73" t="s">
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73" t="s">
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73" t="s">
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
       <c r="AA32" s="4" t="s">
         <v>38</v>
       </c>
@@ -10636,10 +10636,10 @@
       <c r="AT32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AU32" s="65" t="s">
+      <c r="AU32" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="AV32" s="66"/>
+      <c r="AV32" s="75"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B33" s="17">
@@ -10788,10 +10788,10 @@
         <f t="shared" ref="AT33:AT44" si="59">IF(D33&lt;F33,SUM(J33,M33,P33,S33,V33),SUM(H33,K33,N33,Q33,T33))</f>
         <v>97</v>
       </c>
-      <c r="AU33" s="59" t="s">
+      <c r="AU33" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="AV33" s="60"/>
+      <c r="AV33" s="71"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B34" s="17">
@@ -10936,10 +10936,10 @@
         <f t="shared" si="59"/>
         <v>75</v>
       </c>
-      <c r="AU34" s="59" t="s">
+      <c r="AU34" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="AV34" s="60"/>
+      <c r="AV34" s="71"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B35" s="17">
@@ -11088,10 +11088,10 @@
         <f t="shared" si="59"/>
         <v>87</v>
       </c>
-      <c r="AU35" s="59" t="s">
+      <c r="AU35" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="AV35" s="60"/>
+      <c r="AV35" s="71"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B36" s="17">
@@ -11236,10 +11236,10 @@
         <f t="shared" si="59"/>
         <v>75</v>
       </c>
-      <c r="AU36" s="61" t="s">
+      <c r="AU36" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="AV36" s="62"/>
+      <c r="AV36" s="73"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B37" s="17">
@@ -12406,88 +12406,88 @@
       </c>
     </row>
     <row r="46" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="75"/>
-      <c r="S46" s="75"/>
-      <c r="T46" s="75"/>
-      <c r="U46" s="75"/>
-      <c r="V46" s="75"/>
-      <c r="W46" s="75"/>
-      <c r="X46" s="75"/>
-      <c r="Y46" s="75"/>
-      <c r="AU46" s="68" t="s">
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="AU46" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="AV46" s="69"/>
-      <c r="AW46" s="70"/>
-      <c r="AX46" s="68" t="s">
+      <c r="AV46" s="65"/>
+      <c r="AW46" s="66"/>
+      <c r="AX46" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AY46" s="69"/>
-      <c r="AZ46" s="70"/>
-      <c r="BA46" s="68" t="s">
+      <c r="AY46" s="65"/>
+      <c r="AZ46" s="66"/>
+      <c r="BA46" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="BB46" s="69"/>
-      <c r="BC46" s="69"/>
-      <c r="BD46" s="69"/>
-      <c r="BE46" s="69"/>
-      <c r="BF46" s="70"/>
-      <c r="BG46" s="68" t="s">
+      <c r="BB46" s="65"/>
+      <c r="BC46" s="65"/>
+      <c r="BD46" s="65"/>
+      <c r="BE46" s="65"/>
+      <c r="BF46" s="66"/>
+      <c r="BG46" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="BH46" s="69"/>
-      <c r="BI46" s="70"/>
-      <c r="BJ46" s="68" t="s">
+      <c r="BH46" s="65"/>
+      <c r="BI46" s="66"/>
+      <c r="BJ46" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="BK46" s="69"/>
-      <c r="BL46" s="70"/>
+      <c r="BK46" s="65"/>
+      <c r="BL46" s="66"/>
     </row>
     <row r="47" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="71"/>
-      <c r="V47" s="71"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="71"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="60"/>
+      <c r="X47" s="60"/>
+      <c r="Y47" s="60"/>
       <c r="AU47" s="32" t="s">
         <v>43</v>
       </c>
@@ -12548,42 +12548,42 @@
         <v>2</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
+      <c r="D48" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="73" t="s">
+      <c r="H48" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73" t="s">
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73" t="s">
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73" t="s">
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="73"/>
-      <c r="S48" s="73"/>
-      <c r="T48" s="73" t="s">
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U48" s="73"/>
-      <c r="V48" s="73"/>
-      <c r="W48" s="73" t="s">
+      <c r="U48" s="59"/>
+      <c r="V48" s="59"/>
+      <c r="W48" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X48" s="73"/>
-      <c r="Y48" s="73"/>
+      <c r="X48" s="59"/>
+      <c r="Y48" s="59"/>
       <c r="AA48" s="4" t="s">
         <v>38</v>
       </c>
@@ -12650,15 +12650,15 @@
       </c>
       <c r="AW48" s="28">
         <f>VLOOKUP($AU48,Dummy!$A:$R,3,FALSE)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AX48" s="28">
         <f>VLOOKUP($AU48,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY48" s="28">
         <f>VLOOKUP($AU48,Dummy!$A:$R,5,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ48" s="28">
         <f>VLOOKUP($AU48,Dummy!$A:$R,6,FALSE)</f>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="BA48" s="28">
         <f>VLOOKUP($AU48,Dummy!$A:$R,7,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB48" s="28">
         <f>VLOOKUP($AU48,Dummy!$A:$R,8,FALSE)</f>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="BG48" s="28">
         <f>VLOOKUP($AU48,Dummy!$A:$R,13,FALSE)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BH48" s="28">
         <f>VLOOKUP($AU48,Dummy!$A:$R,14,FALSE)</f>
@@ -12698,19 +12698,19 @@
       </c>
       <c r="BI48" s="29">
         <f>VLOOKUP($AU48,Dummy!$A:$R,15,FALSE)</f>
-        <v>2888.8888888888887</v>
+        <v>3222.2222222222222</v>
       </c>
       <c r="BJ48" s="28">
         <f>VLOOKUP($AU48,Dummy!$A:$R,16,FALSE)</f>
-        <v>823</v>
+        <v>901</v>
       </c>
       <c r="BK48" s="28">
         <f>VLOOKUP($AU48,Dummy!$A:$R,17,FALSE)</f>
-        <v>746</v>
+        <v>816</v>
       </c>
       <c r="BL48" s="29">
         <f>VLOOKUP($AU48,Dummy!$A:$R,18,FALSE)</f>
-        <v>1103.2171581769437</v>
+        <v>1104.1666666666667</v>
       </c>
     </row>
     <row r="49" spans="2:64" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="AV50" s="30" t="str">
         <f>VLOOKUP($AU50,Dummy!$A:$R,2,FALSE)</f>
-        <v>Japão</v>
+        <v>França</v>
       </c>
       <c r="AW50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,3,FALSE)</f>
@@ -13096,11 +13096,11 @@
       </c>
       <c r="BA50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,7,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,9,FALSE)</f>
@@ -13112,35 +13112,35 @@
       </c>
       <c r="BE50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,13,FALSE)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BH50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,14,FALSE)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI50" s="29">
         <f>VLOOKUP($AU50,Dummy!$A:$R,15,FALSE)</f>
-        <v>1714.2857142857142</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BJ50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,16,FALSE)</f>
-        <v>891</v>
+        <v>935</v>
       </c>
       <c r="BK50" s="28">
         <f>VLOOKUP($AU50,Dummy!$A:$R,17,FALSE)</f>
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="BL50" s="29">
         <f>VLOOKUP($AU50,Dummy!$A:$R,18,FALSE)</f>
-        <v>1061.9785458879619</v>
+        <v>1073.4787600459242</v>
       </c>
     </row>
     <row r="51" spans="2:64" x14ac:dyDescent="0.25">
@@ -13514,35 +13514,35 @@
       </c>
       <c r="AV52" s="30" t="str">
         <f>VLOOKUP($AU52,Dummy!$A:$R,2,FALSE)</f>
-        <v>França</v>
+        <v>Japão</v>
       </c>
       <c r="AW52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,3,FALSE)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,5,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,6,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,7,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,8,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,10,FALSE)</f>
@@ -13550,35 +13550,35 @@
       </c>
       <c r="BE52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,13,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BH52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,14,FALSE)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BI52" s="29">
         <f>VLOOKUP($AU52,Dummy!$A:$R,15,FALSE)</f>
-        <v>1692.3076923076924</v>
+        <v>1411.7647058823529</v>
       </c>
       <c r="BJ52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,16,FALSE)</f>
-        <v>827</v>
+        <v>961</v>
       </c>
       <c r="BK52" s="28">
         <f>VLOOKUP($AU52,Dummy!$A:$R,17,FALSE)</f>
-        <v>776</v>
+        <v>917</v>
       </c>
       <c r="BL52" s="29">
         <f>VLOOKUP($AU52,Dummy!$A:$R,18,FALSE)</f>
-        <v>1065.7216494845361</v>
+        <v>1047.9825517993456</v>
       </c>
     </row>
     <row r="53" spans="2:64" x14ac:dyDescent="0.25">
@@ -13729,15 +13729,15 @@
       </c>
       <c r="AV53" s="30" t="str">
         <f>VLOOKUP($AU53,Dummy!$A:$R,2,FALSE)</f>
-        <v>Ucrânia</v>
+        <v>Cuba</v>
       </c>
       <c r="AW53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,3,FALSE)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,5,FALSE)</f>
@@ -13745,19 +13745,19 @@
       </c>
       <c r="AZ53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,9,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,10,FALSE)</f>
@@ -13765,35 +13765,35 @@
       </c>
       <c r="BE53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,13,FALSE)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BH53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,14,FALSE)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BI53" s="29">
         <f>VLOOKUP($AU53,Dummy!$A:$R,15,FALSE)</f>
-        <v>1263.1578947368421</v>
+        <v>1130.4347826086955</v>
       </c>
       <c r="BJ53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,16,FALSE)</f>
-        <v>931</v>
+        <v>1084</v>
       </c>
       <c r="BK53" s="28">
         <f>VLOOKUP($AU53,Dummy!$A:$R,17,FALSE)</f>
-        <v>912</v>
+        <v>1070</v>
       </c>
       <c r="BL53" s="29">
         <f>VLOOKUP($AU53,Dummy!$A:$R,18,FALSE)</f>
-        <v>1020.8333333333333</v>
+        <v>1013.0841121495326</v>
       </c>
     </row>
     <row r="54" spans="2:64" x14ac:dyDescent="0.25">
@@ -13952,7 +13952,7 @@
       </c>
       <c r="AV54" s="30" t="str">
         <f>VLOOKUP($AU54,Dummy!$A:$R,2,FALSE)</f>
-        <v>Cuba</v>
+        <v>Ucrânia</v>
       </c>
       <c r="AW54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,3,FALSE)</f>
@@ -13960,7 +13960,7 @@
       </c>
       <c r="AX54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,5,FALSE)</f>
@@ -13968,31 +13968,31 @@
       </c>
       <c r="AZ54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,8,FALSE)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,10,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,13,FALSE)</f>
@@ -14000,11 +14000,11 @@
       </c>
       <c r="BH54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,14,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BI54" s="29">
         <f>VLOOKUP($AU54,Dummy!$A:$R,15,FALSE)</f>
-        <v>1200</v>
+        <v>1090.9090909090908</v>
       </c>
       <c r="BJ54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,16,FALSE)</f>
@@ -14012,11 +14012,11 @@
       </c>
       <c r="BK54" s="28">
         <f>VLOOKUP($AU54,Dummy!$A:$R,17,FALSE)</f>
-        <v>962</v>
+        <v>987</v>
       </c>
       <c r="BL54" s="29">
         <f>VLOOKUP($AU54,Dummy!$A:$R,18,FALSE)</f>
-        <v>1028.066528066528</v>
+        <v>1002.0263424518743</v>
       </c>
     </row>
     <row r="55" spans="2:64" x14ac:dyDescent="0.25">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="AV56" s="30" t="str">
         <f>VLOOKUP($AU56,Dummy!$A:$R,2,FALSE)</f>
-        <v>Irã</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AW56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,3,FALSE)</f>
@@ -14398,15 +14398,15 @@
       </c>
       <c r="AY56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,5,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,8,FALSE)</f>
@@ -14418,7 +14418,7 @@
       </c>
       <c r="BD56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,10,FALSE)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BE56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,11,FALSE)</f>
@@ -14426,31 +14426,31 @@
       </c>
       <c r="BF56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,13,FALSE)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BH56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,14,FALSE)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BI56" s="29">
         <f>VLOOKUP($AU56,Dummy!$A:$R,15,FALSE)</f>
-        <v>1047.6190476190477</v>
+        <v>1055.5555555555557</v>
       </c>
       <c r="BJ56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,16,FALSE)</f>
-        <v>949</v>
+        <v>844</v>
       </c>
       <c r="BK56" s="28">
         <f>VLOOKUP($AU56,Dummy!$A:$R,17,FALSE)</f>
-        <v>944</v>
+        <v>854</v>
       </c>
       <c r="BL56" s="29">
         <f>VLOOKUP($AU56,Dummy!$A:$R,18,FALSE)</f>
-        <v>1005.2966101694916</v>
+        <v>988.29039812646374</v>
       </c>
     </row>
     <row r="57" spans="2:64" x14ac:dyDescent="0.25">
@@ -14601,11 +14601,11 @@
       </c>
       <c r="AV57" s="30" t="str">
         <f>VLOOKUP($AU57,Dummy!$A:$R,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Irã</v>
       </c>
       <c r="AW57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,3,FALSE)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,4,FALSE)</f>
@@ -14633,11 +14633,11 @@
       </c>
       <c r="BD57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,11,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,12,FALSE)</f>
@@ -14645,7 +14645,7 @@
       </c>
       <c r="BG57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,13,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BH57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,14,FALSE)</f>
@@ -14653,19 +14653,19 @@
       </c>
       <c r="BI57" s="29">
         <f>VLOOKUP($AU57,Dummy!$A:$R,15,FALSE)</f>
-        <v>952.38095238095229</v>
+        <v>1047.6190476190477</v>
       </c>
       <c r="BJ57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,16,FALSE)</f>
-        <v>921</v>
+        <v>949</v>
       </c>
       <c r="BK57" s="28">
         <f>VLOOKUP($AU57,Dummy!$A:$R,17,FALSE)</f>
-        <v>918</v>
+        <v>944</v>
       </c>
       <c r="BL57" s="29">
         <f>VLOOKUP($AU57,Dummy!$A:$R,18,FALSE)</f>
-        <v>1003.2679738562091</v>
+        <v>1005.2966101694916</v>
       </c>
     </row>
     <row r="58" spans="2:64" x14ac:dyDescent="0.25">
@@ -14816,15 +14816,15 @@
       </c>
       <c r="AV58" s="30" t="str">
         <f>VLOOKUP($AU58,Dummy!$A:$R,2,FALSE)</f>
-        <v>Estados Unidos</v>
+        <v>Bulgária</v>
       </c>
       <c r="AW58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,5,FALSE)</f>
@@ -14832,11 +14832,11 @@
       </c>
       <c r="AZ58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,8,FALSE)</f>
@@ -14844,43 +14844,43 @@
       </c>
       <c r="BC58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,12,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BH58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,14,FALSE)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI58" s="29">
         <f>VLOOKUP($AU58,Dummy!$A:$R,15,FALSE)</f>
-        <v>941.17647058823525</v>
+        <v>1055.5555555555557</v>
       </c>
       <c r="BJ58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,16,FALSE)</f>
-        <v>749</v>
+        <v>834</v>
       </c>
       <c r="BK58" s="28">
         <f>VLOOKUP($AU58,Dummy!$A:$R,17,FALSE)</f>
-        <v>763</v>
+        <v>848</v>
       </c>
       <c r="BL58" s="29">
         <f>VLOOKUP($AU58,Dummy!$A:$R,18,FALSE)</f>
-        <v>981.65137614678895</v>
+        <v>983.4905660377359</v>
       </c>
     </row>
     <row r="59" spans="2:64" x14ac:dyDescent="0.25">
@@ -15031,19 +15031,19 @@
       </c>
       <c r="AV59" s="30" t="str">
         <f>VLOOKUP($AU59,Dummy!$A:$R,2,FALSE)</f>
-        <v>Alemanha</v>
+        <v>Argentina</v>
       </c>
       <c r="AW59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,3,FALSE)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,5,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,6,FALSE)</f>
@@ -15051,27 +15051,27 @@
       </c>
       <c r="BA59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,8,FALSE)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,10,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,11,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,13,FALSE)</f>
@@ -15079,23 +15079,23 @@
       </c>
       <c r="BH59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,14,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BI59" s="29">
         <f>VLOOKUP($AU59,Dummy!$A:$R,15,FALSE)</f>
-        <v>954.54545454545462</v>
+        <v>875</v>
       </c>
       <c r="BJ59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,16,FALSE)</f>
-        <v>988</v>
+        <v>1012</v>
       </c>
       <c r="BK59" s="28">
         <f>VLOOKUP($AU59,Dummy!$A:$R,17,FALSE)</f>
-        <v>984</v>
+        <v>1013</v>
       </c>
       <c r="BL59" s="29">
         <f>VLOOKUP($AU59,Dummy!$A:$R,18,FALSE)</f>
-        <v>1004.0650406504066</v>
+        <v>999.01283316880551</v>
       </c>
     </row>
     <row r="60" spans="2:64" x14ac:dyDescent="0.25">
@@ -15250,15 +15250,15 @@
       </c>
       <c r="AV60" s="30" t="str">
         <f>VLOOKUP($AU60,Dummy!$A:$R,2,FALSE)</f>
-        <v>Bulgária</v>
+        <v>Alemanha</v>
       </c>
       <c r="AW60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,3,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AX60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,5,FALSE)</f>
@@ -15266,84 +15266,84 @@
       </c>
       <c r="AZ60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,12,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BH60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,14,FALSE)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BI60" s="29">
         <f>VLOOKUP($AU60,Dummy!$A:$R,15,FALSE)</f>
-        <v>888.8888888888888</v>
+        <v>954.54545454545462</v>
       </c>
       <c r="BJ60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,16,FALSE)</f>
-        <v>758</v>
+        <v>988</v>
       </c>
       <c r="BK60" s="28">
         <f>VLOOKUP($AU60,Dummy!$A:$R,17,FALSE)</f>
-        <v>785</v>
+        <v>984</v>
       </c>
       <c r="BL60" s="29">
         <f>VLOOKUP($AU60,Dummy!$A:$R,18,FALSE)</f>
-        <v>965.60509554140128</v>
+        <v>1004.0650406504066</v>
       </c>
     </row>
     <row r="61" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="71" t="s">
+      <c r="B61" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
-      <c r="T61" s="71"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="71"/>
-      <c r="Y61" s="71"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="60"/>
+      <c r="U61" s="60"/>
+      <c r="V61" s="60"/>
+      <c r="W61" s="60"/>
+      <c r="X61" s="60"/>
+      <c r="Y61" s="60"/>
       <c r="AU61" s="31">
         <v>14</v>
       </c>
@@ -15353,15 +15353,15 @@
       </c>
       <c r="AW61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,3,FALSE)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AX61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,5,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,6,FALSE)</f>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="BA61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,8,FALSE)</f>
@@ -15393,7 +15393,7 @@
       </c>
       <c r="BG61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BH61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,14,FALSE)</f>
@@ -15401,19 +15401,19 @@
       </c>
       <c r="BI61" s="29">
         <f>VLOOKUP($AU61,Dummy!$A:$R,15,FALSE)</f>
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="BJ61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,16,FALSE)</f>
-        <v>796</v>
+        <v>871</v>
       </c>
       <c r="BK61" s="28">
         <f>VLOOKUP($AU61,Dummy!$A:$R,17,FALSE)</f>
-        <v>812</v>
+        <v>869</v>
       </c>
       <c r="BL61" s="29">
         <f>VLOOKUP($AU61,Dummy!$A:$R,18,FALSE)</f>
-        <v>980.29556650246309</v>
+        <v>1002.301495972382</v>
       </c>
     </row>
     <row r="62" spans="2:64" x14ac:dyDescent="0.25">
@@ -15421,42 +15421,42 @@
         <v>2</v>
       </c>
       <c r="C62" s="24"/>
-      <c r="D62" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
+      <c r="D62" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
       <c r="G62" s="20"/>
-      <c r="H62" s="73" t="s">
+      <c r="H62" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="73"/>
-      <c r="J62" s="73"/>
-      <c r="K62" s="73" t="s">
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="73"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="73" t="s">
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O62" s="73"/>
-      <c r="P62" s="73"/>
-      <c r="Q62" s="73" t="s">
+      <c r="O62" s="59"/>
+      <c r="P62" s="59"/>
+      <c r="Q62" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="73"/>
-      <c r="S62" s="73"/>
-      <c r="T62" s="73" t="s">
+      <c r="R62" s="59"/>
+      <c r="S62" s="59"/>
+      <c r="T62" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U62" s="73"/>
-      <c r="V62" s="73"/>
-      <c r="W62" s="73" t="s">
+      <c r="U62" s="59"/>
+      <c r="V62" s="59"/>
+      <c r="W62" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X62" s="73"/>
-      <c r="Y62" s="73"/>
+      <c r="X62" s="59"/>
+      <c r="Y62" s="59"/>
       <c r="AA62" s="4" t="s">
         <v>38</v>
       </c>
@@ -15750,7 +15750,7 @@
       </c>
       <c r="AX63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,5,FALSE)</f>
@@ -15758,7 +15758,7 @@
       </c>
       <c r="AZ63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,6,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,7,FALSE)</f>
@@ -15782,7 +15782,7 @@
       </c>
       <c r="BF63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,12,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,13,FALSE)</f>
@@ -15790,23 +15790,23 @@
       </c>
       <c r="BH63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,14,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BI63" s="29">
         <f>VLOOKUP($AU63,Dummy!$A:$R,15,FALSE)</f>
-        <v>360</v>
+        <v>321.42857142857144</v>
       </c>
       <c r="BJ63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,16,FALSE)</f>
-        <v>714</v>
+        <v>777</v>
       </c>
       <c r="BK63" s="28">
         <f>VLOOKUP($AU63,Dummy!$A:$R,17,FALSE)</f>
-        <v>802</v>
+        <v>878</v>
       </c>
       <c r="BL63" s="29">
         <f>VLOOKUP($AU63,Dummy!$A:$R,18,FALSE)</f>
-        <v>890.27431421446374</v>
+        <v>884.96583143507962</v>
       </c>
     </row>
     <row r="64" spans="2:64" x14ac:dyDescent="0.25">
@@ -15957,11 +15957,11 @@
       </c>
       <c r="AV64" s="30" t="str">
         <f>VLOOKUP($AU64,Dummy!$A:$R,2,FALSE)</f>
-        <v>Holanda</v>
+        <v>Sérvia</v>
       </c>
       <c r="AW64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,3,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,4,FALSE)</f>
@@ -15969,15 +15969,15 @@
       </c>
       <c r="AY64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,6,FALSE)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,8,FALSE)</f>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="BD64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,10,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,11,FALSE)</f>
@@ -15997,31 +15997,31 @@
       </c>
       <c r="BF64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,12,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,13,FALSE)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BH64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,14,FALSE)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BI64" s="29">
         <f>VLOOKUP($AU64,Dummy!$A:$R,15,FALSE)</f>
-        <v>392.85714285714283</v>
+        <v>400</v>
       </c>
       <c r="BJ64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,16,FALSE)</f>
-        <v>834</v>
+        <v>732</v>
       </c>
       <c r="BK64" s="28">
         <f>VLOOKUP($AU64,Dummy!$A:$R,17,FALSE)</f>
-        <v>918</v>
+        <v>838</v>
       </c>
       <c r="BL64" s="29">
         <f>VLOOKUP($AU64,Dummy!$A:$R,18,FALSE)</f>
-        <v>908.49673202614383</v>
+        <v>873.50835322195712</v>
       </c>
     </row>
     <row r="65" spans="2:64" x14ac:dyDescent="0.25">
@@ -16180,15 +16180,15 @@
       </c>
       <c r="AV65" s="30" t="str">
         <f>VLOOKUP($AU65,Dummy!$A:$R,2,FALSE)</f>
-        <v>Sérvia</v>
+        <v>Holanda</v>
       </c>
       <c r="AW65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,5,FALSE)</f>
@@ -16196,7 +16196,7 @@
       </c>
       <c r="AZ65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,6,FALSE)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,7,FALSE)</f>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="BD65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,11,FALSE)</f>
@@ -16224,27 +16224,27 @@
       </c>
       <c r="BG65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,13,FALSE)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BH65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,14,FALSE)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="BI65" s="29">
         <f>VLOOKUP($AU65,Dummy!$A:$R,15,FALSE)</f>
-        <v>280</v>
+        <v>354.83870967741939</v>
       </c>
       <c r="BJ65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,16,FALSE)</f>
-        <v>657</v>
+        <v>891</v>
       </c>
       <c r="BK65" s="28">
         <f>VLOOKUP($AU65,Dummy!$A:$R,17,FALSE)</f>
-        <v>780</v>
+        <v>993</v>
       </c>
       <c r="BL65" s="29">
         <f>VLOOKUP($AU65,Dummy!$A:$R,18,FALSE)</f>
-        <v>842.30769230769226</v>
+        <v>897.28096676737152</v>
       </c>
     </row>
     <row r="66" spans="2:64" x14ac:dyDescent="0.25">
@@ -16392,7 +16392,7 @@
       </c>
       <c r="AX66" s="53">
         <f>SUM(AX48:AX65)</f>
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="2:64" x14ac:dyDescent="0.25">
@@ -17584,78 +17584,78 @@
       </c>
     </row>
     <row r="75" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="71"/>
-      <c r="M75" s="71"/>
-      <c r="N75" s="71"/>
-      <c r="O75" s="71"/>
-      <c r="P75" s="71"/>
-      <c r="Q75" s="71"/>
-      <c r="R75" s="71"/>
-      <c r="S75" s="71"/>
-      <c r="T75" s="71"/>
-      <c r="U75" s="71"/>
-      <c r="V75" s="71"/>
-      <c r="W75" s="71"/>
-      <c r="X75" s="71"/>
-      <c r="Y75" s="71"/>
-      <c r="AU75" s="63" t="s">
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="60"/>
+      <c r="O75" s="60"/>
+      <c r="P75" s="60"/>
+      <c r="Q75" s="60"/>
+      <c r="R75" s="60"/>
+      <c r="S75" s="60"/>
+      <c r="T75" s="60"/>
+      <c r="U75" s="60"/>
+      <c r="V75" s="60"/>
+      <c r="W75" s="60"/>
+      <c r="X75" s="60"/>
+      <c r="Y75" s="60"/>
+      <c r="AU75" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="AV75" s="64"/>
+      <c r="AV75" s="69"/>
     </row>
     <row r="76" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C76" s="24"/>
-      <c r="D76" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
+      <c r="D76" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
       <c r="G76" s="20"/>
-      <c r="H76" s="73" t="s">
+      <c r="H76" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73"/>
-      <c r="K76" s="73" t="s">
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L76" s="73"/>
-      <c r="M76" s="73"/>
-      <c r="N76" s="73" t="s">
+      <c r="L76" s="59"/>
+      <c r="M76" s="59"/>
+      <c r="N76" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O76" s="73"/>
-      <c r="P76" s="73"/>
-      <c r="Q76" s="73" t="s">
+      <c r="O76" s="59"/>
+      <c r="P76" s="59"/>
+      <c r="Q76" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R76" s="73"/>
-      <c r="S76" s="73"/>
-      <c r="T76" s="73" t="s">
+      <c r="R76" s="59"/>
+      <c r="S76" s="59"/>
+      <c r="T76" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U76" s="73"/>
-      <c r="V76" s="73"/>
-      <c r="W76" s="73" t="s">
+      <c r="U76" s="59"/>
+      <c r="V76" s="59"/>
+      <c r="W76" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X76" s="73"/>
-      <c r="Y76" s="73"/>
+      <c r="X76" s="59"/>
+      <c r="Y76" s="59"/>
       <c r="AA76" s="4" t="s">
         <v>38</v>
       </c>
@@ -17713,10 +17713,10 @@
       <c r="AT76" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AU76" s="65" t="s">
+      <c r="AU76" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="AV76" s="66"/>
+      <c r="AV76" s="75"/>
     </row>
     <row r="77" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B77" s="17">
@@ -17865,10 +17865,10 @@
         <f t="shared" ref="AT77:AT88" si="122">IF(D77&lt;F77,SUM(J77,M77,P77,S77,V77),SUM(H77,K77,N77,Q77,T77))</f>
         <v>94</v>
       </c>
-      <c r="AU77" s="59" t="s">
+      <c r="AU77" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="AV77" s="60"/>
+      <c r="AV77" s="71"/>
     </row>
     <row r="78" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B78" s="17">
@@ -18013,10 +18013,10 @@
         <f t="shared" si="122"/>
         <v>75</v>
       </c>
-      <c r="AU78" s="59" t="s">
+      <c r="AU78" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="AV78" s="60"/>
+      <c r="AV78" s="71"/>
     </row>
     <row r="79" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B79" s="17">
@@ -18165,10 +18165,10 @@
         <f t="shared" si="122"/>
         <v>98</v>
       </c>
-      <c r="AU79" s="59" t="s">
+      <c r="AU79" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="AV79" s="60"/>
+      <c r="AV79" s="71"/>
     </row>
     <row r="80" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B80" s="17">
@@ -18317,10 +18317,10 @@
         <f t="shared" si="122"/>
         <v>100</v>
       </c>
-      <c r="AU80" s="61" t="s">
+      <c r="AU80" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="AV80" s="62"/>
+      <c r="AV80" s="73"/>
     </row>
     <row r="81" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B81" s="17">
@@ -19515,88 +19515,88 @@
       </c>
     </row>
     <row r="90" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B90" s="75" t="s">
+      <c r="B90" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="75"/>
-      <c r="D90" s="75"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="75"/>
-      <c r="G90" s="75"/>
-      <c r="H90" s="75"/>
-      <c r="I90" s="75"/>
-      <c r="J90" s="75"/>
-      <c r="K90" s="75"/>
-      <c r="L90" s="75"/>
-      <c r="M90" s="75"/>
-      <c r="N90" s="75"/>
-      <c r="O90" s="75"/>
-      <c r="P90" s="75"/>
-      <c r="Q90" s="75"/>
-      <c r="R90" s="75"/>
-      <c r="S90" s="75"/>
-      <c r="T90" s="75"/>
-      <c r="U90" s="75"/>
-      <c r="V90" s="75"/>
-      <c r="W90" s="75"/>
-      <c r="X90" s="75"/>
-      <c r="Y90" s="75"/>
-      <c r="AU90" s="68" t="s">
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="61"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="61"/>
+      <c r="S90" s="61"/>
+      <c r="T90" s="61"/>
+      <c r="U90" s="61"/>
+      <c r="V90" s="61"/>
+      <c r="W90" s="61"/>
+      <c r="X90" s="61"/>
+      <c r="Y90" s="61"/>
+      <c r="AU90" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="AV90" s="69"/>
-      <c r="AW90" s="70"/>
-      <c r="AX90" s="68" t="s">
+      <c r="AV90" s="65"/>
+      <c r="AW90" s="66"/>
+      <c r="AX90" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AY90" s="69"/>
-      <c r="AZ90" s="70"/>
-      <c r="BA90" s="68" t="s">
+      <c r="AY90" s="65"/>
+      <c r="AZ90" s="66"/>
+      <c r="BA90" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="BB90" s="69"/>
-      <c r="BC90" s="69"/>
-      <c r="BD90" s="69"/>
-      <c r="BE90" s="69"/>
-      <c r="BF90" s="70"/>
-      <c r="BG90" s="68" t="s">
+      <c r="BB90" s="65"/>
+      <c r="BC90" s="65"/>
+      <c r="BD90" s="65"/>
+      <c r="BE90" s="65"/>
+      <c r="BF90" s="66"/>
+      <c r="BG90" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="BH90" s="69"/>
-      <c r="BI90" s="70"/>
-      <c r="BJ90" s="68" t="s">
+      <c r="BH90" s="65"/>
+      <c r="BI90" s="66"/>
+      <c r="BJ90" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="BK90" s="69"/>
-      <c r="BL90" s="70"/>
+      <c r="BK90" s="65"/>
+      <c r="BL90" s="66"/>
     </row>
     <row r="91" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B91" s="71" t="s">
+      <c r="B91" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="71"/>
-      <c r="I91" s="71"/>
-      <c r="J91" s="71"/>
-      <c r="K91" s="71"/>
-      <c r="L91" s="71"/>
-      <c r="M91" s="71"/>
-      <c r="N91" s="71"/>
-      <c r="O91" s="71"/>
-      <c r="P91" s="71"/>
-      <c r="Q91" s="71"/>
-      <c r="R91" s="71"/>
-      <c r="S91" s="71"/>
-      <c r="T91" s="71"/>
-      <c r="U91" s="71"/>
-      <c r="V91" s="71"/>
-      <c r="W91" s="71"/>
-      <c r="X91" s="71"/>
-      <c r="Y91" s="71"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="60"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="60"/>
+      <c r="P91" s="60"/>
+      <c r="Q91" s="60"/>
+      <c r="R91" s="60"/>
+      <c r="S91" s="60"/>
+      <c r="T91" s="60"/>
+      <c r="U91" s="60"/>
+      <c r="V91" s="60"/>
+      <c r="W91" s="60"/>
+      <c r="X91" s="60"/>
+      <c r="Y91" s="60"/>
       <c r="AU91" s="32" t="s">
         <v>43</v>
       </c>
@@ -19657,42 +19657,42 @@
         <v>2</v>
       </c>
       <c r="C92" s="24"/>
-      <c r="D92" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
+      <c r="D92" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63"/>
       <c r="G92" s="20"/>
-      <c r="H92" s="73" t="s">
+      <c r="H92" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I92" s="73"/>
-      <c r="J92" s="73"/>
-      <c r="K92" s="73" t="s">
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L92" s="73"/>
-      <c r="M92" s="73"/>
-      <c r="N92" s="73" t="s">
+      <c r="L92" s="59"/>
+      <c r="M92" s="59"/>
+      <c r="N92" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O92" s="73"/>
-      <c r="P92" s="73"/>
-      <c r="Q92" s="73" t="s">
+      <c r="O92" s="59"/>
+      <c r="P92" s="59"/>
+      <c r="Q92" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R92" s="73"/>
-      <c r="S92" s="73"/>
-      <c r="T92" s="73" t="s">
+      <c r="R92" s="59"/>
+      <c r="S92" s="59"/>
+      <c r="T92" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U92" s="73"/>
-      <c r="V92" s="73"/>
-      <c r="W92" s="73" t="s">
+      <c r="U92" s="59"/>
+      <c r="V92" s="59"/>
+      <c r="W92" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X92" s="73"/>
-      <c r="Y92" s="73"/>
+      <c r="X92" s="59"/>
+      <c r="Y92" s="59"/>
       <c r="AA92" s="4" t="s">
         <v>38</v>
       </c>
@@ -19759,15 +19759,15 @@
       </c>
       <c r="AW92" s="28">
         <f>VLOOKUP($AU92,Dummy!$A:$R,3,FALSE)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AX92" s="28">
         <f>VLOOKUP($AU92,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY92" s="28">
         <f>VLOOKUP($AU92,Dummy!$A:$R,5,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ92" s="28">
         <f>VLOOKUP($AU92,Dummy!$A:$R,6,FALSE)</f>
@@ -19775,7 +19775,7 @@
       </c>
       <c r="BA92" s="28">
         <f>VLOOKUP($AU92,Dummy!$A:$R,7,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB92" s="28">
         <f>VLOOKUP($AU92,Dummy!$A:$R,8,FALSE)</f>
@@ -19799,7 +19799,7 @@
       </c>
       <c r="BG92" s="28">
         <f>VLOOKUP($AU92,Dummy!$A:$R,13,FALSE)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BH92" s="28">
         <f>VLOOKUP($AU92,Dummy!$A:$R,14,FALSE)</f>
@@ -19807,19 +19807,19 @@
       </c>
       <c r="BI92" s="29">
         <f>VLOOKUP($AU92,Dummy!$A:$R,15,FALSE)</f>
-        <v>2888.8888888888887</v>
+        <v>3222.2222222222222</v>
       </c>
       <c r="BJ92" s="28">
         <f>VLOOKUP($AU92,Dummy!$A:$R,16,FALSE)</f>
-        <v>823</v>
+        <v>901</v>
       </c>
       <c r="BK92" s="28">
         <f>VLOOKUP($AU92,Dummy!$A:$R,17,FALSE)</f>
-        <v>746</v>
+        <v>816</v>
       </c>
       <c r="BL92" s="29">
         <f>VLOOKUP($AU92,Dummy!$A:$R,18,FALSE)</f>
-        <v>1103.2171581769437</v>
+        <v>1104.1666666666667</v>
       </c>
     </row>
     <row r="93" spans="2:64" x14ac:dyDescent="0.25">
@@ -20197,7 +20197,7 @@
       </c>
       <c r="AV94" s="30" t="str">
         <f>VLOOKUP($AU94,Dummy!$A:$R,2,FALSE)</f>
-        <v>Japão</v>
+        <v>França</v>
       </c>
       <c r="AW94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,3,FALSE)</f>
@@ -20217,11 +20217,11 @@
       </c>
       <c r="BA94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,7,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,9,FALSE)</f>
@@ -20233,35 +20233,35 @@
       </c>
       <c r="BE94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,13,FALSE)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BH94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,14,FALSE)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI94" s="29">
         <f>VLOOKUP($AU94,Dummy!$A:$R,15,FALSE)</f>
-        <v>1714.2857142857142</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BJ94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,16,FALSE)</f>
-        <v>891</v>
+        <v>935</v>
       </c>
       <c r="BK94" s="28">
         <f>VLOOKUP($AU94,Dummy!$A:$R,17,FALSE)</f>
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="BL94" s="29">
         <f>VLOOKUP($AU94,Dummy!$A:$R,18,FALSE)</f>
-        <v>1061.9785458879619</v>
+        <v>1073.4787600459242</v>
       </c>
     </row>
     <row r="95" spans="2:64" x14ac:dyDescent="0.25">
@@ -20635,35 +20635,35 @@
       </c>
       <c r="AV96" s="30" t="str">
         <f>VLOOKUP($AU96,Dummy!$A:$R,2,FALSE)</f>
-        <v>França</v>
+        <v>Japão</v>
       </c>
       <c r="AW96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,3,FALSE)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,5,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,6,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,7,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,8,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,10,FALSE)</f>
@@ -20671,35 +20671,35 @@
       </c>
       <c r="BE96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,13,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BH96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,14,FALSE)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BI96" s="29">
         <f>VLOOKUP($AU96,Dummy!$A:$R,15,FALSE)</f>
-        <v>1692.3076923076924</v>
+        <v>1411.7647058823529</v>
       </c>
       <c r="BJ96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,16,FALSE)</f>
-        <v>827</v>
+        <v>961</v>
       </c>
       <c r="BK96" s="28">
         <f>VLOOKUP($AU96,Dummy!$A:$R,17,FALSE)</f>
-        <v>776</v>
+        <v>917</v>
       </c>
       <c r="BL96" s="29">
         <f>VLOOKUP($AU96,Dummy!$A:$R,18,FALSE)</f>
-        <v>1065.7216494845361</v>
+        <v>1047.9825517993456</v>
       </c>
     </row>
     <row r="97" spans="2:64" x14ac:dyDescent="0.25">
@@ -20854,15 +20854,15 @@
       </c>
       <c r="AV97" s="30" t="str">
         <f>VLOOKUP($AU97,Dummy!$A:$R,2,FALSE)</f>
-        <v>Ucrânia</v>
+        <v>Cuba</v>
       </c>
       <c r="AW97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,3,FALSE)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,5,FALSE)</f>
@@ -20870,19 +20870,19 @@
       </c>
       <c r="AZ97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,9,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,10,FALSE)</f>
@@ -20890,35 +20890,35 @@
       </c>
       <c r="BE97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,13,FALSE)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BH97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,14,FALSE)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BI97" s="29">
         <f>VLOOKUP($AU97,Dummy!$A:$R,15,FALSE)</f>
-        <v>1263.1578947368421</v>
+        <v>1130.4347826086955</v>
       </c>
       <c r="BJ97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,16,FALSE)</f>
-        <v>931</v>
+        <v>1084</v>
       </c>
       <c r="BK97" s="28">
         <f>VLOOKUP($AU97,Dummy!$A:$R,17,FALSE)</f>
-        <v>912</v>
+        <v>1070</v>
       </c>
       <c r="BL97" s="29">
         <f>VLOOKUP($AU97,Dummy!$A:$R,18,FALSE)</f>
-        <v>1020.8333333333333</v>
+        <v>1013.0841121495326</v>
       </c>
     </row>
     <row r="98" spans="2:64" x14ac:dyDescent="0.25">
@@ -20928,69 +20928,93 @@
       <c r="C98" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D98" s="33"/>
+      <c r="D98" s="33">
+        <v>2</v>
+      </c>
       <c r="E98" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F98" s="34"/>
+      <c r="F98" s="34">
+        <v>3</v>
+      </c>
       <c r="G98" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H98" s="33"/>
+      <c r="H98" s="33">
+        <v>25</v>
+      </c>
       <c r="I98" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J98" s="34"/>
-      <c r="K98" s="33"/>
+      <c r="J98" s="34">
+        <v>20</v>
+      </c>
+      <c r="K98" s="33">
+        <v>15</v>
+      </c>
       <c r="L98" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M98" s="34"/>
-      <c r="N98" s="33"/>
+      <c r="M98" s="34">
+        <v>25</v>
+      </c>
+      <c r="N98" s="33">
+        <v>25</v>
+      </c>
       <c r="O98" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P98" s="34"/>
-      <c r="Q98" s="33"/>
+      <c r="P98" s="34">
+        <v>23</v>
+      </c>
+      <c r="Q98" s="33">
+        <v>21</v>
+      </c>
       <c r="R98" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S98" s="34"/>
-      <c r="T98" s="33"/>
+      <c r="S98" s="34">
+        <v>25</v>
+      </c>
+      <c r="T98" s="33">
+        <v>9</v>
+      </c>
       <c r="U98" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V98" s="34"/>
+      <c r="V98" s="34">
+        <v>15</v>
+      </c>
       <c r="W98" s="12">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="X98" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Y98" s="14">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="AA98" s="4">
         <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="AB98" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB98" s="4" t="str">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>França</v>
       </c>
       <c r="AC98" s="4">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD98" s="4">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE98" s="4">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF98" s="4">
         <f t="shared" si="132"/>
@@ -21002,35 +21026,35 @@
       </c>
       <c r="AH98" s="4">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI98" s="4">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="AJ98" s="4">
         <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="AL98" s="4">
+        <v>95</v>
+      </c>
+      <c r="AL98" s="4" t="str">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>Cuba</v>
       </c>
       <c r="AM98" s="4">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN98" s="4">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO98" s="4">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP98" s="4">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ98" s="4">
         <f t="shared" si="142"/>
@@ -21042,18 +21066,18 @@
       </c>
       <c r="AS98" s="4">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AT98" s="4">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="AU98" s="31">
         <v>7</v>
       </c>
       <c r="AV98" s="30" t="str">
         <f>VLOOKUP($AU98,Dummy!$A:$R,2,FALSE)</f>
-        <v>Cuba</v>
+        <v>Ucrânia</v>
       </c>
       <c r="AW98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,3,FALSE)</f>
@@ -21061,7 +21085,7 @@
       </c>
       <c r="AX98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,5,FALSE)</f>
@@ -21069,31 +21093,31 @@
       </c>
       <c r="AZ98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,8,FALSE)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,10,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,13,FALSE)</f>
@@ -21101,11 +21125,11 @@
       </c>
       <c r="BH98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,14,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BI98" s="29">
         <f>VLOOKUP($AU98,Dummy!$A:$R,15,FALSE)</f>
-        <v>1200</v>
+        <v>1090.9090909090908</v>
       </c>
       <c r="BJ98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,16,FALSE)</f>
@@ -21113,11 +21137,11 @@
       </c>
       <c r="BK98" s="28">
         <f>VLOOKUP($AU98,Dummy!$A:$R,17,FALSE)</f>
-        <v>962</v>
+        <v>987</v>
       </c>
       <c r="BL98" s="29">
         <f>VLOOKUP($AU98,Dummy!$A:$R,18,FALSE)</f>
-        <v>1028.066528066528</v>
+        <v>1002.0263424518743</v>
       </c>
     </row>
     <row r="99" spans="2:64" x14ac:dyDescent="0.25">
@@ -21127,29 +21151,45 @@
       <c r="C99" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D99" s="33"/>
+      <c r="D99" s="33">
+        <v>0</v>
+      </c>
       <c r="E99" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F99" s="34"/>
+      <c r="F99" s="34">
+        <v>3</v>
+      </c>
       <c r="G99" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H99" s="33"/>
+      <c r="H99" s="33">
+        <v>23</v>
+      </c>
       <c r="I99" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J99" s="34"/>
-      <c r="K99" s="33"/>
+      <c r="J99" s="34">
+        <v>25</v>
+      </c>
+      <c r="K99" s="33">
+        <v>16</v>
+      </c>
       <c r="L99" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M99" s="34"/>
-      <c r="N99" s="33"/>
+      <c r="M99" s="34">
+        <v>25</v>
+      </c>
+      <c r="N99" s="33">
+        <v>24</v>
+      </c>
       <c r="O99" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P99" s="34"/>
+      <c r="P99" s="34">
+        <v>26</v>
+      </c>
       <c r="Q99" s="33"/>
       <c r="R99" s="11" t="s">
         <v>6</v>
@@ -21162,30 +21202,30 @@
       <c r="V99" s="34"/>
       <c r="W99" s="12">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="X99" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Y99" s="14">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AA99" s="4">
         <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="AB99" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB99" s="4" t="str">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>Bulgária</v>
       </c>
       <c r="AC99" s="4">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD99" s="4">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE99" s="4">
         <f t="shared" si="131"/>
@@ -21193,7 +21233,7 @@
       </c>
       <c r="AF99" s="4">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG99" s="4">
         <f t="shared" si="133"/>
@@ -21205,19 +21245,19 @@
       </c>
       <c r="AI99" s="4">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AJ99" s="4">
         <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="AL99" s="4">
+        <v>63</v>
+      </c>
+      <c r="AL99" s="4" t="str">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>China</v>
       </c>
       <c r="AM99" s="4">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN99" s="4">
         <f t="shared" si="139"/>
@@ -21225,7 +21265,7 @@
       </c>
       <c r="AO99" s="4">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP99" s="4">
         <f t="shared" si="141"/>
@@ -21237,15 +21277,15 @@
       </c>
       <c r="AR99" s="4">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS99" s="4">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AT99" s="4">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AU99" s="31">
         <v>8</v>
@@ -21451,7 +21491,7 @@
       </c>
       <c r="AV100" s="30" t="str">
         <f>VLOOKUP($AU100,Dummy!$A:$R,2,FALSE)</f>
-        <v>Irã</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AW100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,3,FALSE)</f>
@@ -21463,15 +21503,15 @@
       </c>
       <c r="AY100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,5,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,8,FALSE)</f>
@@ -21483,7 +21523,7 @@
       </c>
       <c r="BD100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,10,FALSE)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BE100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,11,FALSE)</f>
@@ -21491,31 +21531,31 @@
       </c>
       <c r="BF100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,13,FALSE)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BH100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,14,FALSE)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BI100" s="29">
         <f>VLOOKUP($AU100,Dummy!$A:$R,15,FALSE)</f>
-        <v>1047.6190476190477</v>
+        <v>1055.5555555555557</v>
       </c>
       <c r="BJ100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,16,FALSE)</f>
-        <v>949</v>
+        <v>844</v>
       </c>
       <c r="BK100" s="28">
         <f>VLOOKUP($AU100,Dummy!$A:$R,17,FALSE)</f>
-        <v>944</v>
+        <v>854</v>
       </c>
       <c r="BL100" s="29">
         <f>VLOOKUP($AU100,Dummy!$A:$R,18,FALSE)</f>
-        <v>1005.2966101694916</v>
+        <v>988.29039812646374</v>
       </c>
     </row>
     <row r="101" spans="2:64" x14ac:dyDescent="0.25">
@@ -21650,11 +21690,11 @@
       </c>
       <c r="AV101" s="30" t="str">
         <f>VLOOKUP($AU101,Dummy!$A:$R,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Irã</v>
       </c>
       <c r="AW101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,3,FALSE)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,4,FALSE)</f>
@@ -21682,11 +21722,11 @@
       </c>
       <c r="BD101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,11,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,12,FALSE)</f>
@@ -21694,7 +21734,7 @@
       </c>
       <c r="BG101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,13,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BH101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,14,FALSE)</f>
@@ -21702,19 +21742,19 @@
       </c>
       <c r="BI101" s="29">
         <f>VLOOKUP($AU101,Dummy!$A:$R,15,FALSE)</f>
-        <v>952.38095238095229</v>
+        <v>1047.6190476190477</v>
       </c>
       <c r="BJ101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,16,FALSE)</f>
-        <v>921</v>
+        <v>949</v>
       </c>
       <c r="BK101" s="28">
         <f>VLOOKUP($AU101,Dummy!$A:$R,17,FALSE)</f>
-        <v>918</v>
+        <v>944</v>
       </c>
       <c r="BL101" s="29">
         <f>VLOOKUP($AU101,Dummy!$A:$R,18,FALSE)</f>
-        <v>1003.2679738562091</v>
+        <v>1005.2966101694916</v>
       </c>
     </row>
     <row r="102" spans="2:64" x14ac:dyDescent="0.25">
@@ -21849,15 +21889,15 @@
       </c>
       <c r="AV102" s="30" t="str">
         <f>VLOOKUP($AU102,Dummy!$A:$R,2,FALSE)</f>
-        <v>Estados Unidos</v>
+        <v>Bulgária</v>
       </c>
       <c r="AW102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,5,FALSE)</f>
@@ -21865,11 +21905,11 @@
       </c>
       <c r="AZ102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,8,FALSE)</f>
@@ -21877,43 +21917,43 @@
       </c>
       <c r="BC102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,12,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BH102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,14,FALSE)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI102" s="29">
         <f>VLOOKUP($AU102,Dummy!$A:$R,15,FALSE)</f>
-        <v>941.17647058823525</v>
+        <v>1055.5555555555557</v>
       </c>
       <c r="BJ102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,16,FALSE)</f>
-        <v>749</v>
+        <v>834</v>
       </c>
       <c r="BK102" s="28">
         <f>VLOOKUP($AU102,Dummy!$A:$R,17,FALSE)</f>
-        <v>763</v>
+        <v>848</v>
       </c>
       <c r="BL102" s="29">
         <f>VLOOKUP($AU102,Dummy!$A:$R,18,FALSE)</f>
-        <v>981.65137614678895</v>
+        <v>983.4905660377359</v>
       </c>
     </row>
     <row r="103" spans="2:64" x14ac:dyDescent="0.25">
@@ -22048,19 +22088,19 @@
       </c>
       <c r="AV103" s="30" t="str">
         <f>VLOOKUP($AU103,Dummy!$A:$R,2,FALSE)</f>
-        <v>Alemanha</v>
+        <v>Argentina</v>
       </c>
       <c r="AW103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,3,FALSE)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,5,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,6,FALSE)</f>
@@ -22068,27 +22108,27 @@
       </c>
       <c r="BA103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,8,FALSE)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,10,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,11,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,13,FALSE)</f>
@@ -22096,23 +22136,23 @@
       </c>
       <c r="BH103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,14,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BI103" s="29">
         <f>VLOOKUP($AU103,Dummy!$A:$R,15,FALSE)</f>
-        <v>954.54545454545462</v>
+        <v>875</v>
       </c>
       <c r="BJ103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,16,FALSE)</f>
-        <v>988</v>
+        <v>1012</v>
       </c>
       <c r="BK103" s="28">
         <f>VLOOKUP($AU103,Dummy!$A:$R,17,FALSE)</f>
-        <v>984</v>
+        <v>1013</v>
       </c>
       <c r="BL103" s="29">
         <f>VLOOKUP($AU103,Dummy!$A:$R,18,FALSE)</f>
-        <v>1004.0650406504066</v>
+        <v>999.01283316880551</v>
       </c>
     </row>
     <row r="104" spans="2:64" x14ac:dyDescent="0.25">
@@ -22247,15 +22287,15 @@
       </c>
       <c r="AV104" s="30" t="str">
         <f>VLOOKUP($AU104,Dummy!$A:$R,2,FALSE)</f>
-        <v>Bulgária</v>
+        <v>Alemanha</v>
       </c>
       <c r="AW104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,3,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AX104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,5,FALSE)</f>
@@ -22263,84 +22303,84 @@
       </c>
       <c r="AZ104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,12,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BH104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,14,FALSE)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BI104" s="29">
         <f>VLOOKUP($AU104,Dummy!$A:$R,15,FALSE)</f>
-        <v>888.8888888888888</v>
+        <v>954.54545454545462</v>
       </c>
       <c r="BJ104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,16,FALSE)</f>
-        <v>758</v>
+        <v>988</v>
       </c>
       <c r="BK104" s="28">
         <f>VLOOKUP($AU104,Dummy!$A:$R,17,FALSE)</f>
-        <v>785</v>
+        <v>984</v>
       </c>
       <c r="BL104" s="29">
         <f>VLOOKUP($AU104,Dummy!$A:$R,18,FALSE)</f>
-        <v>965.60509554140128</v>
+        <v>1004.0650406504066</v>
       </c>
     </row>
     <row r="105" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B105" s="71" t="s">
+      <c r="B105" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C105" s="71"/>
-      <c r="D105" s="71"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="71"/>
-      <c r="J105" s="71"/>
-      <c r="K105" s="71"/>
-      <c r="L105" s="71"/>
-      <c r="M105" s="71"/>
-      <c r="N105" s="71"/>
-      <c r="O105" s="71"/>
-      <c r="P105" s="71"/>
-      <c r="Q105" s="71"/>
-      <c r="R105" s="71"/>
-      <c r="S105" s="71"/>
-      <c r="T105" s="71"/>
-      <c r="U105" s="71"/>
-      <c r="V105" s="71"/>
-      <c r="W105" s="71"/>
-      <c r="X105" s="71"/>
-      <c r="Y105" s="71"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="62"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="60"/>
+      <c r="J105" s="60"/>
+      <c r="K105" s="60"/>
+      <c r="L105" s="60"/>
+      <c r="M105" s="60"/>
+      <c r="N105" s="60"/>
+      <c r="O105" s="60"/>
+      <c r="P105" s="60"/>
+      <c r="Q105" s="60"/>
+      <c r="R105" s="60"/>
+      <c r="S105" s="60"/>
+      <c r="T105" s="60"/>
+      <c r="U105" s="60"/>
+      <c r="V105" s="60"/>
+      <c r="W105" s="60"/>
+      <c r="X105" s="60"/>
+      <c r="Y105" s="60"/>
       <c r="AU105" s="31">
         <v>14</v>
       </c>
@@ -22350,15 +22390,15 @@
       </c>
       <c r="AW105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,3,FALSE)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AX105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,5,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,6,FALSE)</f>
@@ -22366,7 +22406,7 @@
       </c>
       <c r="BA105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,8,FALSE)</f>
@@ -22390,7 +22430,7 @@
       </c>
       <c r="BG105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BH105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,14,FALSE)</f>
@@ -22398,19 +22438,19 @@
       </c>
       <c r="BI105" s="29">
         <f>VLOOKUP($AU105,Dummy!$A:$R,15,FALSE)</f>
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="BJ105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,16,FALSE)</f>
-        <v>796</v>
+        <v>871</v>
       </c>
       <c r="BK105" s="28">
         <f>VLOOKUP($AU105,Dummy!$A:$R,17,FALSE)</f>
-        <v>812</v>
+        <v>869</v>
       </c>
       <c r="BL105" s="29">
         <f>VLOOKUP($AU105,Dummy!$A:$R,18,FALSE)</f>
-        <v>980.29556650246309</v>
+        <v>1002.301495972382</v>
       </c>
     </row>
     <row r="106" spans="2:64" x14ac:dyDescent="0.25">
@@ -22418,42 +22458,42 @@
         <v>2</v>
       </c>
       <c r="C106" s="24"/>
-      <c r="D106" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="73"/>
-      <c r="F106" s="73"/>
+      <c r="D106" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
       <c r="G106" s="20"/>
-      <c r="H106" s="73" t="s">
+      <c r="H106" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I106" s="73"/>
-      <c r="J106" s="73"/>
-      <c r="K106" s="73" t="s">
+      <c r="I106" s="59"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L106" s="73"/>
-      <c r="M106" s="73"/>
-      <c r="N106" s="73" t="s">
+      <c r="L106" s="59"/>
+      <c r="M106" s="59"/>
+      <c r="N106" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O106" s="73"/>
-      <c r="P106" s="73"/>
-      <c r="Q106" s="73" t="s">
+      <c r="O106" s="59"/>
+      <c r="P106" s="59"/>
+      <c r="Q106" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R106" s="73"/>
-      <c r="S106" s="73"/>
-      <c r="T106" s="73" t="s">
+      <c r="R106" s="59"/>
+      <c r="S106" s="59"/>
+      <c r="T106" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U106" s="73"/>
-      <c r="V106" s="73"/>
-      <c r="W106" s="73" t="s">
+      <c r="U106" s="59"/>
+      <c r="V106" s="59"/>
+      <c r="W106" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X106" s="73"/>
-      <c r="Y106" s="73"/>
+      <c r="X106" s="59"/>
+      <c r="Y106" s="59"/>
       <c r="AA106" s="4" t="s">
         <v>38</v>
       </c>
@@ -22747,7 +22787,7 @@
       </c>
       <c r="AX107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,5,FALSE)</f>
@@ -22755,7 +22795,7 @@
       </c>
       <c r="AZ107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,6,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,7,FALSE)</f>
@@ -22779,7 +22819,7 @@
       </c>
       <c r="BF107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,12,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,13,FALSE)</f>
@@ -22787,23 +22827,23 @@
       </c>
       <c r="BH107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,14,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BI107" s="29">
         <f>VLOOKUP($AU107,Dummy!$A:$R,15,FALSE)</f>
-        <v>360</v>
+        <v>321.42857142857144</v>
       </c>
       <c r="BJ107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,16,FALSE)</f>
-        <v>714</v>
+        <v>777</v>
       </c>
       <c r="BK107" s="28">
         <f>VLOOKUP($AU107,Dummy!$A:$R,17,FALSE)</f>
-        <v>802</v>
+        <v>878</v>
       </c>
       <c r="BL107" s="29">
         <f>VLOOKUP($AU107,Dummy!$A:$R,18,FALSE)</f>
-        <v>890.27431421446374</v>
+        <v>884.96583143507962</v>
       </c>
     </row>
     <row r="108" spans="2:64" x14ac:dyDescent="0.25">
@@ -22954,11 +22994,11 @@
       </c>
       <c r="AV108" s="30" t="str">
         <f>VLOOKUP($AU108,Dummy!$A:$R,2,FALSE)</f>
-        <v>Holanda</v>
+        <v>Sérvia</v>
       </c>
       <c r="AW108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,3,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,4,FALSE)</f>
@@ -22966,15 +23006,15 @@
       </c>
       <c r="AY108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,6,FALSE)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,8,FALSE)</f>
@@ -22986,7 +23026,7 @@
       </c>
       <c r="BD108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,10,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,11,FALSE)</f>
@@ -22994,31 +23034,31 @@
       </c>
       <c r="BF108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,12,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,13,FALSE)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BH108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,14,FALSE)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BI108" s="29">
         <f>VLOOKUP($AU108,Dummy!$A:$R,15,FALSE)</f>
-        <v>392.85714285714283</v>
+        <v>400</v>
       </c>
       <c r="BJ108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,16,FALSE)</f>
-        <v>834</v>
+        <v>732</v>
       </c>
       <c r="BK108" s="28">
         <f>VLOOKUP($AU108,Dummy!$A:$R,17,FALSE)</f>
-        <v>918</v>
+        <v>838</v>
       </c>
       <c r="BL108" s="29">
         <f>VLOOKUP($AU108,Dummy!$A:$R,18,FALSE)</f>
-        <v>908.49673202614383</v>
+        <v>873.50835322195712</v>
       </c>
     </row>
     <row r="109" spans="2:64" x14ac:dyDescent="0.25">
@@ -23173,15 +23213,15 @@
       </c>
       <c r="AV109" s="30" t="str">
         <f>VLOOKUP($AU109,Dummy!$A:$R,2,FALSE)</f>
-        <v>Sérvia</v>
+        <v>Holanda</v>
       </c>
       <c r="AW109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,5,FALSE)</f>
@@ -23189,7 +23229,7 @@
       </c>
       <c r="AZ109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,6,FALSE)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,7,FALSE)</f>
@@ -23205,7 +23245,7 @@
       </c>
       <c r="BD109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,11,FALSE)</f>
@@ -23217,27 +23257,27 @@
       </c>
       <c r="BG109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,13,FALSE)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BH109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,14,FALSE)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="BI109" s="29">
         <f>VLOOKUP($AU109,Dummy!$A:$R,15,FALSE)</f>
-        <v>280</v>
+        <v>354.83870967741939</v>
       </c>
       <c r="BJ109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,16,FALSE)</f>
-        <v>657</v>
+        <v>891</v>
       </c>
       <c r="BK109" s="28">
         <f>VLOOKUP($AU109,Dummy!$A:$R,17,FALSE)</f>
-        <v>780</v>
+        <v>993</v>
       </c>
       <c r="BL109" s="29">
         <f>VLOOKUP($AU109,Dummy!$A:$R,18,FALSE)</f>
-        <v>842.30769230769226</v>
+        <v>897.28096676737152</v>
       </c>
     </row>
     <row r="110" spans="2:64" x14ac:dyDescent="0.25">
@@ -23393,7 +23433,7 @@
       </c>
       <c r="AX110" s="53">
         <f>SUM(AX92:AX109)</f>
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="2:64" x14ac:dyDescent="0.25">
@@ -23551,29 +23591,45 @@
       <c r="C112" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D112" s="33"/>
+      <c r="D112" s="33">
+        <v>0</v>
+      </c>
       <c r="E112" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F112" s="34"/>
+      <c r="F112" s="34">
+        <v>3</v>
+      </c>
       <c r="G112" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H112" s="33"/>
+      <c r="H112" s="33">
+        <v>22</v>
+      </c>
       <c r="I112" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J112" s="34"/>
-      <c r="K112" s="33"/>
+      <c r="J112" s="34">
+        <v>25</v>
+      </c>
+      <c r="K112" s="33">
+        <v>19</v>
+      </c>
       <c r="L112" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M112" s="34"/>
-      <c r="N112" s="33"/>
+      <c r="M112" s="34">
+        <v>25</v>
+      </c>
+      <c r="N112" s="33">
+        <v>17</v>
+      </c>
       <c r="O112" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P112" s="34"/>
+      <c r="P112" s="34">
+        <v>25</v>
+      </c>
       <c r="Q112" s="33"/>
       <c r="R112" s="11" t="s">
         <v>6</v>
@@ -23586,30 +23642,30 @@
       <c r="V112" s="34"/>
       <c r="W112" s="9">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="X112" s="11" t="s">
         <v>6</v>
       </c>
       <c r="Y112" s="10">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA112" s="4">
         <f t="shared" si="146"/>
-        <v>0</v>
-      </c>
-      <c r="AB112" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB112" s="4" t="str">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>Sérvia</v>
       </c>
       <c r="AC112" s="4">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD112" s="4">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE112" s="4">
         <f t="shared" si="150"/>
@@ -23617,7 +23673,7 @@
       </c>
       <c r="AF112" s="4">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG112" s="4">
         <f t="shared" si="152"/>
@@ -23629,19 +23685,19 @@
       </c>
       <c r="AI112" s="4">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ112" s="4">
         <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="AL112" s="4">
+        <v>58</v>
+      </c>
+      <c r="AL112" s="4" t="str">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>Ucrânia</v>
       </c>
       <c r="AM112" s="4">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN112" s="4">
         <f t="shared" si="158"/>
@@ -23649,7 +23705,7 @@
       </c>
       <c r="AO112" s="4">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP112" s="4">
         <f t="shared" si="160"/>
@@ -23661,15 +23717,15 @@
       </c>
       <c r="AR112" s="4">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS112" s="4">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AT112" s="4">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AU112" s="54"/>
       <c r="AV112" s="7" t="s">
@@ -23683,29 +23739,45 @@
       <c r="C113" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D113" s="33"/>
+      <c r="D113" s="33">
+        <v>0</v>
+      </c>
       <c r="E113" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F113" s="34"/>
+      <c r="F113" s="34">
+        <v>3</v>
+      </c>
       <c r="G113" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H113" s="33"/>
+      <c r="H113" s="33">
+        <v>22</v>
+      </c>
       <c r="I113" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J113" s="34"/>
-      <c r="K113" s="33"/>
+      <c r="J113" s="34">
+        <v>25</v>
+      </c>
+      <c r="K113" s="33">
+        <v>20</v>
+      </c>
       <c r="L113" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M113" s="34"/>
-      <c r="N113" s="33"/>
+      <c r="M113" s="34">
+        <v>25</v>
+      </c>
+      <c r="N113" s="33">
+        <v>15</v>
+      </c>
       <c r="O113" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P113" s="34"/>
+      <c r="P113" s="34">
+        <v>25</v>
+      </c>
       <c r="Q113" s="33"/>
       <c r="R113" s="11" t="s">
         <v>6</v>
@@ -23718,30 +23790,30 @@
       <c r="V113" s="34"/>
       <c r="W113" s="9">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="X113" s="11" t="s">
         <v>6</v>
       </c>
       <c r="Y113" s="10">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA113" s="4">
         <f t="shared" si="146"/>
-        <v>0</v>
-      </c>
-      <c r="AB113" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB113" s="4" t="str">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>Canadá</v>
       </c>
       <c r="AC113" s="4">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD113" s="4">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE113" s="4">
         <f t="shared" si="150"/>
@@ -23749,7 +23821,7 @@
       </c>
       <c r="AF113" s="4">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG113" s="4">
         <f t="shared" si="152"/>
@@ -23761,19 +23833,19 @@
       </c>
       <c r="AI113" s="4">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ113" s="4">
         <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="AL113" s="4">
+        <v>57</v>
+      </c>
+      <c r="AL113" s="4" t="str">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>Holanda</v>
       </c>
       <c r="AM113" s="4">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN113" s="4">
         <f t="shared" si="158"/>
@@ -23781,7 +23853,7 @@
       </c>
       <c r="AO113" s="4">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP113" s="4">
         <f t="shared" si="160"/>
@@ -23793,15 +23865,15 @@
       </c>
       <c r="AR113" s="4">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS113" s="4">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AT113" s="4">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AU113" s="55"/>
       <c r="AV113" s="7" t="s">
@@ -24453,78 +24525,78 @@
       </c>
     </row>
     <row r="119" spans="2:48" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B119" s="71" t="s">
+      <c r="B119" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C119" s="71"/>
-      <c r="D119" s="71"/>
-      <c r="E119" s="71"/>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="71"/>
-      <c r="I119" s="71"/>
-      <c r="J119" s="71"/>
-      <c r="K119" s="71"/>
-      <c r="L119" s="71"/>
-      <c r="M119" s="71"/>
-      <c r="N119" s="71"/>
-      <c r="O119" s="71"/>
-      <c r="P119" s="71"/>
-      <c r="Q119" s="71"/>
-      <c r="R119" s="71"/>
-      <c r="S119" s="71"/>
-      <c r="T119" s="71"/>
-      <c r="U119" s="71"/>
-      <c r="V119" s="71"/>
-      <c r="W119" s="71"/>
-      <c r="X119" s="71"/>
-      <c r="Y119" s="71"/>
-      <c r="AU119" s="63" t="s">
+      <c r="C119" s="60"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="60"/>
+      <c r="F119" s="60"/>
+      <c r="G119" s="60"/>
+      <c r="H119" s="60"/>
+      <c r="I119" s="60"/>
+      <c r="J119" s="60"/>
+      <c r="K119" s="60"/>
+      <c r="L119" s="60"/>
+      <c r="M119" s="60"/>
+      <c r="N119" s="60"/>
+      <c r="O119" s="60"/>
+      <c r="P119" s="60"/>
+      <c r="Q119" s="60"/>
+      <c r="R119" s="60"/>
+      <c r="S119" s="60"/>
+      <c r="T119" s="60"/>
+      <c r="U119" s="60"/>
+      <c r="V119" s="60"/>
+      <c r="W119" s="60"/>
+      <c r="X119" s="60"/>
+      <c r="Y119" s="60"/>
+      <c r="AU119" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="AV119" s="64"/>
+      <c r="AV119" s="69"/>
     </row>
     <row r="120" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B120" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C120" s="24"/>
-      <c r="D120" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
+      <c r="D120" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="63"/>
+      <c r="F120" s="63"/>
       <c r="G120" s="20"/>
-      <c r="H120" s="73" t="s">
+      <c r="H120" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I120" s="73"/>
-      <c r="J120" s="73"/>
-      <c r="K120" s="73" t="s">
+      <c r="I120" s="59"/>
+      <c r="J120" s="59"/>
+      <c r="K120" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L120" s="73"/>
-      <c r="M120" s="73"/>
-      <c r="N120" s="73" t="s">
+      <c r="L120" s="59"/>
+      <c r="M120" s="59"/>
+      <c r="N120" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O120" s="73"/>
-      <c r="P120" s="73"/>
-      <c r="Q120" s="73" t="s">
+      <c r="O120" s="59"/>
+      <c r="P120" s="59"/>
+      <c r="Q120" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R120" s="73"/>
-      <c r="S120" s="73"/>
-      <c r="T120" s="73" t="s">
+      <c r="R120" s="59"/>
+      <c r="S120" s="59"/>
+      <c r="T120" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U120" s="73"/>
-      <c r="V120" s="73"/>
-      <c r="W120" s="73" t="s">
+      <c r="U120" s="59"/>
+      <c r="V120" s="59"/>
+      <c r="W120" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X120" s="73"/>
-      <c r="Y120" s="73"/>
+      <c r="X120" s="59"/>
+      <c r="Y120" s="59"/>
       <c r="AA120" s="4" t="s">
         <v>38</v>
       </c>
@@ -24582,10 +24654,10 @@
       <c r="AT120" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AU120" s="65" t="s">
+      <c r="AU120" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="AV120" s="66"/>
+      <c r="AV120" s="75"/>
     </row>
     <row r="121" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B121" s="17">
@@ -24714,10 +24786,10 @@
         <f t="shared" ref="AT121:AT132" si="185">IF(D121&lt;F121,SUM(J121,M121,P121,S121,V121),SUM(H121,K121,N121,Q121,T121))</f>
         <v>0</v>
       </c>
-      <c r="AU121" s="59" t="s">
+      <c r="AU121" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="AV121" s="60"/>
+      <c r="AV121" s="71"/>
     </row>
     <row r="122" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B122" s="17">
@@ -24866,10 +24938,10 @@
         <f t="shared" si="185"/>
         <v>99</v>
       </c>
-      <c r="AU122" s="59" t="s">
+      <c r="AU122" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="AV122" s="60"/>
+      <c r="AV122" s="71"/>
     </row>
     <row r="123" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B123" s="17">
@@ -25014,10 +25086,10 @@
         <f t="shared" si="185"/>
         <v>80</v>
       </c>
-      <c r="AU123" s="59" t="s">
+      <c r="AU123" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="AV123" s="60"/>
+      <c r="AV123" s="71"/>
     </row>
     <row r="124" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B124" s="17">
@@ -25166,10 +25238,10 @@
         <f t="shared" si="185"/>
         <v>96</v>
       </c>
-      <c r="AU124" s="61" t="s">
+      <c r="AU124" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="AV124" s="62"/>
+      <c r="AV124" s="73"/>
     </row>
     <row r="125" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B125" s="17">
@@ -25478,34 +25550,54 @@
       <c r="C127" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D127" s="33"/>
+      <c r="D127" s="33">
+        <v>1</v>
+      </c>
       <c r="E127" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F127" s="34"/>
+      <c r="F127" s="34">
+        <v>3</v>
+      </c>
       <c r="G127" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H127" s="33"/>
+      <c r="H127" s="33">
+        <v>23</v>
+      </c>
       <c r="I127" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J127" s="34"/>
-      <c r="K127" s="33"/>
+      <c r="J127" s="34">
+        <v>25</v>
+      </c>
+      <c r="K127" s="33">
+        <v>25</v>
+      </c>
       <c r="L127" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M127" s="34"/>
-      <c r="N127" s="33"/>
+      <c r="M127" s="34">
+        <v>20</v>
+      </c>
+      <c r="N127" s="33">
+        <v>20</v>
+      </c>
       <c r="O127" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P127" s="34"/>
-      <c r="Q127" s="33"/>
+      <c r="P127" s="34">
+        <v>25</v>
+      </c>
+      <c r="Q127" s="33">
+        <v>23</v>
+      </c>
       <c r="R127" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S127" s="34"/>
+      <c r="S127" s="34">
+        <v>25</v>
+      </c>
       <c r="T127" s="33"/>
       <c r="U127" s="11" t="s">
         <v>6</v>
@@ -25513,34 +25605,34 @@
       <c r="V127" s="34"/>
       <c r="W127" s="12">
         <f t="shared" si="186"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="X127" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Y127" s="14">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA127" s="4">
         <f t="shared" si="167"/>
-        <v>0</v>
-      </c>
-      <c r="AB127" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB127" s="4" t="str">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AC127" s="4">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD127" s="4">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE127" s="4">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF127" s="4">
         <f t="shared" si="172"/>
@@ -25548,7 +25640,7 @@
       </c>
       <c r="AG127" s="4">
         <f t="shared" si="173"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH127" s="4">
         <f t="shared" si="174"/>
@@ -25556,27 +25648,27 @@
       </c>
       <c r="AI127" s="4">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ127" s="4">
         <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="AL127" s="4">
+        <v>91</v>
+      </c>
+      <c r="AL127" s="4" t="str">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>Argentina</v>
       </c>
       <c r="AM127" s="4">
         <f t="shared" si="178"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN127" s="4">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO127" s="4">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP127" s="4">
         <f t="shared" si="181"/>
@@ -25584,7 +25676,7 @@
       </c>
       <c r="AQ127" s="4">
         <f t="shared" si="182"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR127" s="4">
         <f t="shared" si="183"/>
@@ -25592,11 +25684,11 @@
       </c>
       <c r="AS127" s="4">
         <f t="shared" si="184"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AT127" s="4">
         <f t="shared" si="185"/>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128" spans="2:48" x14ac:dyDescent="0.25">
@@ -25606,29 +25698,45 @@
       <c r="C128" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D128" s="33"/>
+      <c r="D128" s="33">
+        <v>3</v>
+      </c>
       <c r="E128" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F128" s="34"/>
+      <c r="F128" s="34">
+        <v>0</v>
+      </c>
       <c r="G128" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H128" s="33"/>
+      <c r="H128" s="33">
+        <v>25</v>
+      </c>
       <c r="I128" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J128" s="34"/>
-      <c r="K128" s="33"/>
+      <c r="J128" s="34">
+        <v>21</v>
+      </c>
+      <c r="K128" s="33">
+        <v>25</v>
+      </c>
       <c r="L128" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M128" s="34"/>
-      <c r="N128" s="33"/>
+      <c r="M128" s="34">
+        <v>23</v>
+      </c>
+      <c r="N128" s="33">
+        <v>28</v>
+      </c>
       <c r="O128" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P128" s="34"/>
+      <c r="P128" s="34">
+        <v>26</v>
+      </c>
       <c r="Q128" s="33"/>
       <c r="R128" s="11" t="s">
         <v>6</v>
@@ -25641,30 +25749,30 @@
       <c r="V128" s="34"/>
       <c r="W128" s="12">
         <f t="shared" si="186"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X128" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Y128" s="14">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA128" s="4">
         <f t="shared" si="167"/>
-        <v>0</v>
-      </c>
-      <c r="AB128" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB128" s="4" t="str">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>Brasil</v>
       </c>
       <c r="AC128" s="4">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD128" s="4">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE128" s="4">
         <f t="shared" si="171"/>
@@ -25672,7 +25780,7 @@
       </c>
       <c r="AF128" s="4">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG128" s="4">
         <f t="shared" si="173"/>
@@ -25684,19 +25792,19 @@
       </c>
       <c r="AI128" s="4">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AJ128" s="4">
         <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="AL128" s="4">
+        <v>70</v>
+      </c>
+      <c r="AL128" s="4" t="str">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>Japão</v>
       </c>
       <c r="AM128" s="4">
         <f t="shared" si="178"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN128" s="4">
         <f t="shared" si="179"/>
@@ -25704,7 +25812,7 @@
       </c>
       <c r="AO128" s="4">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP128" s="4">
         <f t="shared" si="181"/>
@@ -25716,15 +25824,15 @@
       </c>
       <c r="AR128" s="4">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS128" s="4">
         <f t="shared" si="184"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AT128" s="4">
         <f t="shared" si="185"/>
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" spans="2:46" x14ac:dyDescent="0.25">
@@ -26242,16 +26350,83 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="111">
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="AU123:AV123"/>
+    <mergeCell ref="AU124:AV124"/>
+    <mergeCell ref="AU36:AV36"/>
+    <mergeCell ref="AU119:AV119"/>
+    <mergeCell ref="AU120:AV120"/>
+    <mergeCell ref="AU121:AV121"/>
+    <mergeCell ref="AU122:AV122"/>
+    <mergeCell ref="AU31:AV31"/>
+    <mergeCell ref="AU32:AV32"/>
+    <mergeCell ref="AU33:AV33"/>
+    <mergeCell ref="AU34:AV34"/>
+    <mergeCell ref="AU35:AV35"/>
+    <mergeCell ref="AU76:AV76"/>
+    <mergeCell ref="AU77:AV77"/>
+    <mergeCell ref="AU78:AV78"/>
+    <mergeCell ref="AU79:AV79"/>
+    <mergeCell ref="AU80:AV80"/>
+    <mergeCell ref="AU111:AV111"/>
+    <mergeCell ref="AU90:AW90"/>
+    <mergeCell ref="AX90:AZ90"/>
+    <mergeCell ref="BA90:BF90"/>
+    <mergeCell ref="BG90:BI90"/>
+    <mergeCell ref="BJ90:BL90"/>
+    <mergeCell ref="AU23:AV23"/>
+    <mergeCell ref="AU67:AV67"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AU46:AW46"/>
+    <mergeCell ref="AX46:AZ46"/>
+    <mergeCell ref="BA46:BF46"/>
+    <mergeCell ref="BG46:BI46"/>
+    <mergeCell ref="BJ46:BL46"/>
+    <mergeCell ref="AU75:AV75"/>
+    <mergeCell ref="B119:Y119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="N120:P120"/>
+    <mergeCell ref="Q120:S120"/>
+    <mergeCell ref="T120:V120"/>
+    <mergeCell ref="W120:Y120"/>
+    <mergeCell ref="B105:Y105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="W76:Y76"/>
+    <mergeCell ref="B90:Y90"/>
+    <mergeCell ref="B91:Y91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="T92:V92"/>
+    <mergeCell ref="W92:Y92"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="T76:V76"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="T62:V62"/>
+    <mergeCell ref="W62:Y62"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
     <mergeCell ref="B75:Y75"/>
     <mergeCell ref="B46:Y46"/>
     <mergeCell ref="B47:Y47"/>
@@ -26276,83 +26451,16 @@
     <mergeCell ref="H62:J62"/>
     <mergeCell ref="K62:M62"/>
     <mergeCell ref="N62:P62"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="T62:V62"/>
-    <mergeCell ref="W62:Y62"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W76:Y76"/>
-    <mergeCell ref="B90:Y90"/>
-    <mergeCell ref="B91:Y91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="T92:V92"/>
-    <mergeCell ref="W92:Y92"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="T76:V76"/>
-    <mergeCell ref="B119:Y119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="N120:P120"/>
-    <mergeCell ref="Q120:S120"/>
-    <mergeCell ref="T120:V120"/>
-    <mergeCell ref="W120:Y120"/>
-    <mergeCell ref="B105:Y105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="AX90:AZ90"/>
-    <mergeCell ref="BA90:BF90"/>
-    <mergeCell ref="BG90:BI90"/>
-    <mergeCell ref="BJ90:BL90"/>
-    <mergeCell ref="AU23:AV23"/>
-    <mergeCell ref="AU67:AV67"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AU46:AW46"/>
-    <mergeCell ref="AX46:AZ46"/>
-    <mergeCell ref="BA46:BF46"/>
-    <mergeCell ref="BG46:BI46"/>
-    <mergeCell ref="BJ46:BL46"/>
-    <mergeCell ref="AU75:AV75"/>
-    <mergeCell ref="AU123:AV123"/>
-    <mergeCell ref="AU124:AV124"/>
-    <mergeCell ref="AU36:AV36"/>
-    <mergeCell ref="AU119:AV119"/>
-    <mergeCell ref="AU120:AV120"/>
-    <mergeCell ref="AU121:AV121"/>
-    <mergeCell ref="AU122:AV122"/>
-    <mergeCell ref="AU31:AV31"/>
-    <mergeCell ref="AU32:AV32"/>
-    <mergeCell ref="AU33:AV33"/>
-    <mergeCell ref="AU34:AV34"/>
-    <mergeCell ref="AU35:AV35"/>
-    <mergeCell ref="AU76:AV76"/>
-    <mergeCell ref="AU77:AV77"/>
-    <mergeCell ref="AU78:AV78"/>
-    <mergeCell ref="AU79:AV79"/>
-    <mergeCell ref="AU80:AV80"/>
-    <mergeCell ref="AU111:AV111"/>
-    <mergeCell ref="AU90:AW90"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:V16">
     <cfRule type="expression" dxfId="124" priority="136">
@@ -27020,100 +27128,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="AU2" s="77" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="AU2" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77" t="s">
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="77" t="s">
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="77"/>
-      <c r="BE2" s="77"/>
-      <c r="BF2" s="77"/>
-      <c r="BG2" s="77" t="s">
+      <c r="BB2" s="76"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" s="77"/>
-      <c r="BI2" s="77"/>
-      <c r="BJ2" s="77" t="s">
+      <c r="BH2" s="76"/>
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="77"/>
-      <c r="BL2" s="77"/>
+      <c r="BK2" s="76"/>
+      <c r="BL2" s="76"/>
     </row>
     <row r="3" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73" t="s">
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73" t="s">
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73" t="s">
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73" t="s">
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
       <c r="AA3" s="4" t="s">
         <v>38</v>
       </c>
@@ -27364,15 +27472,15 @@
       </c>
       <c r="AW4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,3,FALSE)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AX4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,5,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,6,FALSE)</f>
@@ -27380,7 +27488,7 @@
       </c>
       <c r="BA4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,7,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,8,FALSE)</f>
@@ -27404,7 +27512,7 @@
       </c>
       <c r="BG4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,13,FALSE)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BH4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,14,FALSE)</f>
@@ -27412,19 +27520,19 @@
       </c>
       <c r="BI4" s="29">
         <f>VLOOKUP($AU4,Dummy!$A:$R,15,FALSE)</f>
-        <v>2888.8888888888887</v>
+        <v>3222.2222222222222</v>
       </c>
       <c r="BJ4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,16,FALSE)</f>
-        <v>823</v>
+        <v>901</v>
       </c>
       <c r="BK4" s="28">
         <f>VLOOKUP($AU4,Dummy!$A:$R,17,FALSE)</f>
-        <v>746</v>
+        <v>816</v>
       </c>
       <c r="BL4" s="29">
         <f>VLOOKUP($AU4,Dummy!$A:$R,18,FALSE)</f>
-        <v>1103.2171581769437</v>
+        <v>1104.1666666666667</v>
       </c>
     </row>
     <row r="5" spans="2:64" x14ac:dyDescent="0.25">
@@ -27762,7 +27870,7 @@
       </c>
       <c r="AV6" s="30" t="str">
         <f>VLOOKUP($AU6,Dummy!$A:$R,2,FALSE)</f>
-        <v>Japão</v>
+        <v>França</v>
       </c>
       <c r="AW6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,3,FALSE)</f>
@@ -27782,11 +27890,11 @@
       </c>
       <c r="BA6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,7,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,9,FALSE)</f>
@@ -27798,35 +27906,35 @@
       </c>
       <c r="BE6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,13,FALSE)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BH6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,14,FALSE)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI6" s="29">
         <f>VLOOKUP($AU6,Dummy!$A:$R,15,FALSE)</f>
-        <v>1714.2857142857142</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="BJ6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,16,FALSE)</f>
-        <v>891</v>
+        <v>935</v>
       </c>
       <c r="BK6" s="28">
         <f>VLOOKUP($AU6,Dummy!$A:$R,17,FALSE)</f>
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="BL6" s="29">
         <f>VLOOKUP($AU6,Dummy!$A:$R,18,FALSE)</f>
-        <v>1061.9785458879619</v>
+        <v>1073.4787600459242</v>
       </c>
     </row>
     <row r="7" spans="2:64" x14ac:dyDescent="0.25">
@@ -28036,35 +28144,35 @@
       </c>
       <c r="AV8" s="30" t="str">
         <f>VLOOKUP($AU8,Dummy!$A:$R,2,FALSE)</f>
-        <v>França</v>
+        <v>Japão</v>
       </c>
       <c r="AW8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,3,FALSE)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,5,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,6,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,7,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,8,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,10,FALSE)</f>
@@ -28072,35 +28180,35 @@
       </c>
       <c r="BE8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,13,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BH8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,14,FALSE)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BI8" s="29">
         <f>VLOOKUP($AU8,Dummy!$A:$R,15,FALSE)</f>
-        <v>1692.3076923076924</v>
+        <v>1411.7647058823529</v>
       </c>
       <c r="BJ8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,16,FALSE)</f>
-        <v>827</v>
+        <v>961</v>
       </c>
       <c r="BK8" s="28">
         <f>VLOOKUP($AU8,Dummy!$A:$R,17,FALSE)</f>
-        <v>776</v>
+        <v>917</v>
       </c>
       <c r="BL8" s="29">
         <f>VLOOKUP($AU8,Dummy!$A:$R,18,FALSE)</f>
-        <v>1065.7216494845361</v>
+        <v>1047.9825517993456</v>
       </c>
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.25">
@@ -28109,15 +28217,15 @@
       </c>
       <c r="AV9" s="30" t="str">
         <f>VLOOKUP($AU9,Dummy!$A:$R,2,FALSE)</f>
-        <v>Ucrânia</v>
+        <v>Cuba</v>
       </c>
       <c r="AW9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,3,FALSE)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,5,FALSE)</f>
@@ -28125,19 +28233,19 @@
       </c>
       <c r="AZ9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,9,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,10,FALSE)</f>
@@ -28145,70 +28253,70 @@
       </c>
       <c r="BE9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,11,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,13,FALSE)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BH9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,14,FALSE)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BI9" s="29">
         <f>VLOOKUP($AU9,Dummy!$A:$R,15,FALSE)</f>
-        <v>1263.1578947368421</v>
+        <v>1130.4347826086955</v>
       </c>
       <c r="BJ9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,16,FALSE)</f>
-        <v>931</v>
+        <v>1084</v>
       </c>
       <c r="BK9" s="28">
         <f>VLOOKUP($AU9,Dummy!$A:$R,17,FALSE)</f>
-        <v>912</v>
+        <v>1070</v>
       </c>
       <c r="BL9" s="29">
         <f>VLOOKUP($AU9,Dummy!$A:$R,18,FALSE)</f>
-        <v>1020.8333333333333</v>
+        <v>1013.0841121495326</v>
       </c>
     </row>
     <row r="10" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
       <c r="AU10" s="31">
         <v>7</v>
       </c>
       <c r="AV10" s="30" t="str">
         <f>VLOOKUP($AU10,Dummy!$A:$R,2,FALSE)</f>
-        <v>Cuba</v>
+        <v>Ucrânia</v>
       </c>
       <c r="AW10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,3,FALSE)</f>
@@ -28216,7 +28324,7 @@
       </c>
       <c r="AX10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,5,FALSE)</f>
@@ -28224,31 +28332,31 @@
       </c>
       <c r="AZ10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,8,FALSE)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,10,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,13,FALSE)</f>
@@ -28256,11 +28364,11 @@
       </c>
       <c r="BH10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,14,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BI10" s="29">
         <f>VLOOKUP($AU10,Dummy!$A:$R,15,FALSE)</f>
-        <v>1200</v>
+        <v>1090.9090909090908</v>
       </c>
       <c r="BJ10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,16,FALSE)</f>
@@ -28268,52 +28376,52 @@
       </c>
       <c r="BK10" s="28">
         <f>VLOOKUP($AU10,Dummy!$A:$R,17,FALSE)</f>
-        <v>962</v>
+        <v>987</v>
       </c>
       <c r="BL10" s="29">
         <f>VLOOKUP($AU10,Dummy!$A:$R,18,FALSE)</f>
-        <v>1028.066528066528</v>
+        <v>1002.0263424518743</v>
       </c>
     </row>
     <row r="11" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" s="24"/>
-      <c r="D11" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="D11" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73" t="s">
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73" t="s">
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73" t="s">
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73" t="s">
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73" t="s">
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
       <c r="AA11" s="4" t="s">
         <v>38</v>
       </c>
@@ -28577,7 +28685,7 @@
       </c>
       <c r="AV12" s="30" t="str">
         <f>VLOOKUP($AU12,Dummy!$A:$R,2,FALSE)</f>
-        <v>Irã</v>
+        <v>Estados Unidos</v>
       </c>
       <c r="AW12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,3,FALSE)</f>
@@ -28589,15 +28697,15 @@
       </c>
       <c r="AY12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,5,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,8,FALSE)</f>
@@ -28609,7 +28717,7 @@
       </c>
       <c r="BD12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,10,FALSE)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,11,FALSE)</f>
@@ -28617,31 +28725,31 @@
       </c>
       <c r="BF12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,12,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,13,FALSE)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BH12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,14,FALSE)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BI12" s="29">
         <f>VLOOKUP($AU12,Dummy!$A:$R,15,FALSE)</f>
-        <v>1047.6190476190477</v>
+        <v>1055.5555555555557</v>
       </c>
       <c r="BJ12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,16,FALSE)</f>
-        <v>949</v>
+        <v>844</v>
       </c>
       <c r="BK12" s="28">
         <f>VLOOKUP($AU12,Dummy!$A:$R,17,FALSE)</f>
-        <v>944</v>
+        <v>854</v>
       </c>
       <c r="BL12" s="29">
         <f>VLOOKUP($AU12,Dummy!$A:$R,18,FALSE)</f>
-        <v>1005.2966101694916</v>
+        <v>988.29039812646374</v>
       </c>
     </row>
     <row r="13" spans="2:64" x14ac:dyDescent="0.25">
@@ -28778,11 +28886,11 @@
       </c>
       <c r="AV13" s="30" t="str">
         <f>VLOOKUP($AU13,Dummy!$A:$R,2,FALSE)</f>
-        <v>Argentina</v>
+        <v>Irã</v>
       </c>
       <c r="AW13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,3,FALSE)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,4,FALSE)</f>
@@ -28810,11 +28918,11 @@
       </c>
       <c r="BD13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,11,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,12,FALSE)</f>
@@ -28822,7 +28930,7 @@
       </c>
       <c r="BG13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,13,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BH13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,14,FALSE)</f>
@@ -28830,19 +28938,19 @@
       </c>
       <c r="BI13" s="29">
         <f>VLOOKUP($AU13,Dummy!$A:$R,15,FALSE)</f>
-        <v>952.38095238095229</v>
+        <v>1047.6190476190477</v>
       </c>
       <c r="BJ13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,16,FALSE)</f>
-        <v>921</v>
+        <v>949</v>
       </c>
       <c r="BK13" s="28">
         <f>VLOOKUP($AU13,Dummy!$A:$R,17,FALSE)</f>
-        <v>918</v>
+        <v>944</v>
       </c>
       <c r="BL13" s="29">
         <f>VLOOKUP($AU13,Dummy!$A:$R,18,FALSE)</f>
-        <v>1003.2679738562091</v>
+        <v>1005.2966101694916</v>
       </c>
     </row>
     <row r="14" spans="2:64" x14ac:dyDescent="0.25">
@@ -28851,15 +28959,15 @@
       </c>
       <c r="AV14" s="30" t="str">
         <f>VLOOKUP($AU14,Dummy!$A:$R,2,FALSE)</f>
-        <v>Estados Unidos</v>
+        <v>Bulgária</v>
       </c>
       <c r="AW14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,3,FALSE)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,5,FALSE)</f>
@@ -28867,11 +28975,11 @@
       </c>
       <c r="AZ14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,6,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,8,FALSE)</f>
@@ -28879,43 +28987,43 @@
       </c>
       <c r="BC14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,9,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,12,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BH14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,14,FALSE)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI14" s="29">
         <f>VLOOKUP($AU14,Dummy!$A:$R,15,FALSE)</f>
-        <v>941.17647058823525</v>
+        <v>1055.5555555555557</v>
       </c>
       <c r="BJ14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,16,FALSE)</f>
-        <v>749</v>
+        <v>834</v>
       </c>
       <c r="BK14" s="28">
         <f>VLOOKUP($AU14,Dummy!$A:$R,17,FALSE)</f>
-        <v>763</v>
+        <v>848</v>
       </c>
       <c r="BL14" s="29">
         <f>VLOOKUP($AU14,Dummy!$A:$R,18,FALSE)</f>
-        <v>981.65137614678895</v>
+        <v>983.4905660377359</v>
       </c>
     </row>
     <row r="15" spans="2:64" x14ac:dyDescent="0.25">
@@ -28924,19 +29032,19 @@
       </c>
       <c r="AV15" s="30" t="str">
         <f>VLOOKUP($AU15,Dummy!$A:$R,2,FALSE)</f>
-        <v>Alemanha</v>
+        <v>Argentina</v>
       </c>
       <c r="AW15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,3,FALSE)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,5,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,6,FALSE)</f>
@@ -28944,27 +29052,27 @@
       </c>
       <c r="BA15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,8,FALSE)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,9,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,10,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,11,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,13,FALSE)</f>
@@ -28972,23 +29080,23 @@
       </c>
       <c r="BH15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,14,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BI15" s="29">
         <f>VLOOKUP($AU15,Dummy!$A:$R,15,FALSE)</f>
-        <v>954.54545454545462</v>
+        <v>875</v>
       </c>
       <c r="BJ15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,16,FALSE)</f>
-        <v>988</v>
+        <v>1012</v>
       </c>
       <c r="BK15" s="28">
         <f>VLOOKUP($AU15,Dummy!$A:$R,17,FALSE)</f>
-        <v>984</v>
+        <v>1013</v>
       </c>
       <c r="BL15" s="29">
         <f>VLOOKUP($AU15,Dummy!$A:$R,18,FALSE)</f>
-        <v>1004.0650406504066</v>
+        <v>999.01283316880551</v>
       </c>
     </row>
     <row r="16" spans="2:64" x14ac:dyDescent="0.25">
@@ -28997,15 +29105,15 @@
       </c>
       <c r="AV16" s="30" t="str">
         <f>VLOOKUP($AU16,Dummy!$A:$R,2,FALSE)</f>
-        <v>Bulgária</v>
+        <v>Alemanha</v>
       </c>
       <c r="AW16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,3,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AX16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,5,FALSE)</f>
@@ -29013,84 +29121,84 @@
       </c>
       <c r="AZ16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,6,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,8,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,9,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,10,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,11,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,12,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BH16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,14,FALSE)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BI16" s="29">
         <f>VLOOKUP($AU16,Dummy!$A:$R,15,FALSE)</f>
-        <v>888.8888888888888</v>
+        <v>954.54545454545462</v>
       </c>
       <c r="BJ16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,16,FALSE)</f>
-        <v>758</v>
+        <v>988</v>
       </c>
       <c r="BK16" s="28">
         <f>VLOOKUP($AU16,Dummy!$A:$R,17,FALSE)</f>
-        <v>785</v>
+        <v>984</v>
       </c>
       <c r="BL16" s="29">
         <f>VLOOKUP($AU16,Dummy!$A:$R,18,FALSE)</f>
-        <v>965.60509554140128</v>
+        <v>1004.0650406504066</v>
       </c>
     </row>
     <row r="17" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
       <c r="AA17" s="4" t="s">
         <v>38</v>
       </c>
@@ -29157,15 +29265,15 @@
       </c>
       <c r="AW17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,3,FALSE)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AX17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,5,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,6,FALSE)</f>
@@ -29173,7 +29281,7 @@
       </c>
       <c r="BA17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,7,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,8,FALSE)</f>
@@ -29197,7 +29305,7 @@
       </c>
       <c r="BG17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,13,FALSE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BH17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,14,FALSE)</f>
@@ -29205,60 +29313,60 @@
       </c>
       <c r="BI17" s="29">
         <f>VLOOKUP($AU17,Dummy!$A:$R,15,FALSE)</f>
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="BJ17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,16,FALSE)</f>
-        <v>796</v>
+        <v>871</v>
       </c>
       <c r="BK17" s="28">
         <f>VLOOKUP($AU17,Dummy!$A:$R,17,FALSE)</f>
-        <v>812</v>
+        <v>869</v>
       </c>
       <c r="BL17" s="29">
         <f>VLOOKUP($AU17,Dummy!$A:$R,18,FALSE)</f>
-        <v>980.29556650246309</v>
+        <v>1002.301495972382</v>
       </c>
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
+      <c r="D18" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="73" t="s">
+      <c r="H18" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73" t="s">
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73" t="s">
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73" t="s">
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73" t="s">
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73" t="s">
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
       <c r="AA18" s="4">
         <f>AD18+AE18</f>
         <v>0</v>
@@ -29473,7 +29581,7 @@
       </c>
       <c r="AX19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,5,FALSE)</f>
@@ -29481,7 +29589,7 @@
       </c>
       <c r="AZ19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,6,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,7,FALSE)</f>
@@ -29505,7 +29613,7 @@
       </c>
       <c r="BF19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,12,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,13,FALSE)</f>
@@ -29513,23 +29621,23 @@
       </c>
       <c r="BH19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,14,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BI19" s="29">
         <f>VLOOKUP($AU19,Dummy!$A:$R,15,FALSE)</f>
-        <v>360</v>
+        <v>321.42857142857144</v>
       </c>
       <c r="BJ19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,16,FALSE)</f>
-        <v>714</v>
+        <v>777</v>
       </c>
       <c r="BK19" s="28">
         <f>VLOOKUP($AU19,Dummy!$A:$R,17,FALSE)</f>
-        <v>802</v>
+        <v>878</v>
       </c>
       <c r="BL19" s="29">
         <f>VLOOKUP($AU19,Dummy!$A:$R,18,FALSE)</f>
-        <v>890.27431421446374</v>
+        <v>884.96583143507962</v>
       </c>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
@@ -29538,11 +29646,11 @@
       </c>
       <c r="AV20" s="30" t="str">
         <f>VLOOKUP($AU20,Dummy!$A:$R,2,FALSE)</f>
-        <v>Holanda</v>
+        <v>Sérvia</v>
       </c>
       <c r="AW20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,3,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,4,FALSE)</f>
@@ -29550,15 +29658,15 @@
       </c>
       <c r="AY20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,5,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,6,FALSE)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,8,FALSE)</f>
@@ -29570,7 +29678,7 @@
       </c>
       <c r="BD20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,10,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,11,FALSE)</f>
@@ -29578,31 +29686,31 @@
       </c>
       <c r="BF20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,12,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,13,FALSE)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BH20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,14,FALSE)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BI20" s="29">
         <f>VLOOKUP($AU20,Dummy!$A:$R,15,FALSE)</f>
-        <v>392.85714285714283</v>
+        <v>400</v>
       </c>
       <c r="BJ20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,16,FALSE)</f>
-        <v>834</v>
+        <v>732</v>
       </c>
       <c r="BK20" s="28">
         <f>VLOOKUP($AU20,Dummy!$A:$R,17,FALSE)</f>
-        <v>918</v>
+        <v>838</v>
       </c>
       <c r="BL20" s="29">
         <f>VLOOKUP($AU20,Dummy!$A:$R,18,FALSE)</f>
-        <v>908.49673202614383</v>
+        <v>873.50835322195712</v>
       </c>
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
@@ -29611,15 +29719,15 @@
       </c>
       <c r="AV21" s="30" t="str">
         <f>VLOOKUP($AU21,Dummy!$A:$R,2,FALSE)</f>
-        <v>Sérvia</v>
+        <v>Holanda</v>
       </c>
       <c r="AW21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,3,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,4,FALSE)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,5,FALSE)</f>
@@ -29627,7 +29735,7 @@
       </c>
       <c r="AZ21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,6,FALSE)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,7,FALSE)</f>
@@ -29643,7 +29751,7 @@
       </c>
       <c r="BD21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,10,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,11,FALSE)</f>
@@ -29655,62 +29763,62 @@
       </c>
       <c r="BG21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,13,FALSE)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BH21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,14,FALSE)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="BI21" s="29">
         <f>VLOOKUP($AU21,Dummy!$A:$R,15,FALSE)</f>
-        <v>280</v>
+        <v>354.83870967741939</v>
       </c>
       <c r="BJ21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,16,FALSE)</f>
-        <v>657</v>
+        <v>891</v>
       </c>
       <c r="BK21" s="28">
         <f>VLOOKUP($AU21,Dummy!$A:$R,17,FALSE)</f>
-        <v>780</v>
+        <v>993</v>
       </c>
       <c r="BL21" s="29">
         <f>VLOOKUP($AU21,Dummy!$A:$R,18,FALSE)</f>
-        <v>842.30769230769226</v>
+        <v>897.28096676737152</v>
       </c>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
       <c r="AX22" s="53">
         <f>SUM(AX4:AX21)</f>
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="75"/>
-      <c r="X23" s="75"/>
-      <c r="Y23" s="75"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
       <c r="AA23" s="4" t="s">
         <v>38</v>
       </c>
@@ -29776,42 +29884,42 @@
     <row r="24" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
+      <c r="D24" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="73" t="s">
+      <c r="H24" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73" t="s">
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73" t="s">
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73" t="s">
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73" t="s">
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73" t="s">
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
       <c r="AA24" s="4">
         <f>AD24+AE24</f>
         <v>0</v>
@@ -29984,10 +30092,10 @@
       <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="2:64" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="76"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="44"/>
       <c r="E28" s="39"/>
       <c r="F28" s="46"/>
@@ -30010,10 +30118,10 @@
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
       <c r="Y28" s="39"/>
-      <c r="AU28" s="63" t="s">
+      <c r="AU28" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="AV28" s="64"/>
+      <c r="AV28" s="69"/>
     </row>
     <row r="29" spans="2:64" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="50" t="s">
@@ -30026,10 +30134,10 @@
       <c r="D29" s="45"/>
       <c r="F29" s="47"/>
       <c r="G29" s="42"/>
-      <c r="AU29" s="65" t="s">
+      <c r="AU29" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="AV29" s="66"/>
+      <c r="AV29" s="75"/>
     </row>
     <row r="30" spans="2:64" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="51" t="s">
@@ -30042,10 +30150,10 @@
       <c r="D30" s="45"/>
       <c r="F30" s="47"/>
       <c r="G30" s="42"/>
-      <c r="AU30" s="59" t="s">
+      <c r="AU30" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="AV30" s="60"/>
+      <c r="AV30" s="71"/>
     </row>
     <row r="31" spans="2:64" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B31" s="52" t="s">
@@ -30077,22 +30185,22 @@
       <c r="W31" s="41"/>
       <c r="X31" s="41"/>
       <c r="Y31" s="41"/>
-      <c r="AU31" s="59" t="s">
+      <c r="AU31" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="AV31" s="60"/>
+      <c r="AV31" s="71"/>
     </row>
     <row r="32" spans="2:64" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AU32" s="59" t="s">
+      <c r="AU32" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="AV32" s="60"/>
+      <c r="AV32" s="71"/>
     </row>
     <row r="33" spans="2:48" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AU33" s="61" t="s">
+      <c r="AU33" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="AV33" s="62"/>
+      <c r="AV33" s="73"/>
     </row>
     <row r="39" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
@@ -30102,6 +30210,39 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="AU29:AV29"/>
+    <mergeCell ref="AU30:AV30"/>
+    <mergeCell ref="AU31:AV31"/>
+    <mergeCell ref="AU32:AV32"/>
+    <mergeCell ref="AU33:AV33"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="AU23:AV23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="B23:Y23"/>
+    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BL2"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="B10:Y10"/>
@@ -30114,39 +30255,6 @@
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T11:V11"/>
     <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="AU23:AV23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="B23:Y23"/>
-    <mergeCell ref="AU28:AV28"/>
-    <mergeCell ref="AU29:AV29"/>
-    <mergeCell ref="AU30:AV30"/>
-    <mergeCell ref="AU31:AV31"/>
-    <mergeCell ref="AU32:AV32"/>
-    <mergeCell ref="AU33:AV33"/>
   </mergeCells>
   <conditionalFormatting sqref="T4:V7 T12:V13">
     <cfRule type="expression" dxfId="18" priority="71">
@@ -30274,23 +30382,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF2846C41E31A469E3CED25F2422E48" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0c08e4af4d80db6585ac36ba965bb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c8c20e6-817c-474f-b9c2-eb2b1ac24837" xmlns:ns4="dc8c2798-6aba-4af7-93a4-b89253b03650" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e7db2db65f9cb533b4933096bc9b657" ns3:_="" ns4:_="">
     <xsd:import namespace="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
@@ -30523,32 +30614,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A4F3B6-8EF3-43FC-AA6E-56F4B11E76F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30565,4 +30648,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VNL Masculino 2025.xlsx
+++ b/VNL Masculino 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1A96F3-118A-42DF-ADBF-EAC249FC1E55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E407639-59F5-4F8D-8D1A-9B1F431F2B60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="2" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
@@ -921,39 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -970,10 +937,43 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5378,16 +5378,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:W25"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:W1"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:W25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5456,88 +5456,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="AU2" s="79" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="AU2" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="81"/>
-      <c r="AX2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="81"/>
-      <c r="BA2" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="80"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="81"/>
-      <c r="BG2" s="79" t="s">
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="85"/>
+      <c r="BG2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="80"/>
-      <c r="BI2" s="81"/>
-      <c r="BJ2" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="81"/>
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="85"/>
+      <c r="BJ2" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="85"/>
     </row>
     <row r="3" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
       <c r="AU3" s="32" t="s">
         <v>7</v>
       </c>
@@ -5598,42 +5598,42 @@
         <v>52</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74" t="s">
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74" t="s">
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74" t="s">
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
       <c r="AA4" s="4" t="s">
         <v>59</v>
       </c>
@@ -8404,32 +8404,32 @@
       </c>
     </row>
     <row r="17" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
       <c r="AU17" s="31">
         <v>14</v>
       </c>
@@ -8507,42 +8507,42 @@
         <v>52</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74" t="s">
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74" t="s">
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74" t="s">
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74" t="s">
+      <c r="R18" s="88"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74" t="s">
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
       <c r="AA18" s="4" t="s">
         <v>59</v>
       </c>
@@ -10694,78 +10694,78 @@
       </c>
     </row>
     <row r="31" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="75"/>
-      <c r="T31" s="75"/>
-      <c r="U31" s="75"/>
-      <c r="V31" s="75"/>
-      <c r="W31" s="75"/>
-      <c r="X31" s="75"/>
-      <c r="Y31" s="75"/>
-      <c r="AU31" s="83" t="s">
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="86"/>
+      <c r="AU31" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="AV31" s="84"/>
+      <c r="AV31" s="79"/>
     </row>
     <row r="32" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="74" t="s">
+      <c r="H32" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74" t="s">
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74" t="s">
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74" t="s">
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
-      <c r="T32" s="74" t="s">
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="U32" s="74"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="74" t="s">
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X32" s="74"/>
-      <c r="Y32" s="74"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
       <c r="AA32" s="4" t="s">
         <v>59</v>
       </c>
@@ -10823,10 +10823,10 @@
       <c r="AT32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AU32" s="89" t="s">
+      <c r="AU32" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="AV32" s="90"/>
+      <c r="AV32" s="81"/>
     </row>
     <row r="33" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B33" s="17">
@@ -10975,10 +10975,10 @@
         <f t="shared" ref="AT33:AT44" si="59">IF(D33&lt;F33,SUM(J33,M33,P33,S33,V33),SUM(H33,K33,N33,Q33,T33))</f>
         <v>97</v>
       </c>
-      <c r="AU33" s="85" t="s">
+      <c r="AU33" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AV33" s="86"/>
+      <c r="AV33" s="75"/>
     </row>
     <row r="34" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B34" s="17">
@@ -11123,10 +11123,10 @@
         <f t="shared" si="59"/>
         <v>75</v>
       </c>
-      <c r="AU34" s="85" t="s">
+      <c r="AU34" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="AV34" s="86"/>
+      <c r="AV34" s="75"/>
     </row>
     <row r="35" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B35" s="17">
@@ -11275,10 +11275,10 @@
         <f t="shared" si="59"/>
         <v>87</v>
       </c>
-      <c r="AU35" s="85" t="s">
+      <c r="AU35" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="AV35" s="86"/>
+      <c r="AV35" s="75"/>
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B36" s="17">
@@ -11423,10 +11423,10 @@
         <f t="shared" si="59"/>
         <v>75</v>
       </c>
-      <c r="AU36" s="87" t="s">
+      <c r="AU36" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="AV36" s="88"/>
+      <c r="AV36" s="77"/>
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B37" s="17">
@@ -12593,88 +12593,88 @@
       </c>
     </row>
     <row r="46" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="76"/>
-      <c r="T46" s="76"/>
-      <c r="U46" s="76"/>
-      <c r="V46" s="76"/>
-      <c r="W46" s="76"/>
-      <c r="X46" s="76"/>
-      <c r="Y46" s="76"/>
-      <c r="AU46" s="79" t="s">
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="90"/>
+      <c r="U46" s="90"/>
+      <c r="V46" s="90"/>
+      <c r="W46" s="90"/>
+      <c r="X46" s="90"/>
+      <c r="Y46" s="90"/>
+      <c r="AU46" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="AV46" s="80"/>
-      <c r="AW46" s="81"/>
-      <c r="AX46" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY46" s="80"/>
-      <c r="AZ46" s="81"/>
-      <c r="BA46" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB46" s="80"/>
-      <c r="BC46" s="80"/>
-      <c r="BD46" s="80"/>
-      <c r="BE46" s="80"/>
-      <c r="BF46" s="81"/>
-      <c r="BG46" s="79" t="s">
+      <c r="AV46" s="84"/>
+      <c r="AW46" s="85"/>
+      <c r="AX46" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="84"/>
+      <c r="AZ46" s="85"/>
+      <c r="BA46" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB46" s="84"/>
+      <c r="BC46" s="84"/>
+      <c r="BD46" s="84"/>
+      <c r="BE46" s="84"/>
+      <c r="BF46" s="85"/>
+      <c r="BG46" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="BH46" s="80"/>
-      <c r="BI46" s="81"/>
-      <c r="BJ46" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK46" s="80"/>
-      <c r="BL46" s="81"/>
+      <c r="BH46" s="84"/>
+      <c r="BI46" s="85"/>
+      <c r="BJ46" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK46" s="84"/>
+      <c r="BL46" s="85"/>
     </row>
     <row r="47" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="75"/>
-      <c r="S47" s="75"/>
-      <c r="T47" s="75"/>
-      <c r="U47" s="75"/>
-      <c r="V47" s="75"/>
-      <c r="W47" s="75"/>
-      <c r="X47" s="75"/>
-      <c r="Y47" s="75"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="86"/>
+      <c r="O47" s="86"/>
+      <c r="P47" s="86"/>
+      <c r="Q47" s="86"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="86"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="86"/>
+      <c r="W47" s="86"/>
+      <c r="X47" s="86"/>
+      <c r="Y47" s="86"/>
       <c r="AU47" s="32" t="s">
         <v>7</v>
       </c>
@@ -12735,42 +12735,42 @@
         <v>52</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="78" t="s">
+      <c r="D48" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="74" t="s">
+      <c r="H48" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74" t="s">
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74" t="s">
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="74" t="s">
+      <c r="O48" s="88"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R48" s="74"/>
-      <c r="S48" s="74"/>
-      <c r="T48" s="74" t="s">
+      <c r="R48" s="88"/>
+      <c r="S48" s="88"/>
+      <c r="T48" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="74"/>
-      <c r="V48" s="74"/>
-      <c r="W48" s="74" t="s">
+      <c r="U48" s="88"/>
+      <c r="V48" s="88"/>
+      <c r="W48" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X48" s="74"/>
-      <c r="Y48" s="74"/>
+      <c r="X48" s="88"/>
+      <c r="Y48" s="88"/>
       <c r="AA48" s="4" t="s">
         <v>59</v>
       </c>
@@ -15505,32 +15505,32 @@
       </c>
     </row>
     <row r="61" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="75" t="s">
+      <c r="B61" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
-      <c r="P61" s="75"/>
-      <c r="Q61" s="75"/>
-      <c r="R61" s="75"/>
-      <c r="S61" s="75"/>
-      <c r="T61" s="75"/>
-      <c r="U61" s="75"/>
-      <c r="V61" s="75"/>
-      <c r="W61" s="75"/>
-      <c r="X61" s="75"/>
-      <c r="Y61" s="75"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="86"/>
+      <c r="M61" s="86"/>
+      <c r="N61" s="86"/>
+      <c r="O61" s="86"/>
+      <c r="P61" s="86"/>
+      <c r="Q61" s="86"/>
+      <c r="R61" s="86"/>
+      <c r="S61" s="86"/>
+      <c r="T61" s="86"/>
+      <c r="U61" s="86"/>
+      <c r="V61" s="86"/>
+      <c r="W61" s="86"/>
+      <c r="X61" s="86"/>
+      <c r="Y61" s="86"/>
       <c r="AU61" s="31">
         <v>14</v>
       </c>
@@ -15608,42 +15608,42 @@
         <v>52</v>
       </c>
       <c r="C62" s="24"/>
-      <c r="D62" s="74" t="s">
+      <c r="D62" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
       <c r="G62" s="20"/>
-      <c r="H62" s="74" t="s">
+      <c r="H62" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I62" s="74"/>
-      <c r="J62" s="74"/>
-      <c r="K62" s="74" t="s">
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L62" s="74"/>
-      <c r="M62" s="74"/>
-      <c r="N62" s="74" t="s">
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O62" s="74"/>
-      <c r="P62" s="74"/>
-      <c r="Q62" s="74" t="s">
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R62" s="74"/>
-      <c r="S62" s="74"/>
-      <c r="T62" s="74" t="s">
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="U62" s="74"/>
-      <c r="V62" s="74"/>
-      <c r="W62" s="74" t="s">
+      <c r="U62" s="88"/>
+      <c r="V62" s="88"/>
+      <c r="W62" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X62" s="74"/>
-      <c r="Y62" s="74"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
       <c r="AA62" s="4" t="s">
         <v>59</v>
       </c>
@@ -17771,78 +17771,78 @@
       </c>
     </row>
     <row r="75" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B75" s="75" t="s">
+      <c r="B75" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="75"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="75"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="75"/>
-      <c r="M75" s="75"/>
-      <c r="N75" s="75"/>
-      <c r="O75" s="75"/>
-      <c r="P75" s="75"/>
-      <c r="Q75" s="75"/>
-      <c r="R75" s="75"/>
-      <c r="S75" s="75"/>
-      <c r="T75" s="75"/>
-      <c r="U75" s="75"/>
-      <c r="V75" s="75"/>
-      <c r="W75" s="75"/>
-      <c r="X75" s="75"/>
-      <c r="Y75" s="75"/>
-      <c r="AU75" s="83" t="s">
+      <c r="C75" s="86"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="86"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="86"/>
+      <c r="K75" s="86"/>
+      <c r="L75" s="86"/>
+      <c r="M75" s="86"/>
+      <c r="N75" s="86"/>
+      <c r="O75" s="86"/>
+      <c r="P75" s="86"/>
+      <c r="Q75" s="86"/>
+      <c r="R75" s="86"/>
+      <c r="S75" s="86"/>
+      <c r="T75" s="86"/>
+      <c r="U75" s="86"/>
+      <c r="V75" s="86"/>
+      <c r="W75" s="86"/>
+      <c r="X75" s="86"/>
+      <c r="Y75" s="86"/>
+      <c r="AU75" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="AV75" s="84"/>
+      <c r="AV75" s="79"/>
     </row>
     <row r="76" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C76" s="24"/>
-      <c r="D76" s="78" t="s">
+      <c r="D76" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="87"/>
       <c r="G76" s="20"/>
-      <c r="H76" s="74" t="s">
+      <c r="H76" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I76" s="74"/>
-      <c r="J76" s="74"/>
-      <c r="K76" s="74" t="s">
+      <c r="I76" s="88"/>
+      <c r="J76" s="88"/>
+      <c r="K76" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L76" s="74"/>
-      <c r="M76" s="74"/>
-      <c r="N76" s="74" t="s">
+      <c r="L76" s="88"/>
+      <c r="M76" s="88"/>
+      <c r="N76" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O76" s="74"/>
-      <c r="P76" s="74"/>
-      <c r="Q76" s="74" t="s">
+      <c r="O76" s="88"/>
+      <c r="P76" s="88"/>
+      <c r="Q76" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R76" s="74"/>
-      <c r="S76" s="74"/>
-      <c r="T76" s="74" t="s">
+      <c r="R76" s="88"/>
+      <c r="S76" s="88"/>
+      <c r="T76" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="U76" s="74"/>
-      <c r="V76" s="74"/>
-      <c r="W76" s="74" t="s">
+      <c r="U76" s="88"/>
+      <c r="V76" s="88"/>
+      <c r="W76" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X76" s="74"/>
-      <c r="Y76" s="74"/>
+      <c r="X76" s="88"/>
+      <c r="Y76" s="88"/>
       <c r="AA76" s="4" t="s">
         <v>59</v>
       </c>
@@ -17900,10 +17900,10 @@
       <c r="AT76" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AU76" s="89" t="s">
+      <c r="AU76" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="AV76" s="90"/>
+      <c r="AV76" s="81"/>
     </row>
     <row r="77" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B77" s="17">
@@ -18052,10 +18052,10 @@
         <f t="shared" ref="AT77:AT88" si="122">IF(D77&lt;F77,SUM(J77,M77,P77,S77,V77),SUM(H77,K77,N77,Q77,T77))</f>
         <v>94</v>
       </c>
-      <c r="AU77" s="85" t="s">
+      <c r="AU77" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AV77" s="86"/>
+      <c r="AV77" s="75"/>
     </row>
     <row r="78" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B78" s="17">
@@ -18200,10 +18200,10 @@
         <f t="shared" si="122"/>
         <v>75</v>
       </c>
-      <c r="AU78" s="85" t="s">
+      <c r="AU78" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="AV78" s="86"/>
+      <c r="AV78" s="75"/>
     </row>
     <row r="79" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B79" s="17">
@@ -18352,10 +18352,10 @@
         <f t="shared" si="122"/>
         <v>98</v>
       </c>
-      <c r="AU79" s="85" t="s">
+      <c r="AU79" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="AV79" s="86"/>
+      <c r="AV79" s="75"/>
     </row>
     <row r="80" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B80" s="17">
@@ -18504,10 +18504,10 @@
         <f t="shared" si="122"/>
         <v>100</v>
       </c>
-      <c r="AU80" s="87" t="s">
+      <c r="AU80" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="AV80" s="88"/>
+      <c r="AV80" s="77"/>
     </row>
     <row r="81" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B81" s="17">
@@ -19702,88 +19702,88 @@
       </c>
     </row>
     <row r="90" spans="2:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="B90" s="76" t="s">
+      <c r="B90" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C90" s="76"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76"/>
-      <c r="G90" s="76"/>
-      <c r="H90" s="76"/>
-      <c r="I90" s="76"/>
-      <c r="J90" s="76"/>
-      <c r="K90" s="76"/>
-      <c r="L90" s="76"/>
-      <c r="M90" s="76"/>
-      <c r="N90" s="76"/>
-      <c r="O90" s="76"/>
-      <c r="P90" s="76"/>
-      <c r="Q90" s="76"/>
-      <c r="R90" s="76"/>
-      <c r="S90" s="76"/>
-      <c r="T90" s="76"/>
-      <c r="U90" s="76"/>
-      <c r="V90" s="76"/>
-      <c r="W90" s="76"/>
-      <c r="X90" s="76"/>
-      <c r="Y90" s="76"/>
-      <c r="AU90" s="79" t="s">
+      <c r="C90" s="90"/>
+      <c r="D90" s="90"/>
+      <c r="E90" s="90"/>
+      <c r="F90" s="90"/>
+      <c r="G90" s="90"/>
+      <c r="H90" s="90"/>
+      <c r="I90" s="90"/>
+      <c r="J90" s="90"/>
+      <c r="K90" s="90"/>
+      <c r="L90" s="90"/>
+      <c r="M90" s="90"/>
+      <c r="N90" s="90"/>
+      <c r="O90" s="90"/>
+      <c r="P90" s="90"/>
+      <c r="Q90" s="90"/>
+      <c r="R90" s="90"/>
+      <c r="S90" s="90"/>
+      <c r="T90" s="90"/>
+      <c r="U90" s="90"/>
+      <c r="V90" s="90"/>
+      <c r="W90" s="90"/>
+      <c r="X90" s="90"/>
+      <c r="Y90" s="90"/>
+      <c r="AU90" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="AV90" s="80"/>
-      <c r="AW90" s="81"/>
-      <c r="AX90" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY90" s="80"/>
-      <c r="AZ90" s="81"/>
-      <c r="BA90" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB90" s="80"/>
-      <c r="BC90" s="80"/>
-      <c r="BD90" s="80"/>
-      <c r="BE90" s="80"/>
-      <c r="BF90" s="81"/>
-      <c r="BG90" s="79" t="s">
+      <c r="AV90" s="84"/>
+      <c r="AW90" s="85"/>
+      <c r="AX90" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY90" s="84"/>
+      <c r="AZ90" s="85"/>
+      <c r="BA90" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB90" s="84"/>
+      <c r="BC90" s="84"/>
+      <c r="BD90" s="84"/>
+      <c r="BE90" s="84"/>
+      <c r="BF90" s="85"/>
+      <c r="BG90" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="BH90" s="80"/>
-      <c r="BI90" s="81"/>
-      <c r="BJ90" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK90" s="80"/>
-      <c r="BL90" s="81"/>
+      <c r="BH90" s="84"/>
+      <c r="BI90" s="85"/>
+      <c r="BJ90" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK90" s="84"/>
+      <c r="BL90" s="85"/>
     </row>
     <row r="91" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B91" s="75" t="s">
+      <c r="B91" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="C91" s="75"/>
-      <c r="D91" s="75"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="75"/>
-      <c r="G91" s="75"/>
-      <c r="H91" s="75"/>
-      <c r="I91" s="75"/>
-      <c r="J91" s="75"/>
-      <c r="K91" s="75"/>
-      <c r="L91" s="75"/>
-      <c r="M91" s="75"/>
-      <c r="N91" s="75"/>
-      <c r="O91" s="75"/>
-      <c r="P91" s="75"/>
-      <c r="Q91" s="75"/>
-      <c r="R91" s="75"/>
-      <c r="S91" s="75"/>
-      <c r="T91" s="75"/>
-      <c r="U91" s="75"/>
-      <c r="V91" s="75"/>
-      <c r="W91" s="75"/>
-      <c r="X91" s="75"/>
-      <c r="Y91" s="75"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="86"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="86"/>
+      <c r="J91" s="86"/>
+      <c r="K91" s="86"/>
+      <c r="L91" s="86"/>
+      <c r="M91" s="86"/>
+      <c r="N91" s="86"/>
+      <c r="O91" s="86"/>
+      <c r="P91" s="86"/>
+      <c r="Q91" s="86"/>
+      <c r="R91" s="86"/>
+      <c r="S91" s="86"/>
+      <c r="T91" s="86"/>
+      <c r="U91" s="86"/>
+      <c r="V91" s="86"/>
+      <c r="W91" s="86"/>
+      <c r="X91" s="86"/>
+      <c r="Y91" s="86"/>
       <c r="AU91" s="32" t="s">
         <v>7</v>
       </c>
@@ -19844,42 +19844,42 @@
         <v>52</v>
       </c>
       <c r="C92" s="24"/>
-      <c r="D92" s="78" t="s">
+      <c r="D92" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E92" s="78"/>
-      <c r="F92" s="78"/>
+      <c r="E92" s="87"/>
+      <c r="F92" s="87"/>
       <c r="G92" s="20"/>
-      <c r="H92" s="74" t="s">
+      <c r="H92" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I92" s="74"/>
-      <c r="J92" s="74"/>
-      <c r="K92" s="74" t="s">
+      <c r="I92" s="88"/>
+      <c r="J92" s="88"/>
+      <c r="K92" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L92" s="74"/>
-      <c r="M92" s="74"/>
-      <c r="N92" s="74" t="s">
+      <c r="L92" s="88"/>
+      <c r="M92" s="88"/>
+      <c r="N92" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O92" s="74"/>
-      <c r="P92" s="74"/>
-      <c r="Q92" s="74" t="s">
+      <c r="O92" s="88"/>
+      <c r="P92" s="88"/>
+      <c r="Q92" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R92" s="74"/>
-      <c r="S92" s="74"/>
-      <c r="T92" s="74" t="s">
+      <c r="R92" s="88"/>
+      <c r="S92" s="88"/>
+      <c r="T92" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="U92" s="74"/>
-      <c r="V92" s="74"/>
-      <c r="W92" s="74" t="s">
+      <c r="U92" s="88"/>
+      <c r="V92" s="88"/>
+      <c r="W92" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X92" s="74"/>
-      <c r="Y92" s="74"/>
+      <c r="X92" s="88"/>
+      <c r="Y92" s="88"/>
       <c r="AA92" s="4" t="s">
         <v>59</v>
       </c>
@@ -22646,32 +22646,32 @@
       </c>
     </row>
     <row r="105" spans="2:64" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B105" s="75" t="s">
+      <c r="B105" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="C105" s="75"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="75"/>
-      <c r="G105" s="75"/>
-      <c r="H105" s="75"/>
-      <c r="I105" s="75"/>
-      <c r="J105" s="75"/>
-      <c r="K105" s="75"/>
-      <c r="L105" s="75"/>
-      <c r="M105" s="75"/>
-      <c r="N105" s="75"/>
-      <c r="O105" s="75"/>
-      <c r="P105" s="75"/>
-      <c r="Q105" s="75"/>
-      <c r="R105" s="75"/>
-      <c r="S105" s="75"/>
-      <c r="T105" s="75"/>
-      <c r="U105" s="75"/>
-      <c r="V105" s="75"/>
-      <c r="W105" s="75"/>
-      <c r="X105" s="75"/>
-      <c r="Y105" s="75"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="89"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="86"/>
+      <c r="H105" s="86"/>
+      <c r="I105" s="86"/>
+      <c r="J105" s="86"/>
+      <c r="K105" s="86"/>
+      <c r="L105" s="86"/>
+      <c r="M105" s="86"/>
+      <c r="N105" s="86"/>
+      <c r="O105" s="86"/>
+      <c r="P105" s="86"/>
+      <c r="Q105" s="86"/>
+      <c r="R105" s="86"/>
+      <c r="S105" s="86"/>
+      <c r="T105" s="86"/>
+      <c r="U105" s="86"/>
+      <c r="V105" s="86"/>
+      <c r="W105" s="86"/>
+      <c r="X105" s="86"/>
+      <c r="Y105" s="86"/>
       <c r="AU105" s="31">
         <v>14</v>
       </c>
@@ -22749,42 +22749,42 @@
         <v>52</v>
       </c>
       <c r="C106" s="24"/>
-      <c r="D106" s="74" t="s">
+      <c r="D106" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
       <c r="G106" s="20"/>
-      <c r="H106" s="74" t="s">
+      <c r="H106" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I106" s="74"/>
-      <c r="J106" s="74"/>
-      <c r="K106" s="74" t="s">
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L106" s="74"/>
-      <c r="M106" s="74"/>
-      <c r="N106" s="74" t="s">
+      <c r="L106" s="88"/>
+      <c r="M106" s="88"/>
+      <c r="N106" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O106" s="74"/>
-      <c r="P106" s="74"/>
-      <c r="Q106" s="74" t="s">
+      <c r="O106" s="88"/>
+      <c r="P106" s="88"/>
+      <c r="Q106" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R106" s="74"/>
-      <c r="S106" s="74"/>
-      <c r="T106" s="74" t="s">
+      <c r="R106" s="88"/>
+      <c r="S106" s="88"/>
+      <c r="T106" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="U106" s="74"/>
-      <c r="V106" s="74"/>
-      <c r="W106" s="74" t="s">
+      <c r="U106" s="88"/>
+      <c r="V106" s="88"/>
+      <c r="W106" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X106" s="74"/>
-      <c r="Y106" s="74"/>
+      <c r="X106" s="88"/>
+      <c r="Y106" s="88"/>
       <c r="AA106" s="4" t="s">
         <v>59</v>
       </c>
@@ -24912,78 +24912,78 @@
       </c>
     </row>
     <row r="119" spans="2:48" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B119" s="75" t="s">
+      <c r="B119" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="C119" s="75"/>
-      <c r="D119" s="75"/>
-      <c r="E119" s="75"/>
-      <c r="F119" s="75"/>
-      <c r="G119" s="75"/>
-      <c r="H119" s="75"/>
-      <c r="I119" s="75"/>
-      <c r="J119" s="75"/>
-      <c r="K119" s="75"/>
-      <c r="L119" s="75"/>
-      <c r="M119" s="75"/>
-      <c r="N119" s="75"/>
-      <c r="O119" s="75"/>
-      <c r="P119" s="75"/>
-      <c r="Q119" s="75"/>
-      <c r="R119" s="75"/>
-      <c r="S119" s="75"/>
-      <c r="T119" s="75"/>
-      <c r="U119" s="75"/>
-      <c r="V119" s="75"/>
-      <c r="W119" s="75"/>
-      <c r="X119" s="75"/>
-      <c r="Y119" s="75"/>
-      <c r="AU119" s="83" t="s">
+      <c r="C119" s="86"/>
+      <c r="D119" s="86"/>
+      <c r="E119" s="86"/>
+      <c r="F119" s="86"/>
+      <c r="G119" s="86"/>
+      <c r="H119" s="86"/>
+      <c r="I119" s="86"/>
+      <c r="J119" s="86"/>
+      <c r="K119" s="86"/>
+      <c r="L119" s="86"/>
+      <c r="M119" s="86"/>
+      <c r="N119" s="86"/>
+      <c r="O119" s="86"/>
+      <c r="P119" s="86"/>
+      <c r="Q119" s="86"/>
+      <c r="R119" s="86"/>
+      <c r="S119" s="86"/>
+      <c r="T119" s="86"/>
+      <c r="U119" s="86"/>
+      <c r="V119" s="86"/>
+      <c r="W119" s="86"/>
+      <c r="X119" s="86"/>
+      <c r="Y119" s="86"/>
+      <c r="AU119" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="AV119" s="84"/>
+      <c r="AV119" s="79"/>
     </row>
     <row r="120" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B120" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C120" s="24"/>
-      <c r="D120" s="78" t="s">
+      <c r="D120" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E120" s="78"/>
-      <c r="F120" s="78"/>
+      <c r="E120" s="87"/>
+      <c r="F120" s="87"/>
       <c r="G120" s="20"/>
-      <c r="H120" s="74" t="s">
+      <c r="H120" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I120" s="74"/>
-      <c r="J120" s="74"/>
-      <c r="K120" s="74" t="s">
+      <c r="I120" s="88"/>
+      <c r="J120" s="88"/>
+      <c r="K120" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L120" s="74"/>
-      <c r="M120" s="74"/>
-      <c r="N120" s="74" t="s">
+      <c r="L120" s="88"/>
+      <c r="M120" s="88"/>
+      <c r="N120" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O120" s="74"/>
-      <c r="P120" s="74"/>
-      <c r="Q120" s="74" t="s">
+      <c r="O120" s="88"/>
+      <c r="P120" s="88"/>
+      <c r="Q120" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R120" s="74"/>
-      <c r="S120" s="74"/>
-      <c r="T120" s="74" t="s">
+      <c r="R120" s="88"/>
+      <c r="S120" s="88"/>
+      <c r="T120" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="U120" s="74"/>
-      <c r="V120" s="74"/>
-      <c r="W120" s="74" t="s">
+      <c r="U120" s="88"/>
+      <c r="V120" s="88"/>
+      <c r="W120" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X120" s="74"/>
-      <c r="Y120" s="74"/>
+      <c r="X120" s="88"/>
+      <c r="Y120" s="88"/>
       <c r="AA120" s="4" t="s">
         <v>59</v>
       </c>
@@ -25041,10 +25041,10 @@
       <c r="AT120" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AU120" s="89" t="s">
+      <c r="AU120" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="AV120" s="90"/>
+      <c r="AV120" s="81"/>
     </row>
     <row r="121" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B121" s="17">
@@ -25189,10 +25189,10 @@
         <f t="shared" ref="AT121:AT132" si="185">IF(D121&lt;F121,SUM(J121,M121,P121,S121,V121),SUM(H121,K121,N121,Q121,T121))</f>
         <v>75</v>
       </c>
-      <c r="AU121" s="85" t="s">
+      <c r="AU121" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AV121" s="86"/>
+      <c r="AV121" s="75"/>
     </row>
     <row r="122" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B122" s="17">
@@ -25341,10 +25341,10 @@
         <f t="shared" si="185"/>
         <v>99</v>
       </c>
-      <c r="AU122" s="85" t="s">
+      <c r="AU122" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="AV122" s="86"/>
+      <c r="AV122" s="75"/>
     </row>
     <row r="123" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B123" s="17">
@@ -25489,10 +25489,10 @@
         <f t="shared" si="185"/>
         <v>80</v>
       </c>
-      <c r="AU123" s="85" t="s">
+      <c r="AU123" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="AV123" s="86"/>
+      <c r="AV123" s="75"/>
     </row>
     <row r="124" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B124" s="17">
@@ -25641,10 +25641,10 @@
         <f t="shared" si="185"/>
         <v>96</v>
       </c>
-      <c r="AU124" s="87" t="s">
+      <c r="AU124" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="AV124" s="88"/>
+      <c r="AV124" s="77"/>
     </row>
     <row r="125" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B125" s="17">
@@ -26841,83 +26841,16 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="111">
-    <mergeCell ref="AU123:AV123"/>
-    <mergeCell ref="AU124:AV124"/>
-    <mergeCell ref="AU36:AV36"/>
-    <mergeCell ref="AU119:AV119"/>
-    <mergeCell ref="AU120:AV120"/>
-    <mergeCell ref="AU121:AV121"/>
-    <mergeCell ref="AU122:AV122"/>
-    <mergeCell ref="AU31:AV31"/>
-    <mergeCell ref="AU32:AV32"/>
-    <mergeCell ref="AU33:AV33"/>
-    <mergeCell ref="AU34:AV34"/>
-    <mergeCell ref="AU35:AV35"/>
-    <mergeCell ref="AU76:AV76"/>
-    <mergeCell ref="AU77:AV77"/>
-    <mergeCell ref="AU78:AV78"/>
-    <mergeCell ref="AU79:AV79"/>
-    <mergeCell ref="AU80:AV80"/>
-    <mergeCell ref="AU111:AV111"/>
-    <mergeCell ref="AU90:AW90"/>
-    <mergeCell ref="AX90:AZ90"/>
-    <mergeCell ref="BA90:BF90"/>
-    <mergeCell ref="BG90:BI90"/>
-    <mergeCell ref="BJ90:BL90"/>
-    <mergeCell ref="AU23:AV23"/>
-    <mergeCell ref="AU67:AV67"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AU46:AW46"/>
-    <mergeCell ref="AX46:AZ46"/>
-    <mergeCell ref="BA46:BF46"/>
-    <mergeCell ref="BG46:BI46"/>
-    <mergeCell ref="BJ46:BL46"/>
-    <mergeCell ref="AU75:AV75"/>
-    <mergeCell ref="B119:Y119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="N120:P120"/>
-    <mergeCell ref="Q120:S120"/>
-    <mergeCell ref="T120:V120"/>
-    <mergeCell ref="W120:Y120"/>
-    <mergeCell ref="B105:Y105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="W106:Y106"/>
-    <mergeCell ref="W76:Y76"/>
-    <mergeCell ref="B90:Y90"/>
-    <mergeCell ref="B91:Y91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="T92:V92"/>
-    <mergeCell ref="W92:Y92"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="T76:V76"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="T62:V62"/>
-    <mergeCell ref="W62:Y62"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
     <mergeCell ref="B75:Y75"/>
     <mergeCell ref="B46:Y46"/>
     <mergeCell ref="B47:Y47"/>
@@ -26942,16 +26875,83 @@
     <mergeCell ref="H62:J62"/>
     <mergeCell ref="K62:M62"/>
     <mergeCell ref="N62:P62"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="T62:V62"/>
+    <mergeCell ref="W62:Y62"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W76:Y76"/>
+    <mergeCell ref="B90:Y90"/>
+    <mergeCell ref="B91:Y91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="T92:V92"/>
+    <mergeCell ref="W92:Y92"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="T76:V76"/>
+    <mergeCell ref="B119:Y119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="N120:P120"/>
+    <mergeCell ref="Q120:S120"/>
+    <mergeCell ref="T120:V120"/>
+    <mergeCell ref="W120:Y120"/>
+    <mergeCell ref="B105:Y105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="W106:Y106"/>
+    <mergeCell ref="AX90:AZ90"/>
+    <mergeCell ref="BA90:BF90"/>
+    <mergeCell ref="BG90:BI90"/>
+    <mergeCell ref="BJ90:BL90"/>
+    <mergeCell ref="AU23:AV23"/>
+    <mergeCell ref="AU67:AV67"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AU46:AW46"/>
+    <mergeCell ref="AX46:AZ46"/>
+    <mergeCell ref="BA46:BF46"/>
+    <mergeCell ref="BG46:BI46"/>
+    <mergeCell ref="BJ46:BL46"/>
+    <mergeCell ref="AU75:AV75"/>
+    <mergeCell ref="AU123:AV123"/>
+    <mergeCell ref="AU124:AV124"/>
+    <mergeCell ref="AU36:AV36"/>
+    <mergeCell ref="AU119:AV119"/>
+    <mergeCell ref="AU120:AV120"/>
+    <mergeCell ref="AU121:AV121"/>
+    <mergeCell ref="AU122:AV122"/>
+    <mergeCell ref="AU31:AV31"/>
+    <mergeCell ref="AU32:AV32"/>
+    <mergeCell ref="AU33:AV33"/>
+    <mergeCell ref="AU34:AV34"/>
+    <mergeCell ref="AU35:AV35"/>
+    <mergeCell ref="AU76:AV76"/>
+    <mergeCell ref="AU77:AV77"/>
+    <mergeCell ref="AU78:AV78"/>
+    <mergeCell ref="AU79:AV79"/>
+    <mergeCell ref="AU80:AV80"/>
+    <mergeCell ref="AU111:AV111"/>
+    <mergeCell ref="AU90:AW90"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:V16">
     <cfRule type="expression" dxfId="133" priority="143">
@@ -27588,7 +27588,7 @@
   <dimension ref="B2:BM59"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="AU30" sqref="AU30:AV30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -27642,101 +27642,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="AU2" s="79" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="AU2" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="81"/>
-      <c r="AY2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="80"/>
-      <c r="BA2" s="81"/>
-      <c r="BB2" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="80"/>
-      <c r="BG2" s="81"/>
-      <c r="BH2" s="79" t="s">
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="85"/>
+      <c r="BH2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="BI2" s="80"/>
-      <c r="BJ2" s="81"/>
-      <c r="BK2" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL2" s="80"/>
-      <c r="BM2" s="81"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="85"/>
+      <c r="BK2" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL2" s="84"/>
+      <c r="BM2" s="85"/>
     </row>
     <row r="3" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74" t="s">
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74" t="s">
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74" t="s">
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74" t="s">
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74" t="s">
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
       <c r="AA3" s="4" t="s">
         <v>59</v>
       </c>
@@ -28895,32 +28895,32 @@
       </c>
     </row>
     <row r="10" spans="2:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
       <c r="AU10" s="31">
         <v>7</v>
       </c>
@@ -28999,42 +28999,42 @@
     <row r="11" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" s="24"/>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74" t="s">
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74" t="s">
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74" t="s">
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74" t="s">
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74" t="s">
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
       <c r="AA11" s="4" t="s">
         <v>59</v>
       </c>
@@ -29175,30 +29175,46 @@
         <f>IF(AB4=0,"Vencedor Q1",AB4)</f>
         <v>Brasil</v>
       </c>
-      <c r="D12" s="56"/>
+      <c r="D12" s="56">
+        <v>0</v>
+      </c>
       <c r="E12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="34">
+        <v>3</v>
+      </c>
       <c r="G12" s="21" t="str">
         <f>IF(AB7=0,"Vencedor Q4",AB7)</f>
         <v>Polônia</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="33">
+        <v>26</v>
+      </c>
       <c r="I12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="33"/>
+      <c r="J12" s="34">
+        <v>28</v>
+      </c>
+      <c r="K12" s="33">
+        <v>19</v>
+      </c>
       <c r="L12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="33"/>
+      <c r="M12" s="34">
+        <v>25</v>
+      </c>
+      <c r="N12" s="33">
+        <v>21</v>
+      </c>
       <c r="O12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="P12" s="34"/>
+      <c r="P12" s="34">
+        <v>25</v>
+      </c>
       <c r="Q12" s="33"/>
       <c r="R12" s="11" t="s">
         <v>63</v>
@@ -29211,30 +29227,30 @@
       <c r="V12" s="34"/>
       <c r="W12" s="12">
         <f>SUM(H12,K12,N12,Q12,T12)</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="X12" s="13" t="s">
         <v>63</v>
       </c>
       <c r="Y12" s="14">
         <f>SUM(J12,M12,P12,S12,V12)</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AA12" s="4">
         <f>AD12+AE12</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="4" t="str">
         <f>IF(OR(D12="",F12=""),0,IF(D12&gt;F12,C12,G12))</f>
-        <v>0</v>
+        <v>Polônia</v>
       </c>
       <c r="AC12" s="4">
         <f>IF(OR(D12="",F12=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="4">
         <f>IF(OR(D12="",F12=""),0,IF(D12&gt;F12,D12,F12))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE12" s="4">
         <f>IF(OR(D12="",F12=""),0,IF(D12&gt;F12,F12,D12))</f>
@@ -29242,7 +29258,7 @@
       </c>
       <c r="AF12" s="4">
         <f>IF(AND(AD12=3,AE12=0),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="4">
         <f>IF(AND(AD12=3,AE12=1),1,0)</f>
@@ -29254,19 +29270,19 @@
       </c>
       <c r="AI12" s="4">
         <f>IF(D12&gt;F12,SUM(H12,K12,N12,Q12,T12,),SUM(J12,M12,P12,S12,V12))</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AJ12" s="4">
         <f>IF(D12&gt;F12,SUM(J12,M12,P12,S12,V12),SUM(H12,K12,N12,Q12,T12))</f>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="4">
+        <v>66</v>
+      </c>
+      <c r="AL12" s="4" t="str">
         <f>IF(OR(D12="",F12=""),0,IF(D12&lt;F12,C12,G12))</f>
-        <v>0</v>
+        <v>Brasil</v>
       </c>
       <c r="AM12" s="4">
         <f>IF(OR(D12="",F12=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12" s="4">
         <f>IF(OR(D12="",F12=""),0,IF(D12&lt;F12,D12,F12))</f>
@@ -29274,7 +29290,7 @@
       </c>
       <c r="AO12" s="4">
         <f>IF(OR(D12="",F12=""),0,IF(D12&lt;F12,F12,D12))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12" s="4">
         <f>IF(AND(AN12=2,AO12=3),1,0)</f>
@@ -29286,15 +29302,15 @@
       </c>
       <c r="AR12" s="4">
         <f>IF(AND(AN12=0,AO12=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="4">
         <f>IF(D12&lt;F12,SUM(H12,K12,N12,Q12,T12,),SUM(J12,M12,P12,S12,V12))</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AT12" s="4">
         <f>IF(D12&lt;F12,SUM(J12,M12,P12,S12,V12),SUM(H12,K12,N12,Q12,T12))</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AU12" s="31">
         <v>9</v>
@@ -29379,35 +29395,55 @@
         <f>IF(AB5=0,"Vencedor Q2",AB5)</f>
         <v>Itália</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="56">
+        <v>3</v>
+      </c>
       <c r="E13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="34">
+        <v>1</v>
+      </c>
       <c r="G13" s="21" t="str">
         <f>IF(AB6=0,"Vencedor Q3",AB6)</f>
         <v>Eslovênia</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="33">
+        <v>25</v>
+      </c>
       <c r="I13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="33"/>
+      <c r="J13" s="34">
+        <v>22</v>
+      </c>
+      <c r="K13" s="33">
+        <v>22</v>
+      </c>
       <c r="L13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="33"/>
+      <c r="M13" s="34">
+        <v>25</v>
+      </c>
+      <c r="N13" s="33">
+        <v>25</v>
+      </c>
       <c r="O13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="33"/>
+      <c r="P13" s="34">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>25</v>
+      </c>
       <c r="R13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="S13" s="34"/>
+      <c r="S13" s="34">
+        <v>18</v>
+      </c>
       <c r="T13" s="33"/>
       <c r="U13" s="11" t="s">
         <v>63</v>
@@ -29415,34 +29451,34 @@
       <c r="V13" s="34"/>
       <c r="W13" s="12">
         <f>SUM(H13,K13,N13,Q13,T13)</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="X13" s="13" t="s">
         <v>63</v>
       </c>
       <c r="Y13" s="14">
         <f>SUM(J13,M13,P13,S13,V13)</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="AA13" s="4">
         <f>AD13+AE13</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="4" t="str">
         <f>IF(OR(D13="",F13=""),0,IF(D13&gt;F13,C13,G13))</f>
-        <v>0</v>
+        <v>Itália</v>
       </c>
       <c r="AC13" s="4">
         <f>IF(OR(D13="",F13=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="4">
         <f>IF(OR(D13="",F13=""),0,IF(D13&gt;F13,D13,F13))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE13" s="4">
         <f>IF(OR(D13="",F13=""),0,IF(D13&gt;F13,F13,D13))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="4">
         <f>IF(AND(AD13=3,AE13=0),1,0)</f>
@@ -29450,7 +29486,7 @@
       </c>
       <c r="AG13" s="4">
         <f>IF(AND(AD13=3,AE13=1),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="4">
         <f>IF(AND(AD13=3,AE13=2),1,0)</f>
@@ -29458,27 +29494,27 @@
       </c>
       <c r="AI13" s="4">
         <f>IF(D13&gt;F13,SUM(H13,K13,N13,Q13,T13,),SUM(J13,M13,P13,S13,V13))</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AJ13" s="4">
         <f>IF(D13&gt;F13,SUM(J13,M13,P13,S13,V13),SUM(H13,K13,N13,Q13,T13))</f>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="4">
+        <v>86</v>
+      </c>
+      <c r="AL13" s="4" t="str">
         <f>IF(OR(D13="",F13=""),0,IF(D13&lt;F13,C13,G13))</f>
-        <v>0</v>
+        <v>Eslovênia</v>
       </c>
       <c r="AM13" s="4">
         <f>IF(OR(D13="",F13=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="4">
         <f>IF(OR(D13="",F13=""),0,IF(D13&lt;F13,D13,F13))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13" s="4">
         <f>IF(OR(D13="",F13=""),0,IF(D13&lt;F13,F13,D13))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13" s="4">
         <f>IF(AND(AN13=2,AO13=3),1,0)</f>
@@ -29486,7 +29522,7 @@
       </c>
       <c r="AQ13" s="4">
         <f>IF(AND(AN13=1,AO13=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR13" s="4">
         <f>IF(AND(AN13=0,AO13=3),1,0)</f>
@@ -29494,11 +29530,11 @@
       </c>
       <c r="AS13" s="4">
         <f>IF(D13&lt;F13,SUM(H13,K13,N13,Q13,T13,),SUM(J13,M13,P13,S13,V13))</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="AT13" s="4">
         <f>IF(D13&lt;F13,SUM(J13,M13,P13,S13,V13),SUM(H13,K13,N13,Q13,T13))</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AU13" s="31">
         <v>10</v>
@@ -29804,32 +29840,32 @@
       </c>
     </row>
     <row r="17" spans="2:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
       <c r="AA17" s="4" t="s">
         <v>59</v>
       </c>
@@ -29965,61 +30001,61 @@
     <row r="18" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74" t="s">
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74" t="s">
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74" t="s">
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74" t="s">
+      <c r="R18" s="88"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74" t="s">
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
       <c r="AA18" s="4">
         <f>AD18+AE18</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="4" t="str">
         <f>IF(OR(D19="",F19=""),0,IF(D19&gt;F19,C19,G19))</f>
-        <v>0</v>
+        <v>Brasil</v>
       </c>
       <c r="AC18" s="4">
         <f>IF(OR(D19="",F19=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="4">
         <f>IF(OR(D19="",F19=""),0,IF(D19&gt;F19,D19,F19))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE18" s="4">
         <f>IF(OR(D19="",F19=""),0,IF(D19&gt;F19,F19,D19))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="4">
         <f>IF(AND(AD18=3,AE18=0),1,0)</f>
@@ -30027,7 +30063,7 @@
       </c>
       <c r="AG18" s="4">
         <f>IF(AND(AD18=3,AE18=1),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="4">
         <f>IF(AND(AD18=3,AE18=2),1,0)</f>
@@ -30035,27 +30071,27 @@
       </c>
       <c r="AI18" s="4">
         <f>IF(D19&gt;F19,SUM(H19,K19,N19,Q19,T19,),SUM(J19,M19,P19,S19,V19))</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AJ18" s="4">
         <f>IF(D19&gt;F19,SUM(J19,M19,P19,S19,V19),SUM(H19,K19,N19,Q19,T19))</f>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="4">
+        <v>87</v>
+      </c>
+      <c r="AL18" s="4" t="str">
         <f>IF(OR(D19="",F19=""),0,IF(D19&lt;F19,C19,G19))</f>
-        <v>0</v>
+        <v>Eslovênia</v>
       </c>
       <c r="AM18" s="4">
         <f>IF(OR(D19="",F19=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="4">
         <f>IF(OR(D19="",F19=""),0,IF(D19&lt;F19,D19,F19))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18" s="4">
         <f>IF(OR(D19="",F19=""),0,IF(D19&lt;F19,F19,D19))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP18" s="4">
         <f>IF(AND(AN18=2,AO18=3),1,0)</f>
@@ -30063,7 +30099,7 @@
       </c>
       <c r="AQ18" s="4">
         <f>IF(AND(AN18=1,AO18=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18" s="4">
         <f>IF(AND(AN18=0,AO18=3),1,0)</f>
@@ -30071,11 +30107,11 @@
       </c>
       <c r="AS18" s="4">
         <f>IF(D19&lt;F19,SUM(H19,K19,N19,Q19,T19,),SUM(J19,M19,P19,S19,V19))</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AT18" s="4">
         <f>IF(D19&lt;F19,SUM(J19,M19,P19,S19,V19),SUM(H19,K19,N19,Q19,T19))</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AU18" s="31">
         <v>15</v>
@@ -30158,37 +30194,57 @@
       </c>
       <c r="C19" s="25" t="str">
         <f>IF(AL12=0,"Perdedor S1",AL12)</f>
-        <v>Perdedor S1</v>
-      </c>
-      <c r="D19" s="56"/>
+        <v>Brasil</v>
+      </c>
+      <c r="D19" s="56">
+        <v>3</v>
+      </c>
       <c r="E19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="34">
+        <v>1</v>
+      </c>
       <c r="G19" s="21" t="str">
         <f>IF(AL13=0,"Perdedor S2",AL13)</f>
-        <v>Perdedor S2</v>
-      </c>
-      <c r="H19" s="33"/>
+        <v>Eslovênia</v>
+      </c>
+      <c r="H19" s="33">
+        <v>23</v>
+      </c>
       <c r="I19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="33"/>
+      <c r="J19" s="34">
+        <v>25</v>
+      </c>
+      <c r="K19" s="33">
+        <v>25</v>
+      </c>
       <c r="L19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="33"/>
+      <c r="M19" s="34">
+        <v>20</v>
+      </c>
+      <c r="N19" s="33">
+        <v>25</v>
+      </c>
       <c r="O19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="33"/>
+      <c r="P19" s="34">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>25</v>
+      </c>
       <c r="R19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="S19" s="34"/>
+      <c r="S19" s="34">
+        <v>19</v>
+      </c>
       <c r="T19" s="33"/>
       <c r="U19" s="11" t="s">
         <v>63</v>
@@ -30196,14 +30252,14 @@
       <c r="V19" s="34"/>
       <c r="W19" s="12">
         <f>SUM(H19,K19,N19,Q19,T19)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="X19" s="13" t="s">
         <v>63</v>
       </c>
       <c r="Y19" s="14">
         <f>SUM(J19,M19,P19,S19,V19)</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AU19" s="31">
         <v>16</v>
@@ -30439,32 +30495,32 @@
       </c>
     </row>
     <row r="23" spans="2:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
       <c r="AA23" s="4" t="s">
         <v>59</v>
       </c>
@@ -30531,57 +30587,57 @@
     <row r="24" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="74" t="s">
+      <c r="H24" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74" t="s">
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74" t="s">
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74" t="s">
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74" t="s">
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74" t="s">
+      <c r="U24" s="88"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="88"/>
       <c r="AA24" s="4">
         <f>AD24+AE24</f>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="4" t="str">
         <f>IF(OR(D25="",F25=""),0,IF(D25&gt;F25,C25,G25))</f>
-        <v>0</v>
+        <v>Polônia</v>
       </c>
       <c r="AC24" s="4">
         <f>IF(OR(D25="",F25=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="4">
         <f>IF(OR(D25="",F25=""),0,IF(D25&gt;F25,D25,F25))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE24" s="4">
         <f>IF(OR(D25="",F25=""),0,IF(D25&gt;F25,F25,D25))</f>
@@ -30589,7 +30645,7 @@
       </c>
       <c r="AF24" s="4">
         <f>IF(AND(AD24=3,AE24=0),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" s="4">
         <f>IF(AND(AD24=3,AE24=1),1,0)</f>
@@ -30601,19 +30657,19 @@
       </c>
       <c r="AI24" s="4">
         <f>IF(D25&gt;F25,SUM(H25,K25,N25,Q25,T25,),SUM(J25,M25,P25,S25,V25))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ24" s="4">
         <f>IF(D25&gt;F25,SUM(J25,M25,P25,S25,V25),SUM(H25,K25,N25,Q25,T25))</f>
-        <v>0</v>
-      </c>
-      <c r="AL24" s="4">
+        <v>55</v>
+      </c>
+      <c r="AL24" s="4" t="str">
         <f>IF(OR(D25="",F25=""),0,IF(D25&lt;F25,C25,G25))</f>
-        <v>0</v>
+        <v>Itália</v>
       </c>
       <c r="AM24" s="4">
         <f>IF(OR(D25="",F25=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24" s="4">
         <f>IF(OR(D25="",F25=""),0,IF(D25&lt;F25,D25,F25))</f>
@@ -30621,7 +30677,7 @@
       </c>
       <c r="AO24" s="4">
         <f>IF(OR(D25="",F25=""),0,IF(D25&lt;F25,F25,D25))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP24" s="4">
         <f>IF(AND(AN24=2,AO24=3),1,0)</f>
@@ -30633,15 +30689,15 @@
       </c>
       <c r="AR24" s="4">
         <f>IF(AND(AN24=0,AO24=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24" s="4">
         <f>IF(D25&lt;F25,SUM(H25,K25,N25,Q25,T25,),SUM(J25,M25,P25,S25,V25))</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AT24" s="4">
         <f>IF(D25&lt;F25,SUM(J25,M25,P25,S25,V25),SUM(H25,K25,N25,Q25,T25))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AU24" s="54"/>
       <c r="AV24" s="7" t="s">
@@ -30655,32 +30711,48 @@
       </c>
       <c r="C25" s="25" t="str">
         <f>IF(AB12=0,"Vencedor S1",AB12)</f>
-        <v>Vencedor S1</v>
-      </c>
-      <c r="D25" s="56"/>
+        <v>Polônia</v>
+      </c>
+      <c r="D25" s="56">
+        <v>3</v>
+      </c>
       <c r="E25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="34"/>
+      <c r="F25" s="34">
+        <v>0</v>
+      </c>
       <c r="G25" s="21" t="str">
         <f>IF(AB13=0,"Vencedor S2",AB13)</f>
-        <v>Vencedor S2</v>
-      </c>
-      <c r="H25" s="33"/>
+        <v>Itália</v>
+      </c>
+      <c r="H25" s="33">
+        <v>25</v>
+      </c>
       <c r="I25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="33"/>
+      <c r="J25" s="34">
+        <v>22</v>
+      </c>
+      <c r="K25" s="33">
+        <v>25</v>
+      </c>
       <c r="L25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="34"/>
-      <c r="N25" s="33"/>
+      <c r="M25" s="34">
+        <v>19</v>
+      </c>
+      <c r="N25" s="33">
+        <v>25</v>
+      </c>
       <c r="O25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="P25" s="34"/>
+      <c r="P25" s="34">
+        <v>14</v>
+      </c>
       <c r="Q25" s="33"/>
       <c r="R25" s="11" t="s">
         <v>63</v>
@@ -30693,14 +30765,14 @@
       <c r="V25" s="34"/>
       <c r="W25" s="12">
         <f>SUM(H25,K25,N25,Q25,T25)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X25" s="13" t="s">
         <v>63</v>
       </c>
       <c r="Y25" s="14">
         <f>SUM(J25,M25,P25,S25,V25)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AU25" s="55"/>
       <c r="AV25" s="7" t="s">
@@ -30768,10 +30840,10 @@
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
       <c r="Y28" s="39"/>
-      <c r="AU28" s="83" t="s">
+      <c r="AU28" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="AV28" s="84"/>
+      <c r="AV28" s="79"/>
       <c r="AW28" s="64"/>
     </row>
     <row r="29" spans="2:65" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -30780,15 +30852,15 @@
       </c>
       <c r="C29" s="48" t="str">
         <f>IF(AB24=0,"Campeão",AB24)</f>
-        <v>Campeão</v>
+        <v>Polônia</v>
       </c>
       <c r="D29" s="45"/>
       <c r="F29" s="47"/>
       <c r="G29" s="42"/>
-      <c r="AU29" s="89" t="s">
+      <c r="AU29" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="AV29" s="90"/>
+      <c r="AV29" s="81"/>
       <c r="AW29" s="65"/>
     </row>
     <row r="30" spans="2:65" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -30797,15 +30869,15 @@
       </c>
       <c r="C30" s="49" t="str">
         <f>IF(AL24=0,"Vice",AL24)</f>
-        <v>Vice</v>
+        <v>Itália</v>
       </c>
       <c r="D30" s="45"/>
       <c r="F30" s="47"/>
       <c r="G30" s="42"/>
-      <c r="AU30" s="85" t="s">
+      <c r="AU30" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AV30" s="86"/>
+      <c r="AV30" s="75"/>
       <c r="AW30" s="66"/>
     </row>
     <row r="31" spans="2:65" ht="24.75" x14ac:dyDescent="0.25">
@@ -30814,7 +30886,7 @@
       </c>
       <c r="C31" s="49" t="str">
         <f>IF(AB18=0,"Terceiro",AB18)</f>
-        <v>Terceiro</v>
+        <v>Brasil</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="41"/>
@@ -30838,10 +30910,10 @@
       <c r="W31" s="41"/>
       <c r="X31" s="41"/>
       <c r="Y31" s="41"/>
-      <c r="AU31" s="85" t="s">
+      <c r="AU31" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="AV31" s="86"/>
+      <c r="AV31" s="75"/>
       <c r="AW31" s="66"/>
     </row>
     <row r="32" spans="2:65" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30850,12 +30922,12 @@
       </c>
       <c r="C32" s="59" t="str">
         <f>IF(AL18=0,"",AL18)</f>
-        <v/>
-      </c>
-      <c r="AU32" s="85" t="s">
+        <v>Eslovênia</v>
+      </c>
+      <c r="AU32" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="AV32" s="86"/>
+      <c r="AV32" s="75"/>
       <c r="AW32" s="66"/>
     </row>
     <row r="33" spans="2:49" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30866,10 +30938,10 @@
         <f>IFERROR(VLOOKUP(SMALL($AK$34:$AK$37,1),$AK$34:$AL$37,2,FALSE),"")</f>
         <v>França</v>
       </c>
-      <c r="AU33" s="87" t="s">
+      <c r="AU33" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="AV33" s="88"/>
+      <c r="AV33" s="77"/>
       <c r="AW33" s="67"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
@@ -31241,22 +31313,23 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="AU29:AV29"/>
-    <mergeCell ref="AU30:AV30"/>
-    <mergeCell ref="AU31:AV31"/>
-    <mergeCell ref="AU32:AV32"/>
-    <mergeCell ref="AU33:AV33"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="AU23:AV23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="B23:Y23"/>
-    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B10:Y10"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="BB2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BK2:BM2"/>
     <mergeCell ref="T18:V18"/>
     <mergeCell ref="W18:Y18"/>
     <mergeCell ref="D11:F11"/>
@@ -31269,23 +31342,22 @@
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AY2:BA2"/>
-    <mergeCell ref="BB2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="BK2:BM2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B10:Y10"/>
-    <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="AU23:AV23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="B23:Y23"/>
+    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="AU29:AV29"/>
+    <mergeCell ref="AU30:AV30"/>
+    <mergeCell ref="AU31:AV31"/>
+    <mergeCell ref="AU32:AV32"/>
+    <mergeCell ref="AU33:AV33"/>
   </mergeCells>
   <conditionalFormatting sqref="T4:V7 T12:V13">
     <cfRule type="expression" dxfId="25" priority="82">
@@ -31461,6 +31533,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF2846C41E31A469E3CED25F2422E48" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0c08e4af4d80db6585ac36ba965bb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c8c20e6-817c-474f-b9c2-eb2b1ac24837" xmlns:ns4="dc8c2798-6aba-4af7-93a4-b89253b03650" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e7db2db65f9cb533b4933096bc9b657" ns3:_="" ns4:_="">
     <xsd:import namespace="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
@@ -31693,24 +31782,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A4F3B6-8EF3-43FC-AA6E-56F4B11E76F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31727,22 +31817,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>